--- a/Enfants/Présences_G_Neufchâteau_2023.xlsx
+++ b/Enfants/Présences_G_Neufchâteau_2023.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Projet opti\PlaineNeufchateau\Enfants\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05D7CC61-9605-421C-B9D1-442E884388B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3B9F17B-6388-4426-A6E0-2E3A6BC8F86D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{2E45D3B6-BA62-4BD1-9AF3-2C898B011183}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="2" xr2:uid="{2E45D3B6-BA62-4BD1-9AF3-2C898B011183}"/>
   </bookViews>
   <sheets>
     <sheet name="LISTING ROSE" sheetId="10" r:id="rId1"/>
@@ -3077,14 +3077,51 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="56" fillId="8" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="5" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3128,25 +3165,10 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3191,10 +3213,10 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3227,16 +3249,22 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="49" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3280,12 +3308,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3374,6 +3396,48 @@
     <xf numFmtId="0" fontId="54" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3386,75 +3450,11 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="8" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="5" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -19102,277 +19102,277 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="45" customHeight="1">
-      <c r="A1" s="159"/>
-      <c r="B1" s="159"/>
-      <c r="C1" s="159"/>
-      <c r="D1" s="159"/>
-      <c r="E1" s="159"/>
-      <c r="F1" s="159"/>
-      <c r="G1" s="159"/>
-      <c r="H1" s="159"/>
-      <c r="I1" s="159"/>
-      <c r="J1" s="159"/>
-      <c r="K1" s="159"/>
-      <c r="L1" s="159"/>
-      <c r="M1" s="159"/>
-      <c r="N1" s="159"/>
-      <c r="O1" s="159"/>
-      <c r="P1" s="159"/>
-      <c r="Q1" s="159"/>
-      <c r="R1" s="159"/>
-      <c r="S1" s="159"/>
-      <c r="T1" s="159"/>
-      <c r="U1" s="159"/>
-      <c r="V1" s="159"/>
-      <c r="W1" s="159"/>
-      <c r="X1" s="159"/>
-      <c r="Y1" s="159"/>
-      <c r="Z1" s="159"/>
-      <c r="AA1" s="159"/>
-      <c r="AB1" s="159"/>
-      <c r="AC1" s="159"/>
-      <c r="AD1" s="159"/>
-      <c r="AE1" s="159"/>
-      <c r="AF1" s="159"/>
-      <c r="AG1" s="159"/>
-      <c r="AH1" s="159"/>
-      <c r="AI1" s="159"/>
-      <c r="AJ1" s="159"/>
+      <c r="A1" s="163"/>
+      <c r="B1" s="163"/>
+      <c r="C1" s="163"/>
+      <c r="D1" s="163"/>
+      <c r="E1" s="163"/>
+      <c r="F1" s="163"/>
+      <c r="G1" s="163"/>
+      <c r="H1" s="163"/>
+      <c r="I1" s="163"/>
+      <c r="J1" s="163"/>
+      <c r="K1" s="163"/>
+      <c r="L1" s="163"/>
+      <c r="M1" s="163"/>
+      <c r="N1" s="163"/>
+      <c r="O1" s="163"/>
+      <c r="P1" s="163"/>
+      <c r="Q1" s="163"/>
+      <c r="R1" s="163"/>
+      <c r="S1" s="163"/>
+      <c r="T1" s="163"/>
+      <c r="U1" s="163"/>
+      <c r="V1" s="163"/>
+      <c r="W1" s="163"/>
+      <c r="X1" s="163"/>
+      <c r="Y1" s="163"/>
+      <c r="Z1" s="163"/>
+      <c r="AA1" s="163"/>
+      <c r="AB1" s="163"/>
+      <c r="AC1" s="163"/>
+      <c r="AD1" s="163"/>
+      <c r="AE1" s="163"/>
+      <c r="AF1" s="163"/>
+      <c r="AG1" s="163"/>
+      <c r="AH1" s="163"/>
+      <c r="AI1" s="163"/>
+      <c r="AJ1" s="163"/>
     </row>
     <row r="2" spans="1:37" ht="45" customHeight="1">
-      <c r="A2" s="159"/>
-      <c r="B2" s="159"/>
-      <c r="C2" s="159"/>
-      <c r="D2" s="159"/>
-      <c r="E2" s="159"/>
-      <c r="F2" s="159"/>
-      <c r="G2" s="159"/>
-      <c r="H2" s="159"/>
-      <c r="I2" s="159"/>
-      <c r="J2" s="159"/>
-      <c r="K2" s="159"/>
-      <c r="L2" s="159"/>
-      <c r="M2" s="159"/>
-      <c r="N2" s="159"/>
-      <c r="O2" s="159"/>
-      <c r="P2" s="159"/>
-      <c r="Q2" s="159"/>
-      <c r="R2" s="159"/>
-      <c r="S2" s="159"/>
-      <c r="T2" s="159"/>
-      <c r="U2" s="159"/>
-      <c r="V2" s="159"/>
-      <c r="W2" s="159"/>
-      <c r="X2" s="159"/>
-      <c r="Y2" s="159"/>
-      <c r="Z2" s="159"/>
-      <c r="AA2" s="159"/>
-      <c r="AB2" s="159"/>
-      <c r="AC2" s="159"/>
-      <c r="AD2" s="159"/>
-      <c r="AE2" s="159"/>
-      <c r="AF2" s="159"/>
-      <c r="AG2" s="159"/>
-      <c r="AH2" s="159"/>
-      <c r="AI2" s="159"/>
-      <c r="AJ2" s="159"/>
+      <c r="A2" s="163"/>
+      <c r="B2" s="163"/>
+      <c r="C2" s="163"/>
+      <c r="D2" s="163"/>
+      <c r="E2" s="163"/>
+      <c r="F2" s="163"/>
+      <c r="G2" s="163"/>
+      <c r="H2" s="163"/>
+      <c r="I2" s="163"/>
+      <c r="J2" s="163"/>
+      <c r="K2" s="163"/>
+      <c r="L2" s="163"/>
+      <c r="M2" s="163"/>
+      <c r="N2" s="163"/>
+      <c r="O2" s="163"/>
+      <c r="P2" s="163"/>
+      <c r="Q2" s="163"/>
+      <c r="R2" s="163"/>
+      <c r="S2" s="163"/>
+      <c r="T2" s="163"/>
+      <c r="U2" s="163"/>
+      <c r="V2" s="163"/>
+      <c r="W2" s="163"/>
+      <c r="X2" s="163"/>
+      <c r="Y2" s="163"/>
+      <c r="Z2" s="163"/>
+      <c r="AA2" s="163"/>
+      <c r="AB2" s="163"/>
+      <c r="AC2" s="163"/>
+      <c r="AD2" s="163"/>
+      <c r="AE2" s="163"/>
+      <c r="AF2" s="163"/>
+      <c r="AG2" s="163"/>
+      <c r="AH2" s="163"/>
+      <c r="AI2" s="163"/>
+      <c r="AJ2" s="163"/>
     </row>
     <row r="3" spans="1:37" ht="45" customHeight="1">
-      <c r="A3" s="159"/>
-      <c r="B3" s="159"/>
-      <c r="C3" s="159"/>
-      <c r="D3" s="159"/>
-      <c r="E3" s="159"/>
-      <c r="F3" s="159"/>
-      <c r="G3" s="159"/>
-      <c r="H3" s="159"/>
-      <c r="I3" s="159"/>
-      <c r="J3" s="159"/>
-      <c r="K3" s="159"/>
-      <c r="L3" s="159"/>
-      <c r="M3" s="159"/>
-      <c r="N3" s="159"/>
-      <c r="O3" s="159"/>
-      <c r="P3" s="159"/>
-      <c r="Q3" s="159"/>
-      <c r="R3" s="159"/>
-      <c r="S3" s="159"/>
-      <c r="T3" s="159"/>
-      <c r="U3" s="159"/>
-      <c r="V3" s="159"/>
-      <c r="W3" s="159"/>
-      <c r="X3" s="159"/>
-      <c r="Y3" s="159"/>
-      <c r="Z3" s="159"/>
-      <c r="AA3" s="159"/>
-      <c r="AB3" s="159"/>
-      <c r="AC3" s="159"/>
-      <c r="AD3" s="159"/>
-      <c r="AE3" s="159"/>
-      <c r="AF3" s="159"/>
-      <c r="AG3" s="159"/>
-      <c r="AH3" s="159"/>
-      <c r="AI3" s="159"/>
-      <c r="AJ3" s="159"/>
+      <c r="A3" s="163"/>
+      <c r="B3" s="163"/>
+      <c r="C3" s="163"/>
+      <c r="D3" s="163"/>
+      <c r="E3" s="163"/>
+      <c r="F3" s="163"/>
+      <c r="G3" s="163"/>
+      <c r="H3" s="163"/>
+      <c r="I3" s="163"/>
+      <c r="J3" s="163"/>
+      <c r="K3" s="163"/>
+      <c r="L3" s="163"/>
+      <c r="M3" s="163"/>
+      <c r="N3" s="163"/>
+      <c r="O3" s="163"/>
+      <c r="P3" s="163"/>
+      <c r="Q3" s="163"/>
+      <c r="R3" s="163"/>
+      <c r="S3" s="163"/>
+      <c r="T3" s="163"/>
+      <c r="U3" s="163"/>
+      <c r="V3" s="163"/>
+      <c r="W3" s="163"/>
+      <c r="X3" s="163"/>
+      <c r="Y3" s="163"/>
+      <c r="Z3" s="163"/>
+      <c r="AA3" s="163"/>
+      <c r="AB3" s="163"/>
+      <c r="AC3" s="163"/>
+      <c r="AD3" s="163"/>
+      <c r="AE3" s="163"/>
+      <c r="AF3" s="163"/>
+      <c r="AG3" s="163"/>
+      <c r="AH3" s="163"/>
+      <c r="AI3" s="163"/>
+      <c r="AJ3" s="163"/>
     </row>
     <row r="4" spans="1:37" ht="45" customHeight="1">
-      <c r="A4" s="159"/>
-      <c r="B4" s="159"/>
-      <c r="C4" s="159"/>
-      <c r="D4" s="159"/>
-      <c r="E4" s="159"/>
-      <c r="F4" s="159"/>
-      <c r="G4" s="159"/>
-      <c r="H4" s="159"/>
-      <c r="I4" s="159"/>
-      <c r="J4" s="159"/>
-      <c r="K4" s="159"/>
-      <c r="L4" s="159"/>
-      <c r="M4" s="159"/>
-      <c r="N4" s="159"/>
-      <c r="O4" s="159"/>
-      <c r="P4" s="159"/>
-      <c r="Q4" s="159"/>
-      <c r="R4" s="159"/>
-      <c r="S4" s="159"/>
-      <c r="T4" s="159"/>
-      <c r="U4" s="159"/>
-      <c r="V4" s="159"/>
-      <c r="W4" s="159"/>
-      <c r="X4" s="159"/>
-      <c r="Y4" s="159"/>
-      <c r="Z4" s="159"/>
-      <c r="AA4" s="159"/>
-      <c r="AB4" s="159"/>
-      <c r="AC4" s="159"/>
-      <c r="AD4" s="159"/>
-      <c r="AE4" s="159"/>
-      <c r="AF4" s="159"/>
-      <c r="AG4" s="159"/>
-      <c r="AH4" s="159"/>
-      <c r="AI4" s="159"/>
-      <c r="AJ4" s="159"/>
+      <c r="A4" s="163"/>
+      <c r="B4" s="163"/>
+      <c r="C4" s="163"/>
+      <c r="D4" s="163"/>
+      <c r="E4" s="163"/>
+      <c r="F4" s="163"/>
+      <c r="G4" s="163"/>
+      <c r="H4" s="163"/>
+      <c r="I4" s="163"/>
+      <c r="J4" s="163"/>
+      <c r="K4" s="163"/>
+      <c r="L4" s="163"/>
+      <c r="M4" s="163"/>
+      <c r="N4" s="163"/>
+      <c r="O4" s="163"/>
+      <c r="P4" s="163"/>
+      <c r="Q4" s="163"/>
+      <c r="R4" s="163"/>
+      <c r="S4" s="163"/>
+      <c r="T4" s="163"/>
+      <c r="U4" s="163"/>
+      <c r="V4" s="163"/>
+      <c r="W4" s="163"/>
+      <c r="X4" s="163"/>
+      <c r="Y4" s="163"/>
+      <c r="Z4" s="163"/>
+      <c r="AA4" s="163"/>
+      <c r="AB4" s="163"/>
+      <c r="AC4" s="163"/>
+      <c r="AD4" s="163"/>
+      <c r="AE4" s="163"/>
+      <c r="AF4" s="163"/>
+      <c r="AG4" s="163"/>
+      <c r="AH4" s="163"/>
+      <c r="AI4" s="163"/>
+      <c r="AJ4" s="163"/>
     </row>
     <row r="5" spans="1:37" ht="45" customHeight="1">
-      <c r="A5" s="159"/>
-      <c r="B5" s="159"/>
-      <c r="C5" s="159"/>
-      <c r="D5" s="159"/>
-      <c r="E5" s="159"/>
-      <c r="F5" s="159"/>
-      <c r="G5" s="159"/>
-      <c r="H5" s="159"/>
-      <c r="I5" s="159"/>
-      <c r="J5" s="159"/>
-      <c r="K5" s="159"/>
-      <c r="L5" s="159"/>
-      <c r="M5" s="159"/>
-      <c r="N5" s="159"/>
-      <c r="O5" s="159"/>
-      <c r="P5" s="159"/>
-      <c r="Q5" s="159"/>
-      <c r="R5" s="159"/>
-      <c r="S5" s="159"/>
-      <c r="T5" s="159"/>
-      <c r="U5" s="159"/>
-      <c r="V5" s="159"/>
-      <c r="W5" s="159"/>
-      <c r="X5" s="159"/>
-      <c r="Y5" s="159"/>
-      <c r="Z5" s="159"/>
-      <c r="AA5" s="159"/>
-      <c r="AB5" s="159"/>
-      <c r="AC5" s="159"/>
-      <c r="AD5" s="159"/>
-      <c r="AE5" s="159"/>
-      <c r="AF5" s="159"/>
-      <c r="AG5" s="159"/>
-      <c r="AH5" s="159"/>
-      <c r="AI5" s="159"/>
-      <c r="AJ5" s="159"/>
+      <c r="A5" s="163"/>
+      <c r="B5" s="163"/>
+      <c r="C5" s="163"/>
+      <c r="D5" s="163"/>
+      <c r="E5" s="163"/>
+      <c r="F5" s="163"/>
+      <c r="G5" s="163"/>
+      <c r="H5" s="163"/>
+      <c r="I5" s="163"/>
+      <c r="J5" s="163"/>
+      <c r="K5" s="163"/>
+      <c r="L5" s="163"/>
+      <c r="M5" s="163"/>
+      <c r="N5" s="163"/>
+      <c r="O5" s="163"/>
+      <c r="P5" s="163"/>
+      <c r="Q5" s="163"/>
+      <c r="R5" s="163"/>
+      <c r="S5" s="163"/>
+      <c r="T5" s="163"/>
+      <c r="U5" s="163"/>
+      <c r="V5" s="163"/>
+      <c r="W5" s="163"/>
+      <c r="X5" s="163"/>
+      <c r="Y5" s="163"/>
+      <c r="Z5" s="163"/>
+      <c r="AA5" s="163"/>
+      <c r="AB5" s="163"/>
+      <c r="AC5" s="163"/>
+      <c r="AD5" s="163"/>
+      <c r="AE5" s="163"/>
+      <c r="AF5" s="163"/>
+      <c r="AG5" s="163"/>
+      <c r="AH5" s="163"/>
+      <c r="AI5" s="163"/>
+      <c r="AJ5" s="163"/>
     </row>
     <row r="6" spans="1:37" ht="45" customHeight="1">
-      <c r="A6" s="159"/>
-      <c r="B6" s="159"/>
-      <c r="C6" s="159"/>
-      <c r="D6" s="159"/>
-      <c r="E6" s="159"/>
-      <c r="F6" s="159"/>
-      <c r="G6" s="159"/>
-      <c r="H6" s="159"/>
-      <c r="I6" s="159"/>
-      <c r="J6" s="159"/>
-      <c r="K6" s="159"/>
-      <c r="L6" s="159"/>
-      <c r="M6" s="159"/>
-      <c r="N6" s="159"/>
-      <c r="O6" s="159"/>
-      <c r="P6" s="159"/>
-      <c r="Q6" s="159"/>
-      <c r="R6" s="159"/>
-      <c r="S6" s="159"/>
-      <c r="T6" s="159"/>
-      <c r="U6" s="159"/>
-      <c r="V6" s="159"/>
-      <c r="W6" s="159"/>
-      <c r="X6" s="159"/>
-      <c r="Y6" s="159"/>
-      <c r="Z6" s="159"/>
-      <c r="AA6" s="159"/>
-      <c r="AB6" s="159"/>
-      <c r="AC6" s="159"/>
-      <c r="AD6" s="159"/>
-      <c r="AE6" s="159"/>
-      <c r="AF6" s="159"/>
-      <c r="AG6" s="159"/>
-      <c r="AH6" s="159"/>
-      <c r="AI6" s="159"/>
-      <c r="AJ6" s="159"/>
+      <c r="A6" s="163"/>
+      <c r="B6" s="163"/>
+      <c r="C6" s="163"/>
+      <c r="D6" s="163"/>
+      <c r="E6" s="163"/>
+      <c r="F6" s="163"/>
+      <c r="G6" s="163"/>
+      <c r="H6" s="163"/>
+      <c r="I6" s="163"/>
+      <c r="J6" s="163"/>
+      <c r="K6" s="163"/>
+      <c r="L6" s="163"/>
+      <c r="M6" s="163"/>
+      <c r="N6" s="163"/>
+      <c r="O6" s="163"/>
+      <c r="P6" s="163"/>
+      <c r="Q6" s="163"/>
+      <c r="R6" s="163"/>
+      <c r="S6" s="163"/>
+      <c r="T6" s="163"/>
+      <c r="U6" s="163"/>
+      <c r="V6" s="163"/>
+      <c r="W6" s="163"/>
+      <c r="X6" s="163"/>
+      <c r="Y6" s="163"/>
+      <c r="Z6" s="163"/>
+      <c r="AA6" s="163"/>
+      <c r="AB6" s="163"/>
+      <c r="AC6" s="163"/>
+      <c r="AD6" s="163"/>
+      <c r="AE6" s="163"/>
+      <c r="AF6" s="163"/>
+      <c r="AG6" s="163"/>
+      <c r="AH6" s="163"/>
+      <c r="AI6" s="163"/>
+      <c r="AJ6" s="163"/>
     </row>
     <row r="7" spans="1:37" ht="45" customHeight="1" thickBot="1">
-      <c r="A7" s="159"/>
-      <c r="B7" s="159"/>
-      <c r="C7" s="159"/>
-      <c r="D7" s="159"/>
-      <c r="E7" s="159"/>
-      <c r="F7" s="159"/>
-      <c r="G7" s="159"/>
-      <c r="H7" s="159"/>
-      <c r="I7" s="159"/>
-      <c r="J7" s="159"/>
-      <c r="K7" s="159"/>
-      <c r="L7" s="159"/>
-      <c r="M7" s="159"/>
-      <c r="N7" s="159"/>
-      <c r="O7" s="159"/>
-      <c r="P7" s="159"/>
-      <c r="Q7" s="159"/>
-      <c r="R7" s="159"/>
-      <c r="S7" s="159"/>
-      <c r="T7" s="159"/>
-      <c r="U7" s="159"/>
-      <c r="V7" s="159"/>
-      <c r="W7" s="159"/>
-      <c r="X7" s="159"/>
-      <c r="Y7" s="159"/>
-      <c r="Z7" s="159"/>
-      <c r="AA7" s="159"/>
-      <c r="AB7" s="159"/>
-      <c r="AC7" s="159"/>
-      <c r="AD7" s="159"/>
-      <c r="AE7" s="159"/>
-      <c r="AF7" s="159"/>
-      <c r="AG7" s="159"/>
-      <c r="AH7" s="159"/>
-      <c r="AI7" s="159"/>
-      <c r="AJ7" s="159"/>
+      <c r="A7" s="163"/>
+      <c r="B7" s="163"/>
+      <c r="C7" s="163"/>
+      <c r="D7" s="163"/>
+      <c r="E7" s="163"/>
+      <c r="F7" s="163"/>
+      <c r="G7" s="163"/>
+      <c r="H7" s="163"/>
+      <c r="I7" s="163"/>
+      <c r="J7" s="163"/>
+      <c r="K7" s="163"/>
+      <c r="L7" s="163"/>
+      <c r="M7" s="163"/>
+      <c r="N7" s="163"/>
+      <c r="O7" s="163"/>
+      <c r="P7" s="163"/>
+      <c r="Q7" s="163"/>
+      <c r="R7" s="163"/>
+      <c r="S7" s="163"/>
+      <c r="T7" s="163"/>
+      <c r="U7" s="163"/>
+      <c r="V7" s="163"/>
+      <c r="W7" s="163"/>
+      <c r="X7" s="163"/>
+      <c r="Y7" s="163"/>
+      <c r="Z7" s="163"/>
+      <c r="AA7" s="163"/>
+      <c r="AB7" s="163"/>
+      <c r="AC7" s="163"/>
+      <c r="AD7" s="163"/>
+      <c r="AE7" s="163"/>
+      <c r="AF7" s="163"/>
+      <c r="AG7" s="163"/>
+      <c r="AH7" s="163"/>
+      <c r="AI7" s="163"/>
+      <c r="AJ7" s="163"/>
     </row>
     <row r="8" spans="1:37" ht="49.95" customHeight="1" thickBot="1">
       <c r="A8" s="90"/>
-      <c r="B8" s="176" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="177"/>
+      <c r="B8" s="166" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="167"/>
       <c r="D8" s="14"/>
       <c r="E8" s="15" t="s">
         <v>133</v>
@@ -19381,34 +19381,34 @@
       <c r="G8" s="17"/>
       <c r="H8" s="17"/>
       <c r="I8" s="18"/>
-      <c r="J8" s="178"/>
-      <c r="K8" s="179"/>
-      <c r="L8" s="180"/>
-      <c r="M8" s="174" t="s">
+      <c r="J8" s="168"/>
+      <c r="K8" s="169"/>
+      <c r="L8" s="170"/>
+      <c r="M8" s="164" t="s">
         <v>135</v>
       </c>
-      <c r="N8" s="175"/>
-      <c r="O8" s="175"/>
-      <c r="P8" s="175"/>
-      <c r="Q8" s="175"/>
-      <c r="R8" s="175"/>
-      <c r="S8" s="175"/>
-      <c r="T8" s="175"/>
-      <c r="U8" s="175"/>
-      <c r="V8" s="175"/>
-      <c r="W8" s="175"/>
-      <c r="X8" s="175"/>
-      <c r="Y8" s="175"/>
-      <c r="Z8" s="175"/>
-      <c r="AA8" s="175"/>
-      <c r="AB8" s="175"/>
-      <c r="AC8" s="175"/>
-      <c r="AD8" s="175"/>
-      <c r="AE8" s="175"/>
-      <c r="AF8" s="175"/>
-      <c r="AG8" s="175"/>
-      <c r="AH8" s="175"/>
-      <c r="AI8" s="175"/>
+      <c r="N8" s="165"/>
+      <c r="O8" s="165"/>
+      <c r="P8" s="165"/>
+      <c r="Q8" s="165"/>
+      <c r="R8" s="165"/>
+      <c r="S8" s="165"/>
+      <c r="T8" s="165"/>
+      <c r="U8" s="165"/>
+      <c r="V8" s="165"/>
+      <c r="W8" s="165"/>
+      <c r="X8" s="165"/>
+      <c r="Y8" s="165"/>
+      <c r="Z8" s="165"/>
+      <c r="AA8" s="165"/>
+      <c r="AB8" s="165"/>
+      <c r="AC8" s="165"/>
+      <c r="AD8" s="165"/>
+      <c r="AE8" s="165"/>
+      <c r="AF8" s="165"/>
+      <c r="AG8" s="165"/>
+      <c r="AH8" s="165"/>
+      <c r="AI8" s="165"/>
       <c r="AJ8" s="12"/>
       <c r="AK8" s="15" t="s">
         <v>136</v>
@@ -19416,82 +19416,82 @@
     </row>
     <row r="9" spans="1:37" ht="49.95" customHeight="1" thickBot="1">
       <c r="A9" s="91"/>
-      <c r="B9" s="172" t="s">
+      <c r="B9" s="185" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="168" t="s">
+      <c r="C9" s="181" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="168" t="s">
+      <c r="D9" s="181" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="168" t="s">
+      <c r="E9" s="181" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="168" t="s">
+      <c r="F9" s="181" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="170" t="s">
+      <c r="G9" s="183" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="168" t="s">
+      <c r="H9" s="181" t="s">
         <v>7</v>
       </c>
-      <c r="I9" s="170" t="s">
+      <c r="I9" s="183" t="s">
         <v>8</v>
       </c>
-      <c r="J9" s="170" t="s">
+      <c r="J9" s="183" t="s">
         <v>9</v>
       </c>
-      <c r="K9" s="170" t="s">
+      <c r="K9" s="183" t="s">
         <v>10</v>
       </c>
-      <c r="L9" s="166" t="s">
+      <c r="L9" s="179" t="s">
         <v>11</v>
       </c>
-      <c r="M9" s="161" t="s">
+      <c r="M9" s="174" t="s">
         <v>12</v>
       </c>
-      <c r="N9" s="160"/>
-      <c r="O9" s="160"/>
-      <c r="P9" s="160"/>
-      <c r="Q9" s="160"/>
-      <c r="R9" s="160"/>
-      <c r="S9" s="160"/>
-      <c r="T9" s="160"/>
-      <c r="U9" s="160"/>
-      <c r="V9" s="160"/>
-      <c r="W9" s="162"/>
-      <c r="X9" s="160"/>
-      <c r="Y9" s="160"/>
-      <c r="Z9" s="160"/>
-      <c r="AA9" s="160"/>
-      <c r="AB9" s="160"/>
-      <c r="AC9" s="160"/>
-      <c r="AD9" s="160"/>
-      <c r="AE9" s="160"/>
-      <c r="AF9" s="160"/>
-      <c r="AG9" s="160"/>
-      <c r="AH9" s="160"/>
-      <c r="AI9" s="160"/>
+      <c r="N9" s="173"/>
+      <c r="O9" s="173"/>
+      <c r="P9" s="173"/>
+      <c r="Q9" s="173"/>
+      <c r="R9" s="173"/>
+      <c r="S9" s="173"/>
+      <c r="T9" s="173"/>
+      <c r="U9" s="173"/>
+      <c r="V9" s="173"/>
+      <c r="W9" s="175"/>
+      <c r="X9" s="173"/>
+      <c r="Y9" s="173"/>
+      <c r="Z9" s="173"/>
+      <c r="AA9" s="173"/>
+      <c r="AB9" s="173"/>
+      <c r="AC9" s="173"/>
+      <c r="AD9" s="173"/>
+      <c r="AE9" s="173"/>
+      <c r="AF9" s="173"/>
+      <c r="AG9" s="173"/>
+      <c r="AH9" s="173"/>
+      <c r="AI9" s="173"/>
       <c r="AJ9" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="AK9" s="157"/>
+      <c r="AK9" s="171"/>
     </row>
     <row r="10" spans="1:37" ht="49.95" customHeight="1" thickBot="1">
       <c r="A10" s="92"/>
-      <c r="B10" s="173"/>
-      <c r="C10" s="169"/>
-      <c r="D10" s="169"/>
-      <c r="E10" s="169"/>
-      <c r="F10" s="169"/>
-      <c r="G10" s="171"/>
-      <c r="H10" s="169"/>
-      <c r="I10" s="171"/>
-      <c r="J10" s="171"/>
-      <c r="K10" s="171"/>
-      <c r="L10" s="167"/>
+      <c r="B10" s="186"/>
+      <c r="C10" s="182"/>
+      <c r="D10" s="182"/>
+      <c r="E10" s="182"/>
+      <c r="F10" s="182"/>
+      <c r="G10" s="184"/>
+      <c r="H10" s="182"/>
+      <c r="I10" s="184"/>
+      <c r="J10" s="184"/>
+      <c r="K10" s="184"/>
+      <c r="L10" s="180"/>
       <c r="M10" s="4" t="s">
         <v>14</v>
       </c>
@@ -19564,7 +19564,7 @@
       <c r="AJ10" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="AK10" s="158"/>
+      <c r="AK10" s="172"/>
     </row>
     <row r="11" spans="1:37" ht="64.95" customHeight="1" thickBot="1">
       <c r="A11" s="93" t="s">
@@ -21394,19 +21394,19 @@
     </row>
     <row r="52" spans="1:37" s="99" customFormat="1" ht="45" customHeight="1" thickBot="1">
       <c r="A52" s="95"/>
-      <c r="B52" s="163" t="s">
+      <c r="B52" s="176" t="s">
         <v>29</v>
       </c>
-      <c r="C52" s="164"/>
-      <c r="D52" s="164"/>
-      <c r="E52" s="164"/>
-      <c r="F52" s="164"/>
-      <c r="G52" s="164"/>
-      <c r="H52" s="164"/>
-      <c r="I52" s="164"/>
-      <c r="J52" s="164"/>
-      <c r="K52" s="164"/>
-      <c r="L52" s="165"/>
+      <c r="C52" s="177"/>
+      <c r="D52" s="177"/>
+      <c r="E52" s="177"/>
+      <c r="F52" s="177"/>
+      <c r="G52" s="177"/>
+      <c r="H52" s="177"/>
+      <c r="I52" s="177"/>
+      <c r="J52" s="177"/>
+      <c r="K52" s="177"/>
+      <c r="L52" s="178"/>
       <c r="M52" s="96">
         <f>COUNTA(M12:M51)</f>
         <v>0</v>
@@ -21500,49 +21500,44 @@
       <c r="AK52" s="85"/>
     </row>
     <row r="53" spans="1:37" ht="14.4">
-      <c r="A53" s="159"/>
-      <c r="B53" s="159"/>
-      <c r="C53" s="159"/>
-      <c r="D53" s="159"/>
-      <c r="E53" s="159"/>
-      <c r="F53" s="159"/>
-      <c r="G53" s="159"/>
-      <c r="H53" s="159"/>
-      <c r="I53" s="159"/>
-      <c r="J53" s="159"/>
-      <c r="K53" s="159"/>
-      <c r="L53" s="159"/>
-      <c r="M53" s="159"/>
-      <c r="N53" s="159"/>
-      <c r="O53" s="159"/>
-      <c r="P53" s="159"/>
-      <c r="Q53" s="159"/>
-      <c r="R53" s="159"/>
-      <c r="S53" s="159"/>
-      <c r="T53" s="159"/>
-      <c r="U53" s="159"/>
-      <c r="V53" s="159"/>
-      <c r="W53" s="159"/>
-      <c r="X53" s="159"/>
-      <c r="Y53" s="159"/>
-      <c r="Z53" s="159"/>
-      <c r="AA53" s="159"/>
-      <c r="AB53" s="159"/>
-      <c r="AC53" s="159"/>
-      <c r="AD53" s="159"/>
-      <c r="AE53" s="159"/>
-      <c r="AF53" s="159"/>
-      <c r="AG53" s="159"/>
-      <c r="AH53" s="159"/>
-      <c r="AI53" s="159"/>
+      <c r="A53" s="163"/>
+      <c r="B53" s="163"/>
+      <c r="C53" s="163"/>
+      <c r="D53" s="163"/>
+      <c r="E53" s="163"/>
+      <c r="F53" s="163"/>
+      <c r="G53" s="163"/>
+      <c r="H53" s="163"/>
+      <c r="I53" s="163"/>
+      <c r="J53" s="163"/>
+      <c r="K53" s="163"/>
+      <c r="L53" s="163"/>
+      <c r="M53" s="163"/>
+      <c r="N53" s="163"/>
+      <c r="O53" s="163"/>
+      <c r="P53" s="163"/>
+      <c r="Q53" s="163"/>
+      <c r="R53" s="163"/>
+      <c r="S53" s="163"/>
+      <c r="T53" s="163"/>
+      <c r="U53" s="163"/>
+      <c r="V53" s="163"/>
+      <c r="W53" s="163"/>
+      <c r="X53" s="163"/>
+      <c r="Y53" s="163"/>
+      <c r="Z53" s="163"/>
+      <c r="AA53" s="163"/>
+      <c r="AB53" s="163"/>
+      <c r="AC53" s="163"/>
+      <c r="AD53" s="163"/>
+      <c r="AE53" s="163"/>
+      <c r="AF53" s="163"/>
+      <c r="AG53" s="163"/>
+      <c r="AH53" s="163"/>
+      <c r="AI53" s="163"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="AJ1:AJ7"/>
-    <mergeCell ref="A1:AI7"/>
-    <mergeCell ref="M8:AI8"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="J8:L8"/>
     <mergeCell ref="AK9:AK10"/>
     <mergeCell ref="A53:AI53"/>
     <mergeCell ref="X9:AI9"/>
@@ -21559,6 +21554,11 @@
     <mergeCell ref="E9:E10"/>
     <mergeCell ref="J9:J10"/>
     <mergeCell ref="K9:K10"/>
+    <mergeCell ref="AJ1:AJ7"/>
+    <mergeCell ref="A1:AI7"/>
+    <mergeCell ref="M8:AI8"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="J8:L8"/>
   </mergeCells>
   <conditionalFormatting sqref="M11:AI52 E12:K51">
     <cfRule type="containsBlanks" dxfId="12" priority="12">
@@ -21635,277 +21635,277 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="45" customHeight="1">
-      <c r="A1" s="159"/>
-      <c r="B1" s="159"/>
-      <c r="C1" s="159"/>
-      <c r="D1" s="159"/>
-      <c r="E1" s="159"/>
-      <c r="F1" s="159"/>
-      <c r="G1" s="159"/>
-      <c r="H1" s="159"/>
-      <c r="I1" s="159"/>
-      <c r="J1" s="159"/>
-      <c r="K1" s="159"/>
-      <c r="L1" s="159"/>
-      <c r="M1" s="159"/>
-      <c r="N1" s="159"/>
-      <c r="O1" s="159"/>
-      <c r="P1" s="159"/>
-      <c r="Q1" s="159"/>
-      <c r="R1" s="159"/>
-      <c r="S1" s="159"/>
-      <c r="T1" s="159"/>
-      <c r="U1" s="159"/>
-      <c r="V1" s="159"/>
-      <c r="W1" s="159"/>
-      <c r="X1" s="159"/>
-      <c r="Y1" s="159"/>
-      <c r="Z1" s="159"/>
-      <c r="AA1" s="159"/>
-      <c r="AB1" s="159"/>
-      <c r="AC1" s="159"/>
-      <c r="AD1" s="159"/>
-      <c r="AE1" s="159"/>
-      <c r="AF1" s="159"/>
-      <c r="AG1" s="159"/>
-      <c r="AH1" s="159"/>
-      <c r="AI1" s="159"/>
-      <c r="AJ1" s="159"/>
+      <c r="A1" s="163"/>
+      <c r="B1" s="163"/>
+      <c r="C1" s="163"/>
+      <c r="D1" s="163"/>
+      <c r="E1" s="163"/>
+      <c r="F1" s="163"/>
+      <c r="G1" s="163"/>
+      <c r="H1" s="163"/>
+      <c r="I1" s="163"/>
+      <c r="J1" s="163"/>
+      <c r="K1" s="163"/>
+      <c r="L1" s="163"/>
+      <c r="M1" s="163"/>
+      <c r="N1" s="163"/>
+      <c r="O1" s="163"/>
+      <c r="P1" s="163"/>
+      <c r="Q1" s="163"/>
+      <c r="R1" s="163"/>
+      <c r="S1" s="163"/>
+      <c r="T1" s="163"/>
+      <c r="U1" s="163"/>
+      <c r="V1" s="163"/>
+      <c r="W1" s="163"/>
+      <c r="X1" s="163"/>
+      <c r="Y1" s="163"/>
+      <c r="Z1" s="163"/>
+      <c r="AA1" s="163"/>
+      <c r="AB1" s="163"/>
+      <c r="AC1" s="163"/>
+      <c r="AD1" s="163"/>
+      <c r="AE1" s="163"/>
+      <c r="AF1" s="163"/>
+      <c r="AG1" s="163"/>
+      <c r="AH1" s="163"/>
+      <c r="AI1" s="163"/>
+      <c r="AJ1" s="163"/>
     </row>
     <row r="2" spans="1:37" ht="45" customHeight="1">
-      <c r="A2" s="159"/>
-      <c r="B2" s="159"/>
-      <c r="C2" s="159"/>
-      <c r="D2" s="159"/>
-      <c r="E2" s="159"/>
-      <c r="F2" s="159"/>
-      <c r="G2" s="159"/>
-      <c r="H2" s="159"/>
-      <c r="I2" s="159"/>
-      <c r="J2" s="159"/>
-      <c r="K2" s="159"/>
-      <c r="L2" s="159"/>
-      <c r="M2" s="159"/>
-      <c r="N2" s="159"/>
-      <c r="O2" s="159"/>
-      <c r="P2" s="159"/>
-      <c r="Q2" s="159"/>
-      <c r="R2" s="159"/>
-      <c r="S2" s="159"/>
-      <c r="T2" s="159"/>
-      <c r="U2" s="159"/>
-      <c r="V2" s="159"/>
-      <c r="W2" s="159"/>
-      <c r="X2" s="159"/>
-      <c r="Y2" s="159"/>
-      <c r="Z2" s="159"/>
-      <c r="AA2" s="159"/>
-      <c r="AB2" s="159"/>
-      <c r="AC2" s="159"/>
-      <c r="AD2" s="159"/>
-      <c r="AE2" s="159"/>
-      <c r="AF2" s="159"/>
-      <c r="AG2" s="159"/>
-      <c r="AH2" s="159"/>
-      <c r="AI2" s="159"/>
-      <c r="AJ2" s="159"/>
+      <c r="A2" s="163"/>
+      <c r="B2" s="163"/>
+      <c r="C2" s="163"/>
+      <c r="D2" s="163"/>
+      <c r="E2" s="163"/>
+      <c r="F2" s="163"/>
+      <c r="G2" s="163"/>
+      <c r="H2" s="163"/>
+      <c r="I2" s="163"/>
+      <c r="J2" s="163"/>
+      <c r="K2" s="163"/>
+      <c r="L2" s="163"/>
+      <c r="M2" s="163"/>
+      <c r="N2" s="163"/>
+      <c r="O2" s="163"/>
+      <c r="P2" s="163"/>
+      <c r="Q2" s="163"/>
+      <c r="R2" s="163"/>
+      <c r="S2" s="163"/>
+      <c r="T2" s="163"/>
+      <c r="U2" s="163"/>
+      <c r="V2" s="163"/>
+      <c r="W2" s="163"/>
+      <c r="X2" s="163"/>
+      <c r="Y2" s="163"/>
+      <c r="Z2" s="163"/>
+      <c r="AA2" s="163"/>
+      <c r="AB2" s="163"/>
+      <c r="AC2" s="163"/>
+      <c r="AD2" s="163"/>
+      <c r="AE2" s="163"/>
+      <c r="AF2" s="163"/>
+      <c r="AG2" s="163"/>
+      <c r="AH2" s="163"/>
+      <c r="AI2" s="163"/>
+      <c r="AJ2" s="163"/>
     </row>
     <row r="3" spans="1:37" ht="45" customHeight="1">
-      <c r="A3" s="159"/>
-      <c r="B3" s="159"/>
-      <c r="C3" s="159"/>
-      <c r="D3" s="159"/>
-      <c r="E3" s="159"/>
-      <c r="F3" s="159"/>
-      <c r="G3" s="159"/>
-      <c r="H3" s="159"/>
-      <c r="I3" s="159"/>
-      <c r="J3" s="159"/>
-      <c r="K3" s="159"/>
-      <c r="L3" s="159"/>
-      <c r="M3" s="159"/>
-      <c r="N3" s="159"/>
-      <c r="O3" s="159"/>
-      <c r="P3" s="159"/>
-      <c r="Q3" s="159"/>
-      <c r="R3" s="159"/>
-      <c r="S3" s="159"/>
-      <c r="T3" s="159"/>
-      <c r="U3" s="159"/>
-      <c r="V3" s="159"/>
-      <c r="W3" s="159"/>
-      <c r="X3" s="159"/>
-      <c r="Y3" s="159"/>
-      <c r="Z3" s="159"/>
-      <c r="AA3" s="159"/>
-      <c r="AB3" s="159"/>
-      <c r="AC3" s="159"/>
-      <c r="AD3" s="159"/>
-      <c r="AE3" s="159"/>
-      <c r="AF3" s="159"/>
-      <c r="AG3" s="159"/>
-      <c r="AH3" s="159"/>
-      <c r="AI3" s="159"/>
-      <c r="AJ3" s="159"/>
+      <c r="A3" s="163"/>
+      <c r="B3" s="163"/>
+      <c r="C3" s="163"/>
+      <c r="D3" s="163"/>
+      <c r="E3" s="163"/>
+      <c r="F3" s="163"/>
+      <c r="G3" s="163"/>
+      <c r="H3" s="163"/>
+      <c r="I3" s="163"/>
+      <c r="J3" s="163"/>
+      <c r="K3" s="163"/>
+      <c r="L3" s="163"/>
+      <c r="M3" s="163"/>
+      <c r="N3" s="163"/>
+      <c r="O3" s="163"/>
+      <c r="P3" s="163"/>
+      <c r="Q3" s="163"/>
+      <c r="R3" s="163"/>
+      <c r="S3" s="163"/>
+      <c r="T3" s="163"/>
+      <c r="U3" s="163"/>
+      <c r="V3" s="163"/>
+      <c r="W3" s="163"/>
+      <c r="X3" s="163"/>
+      <c r="Y3" s="163"/>
+      <c r="Z3" s="163"/>
+      <c r="AA3" s="163"/>
+      <c r="AB3" s="163"/>
+      <c r="AC3" s="163"/>
+      <c r="AD3" s="163"/>
+      <c r="AE3" s="163"/>
+      <c r="AF3" s="163"/>
+      <c r="AG3" s="163"/>
+      <c r="AH3" s="163"/>
+      <c r="AI3" s="163"/>
+      <c r="AJ3" s="163"/>
     </row>
     <row r="4" spans="1:37" ht="45" customHeight="1">
-      <c r="A4" s="159"/>
-      <c r="B4" s="159"/>
-      <c r="C4" s="159"/>
-      <c r="D4" s="159"/>
-      <c r="E4" s="159"/>
-      <c r="F4" s="159"/>
-      <c r="G4" s="159"/>
-      <c r="H4" s="159"/>
-      <c r="I4" s="159"/>
-      <c r="J4" s="159"/>
-      <c r="K4" s="159"/>
-      <c r="L4" s="159"/>
-      <c r="M4" s="159"/>
-      <c r="N4" s="159"/>
-      <c r="O4" s="159"/>
-      <c r="P4" s="159"/>
-      <c r="Q4" s="159"/>
-      <c r="R4" s="159"/>
-      <c r="S4" s="159"/>
-      <c r="T4" s="159"/>
-      <c r="U4" s="159"/>
-      <c r="V4" s="159"/>
-      <c r="W4" s="159"/>
-      <c r="X4" s="159"/>
-      <c r="Y4" s="159"/>
-      <c r="Z4" s="159"/>
-      <c r="AA4" s="159"/>
-      <c r="AB4" s="159"/>
-      <c r="AC4" s="159"/>
-      <c r="AD4" s="159"/>
-      <c r="AE4" s="159"/>
-      <c r="AF4" s="159"/>
-      <c r="AG4" s="159"/>
-      <c r="AH4" s="159"/>
-      <c r="AI4" s="159"/>
-      <c r="AJ4" s="159"/>
+      <c r="A4" s="163"/>
+      <c r="B4" s="163"/>
+      <c r="C4" s="163"/>
+      <c r="D4" s="163"/>
+      <c r="E4" s="163"/>
+      <c r="F4" s="163"/>
+      <c r="G4" s="163"/>
+      <c r="H4" s="163"/>
+      <c r="I4" s="163"/>
+      <c r="J4" s="163"/>
+      <c r="K4" s="163"/>
+      <c r="L4" s="163"/>
+      <c r="M4" s="163"/>
+      <c r="N4" s="163"/>
+      <c r="O4" s="163"/>
+      <c r="P4" s="163"/>
+      <c r="Q4" s="163"/>
+      <c r="R4" s="163"/>
+      <c r="S4" s="163"/>
+      <c r="T4" s="163"/>
+      <c r="U4" s="163"/>
+      <c r="V4" s="163"/>
+      <c r="W4" s="163"/>
+      <c r="X4" s="163"/>
+      <c r="Y4" s="163"/>
+      <c r="Z4" s="163"/>
+      <c r="AA4" s="163"/>
+      <c r="AB4" s="163"/>
+      <c r="AC4" s="163"/>
+      <c r="AD4" s="163"/>
+      <c r="AE4" s="163"/>
+      <c r="AF4" s="163"/>
+      <c r="AG4" s="163"/>
+      <c r="AH4" s="163"/>
+      <c r="AI4" s="163"/>
+      <c r="AJ4" s="163"/>
     </row>
     <row r="5" spans="1:37" ht="45" customHeight="1">
-      <c r="A5" s="159"/>
-      <c r="B5" s="159"/>
-      <c r="C5" s="159"/>
-      <c r="D5" s="159"/>
-      <c r="E5" s="159"/>
-      <c r="F5" s="159"/>
-      <c r="G5" s="159"/>
-      <c r="H5" s="159"/>
-      <c r="I5" s="159"/>
-      <c r="J5" s="159"/>
-      <c r="K5" s="159"/>
-      <c r="L5" s="159"/>
-      <c r="M5" s="159"/>
-      <c r="N5" s="159"/>
-      <c r="O5" s="159"/>
-      <c r="P5" s="159"/>
-      <c r="Q5" s="159"/>
-      <c r="R5" s="159"/>
-      <c r="S5" s="159"/>
-      <c r="T5" s="159"/>
-      <c r="U5" s="159"/>
-      <c r="V5" s="159"/>
-      <c r="W5" s="159"/>
-      <c r="X5" s="159"/>
-      <c r="Y5" s="159"/>
-      <c r="Z5" s="159"/>
-      <c r="AA5" s="159"/>
-      <c r="AB5" s="159"/>
-      <c r="AC5" s="159"/>
-      <c r="AD5" s="159"/>
-      <c r="AE5" s="159"/>
-      <c r="AF5" s="159"/>
-      <c r="AG5" s="159"/>
-      <c r="AH5" s="159"/>
-      <c r="AI5" s="159"/>
-      <c r="AJ5" s="159"/>
+      <c r="A5" s="163"/>
+      <c r="B5" s="163"/>
+      <c r="C5" s="163"/>
+      <c r="D5" s="163"/>
+      <c r="E5" s="163"/>
+      <c r="F5" s="163"/>
+      <c r="G5" s="163"/>
+      <c r="H5" s="163"/>
+      <c r="I5" s="163"/>
+      <c r="J5" s="163"/>
+      <c r="K5" s="163"/>
+      <c r="L5" s="163"/>
+      <c r="M5" s="163"/>
+      <c r="N5" s="163"/>
+      <c r="O5" s="163"/>
+      <c r="P5" s="163"/>
+      <c r="Q5" s="163"/>
+      <c r="R5" s="163"/>
+      <c r="S5" s="163"/>
+      <c r="T5" s="163"/>
+      <c r="U5" s="163"/>
+      <c r="V5" s="163"/>
+      <c r="W5" s="163"/>
+      <c r="X5" s="163"/>
+      <c r="Y5" s="163"/>
+      <c r="Z5" s="163"/>
+      <c r="AA5" s="163"/>
+      <c r="AB5" s="163"/>
+      <c r="AC5" s="163"/>
+      <c r="AD5" s="163"/>
+      <c r="AE5" s="163"/>
+      <c r="AF5" s="163"/>
+      <c r="AG5" s="163"/>
+      <c r="AH5" s="163"/>
+      <c r="AI5" s="163"/>
+      <c r="AJ5" s="163"/>
     </row>
     <row r="6" spans="1:37" ht="45" customHeight="1">
-      <c r="A6" s="159"/>
-      <c r="B6" s="159"/>
-      <c r="C6" s="159"/>
-      <c r="D6" s="159"/>
-      <c r="E6" s="159"/>
-      <c r="F6" s="159"/>
-      <c r="G6" s="159"/>
-      <c r="H6" s="159"/>
-      <c r="I6" s="159"/>
-      <c r="J6" s="159"/>
-      <c r="K6" s="159"/>
-      <c r="L6" s="159"/>
-      <c r="M6" s="159"/>
-      <c r="N6" s="159"/>
-      <c r="O6" s="159"/>
-      <c r="P6" s="159"/>
-      <c r="Q6" s="159"/>
-      <c r="R6" s="159"/>
-      <c r="S6" s="159"/>
-      <c r="T6" s="159"/>
-      <c r="U6" s="159"/>
-      <c r="V6" s="159"/>
-      <c r="W6" s="159"/>
-      <c r="X6" s="159"/>
-      <c r="Y6" s="159"/>
-      <c r="Z6" s="159"/>
-      <c r="AA6" s="159"/>
-      <c r="AB6" s="159"/>
-      <c r="AC6" s="159"/>
-      <c r="AD6" s="159"/>
-      <c r="AE6" s="159"/>
-      <c r="AF6" s="159"/>
-      <c r="AG6" s="159"/>
-      <c r="AH6" s="159"/>
-      <c r="AI6" s="159"/>
-      <c r="AJ6" s="159"/>
+      <c r="A6" s="163"/>
+      <c r="B6" s="163"/>
+      <c r="C6" s="163"/>
+      <c r="D6" s="163"/>
+      <c r="E6" s="163"/>
+      <c r="F6" s="163"/>
+      <c r="G6" s="163"/>
+      <c r="H6" s="163"/>
+      <c r="I6" s="163"/>
+      <c r="J6" s="163"/>
+      <c r="K6" s="163"/>
+      <c r="L6" s="163"/>
+      <c r="M6" s="163"/>
+      <c r="N6" s="163"/>
+      <c r="O6" s="163"/>
+      <c r="P6" s="163"/>
+      <c r="Q6" s="163"/>
+      <c r="R6" s="163"/>
+      <c r="S6" s="163"/>
+      <c r="T6" s="163"/>
+      <c r="U6" s="163"/>
+      <c r="V6" s="163"/>
+      <c r="W6" s="163"/>
+      <c r="X6" s="163"/>
+      <c r="Y6" s="163"/>
+      <c r="Z6" s="163"/>
+      <c r="AA6" s="163"/>
+      <c r="AB6" s="163"/>
+      <c r="AC6" s="163"/>
+      <c r="AD6" s="163"/>
+      <c r="AE6" s="163"/>
+      <c r="AF6" s="163"/>
+      <c r="AG6" s="163"/>
+      <c r="AH6" s="163"/>
+      <c r="AI6" s="163"/>
+      <c r="AJ6" s="163"/>
     </row>
     <row r="7" spans="1:37" ht="45" customHeight="1" thickBot="1">
-      <c r="A7" s="159"/>
-      <c r="B7" s="159"/>
-      <c r="C7" s="159"/>
-      <c r="D7" s="159"/>
-      <c r="E7" s="159"/>
-      <c r="F7" s="159"/>
-      <c r="G7" s="159"/>
-      <c r="H7" s="159"/>
-      <c r="I7" s="159"/>
-      <c r="J7" s="159"/>
-      <c r="K7" s="159"/>
-      <c r="L7" s="159"/>
-      <c r="M7" s="159"/>
-      <c r="N7" s="159"/>
-      <c r="O7" s="159"/>
-      <c r="P7" s="159"/>
-      <c r="Q7" s="159"/>
-      <c r="R7" s="159"/>
-      <c r="S7" s="159"/>
-      <c r="T7" s="159"/>
-      <c r="U7" s="159"/>
-      <c r="V7" s="159"/>
-      <c r="W7" s="159"/>
-      <c r="X7" s="159"/>
-      <c r="Y7" s="159"/>
-      <c r="Z7" s="159"/>
-      <c r="AA7" s="159"/>
-      <c r="AB7" s="159"/>
-      <c r="AC7" s="159"/>
-      <c r="AD7" s="159"/>
-      <c r="AE7" s="159"/>
-      <c r="AF7" s="159"/>
-      <c r="AG7" s="159"/>
-      <c r="AH7" s="159"/>
-      <c r="AI7" s="159"/>
-      <c r="AJ7" s="159"/>
+      <c r="A7" s="163"/>
+      <c r="B7" s="163"/>
+      <c r="C7" s="163"/>
+      <c r="D7" s="163"/>
+      <c r="E7" s="163"/>
+      <c r="F7" s="163"/>
+      <c r="G7" s="163"/>
+      <c r="H7" s="163"/>
+      <c r="I7" s="163"/>
+      <c r="J7" s="163"/>
+      <c r="K7" s="163"/>
+      <c r="L7" s="163"/>
+      <c r="M7" s="163"/>
+      <c r="N7" s="163"/>
+      <c r="O7" s="163"/>
+      <c r="P7" s="163"/>
+      <c r="Q7" s="163"/>
+      <c r="R7" s="163"/>
+      <c r="S7" s="163"/>
+      <c r="T7" s="163"/>
+      <c r="U7" s="163"/>
+      <c r="V7" s="163"/>
+      <c r="W7" s="163"/>
+      <c r="X7" s="163"/>
+      <c r="Y7" s="163"/>
+      <c r="Z7" s="163"/>
+      <c r="AA7" s="163"/>
+      <c r="AB7" s="163"/>
+      <c r="AC7" s="163"/>
+      <c r="AD7" s="163"/>
+      <c r="AE7" s="163"/>
+      <c r="AF7" s="163"/>
+      <c r="AG7" s="163"/>
+      <c r="AH7" s="163"/>
+      <c r="AI7" s="163"/>
+      <c r="AJ7" s="163"/>
     </row>
     <row r="8" spans="1:37" ht="49.95" customHeight="1" thickBot="1">
       <c r="A8" s="90"/>
-      <c r="B8" s="195" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="196"/>
+      <c r="B8" s="187" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="188"/>
       <c r="D8" s="14"/>
       <c r="E8" s="15" t="s">
         <v>133</v>
@@ -21914,34 +21914,34 @@
       <c r="G8" s="17"/>
       <c r="H8" s="17"/>
       <c r="I8" s="18"/>
-      <c r="J8" s="178"/>
-      <c r="K8" s="179"/>
-      <c r="L8" s="180"/>
-      <c r="M8" s="174" t="s">
+      <c r="J8" s="168"/>
+      <c r="K8" s="169"/>
+      <c r="L8" s="170"/>
+      <c r="M8" s="164" t="s">
         <v>135</v>
       </c>
-      <c r="N8" s="175"/>
-      <c r="O8" s="175"/>
-      <c r="P8" s="175"/>
-      <c r="Q8" s="175"/>
-      <c r="R8" s="175"/>
-      <c r="S8" s="175"/>
-      <c r="T8" s="175"/>
-      <c r="U8" s="175"/>
-      <c r="V8" s="175"/>
-      <c r="W8" s="175"/>
-      <c r="X8" s="175"/>
-      <c r="Y8" s="175"/>
-      <c r="Z8" s="175"/>
-      <c r="AA8" s="175"/>
-      <c r="AB8" s="175"/>
-      <c r="AC8" s="175"/>
-      <c r="AD8" s="175"/>
-      <c r="AE8" s="175"/>
-      <c r="AF8" s="175"/>
-      <c r="AG8" s="175"/>
-      <c r="AH8" s="175"/>
-      <c r="AI8" s="175"/>
+      <c r="N8" s="165"/>
+      <c r="O8" s="165"/>
+      <c r="P8" s="165"/>
+      <c r="Q8" s="165"/>
+      <c r="R8" s="165"/>
+      <c r="S8" s="165"/>
+      <c r="T8" s="165"/>
+      <c r="U8" s="165"/>
+      <c r="V8" s="165"/>
+      <c r="W8" s="165"/>
+      <c r="X8" s="165"/>
+      <c r="Y8" s="165"/>
+      <c r="Z8" s="165"/>
+      <c r="AA8" s="165"/>
+      <c r="AB8" s="165"/>
+      <c r="AC8" s="165"/>
+      <c r="AD8" s="165"/>
+      <c r="AE8" s="165"/>
+      <c r="AF8" s="165"/>
+      <c r="AG8" s="165"/>
+      <c r="AH8" s="165"/>
+      <c r="AI8" s="165"/>
       <c r="AJ8" s="12"/>
       <c r="AK8" s="15" t="s">
         <v>136</v>
@@ -21949,82 +21949,82 @@
     </row>
     <row r="9" spans="1:37" ht="49.95" customHeight="1" thickBot="1">
       <c r="A9" s="91"/>
-      <c r="B9" s="193" t="s">
+      <c r="B9" s="201" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="189" t="s">
+      <c r="C9" s="197" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="189" t="s">
+      <c r="D9" s="197" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="189" t="s">
+      <c r="E9" s="197" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="189" t="s">
+      <c r="F9" s="197" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="187" t="s">
+      <c r="G9" s="195" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="189" t="s">
+      <c r="H9" s="197" t="s">
         <v>7</v>
       </c>
-      <c r="I9" s="187" t="s">
+      <c r="I9" s="195" t="s">
         <v>8</v>
       </c>
-      <c r="J9" s="187" t="s">
+      <c r="J9" s="195" t="s">
         <v>9</v>
       </c>
-      <c r="K9" s="187" t="s">
+      <c r="K9" s="195" t="s">
         <v>10</v>
       </c>
-      <c r="L9" s="191" t="s">
+      <c r="L9" s="199" t="s">
         <v>11</v>
       </c>
-      <c r="M9" s="181" t="s">
+      <c r="M9" s="189" t="s">
         <v>12</v>
       </c>
-      <c r="N9" s="182"/>
-      <c r="O9" s="182"/>
-      <c r="P9" s="182"/>
-      <c r="Q9" s="182"/>
-      <c r="R9" s="182"/>
-      <c r="S9" s="182"/>
-      <c r="T9" s="182"/>
-      <c r="U9" s="182"/>
-      <c r="V9" s="182"/>
-      <c r="W9" s="183"/>
-      <c r="X9" s="160"/>
-      <c r="Y9" s="160"/>
-      <c r="Z9" s="160"/>
-      <c r="AA9" s="160"/>
-      <c r="AB9" s="160"/>
-      <c r="AC9" s="160"/>
-      <c r="AD9" s="160"/>
-      <c r="AE9" s="160"/>
-      <c r="AF9" s="160"/>
-      <c r="AG9" s="160"/>
-      <c r="AH9" s="160"/>
-      <c r="AI9" s="160"/>
+      <c r="N9" s="190"/>
+      <c r="O9" s="190"/>
+      <c r="P9" s="190"/>
+      <c r="Q9" s="190"/>
+      <c r="R9" s="190"/>
+      <c r="S9" s="190"/>
+      <c r="T9" s="190"/>
+      <c r="U9" s="190"/>
+      <c r="V9" s="190"/>
+      <c r="W9" s="191"/>
+      <c r="X9" s="173"/>
+      <c r="Y9" s="173"/>
+      <c r="Z9" s="173"/>
+      <c r="AA9" s="173"/>
+      <c r="AB9" s="173"/>
+      <c r="AC9" s="173"/>
+      <c r="AD9" s="173"/>
+      <c r="AE9" s="173"/>
+      <c r="AF9" s="173"/>
+      <c r="AG9" s="173"/>
+      <c r="AH9" s="173"/>
+      <c r="AI9" s="173"/>
       <c r="AJ9" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="AK9" s="157"/>
+      <c r="AK9" s="171"/>
     </row>
     <row r="10" spans="1:37" ht="49.95" customHeight="1" thickBot="1">
       <c r="A10" s="92"/>
-      <c r="B10" s="194"/>
-      <c r="C10" s="190"/>
-      <c r="D10" s="190"/>
-      <c r="E10" s="190"/>
-      <c r="F10" s="190"/>
-      <c r="G10" s="188"/>
-      <c r="H10" s="190"/>
-      <c r="I10" s="188"/>
-      <c r="J10" s="188"/>
-      <c r="K10" s="188"/>
-      <c r="L10" s="192"/>
+      <c r="B10" s="202"/>
+      <c r="C10" s="198"/>
+      <c r="D10" s="198"/>
+      <c r="E10" s="198"/>
+      <c r="F10" s="198"/>
+      <c r="G10" s="196"/>
+      <c r="H10" s="198"/>
+      <c r="I10" s="196"/>
+      <c r="J10" s="196"/>
+      <c r="K10" s="196"/>
+      <c r="L10" s="200"/>
       <c r="M10" s="4" t="s">
         <v>14</v>
       </c>
@@ -22097,7 +22097,7 @@
       <c r="AJ10" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="AK10" s="158"/>
+      <c r="AK10" s="172"/>
     </row>
     <row r="11" spans="1:37" ht="64.95" customHeight="1" thickBot="1">
       <c r="A11" s="93" t="s">
@@ -23927,19 +23927,19 @@
     </row>
     <row r="52" spans="1:37" s="99" customFormat="1" ht="45" customHeight="1" thickBot="1">
       <c r="A52" s="95"/>
-      <c r="B52" s="184" t="s">
+      <c r="B52" s="192" t="s">
         <v>29</v>
       </c>
-      <c r="C52" s="185"/>
-      <c r="D52" s="185"/>
-      <c r="E52" s="185"/>
-      <c r="F52" s="185"/>
-      <c r="G52" s="185"/>
-      <c r="H52" s="185"/>
-      <c r="I52" s="185"/>
-      <c r="J52" s="185"/>
-      <c r="K52" s="185"/>
-      <c r="L52" s="186"/>
+      <c r="C52" s="193"/>
+      <c r="D52" s="193"/>
+      <c r="E52" s="193"/>
+      <c r="F52" s="193"/>
+      <c r="G52" s="193"/>
+      <c r="H52" s="193"/>
+      <c r="I52" s="193"/>
+      <c r="J52" s="193"/>
+      <c r="K52" s="193"/>
+      <c r="L52" s="194"/>
       <c r="M52" s="119">
         <f>COUNTA(M12:M51)</f>
         <v>0</v>
@@ -24033,49 +24033,44 @@
       <c r="AK52" s="85"/>
     </row>
     <row r="53" spans="1:37" ht="14.4">
-      <c r="A53" s="159"/>
-      <c r="B53" s="159"/>
-      <c r="C53" s="159"/>
-      <c r="D53" s="159"/>
-      <c r="E53" s="159"/>
-      <c r="F53" s="159"/>
-      <c r="G53" s="159"/>
-      <c r="H53" s="159"/>
-      <c r="I53" s="159"/>
-      <c r="J53" s="159"/>
-      <c r="K53" s="159"/>
-      <c r="L53" s="159"/>
-      <c r="M53" s="159"/>
-      <c r="N53" s="159"/>
-      <c r="O53" s="159"/>
-      <c r="P53" s="159"/>
-      <c r="Q53" s="159"/>
-      <c r="R53" s="159"/>
-      <c r="S53" s="159"/>
-      <c r="T53" s="159"/>
-      <c r="U53" s="159"/>
-      <c r="V53" s="159"/>
-      <c r="W53" s="159"/>
-      <c r="X53" s="159"/>
-      <c r="Y53" s="159"/>
-      <c r="Z53" s="159"/>
-      <c r="AA53" s="159"/>
-      <c r="AB53" s="159"/>
-      <c r="AC53" s="159"/>
-      <c r="AD53" s="159"/>
-      <c r="AE53" s="159"/>
-      <c r="AF53" s="159"/>
-      <c r="AG53" s="159"/>
-      <c r="AH53" s="159"/>
-      <c r="AI53" s="159"/>
+      <c r="A53" s="163"/>
+      <c r="B53" s="163"/>
+      <c r="C53" s="163"/>
+      <c r="D53" s="163"/>
+      <c r="E53" s="163"/>
+      <c r="F53" s="163"/>
+      <c r="G53" s="163"/>
+      <c r="H53" s="163"/>
+      <c r="I53" s="163"/>
+      <c r="J53" s="163"/>
+      <c r="K53" s="163"/>
+      <c r="L53" s="163"/>
+      <c r="M53" s="163"/>
+      <c r="N53" s="163"/>
+      <c r="O53" s="163"/>
+      <c r="P53" s="163"/>
+      <c r="Q53" s="163"/>
+      <c r="R53" s="163"/>
+      <c r="S53" s="163"/>
+      <c r="T53" s="163"/>
+      <c r="U53" s="163"/>
+      <c r="V53" s="163"/>
+      <c r="W53" s="163"/>
+      <c r="X53" s="163"/>
+      <c r="Y53" s="163"/>
+      <c r="Z53" s="163"/>
+      <c r="AA53" s="163"/>
+      <c r="AB53" s="163"/>
+      <c r="AC53" s="163"/>
+      <c r="AD53" s="163"/>
+      <c r="AE53" s="163"/>
+      <c r="AF53" s="163"/>
+      <c r="AG53" s="163"/>
+      <c r="AH53" s="163"/>
+      <c r="AI53" s="163"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A1:AI7"/>
-    <mergeCell ref="AJ1:AJ7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="M8:AI8"/>
     <mergeCell ref="M9:W9"/>
     <mergeCell ref="X9:AI9"/>
     <mergeCell ref="AK9:AK10"/>
@@ -24092,6 +24087,11 @@
     <mergeCell ref="D9:D10"/>
     <mergeCell ref="E9:E10"/>
     <mergeCell ref="F9:F10"/>
+    <mergeCell ref="A1:AI7"/>
+    <mergeCell ref="AJ1:AJ7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="M8:AI8"/>
   </mergeCells>
   <conditionalFormatting sqref="M11:AI52 E12:K51">
     <cfRule type="containsBlanks" dxfId="10" priority="3">
@@ -24136,10 +24136,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0469A2B-3D5E-404B-A0AD-726F61A06C49}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:AK53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="X18" sqref="X18"/>
+    <sheetView tabSelected="1" zoomScale="10" zoomScaleNormal="10" workbookViewId="0">
+      <selection activeCell="B52" sqref="A1:AQ52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="23.4"/>
@@ -24154,7 +24157,7 @@
     <col min="9" max="9" width="9" style="1" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="13.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="18.33203125" style="1" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="12.33203125" style="281" customWidth="1"/>
+    <col min="12" max="12" width="12.33203125" style="160" customWidth="1"/>
     <col min="13" max="23" width="8.6640625" style="1" customWidth="1"/>
     <col min="24" max="24" width="38.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="25" max="31" width="8.88671875" style="1" customWidth="1"/>
@@ -24165,277 +24168,277 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="45" customHeight="1">
-      <c r="A1" s="159"/>
-      <c r="B1" s="159"/>
-      <c r="C1" s="159"/>
-      <c r="D1" s="159"/>
-      <c r="E1" s="159"/>
-      <c r="F1" s="159"/>
-      <c r="G1" s="159"/>
-      <c r="H1" s="159"/>
-      <c r="I1" s="159"/>
-      <c r="J1" s="159"/>
-      <c r="K1" s="159"/>
-      <c r="L1" s="159"/>
-      <c r="M1" s="159"/>
-      <c r="N1" s="159"/>
-      <c r="O1" s="159"/>
-      <c r="P1" s="159"/>
-      <c r="Q1" s="159"/>
-      <c r="R1" s="159"/>
-      <c r="S1" s="159"/>
-      <c r="T1" s="159"/>
-      <c r="U1" s="159"/>
-      <c r="V1" s="159"/>
-      <c r="W1" s="159"/>
-      <c r="X1" s="159"/>
-      <c r="Y1" s="159"/>
-      <c r="Z1" s="159"/>
-      <c r="AA1" s="159"/>
-      <c r="AB1" s="159"/>
-      <c r="AC1" s="159"/>
-      <c r="AD1" s="159"/>
-      <c r="AE1" s="159"/>
-      <c r="AF1" s="159"/>
-      <c r="AG1" s="159"/>
-      <c r="AH1" s="159"/>
-      <c r="AI1" s="159"/>
-      <c r="AJ1" s="159"/>
+      <c r="A1" s="163"/>
+      <c r="B1" s="163"/>
+      <c r="C1" s="163"/>
+      <c r="D1" s="163"/>
+      <c r="E1" s="163"/>
+      <c r="F1" s="163"/>
+      <c r="G1" s="163"/>
+      <c r="H1" s="163"/>
+      <c r="I1" s="163"/>
+      <c r="J1" s="163"/>
+      <c r="K1" s="163"/>
+      <c r="L1" s="163"/>
+      <c r="M1" s="163"/>
+      <c r="N1" s="163"/>
+      <c r="O1" s="163"/>
+      <c r="P1" s="163"/>
+      <c r="Q1" s="163"/>
+      <c r="R1" s="163"/>
+      <c r="S1" s="163"/>
+      <c r="T1" s="163"/>
+      <c r="U1" s="163"/>
+      <c r="V1" s="163"/>
+      <c r="W1" s="163"/>
+      <c r="X1" s="163"/>
+      <c r="Y1" s="163"/>
+      <c r="Z1" s="163"/>
+      <c r="AA1" s="163"/>
+      <c r="AB1" s="163"/>
+      <c r="AC1" s="163"/>
+      <c r="AD1" s="163"/>
+      <c r="AE1" s="163"/>
+      <c r="AF1" s="163"/>
+      <c r="AG1" s="163"/>
+      <c r="AH1" s="163"/>
+      <c r="AI1" s="163"/>
+      <c r="AJ1" s="163"/>
     </row>
     <row r="2" spans="1:37" ht="45" customHeight="1">
-      <c r="A2" s="159"/>
-      <c r="B2" s="159"/>
-      <c r="C2" s="159"/>
-      <c r="D2" s="159"/>
-      <c r="E2" s="159"/>
-      <c r="F2" s="159"/>
-      <c r="G2" s="159"/>
-      <c r="H2" s="159"/>
-      <c r="I2" s="159"/>
-      <c r="J2" s="159"/>
-      <c r="K2" s="159"/>
-      <c r="L2" s="159"/>
-      <c r="M2" s="159"/>
-      <c r="N2" s="159"/>
-      <c r="O2" s="159"/>
-      <c r="P2" s="159"/>
-      <c r="Q2" s="159"/>
-      <c r="R2" s="159"/>
-      <c r="S2" s="159"/>
-      <c r="T2" s="159"/>
-      <c r="U2" s="159"/>
-      <c r="V2" s="159"/>
-      <c r="W2" s="159"/>
-      <c r="X2" s="159"/>
-      <c r="Y2" s="159"/>
-      <c r="Z2" s="159"/>
-      <c r="AA2" s="159"/>
-      <c r="AB2" s="159"/>
-      <c r="AC2" s="159"/>
-      <c r="AD2" s="159"/>
-      <c r="AE2" s="159"/>
-      <c r="AF2" s="159"/>
-      <c r="AG2" s="159"/>
-      <c r="AH2" s="159"/>
-      <c r="AI2" s="159"/>
-      <c r="AJ2" s="159"/>
+      <c r="A2" s="163"/>
+      <c r="B2" s="163"/>
+      <c r="C2" s="163"/>
+      <c r="D2" s="163"/>
+      <c r="E2" s="163"/>
+      <c r="F2" s="163"/>
+      <c r="G2" s="163"/>
+      <c r="H2" s="163"/>
+      <c r="I2" s="163"/>
+      <c r="J2" s="163"/>
+      <c r="K2" s="163"/>
+      <c r="L2" s="163"/>
+      <c r="M2" s="163"/>
+      <c r="N2" s="163"/>
+      <c r="O2" s="163"/>
+      <c r="P2" s="163"/>
+      <c r="Q2" s="163"/>
+      <c r="R2" s="163"/>
+      <c r="S2" s="163"/>
+      <c r="T2" s="163"/>
+      <c r="U2" s="163"/>
+      <c r="V2" s="163"/>
+      <c r="W2" s="163"/>
+      <c r="X2" s="163"/>
+      <c r="Y2" s="163"/>
+      <c r="Z2" s="163"/>
+      <c r="AA2" s="163"/>
+      <c r="AB2" s="163"/>
+      <c r="AC2" s="163"/>
+      <c r="AD2" s="163"/>
+      <c r="AE2" s="163"/>
+      <c r="AF2" s="163"/>
+      <c r="AG2" s="163"/>
+      <c r="AH2" s="163"/>
+      <c r="AI2" s="163"/>
+      <c r="AJ2" s="163"/>
     </row>
     <row r="3" spans="1:37" ht="45" customHeight="1">
-      <c r="A3" s="159"/>
-      <c r="B3" s="159"/>
-      <c r="C3" s="159"/>
-      <c r="D3" s="159"/>
-      <c r="E3" s="159"/>
-      <c r="F3" s="159"/>
-      <c r="G3" s="159"/>
-      <c r="H3" s="159"/>
-      <c r="I3" s="159"/>
-      <c r="J3" s="159"/>
-      <c r="K3" s="159"/>
-      <c r="L3" s="159"/>
-      <c r="M3" s="159"/>
-      <c r="N3" s="159"/>
-      <c r="O3" s="159"/>
-      <c r="P3" s="159"/>
-      <c r="Q3" s="159"/>
-      <c r="R3" s="159"/>
-      <c r="S3" s="159"/>
-      <c r="T3" s="159"/>
-      <c r="U3" s="159"/>
-      <c r="V3" s="159"/>
-      <c r="W3" s="159"/>
-      <c r="X3" s="159"/>
-      <c r="Y3" s="159"/>
-      <c r="Z3" s="159"/>
-      <c r="AA3" s="159"/>
-      <c r="AB3" s="159"/>
-      <c r="AC3" s="159"/>
-      <c r="AD3" s="159"/>
-      <c r="AE3" s="159"/>
-      <c r="AF3" s="159"/>
-      <c r="AG3" s="159"/>
-      <c r="AH3" s="159"/>
-      <c r="AI3" s="159"/>
-      <c r="AJ3" s="159"/>
+      <c r="A3" s="163"/>
+      <c r="B3" s="163"/>
+      <c r="C3" s="163"/>
+      <c r="D3" s="163"/>
+      <c r="E3" s="163"/>
+      <c r="F3" s="163"/>
+      <c r="G3" s="163"/>
+      <c r="H3" s="163"/>
+      <c r="I3" s="163"/>
+      <c r="J3" s="163"/>
+      <c r="K3" s="163"/>
+      <c r="L3" s="163"/>
+      <c r="M3" s="163"/>
+      <c r="N3" s="163"/>
+      <c r="O3" s="163"/>
+      <c r="P3" s="163"/>
+      <c r="Q3" s="163"/>
+      <c r="R3" s="163"/>
+      <c r="S3" s="163"/>
+      <c r="T3" s="163"/>
+      <c r="U3" s="163"/>
+      <c r="V3" s="163"/>
+      <c r="W3" s="163"/>
+      <c r="X3" s="163"/>
+      <c r="Y3" s="163"/>
+      <c r="Z3" s="163"/>
+      <c r="AA3" s="163"/>
+      <c r="AB3" s="163"/>
+      <c r="AC3" s="163"/>
+      <c r="AD3" s="163"/>
+      <c r="AE3" s="163"/>
+      <c r="AF3" s="163"/>
+      <c r="AG3" s="163"/>
+      <c r="AH3" s="163"/>
+      <c r="AI3" s="163"/>
+      <c r="AJ3" s="163"/>
     </row>
     <row r="4" spans="1:37" ht="45" customHeight="1">
-      <c r="A4" s="159"/>
-      <c r="B4" s="159"/>
-      <c r="C4" s="159"/>
-      <c r="D4" s="159"/>
-      <c r="E4" s="159"/>
-      <c r="F4" s="159"/>
-      <c r="G4" s="159"/>
-      <c r="H4" s="159"/>
-      <c r="I4" s="159"/>
-      <c r="J4" s="159"/>
-      <c r="K4" s="159"/>
-      <c r="L4" s="159"/>
-      <c r="M4" s="159"/>
-      <c r="N4" s="159"/>
-      <c r="O4" s="159"/>
-      <c r="P4" s="159"/>
-      <c r="Q4" s="159"/>
-      <c r="R4" s="159"/>
-      <c r="S4" s="159"/>
-      <c r="T4" s="159"/>
-      <c r="U4" s="159"/>
-      <c r="V4" s="159"/>
-      <c r="W4" s="159"/>
-      <c r="X4" s="159"/>
-      <c r="Y4" s="159"/>
-      <c r="Z4" s="159"/>
-      <c r="AA4" s="159"/>
-      <c r="AB4" s="159"/>
-      <c r="AC4" s="159"/>
-      <c r="AD4" s="159"/>
-      <c r="AE4" s="159"/>
-      <c r="AF4" s="159"/>
-      <c r="AG4" s="159"/>
-      <c r="AH4" s="159"/>
-      <c r="AI4" s="159"/>
-      <c r="AJ4" s="159"/>
+      <c r="A4" s="163"/>
+      <c r="B4" s="163"/>
+      <c r="C4" s="163"/>
+      <c r="D4" s="163"/>
+      <c r="E4" s="163"/>
+      <c r="F4" s="163"/>
+      <c r="G4" s="163"/>
+      <c r="H4" s="163"/>
+      <c r="I4" s="163"/>
+      <c r="J4" s="163"/>
+      <c r="K4" s="163"/>
+      <c r="L4" s="163"/>
+      <c r="M4" s="163"/>
+      <c r="N4" s="163"/>
+      <c r="O4" s="163"/>
+      <c r="P4" s="163"/>
+      <c r="Q4" s="163"/>
+      <c r="R4" s="163"/>
+      <c r="S4" s="163"/>
+      <c r="T4" s="163"/>
+      <c r="U4" s="163"/>
+      <c r="V4" s="163"/>
+      <c r="W4" s="163"/>
+      <c r="X4" s="163"/>
+      <c r="Y4" s="163"/>
+      <c r="Z4" s="163"/>
+      <c r="AA4" s="163"/>
+      <c r="AB4" s="163"/>
+      <c r="AC4" s="163"/>
+      <c r="AD4" s="163"/>
+      <c r="AE4" s="163"/>
+      <c r="AF4" s="163"/>
+      <c r="AG4" s="163"/>
+      <c r="AH4" s="163"/>
+      <c r="AI4" s="163"/>
+      <c r="AJ4" s="163"/>
     </row>
     <row r="5" spans="1:37" ht="45" customHeight="1">
-      <c r="A5" s="159"/>
-      <c r="B5" s="159"/>
-      <c r="C5" s="159"/>
-      <c r="D5" s="159"/>
-      <c r="E5" s="159"/>
-      <c r="F5" s="159"/>
-      <c r="G5" s="159"/>
-      <c r="H5" s="159"/>
-      <c r="I5" s="159"/>
-      <c r="J5" s="159"/>
-      <c r="K5" s="159"/>
-      <c r="L5" s="159"/>
-      <c r="M5" s="159"/>
-      <c r="N5" s="159"/>
-      <c r="O5" s="159"/>
-      <c r="P5" s="159"/>
-      <c r="Q5" s="159"/>
-      <c r="R5" s="159"/>
-      <c r="S5" s="159"/>
-      <c r="T5" s="159"/>
-      <c r="U5" s="159"/>
-      <c r="V5" s="159"/>
-      <c r="W5" s="159"/>
-      <c r="X5" s="159"/>
-      <c r="Y5" s="159"/>
-      <c r="Z5" s="159"/>
-      <c r="AA5" s="159"/>
-      <c r="AB5" s="159"/>
-      <c r="AC5" s="159"/>
-      <c r="AD5" s="159"/>
-      <c r="AE5" s="159"/>
-      <c r="AF5" s="159"/>
-      <c r="AG5" s="159"/>
-      <c r="AH5" s="159"/>
-      <c r="AI5" s="159"/>
-      <c r="AJ5" s="159"/>
+      <c r="A5" s="163"/>
+      <c r="B5" s="163"/>
+      <c r="C5" s="163"/>
+      <c r="D5" s="163"/>
+      <c r="E5" s="163"/>
+      <c r="F5" s="163"/>
+      <c r="G5" s="163"/>
+      <c r="H5" s="163"/>
+      <c r="I5" s="163"/>
+      <c r="J5" s="163"/>
+      <c r="K5" s="163"/>
+      <c r="L5" s="163"/>
+      <c r="M5" s="163"/>
+      <c r="N5" s="163"/>
+      <c r="O5" s="163"/>
+      <c r="P5" s="163"/>
+      <c r="Q5" s="163"/>
+      <c r="R5" s="163"/>
+      <c r="S5" s="163"/>
+      <c r="T5" s="163"/>
+      <c r="U5" s="163"/>
+      <c r="V5" s="163"/>
+      <c r="W5" s="163"/>
+      <c r="X5" s="163"/>
+      <c r="Y5" s="163"/>
+      <c r="Z5" s="163"/>
+      <c r="AA5" s="163"/>
+      <c r="AB5" s="163"/>
+      <c r="AC5" s="163"/>
+      <c r="AD5" s="163"/>
+      <c r="AE5" s="163"/>
+      <c r="AF5" s="163"/>
+      <c r="AG5" s="163"/>
+      <c r="AH5" s="163"/>
+      <c r="AI5" s="163"/>
+      <c r="AJ5" s="163"/>
     </row>
     <row r="6" spans="1:37" ht="45" customHeight="1">
-      <c r="A6" s="159"/>
-      <c r="B6" s="159"/>
-      <c r="C6" s="159"/>
-      <c r="D6" s="159"/>
-      <c r="E6" s="159"/>
-      <c r="F6" s="159"/>
-      <c r="G6" s="159"/>
-      <c r="H6" s="159"/>
-      <c r="I6" s="159"/>
-      <c r="J6" s="159"/>
-      <c r="K6" s="159"/>
-      <c r="L6" s="159"/>
-      <c r="M6" s="159"/>
-      <c r="N6" s="159"/>
-      <c r="O6" s="159"/>
-      <c r="P6" s="159"/>
-      <c r="Q6" s="159"/>
-      <c r="R6" s="159"/>
-      <c r="S6" s="159"/>
-      <c r="T6" s="159"/>
-      <c r="U6" s="159"/>
-      <c r="V6" s="159"/>
-      <c r="W6" s="159"/>
-      <c r="X6" s="159"/>
-      <c r="Y6" s="159"/>
-      <c r="Z6" s="159"/>
-      <c r="AA6" s="159"/>
-      <c r="AB6" s="159"/>
-      <c r="AC6" s="159"/>
-      <c r="AD6" s="159"/>
-      <c r="AE6" s="159"/>
-      <c r="AF6" s="159"/>
-      <c r="AG6" s="159"/>
-      <c r="AH6" s="159"/>
-      <c r="AI6" s="159"/>
-      <c r="AJ6" s="159"/>
+      <c r="A6" s="163"/>
+      <c r="B6" s="163"/>
+      <c r="C6" s="163"/>
+      <c r="D6" s="163"/>
+      <c r="E6" s="163"/>
+      <c r="F6" s="163"/>
+      <c r="G6" s="163"/>
+      <c r="H6" s="163"/>
+      <c r="I6" s="163"/>
+      <c r="J6" s="163"/>
+      <c r="K6" s="163"/>
+      <c r="L6" s="163"/>
+      <c r="M6" s="163"/>
+      <c r="N6" s="163"/>
+      <c r="O6" s="163"/>
+      <c r="P6" s="163"/>
+      <c r="Q6" s="163"/>
+      <c r="R6" s="163"/>
+      <c r="S6" s="163"/>
+      <c r="T6" s="163"/>
+      <c r="U6" s="163"/>
+      <c r="V6" s="163"/>
+      <c r="W6" s="163"/>
+      <c r="X6" s="163"/>
+      <c r="Y6" s="163"/>
+      <c r="Z6" s="163"/>
+      <c r="AA6" s="163"/>
+      <c r="AB6" s="163"/>
+      <c r="AC6" s="163"/>
+      <c r="AD6" s="163"/>
+      <c r="AE6" s="163"/>
+      <c r="AF6" s="163"/>
+      <c r="AG6" s="163"/>
+      <c r="AH6" s="163"/>
+      <c r="AI6" s="163"/>
+      <c r="AJ6" s="163"/>
     </row>
     <row r="7" spans="1:37" ht="45" customHeight="1" thickBot="1">
-      <c r="A7" s="159"/>
-      <c r="B7" s="159"/>
-      <c r="C7" s="159"/>
-      <c r="D7" s="159"/>
-      <c r="E7" s="159"/>
-      <c r="F7" s="159"/>
-      <c r="G7" s="159"/>
-      <c r="H7" s="159"/>
-      <c r="I7" s="159"/>
-      <c r="J7" s="159"/>
-      <c r="K7" s="159"/>
-      <c r="L7" s="159"/>
-      <c r="M7" s="159"/>
-      <c r="N7" s="159"/>
-      <c r="O7" s="159"/>
-      <c r="P7" s="159"/>
-      <c r="Q7" s="159"/>
-      <c r="R7" s="159"/>
-      <c r="S7" s="159"/>
-      <c r="T7" s="159"/>
-      <c r="U7" s="159"/>
-      <c r="V7" s="159"/>
-      <c r="W7" s="159"/>
-      <c r="X7" s="159"/>
-      <c r="Y7" s="159"/>
-      <c r="Z7" s="159"/>
-      <c r="AA7" s="159"/>
-      <c r="AB7" s="159"/>
-      <c r="AC7" s="159"/>
-      <c r="AD7" s="159"/>
-      <c r="AE7" s="159"/>
-      <c r="AF7" s="159"/>
-      <c r="AG7" s="159"/>
-      <c r="AH7" s="159"/>
-      <c r="AI7" s="159"/>
-      <c r="AJ7" s="159"/>
+      <c r="A7" s="163"/>
+      <c r="B7" s="163"/>
+      <c r="C7" s="163"/>
+      <c r="D7" s="163"/>
+      <c r="E7" s="163"/>
+      <c r="F7" s="163"/>
+      <c r="G7" s="163"/>
+      <c r="H7" s="163"/>
+      <c r="I7" s="163"/>
+      <c r="J7" s="163"/>
+      <c r="K7" s="163"/>
+      <c r="L7" s="163"/>
+      <c r="M7" s="163"/>
+      <c r="N7" s="163"/>
+      <c r="O7" s="163"/>
+      <c r="P7" s="163"/>
+      <c r="Q7" s="163"/>
+      <c r="R7" s="163"/>
+      <c r="S7" s="163"/>
+      <c r="T7" s="163"/>
+      <c r="U7" s="163"/>
+      <c r="V7" s="163"/>
+      <c r="W7" s="163"/>
+      <c r="X7" s="163"/>
+      <c r="Y7" s="163"/>
+      <c r="Z7" s="163"/>
+      <c r="AA7" s="163"/>
+      <c r="AB7" s="163"/>
+      <c r="AC7" s="163"/>
+      <c r="AD7" s="163"/>
+      <c r="AE7" s="163"/>
+      <c r="AF7" s="163"/>
+      <c r="AG7" s="163"/>
+      <c r="AH7" s="163"/>
+      <c r="AI7" s="163"/>
+      <c r="AJ7" s="163"/>
     </row>
     <row r="8" spans="1:37" ht="49.95" customHeight="1" thickBot="1">
       <c r="A8" s="90"/>
-      <c r="B8" s="209" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="210"/>
+      <c r="B8" s="203" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="204"/>
       <c r="D8" s="14"/>
       <c r="E8" s="15" t="s">
         <v>133</v>
@@ -24444,34 +24447,34 @@
       <c r="G8" s="17"/>
       <c r="H8" s="17"/>
       <c r="I8" s="18"/>
-      <c r="J8" s="178"/>
-      <c r="K8" s="179"/>
-      <c r="L8" s="180"/>
-      <c r="M8" s="174" t="s">
+      <c r="J8" s="168"/>
+      <c r="K8" s="169"/>
+      <c r="L8" s="170"/>
+      <c r="M8" s="164" t="s">
         <v>135</v>
       </c>
-      <c r="N8" s="175"/>
-      <c r="O8" s="175"/>
-      <c r="P8" s="175"/>
-      <c r="Q8" s="175"/>
-      <c r="R8" s="175"/>
-      <c r="S8" s="175"/>
-      <c r="T8" s="175"/>
-      <c r="U8" s="175"/>
-      <c r="V8" s="175"/>
-      <c r="W8" s="175"/>
-      <c r="X8" s="175"/>
-      <c r="Y8" s="175"/>
-      <c r="Z8" s="175"/>
-      <c r="AA8" s="175"/>
-      <c r="AB8" s="175"/>
-      <c r="AC8" s="175"/>
-      <c r="AD8" s="175"/>
-      <c r="AE8" s="175"/>
-      <c r="AF8" s="175"/>
-      <c r="AG8" s="175"/>
-      <c r="AH8" s="175"/>
-      <c r="AI8" s="175"/>
+      <c r="N8" s="165"/>
+      <c r="O8" s="165"/>
+      <c r="P8" s="165"/>
+      <c r="Q8" s="165"/>
+      <c r="R8" s="165"/>
+      <c r="S8" s="165"/>
+      <c r="T8" s="165"/>
+      <c r="U8" s="165"/>
+      <c r="V8" s="165"/>
+      <c r="W8" s="165"/>
+      <c r="X8" s="165"/>
+      <c r="Y8" s="165"/>
+      <c r="Z8" s="165"/>
+      <c r="AA8" s="165"/>
+      <c r="AB8" s="165"/>
+      <c r="AC8" s="165"/>
+      <c r="AD8" s="165"/>
+      <c r="AE8" s="165"/>
+      <c r="AF8" s="165"/>
+      <c r="AG8" s="165"/>
+      <c r="AH8" s="165"/>
+      <c r="AI8" s="165"/>
       <c r="AJ8" s="12"/>
       <c r="AK8" s="15" t="s">
         <v>136</v>
@@ -24479,82 +24482,82 @@
     </row>
     <row r="9" spans="1:37" ht="49.95" customHeight="1" thickBot="1">
       <c r="A9" s="91"/>
-      <c r="B9" s="207" t="s">
+      <c r="B9" s="217" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="205" t="s">
+      <c r="C9" s="213" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="205" t="s">
+      <c r="D9" s="213" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="205" t="s">
+      <c r="E9" s="213" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="205" t="s">
+      <c r="F9" s="213" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="203" t="s">
+      <c r="G9" s="211" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="205" t="s">
+      <c r="H9" s="213" t="s">
         <v>7</v>
       </c>
-      <c r="I9" s="203" t="s">
+      <c r="I9" s="211" t="s">
         <v>8</v>
       </c>
-      <c r="J9" s="203" t="s">
+      <c r="J9" s="211" t="s">
         <v>9</v>
       </c>
-      <c r="K9" s="203" t="s">
+      <c r="K9" s="211" t="s">
         <v>10</v>
       </c>
-      <c r="L9" s="278" t="s">
+      <c r="L9" s="215" t="s">
         <v>11</v>
       </c>
-      <c r="M9" s="197" t="s">
+      <c r="M9" s="205" t="s">
         <v>12</v>
       </c>
-      <c r="N9" s="198"/>
-      <c r="O9" s="198"/>
-      <c r="P9" s="198"/>
-      <c r="Q9" s="198"/>
-      <c r="R9" s="198"/>
-      <c r="S9" s="198"/>
-      <c r="T9" s="198"/>
-      <c r="U9" s="198"/>
-      <c r="V9" s="198"/>
-      <c r="W9" s="199"/>
-      <c r="X9" s="160"/>
-      <c r="Y9" s="160"/>
-      <c r="Z9" s="160"/>
-      <c r="AA9" s="160"/>
-      <c r="AB9" s="160"/>
-      <c r="AC9" s="160"/>
-      <c r="AD9" s="160"/>
-      <c r="AE9" s="160"/>
-      <c r="AF9" s="160"/>
-      <c r="AG9" s="160"/>
-      <c r="AH9" s="160"/>
-      <c r="AI9" s="160"/>
+      <c r="N9" s="206"/>
+      <c r="O9" s="206"/>
+      <c r="P9" s="206"/>
+      <c r="Q9" s="206"/>
+      <c r="R9" s="206"/>
+      <c r="S9" s="206"/>
+      <c r="T9" s="206"/>
+      <c r="U9" s="206"/>
+      <c r="V9" s="206"/>
+      <c r="W9" s="207"/>
+      <c r="X9" s="173"/>
+      <c r="Y9" s="173"/>
+      <c r="Z9" s="173"/>
+      <c r="AA9" s="173"/>
+      <c r="AB9" s="173"/>
+      <c r="AC9" s="173"/>
+      <c r="AD9" s="173"/>
+      <c r="AE9" s="173"/>
+      <c r="AF9" s="173"/>
+      <c r="AG9" s="173"/>
+      <c r="AH9" s="173"/>
+      <c r="AI9" s="173"/>
       <c r="AJ9" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="AK9" s="157"/>
+      <c r="AK9" s="171"/>
     </row>
     <row r="10" spans="1:37" ht="49.95" customHeight="1" thickBot="1">
       <c r="A10" s="92"/>
-      <c r="B10" s="208"/>
-      <c r="C10" s="206"/>
-      <c r="D10" s="206"/>
-      <c r="E10" s="206"/>
-      <c r="F10" s="206"/>
-      <c r="G10" s="204"/>
-      <c r="H10" s="206"/>
-      <c r="I10" s="204"/>
-      <c r="J10" s="204"/>
-      <c r="K10" s="204"/>
-      <c r="L10" s="279"/>
+      <c r="B10" s="218"/>
+      <c r="C10" s="214"/>
+      <c r="D10" s="214"/>
+      <c r="E10" s="214"/>
+      <c r="F10" s="214"/>
+      <c r="G10" s="212"/>
+      <c r="H10" s="214"/>
+      <c r="I10" s="212"/>
+      <c r="J10" s="212"/>
+      <c r="K10" s="212"/>
+      <c r="L10" s="216"/>
       <c r="M10" s="4" t="s">
         <v>14</v>
       </c>
@@ -24627,7 +24630,7 @@
       <c r="AJ10" s="121" t="s">
         <v>20</v>
       </c>
-      <c r="AK10" s="158"/>
+      <c r="AK10" s="172"/>
     </row>
     <row r="11" spans="1:37" ht="64.95" customHeight="1" thickBot="1">
       <c r="A11" s="93" t="s">
@@ -24653,7 +24656,7 @@
       <c r="K11" s="83" t="s">
         <v>26</v>
       </c>
-      <c r="L11" s="280"/>
+      <c r="L11" s="159"/>
       <c r="M11" s="10">
         <v>1</v>
       </c>
@@ -24699,10 +24702,10 @@
       <c r="A12" s="104">
         <v>1</v>
       </c>
-      <c r="B12" s="276" t="s">
+      <c r="B12" s="157" t="s">
         <v>152</v>
       </c>
-      <c r="C12" s="276" t="s">
+      <c r="C12" s="157" t="s">
         <v>153</v>
       </c>
       <c r="D12" s="106"/>
@@ -24715,7 +24718,7 @@
       <c r="I12" s="106"/>
       <c r="J12" s="106"/>
       <c r="K12" s="107"/>
-      <c r="L12" s="277"/>
+      <c r="L12" s="158"/>
       <c r="M12" s="109"/>
       <c r="N12" s="117"/>
       <c r="O12" s="117"/>
@@ -24739,17 +24742,17 @@
       <c r="AG12" s="114"/>
       <c r="AH12" s="114"/>
       <c r="AI12" s="115"/>
-      <c r="AJ12" s="283"/>
+      <c r="AJ12" s="162"/>
       <c r="AK12" s="85"/>
     </row>
     <row r="13" spans="1:37" ht="64.95" customHeight="1" thickBot="1">
       <c r="A13" s="104">
         <v>2</v>
       </c>
-      <c r="B13" s="276" t="s">
+      <c r="B13" s="157" t="s">
         <v>154</v>
       </c>
-      <c r="C13" s="276" t="s">
+      <c r="C13" s="157" t="s">
         <v>155</v>
       </c>
       <c r="D13" s="106"/>
@@ -24762,7 +24765,7 @@
       <c r="I13" s="106"/>
       <c r="J13" s="106"/>
       <c r="K13" s="107"/>
-      <c r="L13" s="277"/>
+      <c r="L13" s="158"/>
       <c r="M13" s="109"/>
       <c r="N13" s="117"/>
       <c r="O13" s="117"/>
@@ -24786,17 +24789,17 @@
       <c r="AG13" s="114"/>
       <c r="AH13" s="114"/>
       <c r="AI13" s="115"/>
-      <c r="AJ13" s="283"/>
+      <c r="AJ13" s="162"/>
       <c r="AK13" s="85"/>
     </row>
     <row r="14" spans="1:37" ht="64.95" customHeight="1" thickBot="1">
       <c r="A14" s="104">
         <v>3</v>
       </c>
-      <c r="B14" s="276" t="s">
+      <c r="B14" s="157" t="s">
         <v>156</v>
       </c>
-      <c r="C14" s="276" t="s">
+      <c r="C14" s="157" t="s">
         <v>208</v>
       </c>
       <c r="D14" s="106"/>
@@ -24809,7 +24812,7 @@
       <c r="I14" s="106"/>
       <c r="J14" s="106"/>
       <c r="K14" s="107"/>
-      <c r="L14" s="277"/>
+      <c r="L14" s="158"/>
       <c r="M14" s="109"/>
       <c r="N14" s="117"/>
       <c r="O14" s="117"/>
@@ -24833,17 +24836,17 @@
       <c r="AG14" s="114"/>
       <c r="AH14" s="114"/>
       <c r="AI14" s="115"/>
-      <c r="AJ14" s="283"/>
+      <c r="AJ14" s="162"/>
       <c r="AK14" s="85"/>
     </row>
     <row r="15" spans="1:37" ht="64.95" customHeight="1" thickBot="1">
       <c r="A15" s="104">
         <v>4</v>
       </c>
-      <c r="B15" s="276" t="s">
+      <c r="B15" s="157" t="s">
         <v>158</v>
       </c>
-      <c r="C15" s="276" t="s">
+      <c r="C15" s="157" t="s">
         <v>159</v>
       </c>
       <c r="D15" s="106"/>
@@ -24856,7 +24859,7 @@
       <c r="I15" s="106"/>
       <c r="J15" s="106"/>
       <c r="K15" s="107"/>
-      <c r="L15" s="277"/>
+      <c r="L15" s="158"/>
       <c r="M15" s="109"/>
       <c r="N15" s="117"/>
       <c r="O15" s="117"/>
@@ -24880,17 +24883,17 @@
       <c r="AG15" s="114"/>
       <c r="AH15" s="114"/>
       <c r="AI15" s="115"/>
-      <c r="AJ15" s="283"/>
+      <c r="AJ15" s="162"/>
       <c r="AK15" s="85"/>
     </row>
     <row r="16" spans="1:37" ht="64.95" customHeight="1" thickBot="1">
       <c r="A16" s="104">
         <v>5</v>
       </c>
-      <c r="B16" s="276" t="s">
+      <c r="B16" s="157" t="s">
         <v>160</v>
       </c>
-      <c r="C16" s="276" t="s">
+      <c r="C16" s="157" t="s">
         <v>161</v>
       </c>
       <c r="D16" s="106"/>
@@ -24903,7 +24906,7 @@
       <c r="I16" s="106"/>
       <c r="J16" s="106"/>
       <c r="K16" s="107"/>
-      <c r="L16" s="277" t="s">
+      <c r="L16" s="158" t="s">
         <v>118</v>
       </c>
       <c r="M16" s="109"/>
@@ -24929,7 +24932,7 @@
       <c r="AG16" s="114"/>
       <c r="AH16" s="114"/>
       <c r="AI16" s="115"/>
-      <c r="AJ16" s="283" t="s">
+      <c r="AJ16" s="162" t="s">
         <v>247</v>
       </c>
       <c r="AK16" s="85"/>
@@ -24938,10 +24941,10 @@
       <c r="A17" s="104">
         <v>6</v>
       </c>
-      <c r="B17" s="276" t="s">
+      <c r="B17" s="157" t="s">
         <v>162</v>
       </c>
-      <c r="C17" s="276" t="s">
+      <c r="C17" s="157" t="s">
         <v>163</v>
       </c>
       <c r="D17" s="106"/>
@@ -24954,7 +24957,7 @@
       <c r="I17" s="106"/>
       <c r="J17" s="106"/>
       <c r="K17" s="107"/>
-      <c r="L17" s="277"/>
+      <c r="L17" s="158"/>
       <c r="M17" s="109"/>
       <c r="N17" s="117"/>
       <c r="O17" s="117"/>
@@ -24978,17 +24981,17 @@
       <c r="AG17" s="114"/>
       <c r="AH17" s="114"/>
       <c r="AI17" s="115"/>
-      <c r="AJ17" s="283"/>
+      <c r="AJ17" s="162"/>
       <c r="AK17" s="85"/>
     </row>
     <row r="18" spans="1:37" ht="64.95" customHeight="1" thickBot="1">
       <c r="A18" s="104">
         <v>7</v>
       </c>
-      <c r="B18" s="276" t="s">
+      <c r="B18" s="157" t="s">
         <v>164</v>
       </c>
-      <c r="C18" s="276" t="s">
+      <c r="C18" s="157" t="s">
         <v>165</v>
       </c>
       <c r="D18" s="106"/>
@@ -25001,7 +25004,7 @@
       <c r="I18" s="106"/>
       <c r="J18" s="106"/>
       <c r="K18" s="107"/>
-      <c r="L18" s="277" t="s">
+      <c r="L18" s="158" t="s">
         <v>118</v>
       </c>
       <c r="M18" s="109"/>
@@ -25027,17 +25030,17 @@
       <c r="AG18" s="114"/>
       <c r="AH18" s="114"/>
       <c r="AI18" s="115"/>
-      <c r="AJ18" s="283"/>
+      <c r="AJ18" s="162"/>
       <c r="AK18" s="85"/>
     </row>
     <row r="19" spans="1:37" ht="64.95" customHeight="1" thickBot="1">
       <c r="A19" s="104">
         <v>8</v>
       </c>
-      <c r="B19" s="276" t="s">
+      <c r="B19" s="157" t="s">
         <v>166</v>
       </c>
-      <c r="C19" s="276" t="s">
+      <c r="C19" s="157" t="s">
         <v>167</v>
       </c>
       <c r="D19" s="106"/>
@@ -25050,7 +25053,7 @@
       <c r="I19" s="106"/>
       <c r="J19" s="106"/>
       <c r="K19" s="107"/>
-      <c r="L19" s="277"/>
+      <c r="L19" s="158"/>
       <c r="M19" s="109"/>
       <c r="N19" s="117"/>
       <c r="O19" s="117"/>
@@ -25074,17 +25077,17 @@
       <c r="AG19" s="114"/>
       <c r="AH19" s="114"/>
       <c r="AI19" s="115"/>
-      <c r="AJ19" s="283"/>
+      <c r="AJ19" s="162"/>
       <c r="AK19" s="85"/>
     </row>
     <row r="20" spans="1:37" ht="64.95" customHeight="1" thickBot="1">
       <c r="A20" s="104">
         <v>9</v>
       </c>
-      <c r="B20" s="276" t="s">
+      <c r="B20" s="157" t="s">
         <v>166</v>
       </c>
-      <c r="C20" s="276" t="s">
+      <c r="C20" s="157" t="s">
         <v>168</v>
       </c>
       <c r="D20" s="106"/>
@@ -25097,7 +25100,7 @@
       <c r="I20" s="106"/>
       <c r="J20" s="106"/>
       <c r="K20" s="107"/>
-      <c r="L20" s="277"/>
+      <c r="L20" s="158"/>
       <c r="M20" s="109"/>
       <c r="N20" s="117"/>
       <c r="O20" s="117"/>
@@ -25121,17 +25124,17 @@
       <c r="AG20" s="114"/>
       <c r="AH20" s="114"/>
       <c r="AI20" s="115"/>
-      <c r="AJ20" s="283"/>
+      <c r="AJ20" s="162"/>
       <c r="AK20" s="85"/>
     </row>
     <row r="21" spans="1:37" ht="64.95" customHeight="1" thickBot="1">
       <c r="A21" s="104">
         <v>10</v>
       </c>
-      <c r="B21" s="276" t="s">
+      <c r="B21" s="157" t="s">
         <v>166</v>
       </c>
-      <c r="C21" s="276" t="s">
+      <c r="C21" s="157" t="s">
         <v>169</v>
       </c>
       <c r="D21" s="106"/>
@@ -25144,7 +25147,7 @@
       <c r="I21" s="106"/>
       <c r="J21" s="106"/>
       <c r="K21" s="107"/>
-      <c r="L21" s="277"/>
+      <c r="L21" s="158"/>
       <c r="M21" s="109"/>
       <c r="N21" s="117"/>
       <c r="O21" s="117"/>
@@ -25168,17 +25171,17 @@
       <c r="AG21" s="114"/>
       <c r="AH21" s="114"/>
       <c r="AI21" s="115"/>
-      <c r="AJ21" s="283"/>
+      <c r="AJ21" s="162"/>
       <c r="AK21" s="85"/>
     </row>
     <row r="22" spans="1:37" ht="64.95" customHeight="1" thickBot="1">
       <c r="A22" s="104">
         <v>11</v>
       </c>
-      <c r="B22" s="276" t="s">
+      <c r="B22" s="157" t="s">
         <v>166</v>
       </c>
-      <c r="C22" s="276" t="s">
+      <c r="C22" s="157" t="s">
         <v>170</v>
       </c>
       <c r="D22" s="106"/>
@@ -25191,7 +25194,7 @@
       <c r="I22" s="106"/>
       <c r="J22" s="106"/>
       <c r="K22" s="107"/>
-      <c r="L22" s="277"/>
+      <c r="L22" s="158"/>
       <c r="M22" s="109"/>
       <c r="N22" s="117"/>
       <c r="O22" s="117"/>
@@ -25215,17 +25218,17 @@
       <c r="AG22" s="114"/>
       <c r="AH22" s="114"/>
       <c r="AI22" s="115"/>
-      <c r="AJ22" s="283"/>
+      <c r="AJ22" s="162"/>
       <c r="AK22" s="85"/>
     </row>
     <row r="23" spans="1:37" ht="64.95" customHeight="1" thickBot="1">
       <c r="A23" s="104">
         <v>12</v>
       </c>
-      <c r="B23" s="276" t="s">
+      <c r="B23" s="157" t="s">
         <v>173</v>
       </c>
-      <c r="C23" s="276" t="s">
+      <c r="C23" s="157" t="s">
         <v>165</v>
       </c>
       <c r="D23" s="106"/>
@@ -25238,7 +25241,7 @@
       <c r="I23" s="106"/>
       <c r="J23" s="106"/>
       <c r="K23" s="107"/>
-      <c r="L23" s="277"/>
+      <c r="L23" s="158"/>
       <c r="M23" s="109"/>
       <c r="N23" s="117"/>
       <c r="O23" s="117"/>
@@ -25262,17 +25265,17 @@
       <c r="AG23" s="114"/>
       <c r="AH23" s="114"/>
       <c r="AI23" s="115"/>
-      <c r="AJ23" s="283"/>
+      <c r="AJ23" s="162"/>
       <c r="AK23" s="85"/>
     </row>
     <row r="24" spans="1:37" ht="64.95" customHeight="1" thickBot="1">
       <c r="A24" s="104">
         <v>13</v>
       </c>
-      <c r="B24" s="276" t="s">
+      <c r="B24" s="157" t="s">
         <v>219</v>
       </c>
-      <c r="C24" s="276" t="s">
+      <c r="C24" s="157" t="s">
         <v>174</v>
       </c>
       <c r="D24" s="106"/>
@@ -25285,7 +25288,7 @@
       <c r="I24" s="106"/>
       <c r="J24" s="106"/>
       <c r="K24" s="107"/>
-      <c r="L24" s="277" t="s">
+      <c r="L24" s="158" t="s">
         <v>118</v>
       </c>
       <c r="M24" s="109"/>
@@ -25311,17 +25314,17 @@
       <c r="AG24" s="114"/>
       <c r="AH24" s="114"/>
       <c r="AI24" s="115"/>
-      <c r="AJ24" s="283"/>
+      <c r="AJ24" s="162"/>
       <c r="AK24" s="85"/>
     </row>
     <row r="25" spans="1:37" ht="64.95" customHeight="1" thickBot="1">
       <c r="A25" s="104">
         <v>14</v>
       </c>
-      <c r="B25" s="276" t="s">
+      <c r="B25" s="157" t="s">
         <v>219</v>
       </c>
-      <c r="C25" s="276" t="s">
+      <c r="C25" s="157" t="s">
         <v>175</v>
       </c>
       <c r="D25" s="106"/>
@@ -25334,7 +25337,7 @@
       <c r="I25" s="106"/>
       <c r="J25" s="106"/>
       <c r="K25" s="107"/>
-      <c r="L25" s="277" t="s">
+      <c r="L25" s="158" t="s">
         <v>118</v>
       </c>
       <c r="M25" s="109"/>
@@ -25360,17 +25363,17 @@
       <c r="AG25" s="114"/>
       <c r="AH25" s="114"/>
       <c r="AI25" s="115"/>
-      <c r="AJ25" s="283"/>
+      <c r="AJ25" s="162"/>
       <c r="AK25" s="85"/>
     </row>
     <row r="26" spans="1:37" ht="64.95" customHeight="1" thickBot="1">
       <c r="A26" s="104">
         <v>15</v>
       </c>
-      <c r="B26" s="276" t="s">
+      <c r="B26" s="157" t="s">
         <v>176</v>
       </c>
-      <c r="C26" s="276" t="s">
+      <c r="C26" s="157" t="s">
         <v>221</v>
       </c>
       <c r="D26" s="106"/>
@@ -25383,7 +25386,7 @@
       <c r="I26" s="106"/>
       <c r="J26" s="106"/>
       <c r="K26" s="107"/>
-      <c r="L26" s="277"/>
+      <c r="L26" s="158"/>
       <c r="M26" s="109"/>
       <c r="N26" s="117"/>
       <c r="O26" s="117"/>
@@ -25407,17 +25410,17 @@
       <c r="AG26" s="114"/>
       <c r="AH26" s="114"/>
       <c r="AI26" s="115"/>
-      <c r="AJ26" s="283"/>
+      <c r="AJ26" s="162"/>
       <c r="AK26" s="85"/>
     </row>
     <row r="27" spans="1:37" ht="64.95" customHeight="1" thickBot="1">
       <c r="A27" s="104">
         <v>16</v>
       </c>
-      <c r="B27" s="276" t="s">
+      <c r="B27" s="157" t="s">
         <v>179</v>
       </c>
-      <c r="C27" s="276" t="s">
+      <c r="C27" s="157" t="s">
         <v>180</v>
       </c>
       <c r="D27" s="106"/>
@@ -25430,7 +25433,7 @@
       <c r="I27" s="106"/>
       <c r="J27" s="106"/>
       <c r="K27" s="107"/>
-      <c r="L27" s="277"/>
+      <c r="L27" s="158"/>
       <c r="M27" s="109"/>
       <c r="N27" s="117"/>
       <c r="O27" s="117"/>
@@ -25454,17 +25457,17 @@
       <c r="AG27" s="114"/>
       <c r="AH27" s="114"/>
       <c r="AI27" s="115"/>
-      <c r="AJ27" s="283"/>
+      <c r="AJ27" s="162"/>
       <c r="AK27" s="85"/>
     </row>
     <row r="28" spans="1:37" ht="64.95" customHeight="1" thickBot="1">
       <c r="A28" s="104">
         <v>17</v>
       </c>
-      <c r="B28" s="276" t="s">
+      <c r="B28" s="157" t="s">
         <v>181</v>
       </c>
-      <c r="C28" s="276" t="s">
+      <c r="C28" s="157" t="s">
         <v>182</v>
       </c>
       <c r="D28" s="106"/>
@@ -25477,7 +25480,7 @@
       <c r="I28" s="106"/>
       <c r="J28" s="106"/>
       <c r="K28" s="107"/>
-      <c r="L28" s="277"/>
+      <c r="L28" s="158"/>
       <c r="M28" s="109"/>
       <c r="N28" s="117"/>
       <c r="O28" s="117"/>
@@ -25501,17 +25504,17 @@
       <c r="AG28" s="114"/>
       <c r="AH28" s="114"/>
       <c r="AI28" s="115"/>
-      <c r="AJ28" s="283"/>
+      <c r="AJ28" s="162"/>
       <c r="AK28" s="85"/>
     </row>
     <row r="29" spans="1:37" ht="64.95" customHeight="1" thickBot="1">
       <c r="A29" s="104">
         <v>18</v>
       </c>
-      <c r="B29" s="276" t="s">
+      <c r="B29" s="157" t="s">
         <v>181</v>
       </c>
-      <c r="C29" s="276" t="s">
+      <c r="C29" s="157" t="s">
         <v>183</v>
       </c>
       <c r="D29" s="106"/>
@@ -25524,7 +25527,7 @@
       <c r="I29" s="106"/>
       <c r="J29" s="106"/>
       <c r="K29" s="107"/>
-      <c r="L29" s="277"/>
+      <c r="L29" s="158"/>
       <c r="M29" s="109"/>
       <c r="N29" s="117"/>
       <c r="O29" s="117"/>
@@ -25548,17 +25551,17 @@
       <c r="AG29" s="114"/>
       <c r="AH29" s="114"/>
       <c r="AI29" s="115"/>
-      <c r="AJ29" s="283"/>
+      <c r="AJ29" s="162"/>
       <c r="AK29" s="85"/>
     </row>
     <row r="30" spans="1:37" ht="64.95" customHeight="1" thickBot="1">
       <c r="A30" s="104">
         <v>19</v>
       </c>
-      <c r="B30" s="276" t="s">
+      <c r="B30" s="157" t="s">
         <v>184</v>
       </c>
-      <c r="C30" s="276" t="s">
+      <c r="C30" s="157" t="s">
         <v>185</v>
       </c>
       <c r="D30" s="106"/>
@@ -25571,7 +25574,7 @@
       <c r="I30" s="106"/>
       <c r="J30" s="106"/>
       <c r="K30" s="107"/>
-      <c r="L30" s="277" t="s">
+      <c r="L30" s="158" t="s">
         <v>118</v>
       </c>
       <c r="M30" s="109"/>
@@ -25597,17 +25600,17 @@
       <c r="AG30" s="114"/>
       <c r="AH30" s="114"/>
       <c r="AI30" s="115"/>
-      <c r="AJ30" s="283"/>
+      <c r="AJ30" s="162"/>
       <c r="AK30" s="85"/>
     </row>
     <row r="31" spans="1:37" ht="64.95" customHeight="1" thickBot="1">
       <c r="A31" s="104">
         <v>20</v>
       </c>
-      <c r="B31" s="276" t="s">
+      <c r="B31" s="157" t="s">
         <v>227</v>
       </c>
-      <c r="C31" s="276" t="s">
+      <c r="C31" s="157" t="s">
         <v>226</v>
       </c>
       <c r="D31" s="106"/>
@@ -25620,7 +25623,7 @@
       <c r="I31" s="106"/>
       <c r="J31" s="106"/>
       <c r="K31" s="107"/>
-      <c r="L31" s="277" t="s">
+      <c r="L31" s="158" t="s">
         <v>118</v>
       </c>
       <c r="M31" s="109"/>
@@ -25646,7 +25649,7 @@
       <c r="AG31" s="114"/>
       <c r="AH31" s="114"/>
       <c r="AI31" s="115"/>
-      <c r="AJ31" s="283" t="s">
+      <c r="AJ31" s="162" t="s">
         <v>248</v>
       </c>
       <c r="AK31" s="85"/>
@@ -25655,10 +25658,10 @@
       <c r="A32" s="104">
         <v>21</v>
       </c>
-      <c r="B32" s="276" t="s">
+      <c r="B32" s="157" t="s">
         <v>188</v>
       </c>
-      <c r="C32" s="276" t="s">
+      <c r="C32" s="157" t="s">
         <v>189</v>
       </c>
       <c r="D32" s="106"/>
@@ -25671,7 +25674,7 @@
       <c r="I32" s="106"/>
       <c r="J32" s="106"/>
       <c r="K32" s="107"/>
-      <c r="L32" s="277"/>
+      <c r="L32" s="158"/>
       <c r="M32" s="109"/>
       <c r="N32" s="117"/>
       <c r="O32" s="117"/>
@@ -25695,17 +25698,17 @@
       <c r="AG32" s="114"/>
       <c r="AH32" s="114"/>
       <c r="AI32" s="115"/>
-      <c r="AJ32" s="283"/>
+      <c r="AJ32" s="162"/>
       <c r="AK32" s="85"/>
     </row>
     <row r="33" spans="1:37" ht="64.95" customHeight="1" thickBot="1">
       <c r="A33" s="104">
         <v>22</v>
       </c>
-      <c r="B33" s="276" t="s">
+      <c r="B33" s="157" t="s">
         <v>190</v>
       </c>
-      <c r="C33" s="276" t="s">
+      <c r="C33" s="157" t="s">
         <v>191</v>
       </c>
       <c r="D33" s="106"/>
@@ -25718,7 +25721,7 @@
       <c r="I33" s="106"/>
       <c r="J33" s="106"/>
       <c r="K33" s="107"/>
-      <c r="L33" s="277"/>
+      <c r="L33" s="158"/>
       <c r="M33" s="109"/>
       <c r="N33" s="117"/>
       <c r="O33" s="117"/>
@@ -25742,17 +25745,17 @@
       <c r="AG33" s="114"/>
       <c r="AH33" s="114"/>
       <c r="AI33" s="115"/>
-      <c r="AJ33" s="283"/>
+      <c r="AJ33" s="162"/>
       <c r="AK33" s="85"/>
     </row>
     <row r="34" spans="1:37" ht="64.95" customHeight="1" thickBot="1">
       <c r="A34" s="104">
         <v>23</v>
       </c>
-      <c r="B34" s="276" t="s">
+      <c r="B34" s="157" t="s">
         <v>192</v>
       </c>
-      <c r="C34" s="276" t="s">
+      <c r="C34" s="157" t="s">
         <v>193</v>
       </c>
       <c r="D34" s="106"/>
@@ -25765,7 +25768,7 @@
       <c r="I34" s="106"/>
       <c r="J34" s="106"/>
       <c r="K34" s="107"/>
-      <c r="L34" s="277"/>
+      <c r="L34" s="158"/>
       <c r="M34" s="109"/>
       <c r="N34" s="117"/>
       <c r="O34" s="117"/>
@@ -25789,17 +25792,17 @@
       <c r="AG34" s="114"/>
       <c r="AH34" s="114"/>
       <c r="AI34" s="115"/>
-      <c r="AJ34" s="283"/>
+      <c r="AJ34" s="162"/>
       <c r="AK34" s="85"/>
     </row>
     <row r="35" spans="1:37" ht="64.95" customHeight="1" thickBot="1">
       <c r="A35" s="104">
         <v>24</v>
       </c>
-      <c r="B35" s="276" t="s">
+      <c r="B35" s="157" t="s">
         <v>194</v>
       </c>
-      <c r="C35" s="276" t="s">
+      <c r="C35" s="157" t="s">
         <v>195</v>
       </c>
       <c r="D35" s="106"/>
@@ -25812,7 +25815,7 @@
       <c r="I35" s="106"/>
       <c r="J35" s="106"/>
       <c r="K35" s="107"/>
-      <c r="L35" s="277" t="s">
+      <c r="L35" s="158" t="s">
         <v>118</v>
       </c>
       <c r="M35" s="109"/>
@@ -25838,7 +25841,7 @@
       <c r="AG35" s="114"/>
       <c r="AH35" s="114"/>
       <c r="AI35" s="115"/>
-      <c r="AJ35" s="283" t="s">
+      <c r="AJ35" s="162" t="s">
         <v>249</v>
       </c>
       <c r="AK35" s="85"/>
@@ -25847,10 +25850,10 @@
       <c r="A36" s="104">
         <v>25</v>
       </c>
-      <c r="B36" s="276" t="s">
+      <c r="B36" s="157" t="s">
         <v>196</v>
       </c>
-      <c r="C36" s="276" t="s">
+      <c r="C36" s="157" t="s">
         <v>180</v>
       </c>
       <c r="D36" s="106"/>
@@ -25863,7 +25866,7 @@
       <c r="I36" s="106"/>
       <c r="J36" s="106"/>
       <c r="K36" s="107"/>
-      <c r="L36" s="277" t="s">
+      <c r="L36" s="158" t="s">
         <v>118</v>
       </c>
       <c r="M36" s="109"/>
@@ -25889,17 +25892,17 @@
       <c r="AG36" s="114"/>
       <c r="AH36" s="114"/>
       <c r="AI36" s="115"/>
-      <c r="AJ36" s="283"/>
+      <c r="AJ36" s="162"/>
       <c r="AK36" s="85"/>
     </row>
     <row r="37" spans="1:37" ht="64.95" customHeight="1" thickBot="1">
       <c r="A37" s="104">
         <v>26</v>
       </c>
-      <c r="B37" s="276" t="s">
+      <c r="B37" s="157" t="s">
         <v>197</v>
       </c>
-      <c r="C37" s="276" t="s">
+      <c r="C37" s="157" t="s">
         <v>198</v>
       </c>
       <c r="D37" s="106"/>
@@ -25912,7 +25915,7 @@
       <c r="I37" s="106"/>
       <c r="J37" s="106"/>
       <c r="K37" s="107"/>
-      <c r="L37" s="277"/>
+      <c r="L37" s="158"/>
       <c r="M37" s="109"/>
       <c r="N37" s="117"/>
       <c r="O37" s="117"/>
@@ -25936,17 +25939,17 @@
       <c r="AG37" s="114"/>
       <c r="AH37" s="114"/>
       <c r="AI37" s="115"/>
-      <c r="AJ37" s="283"/>
+      <c r="AJ37" s="162"/>
       <c r="AK37" s="85"/>
     </row>
     <row r="38" spans="1:37" ht="64.95" customHeight="1" thickBot="1">
       <c r="A38" s="104">
         <v>27</v>
       </c>
-      <c r="B38" s="276" t="s">
+      <c r="B38" s="157" t="s">
         <v>199</v>
       </c>
-      <c r="C38" s="276" t="s">
+      <c r="C38" s="157" t="s">
         <v>200</v>
       </c>
       <c r="D38" s="106"/>
@@ -25959,7 +25962,7 @@
       <c r="I38" s="106"/>
       <c r="J38" s="106"/>
       <c r="K38" s="107"/>
-      <c r="L38" s="277" t="s">
+      <c r="L38" s="158" t="s">
         <v>118</v>
       </c>
       <c r="M38" s="109"/>
@@ -25985,7 +25988,7 @@
       <c r="AG38" s="114"/>
       <c r="AH38" s="114"/>
       <c r="AI38" s="115"/>
-      <c r="AJ38" s="283" t="s">
+      <c r="AJ38" s="162" t="s">
         <v>250</v>
       </c>
       <c r="AK38" s="85"/>
@@ -25994,10 +25997,10 @@
       <c r="A39" s="104">
         <v>28</v>
       </c>
-      <c r="B39" s="276" t="s">
+      <c r="B39" s="157" t="s">
         <v>199</v>
       </c>
-      <c r="C39" s="276" t="s">
+      <c r="C39" s="157" t="s">
         <v>201</v>
       </c>
       <c r="D39" s="106"/>
@@ -26010,7 +26013,7 @@
       <c r="I39" s="106"/>
       <c r="J39" s="106"/>
       <c r="K39" s="107"/>
-      <c r="L39" s="277" t="s">
+      <c r="L39" s="158" t="s">
         <v>118</v>
       </c>
       <c r="M39" s="109"/>
@@ -26036,17 +26039,17 @@
       <c r="AG39" s="114"/>
       <c r="AH39" s="114"/>
       <c r="AI39" s="115"/>
-      <c r="AJ39" s="283"/>
+      <c r="AJ39" s="162"/>
       <c r="AK39" s="85"/>
     </row>
     <row r="40" spans="1:37" ht="64.95" customHeight="1" thickBot="1">
       <c r="A40" s="104">
         <v>29</v>
       </c>
-      <c r="B40" s="276" t="s">
+      <c r="B40" s="157" t="s">
         <v>202</v>
       </c>
-      <c r="C40" s="276" t="s">
+      <c r="C40" s="157" t="s">
         <v>203</v>
       </c>
       <c r="D40" s="106"/>
@@ -26057,11 +26060,11 @@
       <c r="G40" s="106"/>
       <c r="H40" s="106"/>
       <c r="I40" s="106"/>
-      <c r="J40" s="282" t="s">
+      <c r="J40" s="161" t="s">
         <v>117</v>
       </c>
       <c r="K40" s="107"/>
-      <c r="L40" s="277" t="s">
+      <c r="L40" s="158" t="s">
         <v>118</v>
       </c>
       <c r="M40" s="109"/>
@@ -26087,17 +26090,17 @@
       <c r="AG40" s="114"/>
       <c r="AH40" s="114"/>
       <c r="AI40" s="115"/>
-      <c r="AJ40" s="283"/>
+      <c r="AJ40" s="162"/>
       <c r="AK40" s="85"/>
     </row>
     <row r="41" spans="1:37" ht="64.95" customHeight="1" thickBot="1">
       <c r="A41" s="104">
         <v>30</v>
       </c>
-      <c r="B41" s="276" t="s">
+      <c r="B41" s="157" t="s">
         <v>202</v>
       </c>
-      <c r="C41" s="276" t="s">
+      <c r="C41" s="157" t="s">
         <v>204</v>
       </c>
       <c r="D41" s="106"/>
@@ -26108,11 +26111,11 @@
       <c r="G41" s="106"/>
       <c r="H41" s="106"/>
       <c r="I41" s="106"/>
-      <c r="J41" s="282" t="s">
+      <c r="J41" s="161" t="s">
         <v>117</v>
       </c>
       <c r="K41" s="107"/>
-      <c r="L41" s="277" t="s">
+      <c r="L41" s="158" t="s">
         <v>118</v>
       </c>
       <c r="M41" s="109"/>
@@ -26138,17 +26141,17 @@
       <c r="AG41" s="114"/>
       <c r="AH41" s="114"/>
       <c r="AI41" s="115"/>
-      <c r="AJ41" s="283"/>
+      <c r="AJ41" s="162"/>
       <c r="AK41" s="85"/>
     </row>
     <row r="42" spans="1:37" ht="64.95" customHeight="1" thickBot="1">
       <c r="A42" s="104">
         <v>31</v>
       </c>
-      <c r="B42" s="276" t="s">
+      <c r="B42" s="157" t="s">
         <v>205</v>
       </c>
-      <c r="C42" s="276" t="s">
+      <c r="C42" s="157" t="s">
         <v>235</v>
       </c>
       <c r="D42" s="106"/>
@@ -26161,7 +26164,7 @@
       <c r="I42" s="106"/>
       <c r="J42" s="106"/>
       <c r="K42" s="107"/>
-      <c r="L42" s="277"/>
+      <c r="L42" s="158"/>
       <c r="M42" s="109"/>
       <c r="N42" s="117"/>
       <c r="O42" s="117"/>
@@ -26185,17 +26188,17 @@
       <c r="AG42" s="114"/>
       <c r="AH42" s="114"/>
       <c r="AI42" s="115"/>
-      <c r="AJ42" s="283"/>
+      <c r="AJ42" s="162"/>
       <c r="AK42" s="85"/>
     </row>
     <row r="43" spans="1:37" ht="64.95" customHeight="1" thickBot="1">
       <c r="A43" s="104">
         <v>32</v>
       </c>
-      <c r="B43" s="276" t="s">
+      <c r="B43" s="157" t="s">
         <v>206</v>
       </c>
-      <c r="C43" s="276" t="s">
+      <c r="C43" s="157" t="s">
         <v>239</v>
       </c>
       <c r="D43" s="106"/>
@@ -26208,7 +26211,7 @@
       <c r="I43" s="106"/>
       <c r="J43" s="106"/>
       <c r="K43" s="107"/>
-      <c r="L43" s="277" t="s">
+      <c r="L43" s="158" t="s">
         <v>118</v>
       </c>
       <c r="M43" s="109"/>
@@ -26234,17 +26237,17 @@
       <c r="AG43" s="114"/>
       <c r="AH43" s="114"/>
       <c r="AI43" s="115"/>
-      <c r="AJ43" s="283"/>
+      <c r="AJ43" s="162"/>
       <c r="AK43" s="85"/>
     </row>
     <row r="44" spans="1:37" ht="64.95" customHeight="1" thickBot="1">
       <c r="A44" s="104">
         <v>33</v>
       </c>
-      <c r="B44" s="276" t="s">
+      <c r="B44" s="157" t="s">
         <v>148</v>
       </c>
-      <c r="C44" s="276" t="s">
+      <c r="C44" s="157" t="s">
         <v>149</v>
       </c>
       <c r="D44" s="106"/>
@@ -26257,7 +26260,7 @@
       <c r="I44" s="106"/>
       <c r="J44" s="106"/>
       <c r="K44" s="107"/>
-      <c r="L44" s="277"/>
+      <c r="L44" s="158"/>
       <c r="M44" s="109"/>
       <c r="N44" s="117"/>
       <c r="O44" s="117"/>
@@ -26281,17 +26284,17 @@
       <c r="AG44" s="114"/>
       <c r="AH44" s="114"/>
       <c r="AI44" s="115"/>
-      <c r="AJ44" s="283"/>
+      <c r="AJ44" s="162"/>
       <c r="AK44" s="85"/>
     </row>
     <row r="45" spans="1:37" ht="64.95" customHeight="1" thickBot="1">
       <c r="A45" s="104">
         <v>34</v>
       </c>
-      <c r="B45" s="276" t="s">
+      <c r="B45" s="157" t="s">
         <v>150</v>
       </c>
-      <c r="C45" s="276" t="s">
+      <c r="C45" s="157" t="s">
         <v>151</v>
       </c>
       <c r="D45" s="106"/>
@@ -26304,7 +26307,7 @@
       <c r="I45" s="106"/>
       <c r="J45" s="106"/>
       <c r="K45" s="107"/>
-      <c r="L45" s="277"/>
+      <c r="L45" s="158"/>
       <c r="M45" s="109"/>
       <c r="N45" s="117"/>
       <c r="O45" s="117"/>
@@ -26328,17 +26331,17 @@
       <c r="AG45" s="114"/>
       <c r="AH45" s="114"/>
       <c r="AI45" s="115"/>
-      <c r="AJ45" s="283"/>
+      <c r="AJ45" s="162"/>
       <c r="AK45" s="85"/>
     </row>
     <row r="46" spans="1:37" ht="64.95" customHeight="1" thickBot="1">
       <c r="A46" s="104">
         <v>35</v>
       </c>
-      <c r="B46" s="276" t="s">
+      <c r="B46" s="157" t="s">
         <v>157</v>
       </c>
-      <c r="C46" s="276" t="s">
+      <c r="C46" s="157" t="s">
         <v>207</v>
       </c>
       <c r="D46" s="106"/>
@@ -26351,7 +26354,7 @@
       <c r="I46" s="106"/>
       <c r="J46" s="106"/>
       <c r="K46" s="107"/>
-      <c r="L46" s="277"/>
+      <c r="L46" s="158"/>
       <c r="M46" s="109"/>
       <c r="N46" s="117"/>
       <c r="O46" s="117"/>
@@ -26375,17 +26378,17 @@
       <c r="AG46" s="114"/>
       <c r="AH46" s="114"/>
       <c r="AI46" s="115"/>
-      <c r="AJ46" s="283"/>
+      <c r="AJ46" s="162"/>
       <c r="AK46" s="85"/>
     </row>
     <row r="47" spans="1:37" ht="64.95" customHeight="1" thickBot="1">
       <c r="A47" s="104">
         <v>36</v>
       </c>
-      <c r="B47" s="276" t="s">
+      <c r="B47" s="157" t="s">
         <v>171</v>
       </c>
-      <c r="C47" s="276" t="s">
+      <c r="C47" s="157" t="s">
         <v>172</v>
       </c>
       <c r="D47" s="106"/>
@@ -26398,7 +26401,7 @@
       <c r="I47" s="106"/>
       <c r="J47" s="106"/>
       <c r="K47" s="107"/>
-      <c r="L47" s="277" t="s">
+      <c r="L47" s="158" t="s">
         <v>118</v>
       </c>
       <c r="M47" s="109"/>
@@ -26424,17 +26427,17 @@
       <c r="AG47" s="114"/>
       <c r="AH47" s="114"/>
       <c r="AI47" s="115"/>
-      <c r="AJ47" s="283"/>
+      <c r="AJ47" s="162"/>
       <c r="AK47" s="85"/>
     </row>
     <row r="48" spans="1:37" ht="64.95" customHeight="1" thickBot="1">
       <c r="A48" s="104">
         <v>37</v>
       </c>
-      <c r="B48" s="276" t="s">
+      <c r="B48" s="157" t="s">
         <v>177</v>
       </c>
-      <c r="C48" s="276" t="s">
+      <c r="C48" s="157" t="s">
         <v>178</v>
       </c>
       <c r="D48" s="106"/>
@@ -26447,7 +26450,7 @@
       <c r="I48" s="106"/>
       <c r="J48" s="106"/>
       <c r="K48" s="107"/>
-      <c r="L48" s="277"/>
+      <c r="L48" s="158"/>
       <c r="M48" s="109"/>
       <c r="N48" s="117"/>
       <c r="O48" s="117"/>
@@ -26471,17 +26474,17 @@
       <c r="AG48" s="114"/>
       <c r="AH48" s="114"/>
       <c r="AI48" s="115"/>
-      <c r="AJ48" s="283"/>
+      <c r="AJ48" s="162"/>
       <c r="AK48" s="85"/>
     </row>
     <row r="49" spans="1:37" ht="64.95" customHeight="1" thickBot="1">
       <c r="A49" s="104">
         <v>38</v>
       </c>
-      <c r="B49" s="276" t="s">
+      <c r="B49" s="157" t="s">
         <v>186</v>
       </c>
-      <c r="C49" s="276" t="s">
+      <c r="C49" s="157" t="s">
         <v>187</v>
       </c>
       <c r="D49" s="106"/>
@@ -26494,7 +26497,7 @@
       <c r="I49" s="106"/>
       <c r="J49" s="106"/>
       <c r="K49" s="107"/>
-      <c r="L49" s="277"/>
+      <c r="L49" s="158"/>
       <c r="M49" s="109"/>
       <c r="N49" s="117"/>
       <c r="O49" s="117"/>
@@ -26518,7 +26521,7 @@
       <c r="AG49" s="114"/>
       <c r="AH49" s="114"/>
       <c r="AI49" s="115"/>
-      <c r="AJ49" s="283"/>
+      <c r="AJ49" s="162"/>
       <c r="AK49" s="85"/>
     </row>
     <row r="50" spans="1:37" ht="64.95" customHeight="1" thickBot="1">
@@ -26533,7 +26536,7 @@
       <c r="I50" s="106"/>
       <c r="J50" s="106"/>
       <c r="K50" s="107"/>
-      <c r="L50" s="277"/>
+      <c r="L50" s="158"/>
       <c r="M50" s="109"/>
       <c r="N50" s="117"/>
       <c r="O50" s="117"/>
@@ -26557,7 +26560,7 @@
       <c r="AG50" s="114"/>
       <c r="AH50" s="114"/>
       <c r="AI50" s="115"/>
-      <c r="AJ50" s="283"/>
+      <c r="AJ50" s="162"/>
       <c r="AK50" s="85"/>
     </row>
     <row r="51" spans="1:37" ht="64.95" customHeight="1" thickBot="1">
@@ -26572,7 +26575,7 @@
       <c r="I51" s="106"/>
       <c r="J51" s="106"/>
       <c r="K51" s="107"/>
-      <c r="L51" s="277"/>
+      <c r="L51" s="158"/>
       <c r="M51" s="109"/>
       <c r="N51" s="117"/>
       <c r="O51" s="117"/>
@@ -26596,24 +26599,24 @@
       <c r="AG51" s="114"/>
       <c r="AH51" s="114"/>
       <c r="AI51" s="115"/>
-      <c r="AJ51" s="283"/>
+      <c r="AJ51" s="162"/>
       <c r="AK51" s="85"/>
     </row>
     <row r="52" spans="1:37" s="99" customFormat="1" ht="45" customHeight="1" thickBot="1">
       <c r="A52" s="95"/>
-      <c r="B52" s="200" t="s">
+      <c r="B52" s="208" t="s">
         <v>29</v>
       </c>
-      <c r="C52" s="201"/>
-      <c r="D52" s="201"/>
-      <c r="E52" s="201"/>
-      <c r="F52" s="201"/>
-      <c r="G52" s="201"/>
-      <c r="H52" s="201"/>
-      <c r="I52" s="201"/>
-      <c r="J52" s="201"/>
-      <c r="K52" s="201"/>
-      <c r="L52" s="202"/>
+      <c r="C52" s="209"/>
+      <c r="D52" s="209"/>
+      <c r="E52" s="209"/>
+      <c r="F52" s="209"/>
+      <c r="G52" s="209"/>
+      <c r="H52" s="209"/>
+      <c r="I52" s="209"/>
+      <c r="J52" s="209"/>
+      <c r="K52" s="209"/>
+      <c r="L52" s="210"/>
       <c r="M52" s="122">
         <f>COUNTA(M12:M51)</f>
         <v>0</v>
@@ -26707,49 +26710,44 @@
       <c r="AK52" s="85"/>
     </row>
     <row r="53" spans="1:37" ht="14.4">
-      <c r="A53" s="159"/>
-      <c r="B53" s="159"/>
-      <c r="C53" s="159"/>
-      <c r="D53" s="159"/>
-      <c r="E53" s="159"/>
-      <c r="F53" s="159"/>
-      <c r="G53" s="159"/>
-      <c r="H53" s="159"/>
-      <c r="I53" s="159"/>
-      <c r="J53" s="159"/>
-      <c r="K53" s="159"/>
-      <c r="L53" s="159"/>
-      <c r="M53" s="159"/>
-      <c r="N53" s="159"/>
-      <c r="O53" s="159"/>
-      <c r="P53" s="159"/>
-      <c r="Q53" s="159"/>
-      <c r="R53" s="159"/>
-      <c r="S53" s="159"/>
-      <c r="T53" s="159"/>
-      <c r="U53" s="159"/>
-      <c r="V53" s="159"/>
-      <c r="W53" s="159"/>
-      <c r="X53" s="159"/>
-      <c r="Y53" s="159"/>
-      <c r="Z53" s="159"/>
-      <c r="AA53" s="159"/>
-      <c r="AB53" s="159"/>
-      <c r="AC53" s="159"/>
-      <c r="AD53" s="159"/>
-      <c r="AE53" s="159"/>
-      <c r="AF53" s="159"/>
-      <c r="AG53" s="159"/>
-      <c r="AH53" s="159"/>
-      <c r="AI53" s="159"/>
+      <c r="A53" s="163"/>
+      <c r="B53" s="163"/>
+      <c r="C53" s="163"/>
+      <c r="D53" s="163"/>
+      <c r="E53" s="163"/>
+      <c r="F53" s="163"/>
+      <c r="G53" s="163"/>
+      <c r="H53" s="163"/>
+      <c r="I53" s="163"/>
+      <c r="J53" s="163"/>
+      <c r="K53" s="163"/>
+      <c r="L53" s="163"/>
+      <c r="M53" s="163"/>
+      <c r="N53" s="163"/>
+      <c r="O53" s="163"/>
+      <c r="P53" s="163"/>
+      <c r="Q53" s="163"/>
+      <c r="R53" s="163"/>
+      <c r="S53" s="163"/>
+      <c r="T53" s="163"/>
+      <c r="U53" s="163"/>
+      <c r="V53" s="163"/>
+      <c r="W53" s="163"/>
+      <c r="X53" s="163"/>
+      <c r="Y53" s="163"/>
+      <c r="Z53" s="163"/>
+      <c r="AA53" s="163"/>
+      <c r="AB53" s="163"/>
+      <c r="AC53" s="163"/>
+      <c r="AD53" s="163"/>
+      <c r="AE53" s="163"/>
+      <c r="AF53" s="163"/>
+      <c r="AG53" s="163"/>
+      <c r="AH53" s="163"/>
+      <c r="AI53" s="163"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A1:AI7"/>
-    <mergeCell ref="AJ1:AJ7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="M8:AI8"/>
     <mergeCell ref="M9:W9"/>
     <mergeCell ref="X9:AI9"/>
     <mergeCell ref="AK9:AK10"/>
@@ -26766,6 +26764,11 @@
     <mergeCell ref="D9:D10"/>
     <mergeCell ref="E9:E10"/>
     <mergeCell ref="F9:F10"/>
+    <mergeCell ref="A1:AI7"/>
+    <mergeCell ref="AJ1:AJ7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="M8:AI8"/>
   </mergeCells>
   <conditionalFormatting sqref="M11:AI52 E12:K51">
     <cfRule type="containsBlanks" dxfId="8" priority="3">
@@ -26779,7 +26782,7 @@
   </conditionalFormatting>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="40" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="16" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <drawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
@@ -26842,277 +26845,277 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="45" customHeight="1">
-      <c r="A1" s="159"/>
-      <c r="B1" s="159"/>
-      <c r="C1" s="159"/>
-      <c r="D1" s="159"/>
-      <c r="E1" s="159"/>
-      <c r="F1" s="159"/>
-      <c r="G1" s="159"/>
-      <c r="H1" s="159"/>
-      <c r="I1" s="159"/>
-      <c r="J1" s="159"/>
-      <c r="K1" s="159"/>
-      <c r="L1" s="159"/>
-      <c r="M1" s="159"/>
-      <c r="N1" s="159"/>
-      <c r="O1" s="159"/>
-      <c r="P1" s="159"/>
-      <c r="Q1" s="159"/>
-      <c r="R1" s="159"/>
-      <c r="S1" s="159"/>
-      <c r="T1" s="159"/>
-      <c r="U1" s="159"/>
-      <c r="V1" s="159"/>
-      <c r="W1" s="159"/>
-      <c r="X1" s="159"/>
-      <c r="Y1" s="159"/>
-      <c r="Z1" s="159"/>
-      <c r="AA1" s="159"/>
-      <c r="AB1" s="159"/>
-      <c r="AC1" s="159"/>
-      <c r="AD1" s="159"/>
-      <c r="AE1" s="159"/>
-      <c r="AF1" s="159"/>
-      <c r="AG1" s="159"/>
-      <c r="AH1" s="159"/>
-      <c r="AI1" s="159"/>
-      <c r="AJ1" s="159"/>
+      <c r="A1" s="163"/>
+      <c r="B1" s="163"/>
+      <c r="C1" s="163"/>
+      <c r="D1" s="163"/>
+      <c r="E1" s="163"/>
+      <c r="F1" s="163"/>
+      <c r="G1" s="163"/>
+      <c r="H1" s="163"/>
+      <c r="I1" s="163"/>
+      <c r="J1" s="163"/>
+      <c r="K1" s="163"/>
+      <c r="L1" s="163"/>
+      <c r="M1" s="163"/>
+      <c r="N1" s="163"/>
+      <c r="O1" s="163"/>
+      <c r="P1" s="163"/>
+      <c r="Q1" s="163"/>
+      <c r="R1" s="163"/>
+      <c r="S1" s="163"/>
+      <c r="T1" s="163"/>
+      <c r="U1" s="163"/>
+      <c r="V1" s="163"/>
+      <c r="W1" s="163"/>
+      <c r="X1" s="163"/>
+      <c r="Y1" s="163"/>
+      <c r="Z1" s="163"/>
+      <c r="AA1" s="163"/>
+      <c r="AB1" s="163"/>
+      <c r="AC1" s="163"/>
+      <c r="AD1" s="163"/>
+      <c r="AE1" s="163"/>
+      <c r="AF1" s="163"/>
+      <c r="AG1" s="163"/>
+      <c r="AH1" s="163"/>
+      <c r="AI1" s="163"/>
+      <c r="AJ1" s="163"/>
     </row>
     <row r="2" spans="1:37" ht="45" customHeight="1">
-      <c r="A2" s="159"/>
-      <c r="B2" s="159"/>
-      <c r="C2" s="159"/>
-      <c r="D2" s="159"/>
-      <c r="E2" s="159"/>
-      <c r="F2" s="159"/>
-      <c r="G2" s="159"/>
-      <c r="H2" s="159"/>
-      <c r="I2" s="159"/>
-      <c r="J2" s="159"/>
-      <c r="K2" s="159"/>
-      <c r="L2" s="159"/>
-      <c r="M2" s="159"/>
-      <c r="N2" s="159"/>
-      <c r="O2" s="159"/>
-      <c r="P2" s="159"/>
-      <c r="Q2" s="159"/>
-      <c r="R2" s="159"/>
-      <c r="S2" s="159"/>
-      <c r="T2" s="159"/>
-      <c r="U2" s="159"/>
-      <c r="V2" s="159"/>
-      <c r="W2" s="159"/>
-      <c r="X2" s="159"/>
-      <c r="Y2" s="159"/>
-      <c r="Z2" s="159"/>
-      <c r="AA2" s="159"/>
-      <c r="AB2" s="159"/>
-      <c r="AC2" s="159"/>
-      <c r="AD2" s="159"/>
-      <c r="AE2" s="159"/>
-      <c r="AF2" s="159"/>
-      <c r="AG2" s="159"/>
-      <c r="AH2" s="159"/>
-      <c r="AI2" s="159"/>
-      <c r="AJ2" s="159"/>
+      <c r="A2" s="163"/>
+      <c r="B2" s="163"/>
+      <c r="C2" s="163"/>
+      <c r="D2" s="163"/>
+      <c r="E2" s="163"/>
+      <c r="F2" s="163"/>
+      <c r="G2" s="163"/>
+      <c r="H2" s="163"/>
+      <c r="I2" s="163"/>
+      <c r="J2" s="163"/>
+      <c r="K2" s="163"/>
+      <c r="L2" s="163"/>
+      <c r="M2" s="163"/>
+      <c r="N2" s="163"/>
+      <c r="O2" s="163"/>
+      <c r="P2" s="163"/>
+      <c r="Q2" s="163"/>
+      <c r="R2" s="163"/>
+      <c r="S2" s="163"/>
+      <c r="T2" s="163"/>
+      <c r="U2" s="163"/>
+      <c r="V2" s="163"/>
+      <c r="W2" s="163"/>
+      <c r="X2" s="163"/>
+      <c r="Y2" s="163"/>
+      <c r="Z2" s="163"/>
+      <c r="AA2" s="163"/>
+      <c r="AB2" s="163"/>
+      <c r="AC2" s="163"/>
+      <c r="AD2" s="163"/>
+      <c r="AE2" s="163"/>
+      <c r="AF2" s="163"/>
+      <c r="AG2" s="163"/>
+      <c r="AH2" s="163"/>
+      <c r="AI2" s="163"/>
+      <c r="AJ2" s="163"/>
     </row>
     <row r="3" spans="1:37" ht="45" customHeight="1">
-      <c r="A3" s="159"/>
-      <c r="B3" s="159"/>
-      <c r="C3" s="159"/>
-      <c r="D3" s="159"/>
-      <c r="E3" s="159"/>
-      <c r="F3" s="159"/>
-      <c r="G3" s="159"/>
-      <c r="H3" s="159"/>
-      <c r="I3" s="159"/>
-      <c r="J3" s="159"/>
-      <c r="K3" s="159"/>
-      <c r="L3" s="159"/>
-      <c r="M3" s="159"/>
-      <c r="N3" s="159"/>
-      <c r="O3" s="159"/>
-      <c r="P3" s="159"/>
-      <c r="Q3" s="159"/>
-      <c r="R3" s="159"/>
-      <c r="S3" s="159"/>
-      <c r="T3" s="159"/>
-      <c r="U3" s="159"/>
-      <c r="V3" s="159"/>
-      <c r="W3" s="159"/>
-      <c r="X3" s="159"/>
-      <c r="Y3" s="159"/>
-      <c r="Z3" s="159"/>
-      <c r="AA3" s="159"/>
-      <c r="AB3" s="159"/>
-      <c r="AC3" s="159"/>
-      <c r="AD3" s="159"/>
-      <c r="AE3" s="159"/>
-      <c r="AF3" s="159"/>
-      <c r="AG3" s="159"/>
-      <c r="AH3" s="159"/>
-      <c r="AI3" s="159"/>
-      <c r="AJ3" s="159"/>
+      <c r="A3" s="163"/>
+      <c r="B3" s="163"/>
+      <c r="C3" s="163"/>
+      <c r="D3" s="163"/>
+      <c r="E3" s="163"/>
+      <c r="F3" s="163"/>
+      <c r="G3" s="163"/>
+      <c r="H3" s="163"/>
+      <c r="I3" s="163"/>
+      <c r="J3" s="163"/>
+      <c r="K3" s="163"/>
+      <c r="L3" s="163"/>
+      <c r="M3" s="163"/>
+      <c r="N3" s="163"/>
+      <c r="O3" s="163"/>
+      <c r="P3" s="163"/>
+      <c r="Q3" s="163"/>
+      <c r="R3" s="163"/>
+      <c r="S3" s="163"/>
+      <c r="T3" s="163"/>
+      <c r="U3" s="163"/>
+      <c r="V3" s="163"/>
+      <c r="W3" s="163"/>
+      <c r="X3" s="163"/>
+      <c r="Y3" s="163"/>
+      <c r="Z3" s="163"/>
+      <c r="AA3" s="163"/>
+      <c r="AB3" s="163"/>
+      <c r="AC3" s="163"/>
+      <c r="AD3" s="163"/>
+      <c r="AE3" s="163"/>
+      <c r="AF3" s="163"/>
+      <c r="AG3" s="163"/>
+      <c r="AH3" s="163"/>
+      <c r="AI3" s="163"/>
+      <c r="AJ3" s="163"/>
     </row>
     <row r="4" spans="1:37" ht="45" customHeight="1">
-      <c r="A4" s="159"/>
-      <c r="B4" s="159"/>
-      <c r="C4" s="159"/>
-      <c r="D4" s="159"/>
-      <c r="E4" s="159"/>
-      <c r="F4" s="159"/>
-      <c r="G4" s="159"/>
-      <c r="H4" s="159"/>
-      <c r="I4" s="159"/>
-      <c r="J4" s="159"/>
-      <c r="K4" s="159"/>
-      <c r="L4" s="159"/>
-      <c r="M4" s="159"/>
-      <c r="N4" s="159"/>
-      <c r="O4" s="159"/>
-      <c r="P4" s="159"/>
-      <c r="Q4" s="159"/>
-      <c r="R4" s="159"/>
-      <c r="S4" s="159"/>
-      <c r="T4" s="159"/>
-      <c r="U4" s="159"/>
-      <c r="V4" s="159"/>
-      <c r="W4" s="159"/>
-      <c r="X4" s="159"/>
-      <c r="Y4" s="159"/>
-      <c r="Z4" s="159"/>
-      <c r="AA4" s="159"/>
-      <c r="AB4" s="159"/>
-      <c r="AC4" s="159"/>
-      <c r="AD4" s="159"/>
-      <c r="AE4" s="159"/>
-      <c r="AF4" s="159"/>
-      <c r="AG4" s="159"/>
-      <c r="AH4" s="159"/>
-      <c r="AI4" s="159"/>
-      <c r="AJ4" s="159"/>
+      <c r="A4" s="163"/>
+      <c r="B4" s="163"/>
+      <c r="C4" s="163"/>
+      <c r="D4" s="163"/>
+      <c r="E4" s="163"/>
+      <c r="F4" s="163"/>
+      <c r="G4" s="163"/>
+      <c r="H4" s="163"/>
+      <c r="I4" s="163"/>
+      <c r="J4" s="163"/>
+      <c r="K4" s="163"/>
+      <c r="L4" s="163"/>
+      <c r="M4" s="163"/>
+      <c r="N4" s="163"/>
+      <c r="O4" s="163"/>
+      <c r="P4" s="163"/>
+      <c r="Q4" s="163"/>
+      <c r="R4" s="163"/>
+      <c r="S4" s="163"/>
+      <c r="T4" s="163"/>
+      <c r="U4" s="163"/>
+      <c r="V4" s="163"/>
+      <c r="W4" s="163"/>
+      <c r="X4" s="163"/>
+      <c r="Y4" s="163"/>
+      <c r="Z4" s="163"/>
+      <c r="AA4" s="163"/>
+      <c r="AB4" s="163"/>
+      <c r="AC4" s="163"/>
+      <c r="AD4" s="163"/>
+      <c r="AE4" s="163"/>
+      <c r="AF4" s="163"/>
+      <c r="AG4" s="163"/>
+      <c r="AH4" s="163"/>
+      <c r="AI4" s="163"/>
+      <c r="AJ4" s="163"/>
     </row>
     <row r="5" spans="1:37" ht="45" customHeight="1">
-      <c r="A5" s="159"/>
-      <c r="B5" s="159"/>
-      <c r="C5" s="159"/>
-      <c r="D5" s="159"/>
-      <c r="E5" s="159"/>
-      <c r="F5" s="159"/>
-      <c r="G5" s="159"/>
-      <c r="H5" s="159"/>
-      <c r="I5" s="159"/>
-      <c r="J5" s="159"/>
-      <c r="K5" s="159"/>
-      <c r="L5" s="159"/>
-      <c r="M5" s="159"/>
-      <c r="N5" s="159"/>
-      <c r="O5" s="159"/>
-      <c r="P5" s="159"/>
-      <c r="Q5" s="159"/>
-      <c r="R5" s="159"/>
-      <c r="S5" s="159"/>
-      <c r="T5" s="159"/>
-      <c r="U5" s="159"/>
-      <c r="V5" s="159"/>
-      <c r="W5" s="159"/>
-      <c r="X5" s="159"/>
-      <c r="Y5" s="159"/>
-      <c r="Z5" s="159"/>
-      <c r="AA5" s="159"/>
-      <c r="AB5" s="159"/>
-      <c r="AC5" s="159"/>
-      <c r="AD5" s="159"/>
-      <c r="AE5" s="159"/>
-      <c r="AF5" s="159"/>
-      <c r="AG5" s="159"/>
-      <c r="AH5" s="159"/>
-      <c r="AI5" s="159"/>
-      <c r="AJ5" s="159"/>
+      <c r="A5" s="163"/>
+      <c r="B5" s="163"/>
+      <c r="C5" s="163"/>
+      <c r="D5" s="163"/>
+      <c r="E5" s="163"/>
+      <c r="F5" s="163"/>
+      <c r="G5" s="163"/>
+      <c r="H5" s="163"/>
+      <c r="I5" s="163"/>
+      <c r="J5" s="163"/>
+      <c r="K5" s="163"/>
+      <c r="L5" s="163"/>
+      <c r="M5" s="163"/>
+      <c r="N5" s="163"/>
+      <c r="O5" s="163"/>
+      <c r="P5" s="163"/>
+      <c r="Q5" s="163"/>
+      <c r="R5" s="163"/>
+      <c r="S5" s="163"/>
+      <c r="T5" s="163"/>
+      <c r="U5" s="163"/>
+      <c r="V5" s="163"/>
+      <c r="W5" s="163"/>
+      <c r="X5" s="163"/>
+      <c r="Y5" s="163"/>
+      <c r="Z5" s="163"/>
+      <c r="AA5" s="163"/>
+      <c r="AB5" s="163"/>
+      <c r="AC5" s="163"/>
+      <c r="AD5" s="163"/>
+      <c r="AE5" s="163"/>
+      <c r="AF5" s="163"/>
+      <c r="AG5" s="163"/>
+      <c r="AH5" s="163"/>
+      <c r="AI5" s="163"/>
+      <c r="AJ5" s="163"/>
     </row>
     <row r="6" spans="1:37" ht="45" customHeight="1">
-      <c r="A6" s="159"/>
-      <c r="B6" s="159"/>
-      <c r="C6" s="159"/>
-      <c r="D6" s="159"/>
-      <c r="E6" s="159"/>
-      <c r="F6" s="159"/>
-      <c r="G6" s="159"/>
-      <c r="H6" s="159"/>
-      <c r="I6" s="159"/>
-      <c r="J6" s="159"/>
-      <c r="K6" s="159"/>
-      <c r="L6" s="159"/>
-      <c r="M6" s="159"/>
-      <c r="N6" s="159"/>
-      <c r="O6" s="159"/>
-      <c r="P6" s="159"/>
-      <c r="Q6" s="159"/>
-      <c r="R6" s="159"/>
-      <c r="S6" s="159"/>
-      <c r="T6" s="159"/>
-      <c r="U6" s="159"/>
-      <c r="V6" s="159"/>
-      <c r="W6" s="159"/>
-      <c r="X6" s="159"/>
-      <c r="Y6" s="159"/>
-      <c r="Z6" s="159"/>
-      <c r="AA6" s="159"/>
-      <c r="AB6" s="159"/>
-      <c r="AC6" s="159"/>
-      <c r="AD6" s="159"/>
-      <c r="AE6" s="159"/>
-      <c r="AF6" s="159"/>
-      <c r="AG6" s="159"/>
-      <c r="AH6" s="159"/>
-      <c r="AI6" s="159"/>
-      <c r="AJ6" s="159"/>
+      <c r="A6" s="163"/>
+      <c r="B6" s="163"/>
+      <c r="C6" s="163"/>
+      <c r="D6" s="163"/>
+      <c r="E6" s="163"/>
+      <c r="F6" s="163"/>
+      <c r="G6" s="163"/>
+      <c r="H6" s="163"/>
+      <c r="I6" s="163"/>
+      <c r="J6" s="163"/>
+      <c r="K6" s="163"/>
+      <c r="L6" s="163"/>
+      <c r="M6" s="163"/>
+      <c r="N6" s="163"/>
+      <c r="O6" s="163"/>
+      <c r="P6" s="163"/>
+      <c r="Q6" s="163"/>
+      <c r="R6" s="163"/>
+      <c r="S6" s="163"/>
+      <c r="T6" s="163"/>
+      <c r="U6" s="163"/>
+      <c r="V6" s="163"/>
+      <c r="W6" s="163"/>
+      <c r="X6" s="163"/>
+      <c r="Y6" s="163"/>
+      <c r="Z6" s="163"/>
+      <c r="AA6" s="163"/>
+      <c r="AB6" s="163"/>
+      <c r="AC6" s="163"/>
+      <c r="AD6" s="163"/>
+      <c r="AE6" s="163"/>
+      <c r="AF6" s="163"/>
+      <c r="AG6" s="163"/>
+      <c r="AH6" s="163"/>
+      <c r="AI6" s="163"/>
+      <c r="AJ6" s="163"/>
     </row>
     <row r="7" spans="1:37" ht="45" customHeight="1" thickBot="1">
-      <c r="A7" s="159"/>
-      <c r="B7" s="159"/>
-      <c r="C7" s="159"/>
-      <c r="D7" s="159"/>
-      <c r="E7" s="159"/>
-      <c r="F7" s="159"/>
-      <c r="G7" s="159"/>
-      <c r="H7" s="159"/>
-      <c r="I7" s="159"/>
-      <c r="J7" s="159"/>
-      <c r="K7" s="159"/>
-      <c r="L7" s="159"/>
-      <c r="M7" s="159"/>
-      <c r="N7" s="159"/>
-      <c r="O7" s="159"/>
-      <c r="P7" s="159"/>
-      <c r="Q7" s="159"/>
-      <c r="R7" s="159"/>
-      <c r="S7" s="159"/>
-      <c r="T7" s="159"/>
-      <c r="U7" s="159"/>
-      <c r="V7" s="159"/>
-      <c r="W7" s="159"/>
-      <c r="X7" s="159"/>
-      <c r="Y7" s="159"/>
-      <c r="Z7" s="159"/>
-      <c r="AA7" s="159"/>
-      <c r="AB7" s="159"/>
-      <c r="AC7" s="159"/>
-      <c r="AD7" s="159"/>
-      <c r="AE7" s="159"/>
-      <c r="AF7" s="159"/>
-      <c r="AG7" s="159"/>
-      <c r="AH7" s="159"/>
-      <c r="AI7" s="159"/>
-      <c r="AJ7" s="159"/>
+      <c r="A7" s="163"/>
+      <c r="B7" s="163"/>
+      <c r="C7" s="163"/>
+      <c r="D7" s="163"/>
+      <c r="E7" s="163"/>
+      <c r="F7" s="163"/>
+      <c r="G7" s="163"/>
+      <c r="H7" s="163"/>
+      <c r="I7" s="163"/>
+      <c r="J7" s="163"/>
+      <c r="K7" s="163"/>
+      <c r="L7" s="163"/>
+      <c r="M7" s="163"/>
+      <c r="N7" s="163"/>
+      <c r="O7" s="163"/>
+      <c r="P7" s="163"/>
+      <c r="Q7" s="163"/>
+      <c r="R7" s="163"/>
+      <c r="S7" s="163"/>
+      <c r="T7" s="163"/>
+      <c r="U7" s="163"/>
+      <c r="V7" s="163"/>
+      <c r="W7" s="163"/>
+      <c r="X7" s="163"/>
+      <c r="Y7" s="163"/>
+      <c r="Z7" s="163"/>
+      <c r="AA7" s="163"/>
+      <c r="AB7" s="163"/>
+      <c r="AC7" s="163"/>
+      <c r="AD7" s="163"/>
+      <c r="AE7" s="163"/>
+      <c r="AF7" s="163"/>
+      <c r="AG7" s="163"/>
+      <c r="AH7" s="163"/>
+      <c r="AI7" s="163"/>
+      <c r="AJ7" s="163"/>
     </row>
     <row r="8" spans="1:37" ht="49.95" customHeight="1" thickBot="1">
       <c r="A8" s="90"/>
-      <c r="B8" s="225" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="226"/>
+      <c r="B8" s="219" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="220"/>
       <c r="D8" s="14"/>
       <c r="E8" s="15" t="s">
         <v>133</v>
@@ -27121,34 +27124,34 @@
       <c r="G8" s="17"/>
       <c r="H8" s="17"/>
       <c r="I8" s="18"/>
-      <c r="J8" s="178"/>
-      <c r="K8" s="179"/>
-      <c r="L8" s="180"/>
-      <c r="M8" s="174" t="s">
+      <c r="J8" s="168"/>
+      <c r="K8" s="169"/>
+      <c r="L8" s="170"/>
+      <c r="M8" s="164" t="s">
         <v>135</v>
       </c>
-      <c r="N8" s="175"/>
-      <c r="O8" s="175"/>
-      <c r="P8" s="175"/>
-      <c r="Q8" s="175"/>
-      <c r="R8" s="175"/>
-      <c r="S8" s="175"/>
-      <c r="T8" s="175"/>
-      <c r="U8" s="175"/>
-      <c r="V8" s="175"/>
-      <c r="W8" s="175"/>
-      <c r="X8" s="175"/>
-      <c r="Y8" s="175"/>
-      <c r="Z8" s="175"/>
-      <c r="AA8" s="175"/>
-      <c r="AB8" s="175"/>
-      <c r="AC8" s="175"/>
-      <c r="AD8" s="175"/>
-      <c r="AE8" s="175"/>
-      <c r="AF8" s="175"/>
-      <c r="AG8" s="175"/>
-      <c r="AH8" s="175"/>
-      <c r="AI8" s="175"/>
+      <c r="N8" s="165"/>
+      <c r="O8" s="165"/>
+      <c r="P8" s="165"/>
+      <c r="Q8" s="165"/>
+      <c r="R8" s="165"/>
+      <c r="S8" s="165"/>
+      <c r="T8" s="165"/>
+      <c r="U8" s="165"/>
+      <c r="V8" s="165"/>
+      <c r="W8" s="165"/>
+      <c r="X8" s="165"/>
+      <c r="Y8" s="165"/>
+      <c r="Z8" s="165"/>
+      <c r="AA8" s="165"/>
+      <c r="AB8" s="165"/>
+      <c r="AC8" s="165"/>
+      <c r="AD8" s="165"/>
+      <c r="AE8" s="165"/>
+      <c r="AF8" s="165"/>
+      <c r="AG8" s="165"/>
+      <c r="AH8" s="165"/>
+      <c r="AI8" s="165"/>
       <c r="AJ8" s="12"/>
       <c r="AK8" s="15" t="s">
         <v>136</v>
@@ -27156,82 +27159,82 @@
     </row>
     <row r="9" spans="1:37" ht="49.95" customHeight="1" thickBot="1">
       <c r="A9" s="91"/>
-      <c r="B9" s="223" t="s">
+      <c r="B9" s="233" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="219" t="s">
+      <c r="C9" s="229" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="219" t="s">
+      <c r="D9" s="229" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="219" t="s">
+      <c r="E9" s="229" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="219" t="s">
+      <c r="F9" s="229" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="217" t="s">
+      <c r="G9" s="227" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="219" t="s">
+      <c r="H9" s="229" t="s">
         <v>7</v>
       </c>
-      <c r="I9" s="217" t="s">
+      <c r="I9" s="227" t="s">
         <v>8</v>
       </c>
-      <c r="J9" s="217" t="s">
+      <c r="J9" s="227" t="s">
         <v>9</v>
       </c>
-      <c r="K9" s="217" t="s">
+      <c r="K9" s="227" t="s">
         <v>10</v>
       </c>
-      <c r="L9" s="221" t="s">
+      <c r="L9" s="231" t="s">
         <v>11</v>
       </c>
-      <c r="M9" s="211" t="s">
+      <c r="M9" s="221" t="s">
         <v>12</v>
       </c>
-      <c r="N9" s="212"/>
-      <c r="O9" s="212"/>
-      <c r="P9" s="212"/>
-      <c r="Q9" s="212"/>
-      <c r="R9" s="212"/>
-      <c r="S9" s="212"/>
-      <c r="T9" s="212"/>
-      <c r="U9" s="212"/>
-      <c r="V9" s="212"/>
-      <c r="W9" s="213"/>
-      <c r="X9" s="160"/>
-      <c r="Y9" s="160"/>
-      <c r="Z9" s="160"/>
-      <c r="AA9" s="160"/>
-      <c r="AB9" s="160"/>
-      <c r="AC9" s="160"/>
-      <c r="AD9" s="160"/>
-      <c r="AE9" s="160"/>
-      <c r="AF9" s="160"/>
-      <c r="AG9" s="160"/>
-      <c r="AH9" s="160"/>
-      <c r="AI9" s="160"/>
+      <c r="N9" s="222"/>
+      <c r="O9" s="222"/>
+      <c r="P9" s="222"/>
+      <c r="Q9" s="222"/>
+      <c r="R9" s="222"/>
+      <c r="S9" s="222"/>
+      <c r="T9" s="222"/>
+      <c r="U9" s="222"/>
+      <c r="V9" s="222"/>
+      <c r="W9" s="223"/>
+      <c r="X9" s="173"/>
+      <c r="Y9" s="173"/>
+      <c r="Z9" s="173"/>
+      <c r="AA9" s="173"/>
+      <c r="AB9" s="173"/>
+      <c r="AC9" s="173"/>
+      <c r="AD9" s="173"/>
+      <c r="AE9" s="173"/>
+      <c r="AF9" s="173"/>
+      <c r="AG9" s="173"/>
+      <c r="AH9" s="173"/>
+      <c r="AI9" s="173"/>
       <c r="AJ9" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="AK9" s="157"/>
+      <c r="AK9" s="171"/>
     </row>
     <row r="10" spans="1:37" ht="49.95" customHeight="1" thickBot="1">
       <c r="A10" s="92"/>
-      <c r="B10" s="224"/>
-      <c r="C10" s="220"/>
-      <c r="D10" s="220"/>
-      <c r="E10" s="220"/>
-      <c r="F10" s="220"/>
-      <c r="G10" s="218"/>
-      <c r="H10" s="220"/>
-      <c r="I10" s="218"/>
-      <c r="J10" s="218"/>
-      <c r="K10" s="218"/>
-      <c r="L10" s="222"/>
+      <c r="B10" s="234"/>
+      <c r="C10" s="230"/>
+      <c r="D10" s="230"/>
+      <c r="E10" s="230"/>
+      <c r="F10" s="230"/>
+      <c r="G10" s="228"/>
+      <c r="H10" s="230"/>
+      <c r="I10" s="228"/>
+      <c r="J10" s="228"/>
+      <c r="K10" s="228"/>
+      <c r="L10" s="232"/>
       <c r="M10" s="4" t="s">
         <v>14</v>
       </c>
@@ -27304,7 +27307,7 @@
       <c r="AJ10" s="124" t="s">
         <v>20</v>
       </c>
-      <c r="AK10" s="158"/>
+      <c r="AK10" s="172"/>
     </row>
     <row r="11" spans="1:37" ht="64.95" customHeight="1" thickBot="1">
       <c r="A11" s="93" t="s">
@@ -29134,19 +29137,19 @@
     </row>
     <row r="52" spans="1:37" s="99" customFormat="1" ht="45" customHeight="1" thickBot="1">
       <c r="A52" s="95"/>
-      <c r="B52" s="214" t="s">
+      <c r="B52" s="224" t="s">
         <v>29</v>
       </c>
-      <c r="C52" s="215"/>
-      <c r="D52" s="215"/>
-      <c r="E52" s="215"/>
-      <c r="F52" s="215"/>
-      <c r="G52" s="215"/>
-      <c r="H52" s="215"/>
-      <c r="I52" s="215"/>
-      <c r="J52" s="215"/>
-      <c r="K52" s="215"/>
-      <c r="L52" s="216"/>
+      <c r="C52" s="225"/>
+      <c r="D52" s="225"/>
+      <c r="E52" s="225"/>
+      <c r="F52" s="225"/>
+      <c r="G52" s="225"/>
+      <c r="H52" s="225"/>
+      <c r="I52" s="225"/>
+      <c r="J52" s="225"/>
+      <c r="K52" s="225"/>
+      <c r="L52" s="226"/>
       <c r="M52" s="125">
         <f>COUNTA(M12:M51)</f>
         <v>0</v>
@@ -29243,49 +29246,44 @@
       </c>
     </row>
     <row r="53" spans="1:37" ht="14.4">
-      <c r="A53" s="159"/>
-      <c r="B53" s="159"/>
-      <c r="C53" s="159"/>
-      <c r="D53" s="159"/>
-      <c r="E53" s="159"/>
-      <c r="F53" s="159"/>
-      <c r="G53" s="159"/>
-      <c r="H53" s="159"/>
-      <c r="I53" s="159"/>
-      <c r="J53" s="159"/>
-      <c r="K53" s="159"/>
-      <c r="L53" s="159"/>
-      <c r="M53" s="159"/>
-      <c r="N53" s="159"/>
-      <c r="O53" s="159"/>
-      <c r="P53" s="159"/>
-      <c r="Q53" s="159"/>
-      <c r="R53" s="159"/>
-      <c r="S53" s="159"/>
-      <c r="T53" s="159"/>
-      <c r="U53" s="159"/>
-      <c r="V53" s="159"/>
-      <c r="W53" s="159"/>
-      <c r="X53" s="159"/>
-      <c r="Y53" s="159"/>
-      <c r="Z53" s="159"/>
-      <c r="AA53" s="159"/>
-      <c r="AB53" s="159"/>
-      <c r="AC53" s="159"/>
-      <c r="AD53" s="159"/>
-      <c r="AE53" s="159"/>
-      <c r="AF53" s="159"/>
-      <c r="AG53" s="159"/>
-      <c r="AH53" s="159"/>
-      <c r="AI53" s="159"/>
+      <c r="A53" s="163"/>
+      <c r="B53" s="163"/>
+      <c r="C53" s="163"/>
+      <c r="D53" s="163"/>
+      <c r="E53" s="163"/>
+      <c r="F53" s="163"/>
+      <c r="G53" s="163"/>
+      <c r="H53" s="163"/>
+      <c r="I53" s="163"/>
+      <c r="J53" s="163"/>
+      <c r="K53" s="163"/>
+      <c r="L53" s="163"/>
+      <c r="M53" s="163"/>
+      <c r="N53" s="163"/>
+      <c r="O53" s="163"/>
+      <c r="P53" s="163"/>
+      <c r="Q53" s="163"/>
+      <c r="R53" s="163"/>
+      <c r="S53" s="163"/>
+      <c r="T53" s="163"/>
+      <c r="U53" s="163"/>
+      <c r="V53" s="163"/>
+      <c r="W53" s="163"/>
+      <c r="X53" s="163"/>
+      <c r="Y53" s="163"/>
+      <c r="Z53" s="163"/>
+      <c r="AA53" s="163"/>
+      <c r="AB53" s="163"/>
+      <c r="AC53" s="163"/>
+      <c r="AD53" s="163"/>
+      <c r="AE53" s="163"/>
+      <c r="AF53" s="163"/>
+      <c r="AG53" s="163"/>
+      <c r="AH53" s="163"/>
+      <c r="AI53" s="163"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A1:AI7"/>
-    <mergeCell ref="AJ1:AJ7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="M8:AI8"/>
     <mergeCell ref="M9:W9"/>
     <mergeCell ref="X9:AI9"/>
     <mergeCell ref="AK9:AK10"/>
@@ -29302,6 +29300,11 @@
     <mergeCell ref="D9:D10"/>
     <mergeCell ref="E9:E10"/>
     <mergeCell ref="F9:F10"/>
+    <mergeCell ref="A1:AI7"/>
+    <mergeCell ref="AJ1:AJ7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="M8:AI8"/>
   </mergeCells>
   <conditionalFormatting sqref="M11:AI52 E12:K51">
     <cfRule type="containsBlanks" dxfId="6" priority="3">
@@ -29369,88 +29372,88 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="24.6" customHeight="1">
-      <c r="A1" s="159"/>
-      <c r="B1" s="159"/>
-      <c r="C1" s="159"/>
-      <c r="D1" s="159"/>
-      <c r="E1" s="159"/>
-      <c r="F1" s="159"/>
-      <c r="G1" s="159"/>
-      <c r="H1" s="159"/>
+      <c r="A1" s="163"/>
+      <c r="B1" s="163"/>
+      <c r="C1" s="163"/>
+      <c r="D1" s="163"/>
+      <c r="E1" s="163"/>
+      <c r="F1" s="163"/>
+      <c r="G1" s="163"/>
+      <c r="H1" s="163"/>
     </row>
     <row r="2" spans="1:8" ht="25.2" customHeight="1">
-      <c r="A2" s="159"/>
-      <c r="B2" s="159"/>
-      <c r="C2" s="159"/>
-      <c r="D2" s="159"/>
-      <c r="E2" s="159"/>
-      <c r="F2" s="159"/>
-      <c r="G2" s="159"/>
-      <c r="H2" s="159"/>
+      <c r="A2" s="163"/>
+      <c r="B2" s="163"/>
+      <c r="C2" s="163"/>
+      <c r="D2" s="163"/>
+      <c r="E2" s="163"/>
+      <c r="F2" s="163"/>
+      <c r="G2" s="163"/>
+      <c r="H2" s="163"/>
     </row>
     <row r="3" spans="1:8" ht="25.2" customHeight="1">
-      <c r="A3" s="159"/>
-      <c r="B3" s="159"/>
-      <c r="C3" s="159"/>
-      <c r="D3" s="159"/>
-      <c r="E3" s="159"/>
-      <c r="F3" s="159"/>
-      <c r="G3" s="159"/>
-      <c r="H3" s="159"/>
+      <c r="A3" s="163"/>
+      <c r="B3" s="163"/>
+      <c r="C3" s="163"/>
+      <c r="D3" s="163"/>
+      <c r="E3" s="163"/>
+      <c r="F3" s="163"/>
+      <c r="G3" s="163"/>
+      <c r="H3" s="163"/>
     </row>
     <row r="4" spans="1:8" ht="25.2" customHeight="1">
-      <c r="A4" s="159"/>
-      <c r="B4" s="159"/>
-      <c r="C4" s="159"/>
-      <c r="D4" s="159"/>
-      <c r="E4" s="159"/>
-      <c r="F4" s="159"/>
-      <c r="G4" s="159"/>
-      <c r="H4" s="159"/>
+      <c r="A4" s="163"/>
+      <c r="B4" s="163"/>
+      <c r="C4" s="163"/>
+      <c r="D4" s="163"/>
+      <c r="E4" s="163"/>
+      <c r="F4" s="163"/>
+      <c r="G4" s="163"/>
+      <c r="H4" s="163"/>
     </row>
     <row r="5" spans="1:8" ht="25.2" customHeight="1">
-      <c r="A5" s="159"/>
-      <c r="B5" s="159"/>
-      <c r="C5" s="159"/>
-      <c r="D5" s="159"/>
-      <c r="E5" s="159"/>
-      <c r="F5" s="159"/>
-      <c r="G5" s="159"/>
-      <c r="H5" s="159"/>
+      <c r="A5" s="163"/>
+      <c r="B5" s="163"/>
+      <c r="C5" s="163"/>
+      <c r="D5" s="163"/>
+      <c r="E5" s="163"/>
+      <c r="F5" s="163"/>
+      <c r="G5" s="163"/>
+      <c r="H5" s="163"/>
     </row>
     <row r="6" spans="1:8" ht="24.6" customHeight="1">
-      <c r="A6" s="159"/>
-      <c r="B6" s="159"/>
-      <c r="C6" s="159"/>
-      <c r="D6" s="159"/>
-      <c r="E6" s="159"/>
-      <c r="F6" s="159"/>
-      <c r="G6" s="159"/>
-      <c r="H6" s="159"/>
+      <c r="A6" s="163"/>
+      <c r="B6" s="163"/>
+      <c r="C6" s="163"/>
+      <c r="D6" s="163"/>
+      <c r="E6" s="163"/>
+      <c r="F6" s="163"/>
+      <c r="G6" s="163"/>
+      <c r="H6" s="163"/>
     </row>
     <row r="7" spans="1:8" ht="25.2" customHeight="1" thickBot="1">
-      <c r="A7" s="159"/>
-      <c r="B7" s="159"/>
-      <c r="C7" s="159"/>
-      <c r="D7" s="159"/>
-      <c r="E7" s="159"/>
-      <c r="F7" s="159"/>
-      <c r="G7" s="159"/>
-      <c r="H7" s="159"/>
+      <c r="A7" s="163"/>
+      <c r="B7" s="163"/>
+      <c r="C7" s="163"/>
+      <c r="D7" s="163"/>
+      <c r="E7" s="163"/>
+      <c r="F7" s="163"/>
+      <c r="G7" s="163"/>
+      <c r="H7" s="163"/>
     </row>
     <row r="8" spans="1:8" ht="60" customHeight="1" thickBot="1">
       <c r="A8" s="3"/>
-      <c r="B8" s="227" t="s">
+      <c r="B8" s="235" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="228"/>
-      <c r="D8" s="227" t="s">
+      <c r="C8" s="236"/>
+      <c r="D8" s="235" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="228"/>
-      <c r="F8" s="228"/>
-      <c r="G8" s="228"/>
-      <c r="H8" s="229"/>
+      <c r="E8" s="236"/>
+      <c r="F8" s="236"/>
+      <c r="G8" s="236"/>
+      <c r="H8" s="237"/>
     </row>
     <row r="9" spans="1:8" s="1" customFormat="1" ht="60" customHeight="1" thickBot="1">
       <c r="B9" s="23" t="s">
@@ -29789,88 +29792,88 @@
       <c r="H34" s="43"/>
     </row>
     <row r="35" spans="1:8" ht="24.6" customHeight="1">
-      <c r="A35" s="159"/>
-      <c r="B35" s="159"/>
-      <c r="C35" s="159"/>
-      <c r="D35" s="159"/>
-      <c r="E35" s="159"/>
-      <c r="F35" s="159"/>
-      <c r="G35" s="159"/>
-      <c r="H35" s="159"/>
+      <c r="A35" s="163"/>
+      <c r="B35" s="163"/>
+      <c r="C35" s="163"/>
+      <c r="D35" s="163"/>
+      <c r="E35" s="163"/>
+      <c r="F35" s="163"/>
+      <c r="G35" s="163"/>
+      <c r="H35" s="163"/>
     </row>
     <row r="36" spans="1:8" ht="25.2" customHeight="1">
-      <c r="A36" s="159"/>
-      <c r="B36" s="159"/>
-      <c r="C36" s="159"/>
-      <c r="D36" s="159"/>
-      <c r="E36" s="159"/>
-      <c r="F36" s="159"/>
-      <c r="G36" s="159"/>
-      <c r="H36" s="159"/>
+      <c r="A36" s="163"/>
+      <c r="B36" s="163"/>
+      <c r="C36" s="163"/>
+      <c r="D36" s="163"/>
+      <c r="E36" s="163"/>
+      <c r="F36" s="163"/>
+      <c r="G36" s="163"/>
+      <c r="H36" s="163"/>
     </row>
     <row r="37" spans="1:8" ht="25.2" customHeight="1">
-      <c r="A37" s="159"/>
-      <c r="B37" s="159"/>
-      <c r="C37" s="159"/>
-      <c r="D37" s="159"/>
-      <c r="E37" s="159"/>
-      <c r="F37" s="159"/>
-      <c r="G37" s="159"/>
-      <c r="H37" s="159"/>
+      <c r="A37" s="163"/>
+      <c r="B37" s="163"/>
+      <c r="C37" s="163"/>
+      <c r="D37" s="163"/>
+      <c r="E37" s="163"/>
+      <c r="F37" s="163"/>
+      <c r="G37" s="163"/>
+      <c r="H37" s="163"/>
     </row>
     <row r="38" spans="1:8" ht="25.2" customHeight="1">
-      <c r="A38" s="159"/>
-      <c r="B38" s="159"/>
-      <c r="C38" s="159"/>
-      <c r="D38" s="159"/>
-      <c r="E38" s="159"/>
-      <c r="F38" s="159"/>
-      <c r="G38" s="159"/>
-      <c r="H38" s="159"/>
+      <c r="A38" s="163"/>
+      <c r="B38" s="163"/>
+      <c r="C38" s="163"/>
+      <c r="D38" s="163"/>
+      <c r="E38" s="163"/>
+      <c r="F38" s="163"/>
+      <c r="G38" s="163"/>
+      <c r="H38" s="163"/>
     </row>
     <row r="39" spans="1:8" ht="25.2" customHeight="1">
-      <c r="A39" s="159"/>
-      <c r="B39" s="159"/>
-      <c r="C39" s="159"/>
-      <c r="D39" s="159"/>
-      <c r="E39" s="159"/>
-      <c r="F39" s="159"/>
-      <c r="G39" s="159"/>
-      <c r="H39" s="159"/>
+      <c r="A39" s="163"/>
+      <c r="B39" s="163"/>
+      <c r="C39" s="163"/>
+      <c r="D39" s="163"/>
+      <c r="E39" s="163"/>
+      <c r="F39" s="163"/>
+      <c r="G39" s="163"/>
+      <c r="H39" s="163"/>
     </row>
     <row r="40" spans="1:8" ht="24.6" customHeight="1">
-      <c r="A40" s="159"/>
-      <c r="B40" s="159"/>
-      <c r="C40" s="159"/>
-      <c r="D40" s="159"/>
-      <c r="E40" s="159"/>
-      <c r="F40" s="159"/>
-      <c r="G40" s="159"/>
-      <c r="H40" s="159"/>
+      <c r="A40" s="163"/>
+      <c r="B40" s="163"/>
+      <c r="C40" s="163"/>
+      <c r="D40" s="163"/>
+      <c r="E40" s="163"/>
+      <c r="F40" s="163"/>
+      <c r="G40" s="163"/>
+      <c r="H40" s="163"/>
     </row>
     <row r="41" spans="1:8" ht="25.2" customHeight="1" thickBot="1">
-      <c r="A41" s="159"/>
-      <c r="B41" s="159"/>
-      <c r="C41" s="159"/>
-      <c r="D41" s="159"/>
-      <c r="E41" s="159"/>
-      <c r="F41" s="159"/>
-      <c r="G41" s="159"/>
-      <c r="H41" s="159"/>
+      <c r="A41" s="163"/>
+      <c r="B41" s="163"/>
+      <c r="C41" s="163"/>
+      <c r="D41" s="163"/>
+      <c r="E41" s="163"/>
+      <c r="F41" s="163"/>
+      <c r="G41" s="163"/>
+      <c r="H41" s="163"/>
     </row>
     <row r="42" spans="1:8" ht="60" customHeight="1" thickBot="1">
       <c r="A42" s="3"/>
-      <c r="B42" s="227" t="s">
+      <c r="B42" s="235" t="s">
         <v>30</v>
       </c>
-      <c r="C42" s="228"/>
-      <c r="D42" s="227" t="s">
+      <c r="C42" s="236"/>
+      <c r="D42" s="235" t="s">
         <v>42</v>
       </c>
-      <c r="E42" s="228"/>
-      <c r="F42" s="228"/>
-      <c r="G42" s="228"/>
-      <c r="H42" s="229"/>
+      <c r="E42" s="236"/>
+      <c r="F42" s="236"/>
+      <c r="G42" s="236"/>
+      <c r="H42" s="237"/>
     </row>
     <row r="43" spans="1:8" ht="60" customHeight="1" thickBot="1">
       <c r="A43" s="1"/>
@@ -30210,88 +30213,88 @@
       <c r="H68" s="43"/>
     </row>
     <row r="69" spans="1:8" ht="24.6" customHeight="1">
-      <c r="A69" s="159"/>
-      <c r="B69" s="159"/>
-      <c r="C69" s="159"/>
-      <c r="D69" s="159"/>
-      <c r="E69" s="159"/>
-      <c r="F69" s="159"/>
-      <c r="G69" s="159"/>
-      <c r="H69" s="159"/>
+      <c r="A69" s="163"/>
+      <c r="B69" s="163"/>
+      <c r="C69" s="163"/>
+      <c r="D69" s="163"/>
+      <c r="E69" s="163"/>
+      <c r="F69" s="163"/>
+      <c r="G69" s="163"/>
+      <c r="H69" s="163"/>
     </row>
     <row r="70" spans="1:8" ht="25.2" customHeight="1">
-      <c r="A70" s="159"/>
-      <c r="B70" s="159"/>
-      <c r="C70" s="159"/>
-      <c r="D70" s="159"/>
-      <c r="E70" s="159"/>
-      <c r="F70" s="159"/>
-      <c r="G70" s="159"/>
-      <c r="H70" s="159"/>
+      <c r="A70" s="163"/>
+      <c r="B70" s="163"/>
+      <c r="C70" s="163"/>
+      <c r="D70" s="163"/>
+      <c r="E70" s="163"/>
+      <c r="F70" s="163"/>
+      <c r="G70" s="163"/>
+      <c r="H70" s="163"/>
     </row>
     <row r="71" spans="1:8" ht="25.2" customHeight="1">
-      <c r="A71" s="159"/>
-      <c r="B71" s="159"/>
-      <c r="C71" s="159"/>
-      <c r="D71" s="159"/>
-      <c r="E71" s="159"/>
-      <c r="F71" s="159"/>
-      <c r="G71" s="159"/>
-      <c r="H71" s="159"/>
+      <c r="A71" s="163"/>
+      <c r="B71" s="163"/>
+      <c r="C71" s="163"/>
+      <c r="D71" s="163"/>
+      <c r="E71" s="163"/>
+      <c r="F71" s="163"/>
+      <c r="G71" s="163"/>
+      <c r="H71" s="163"/>
     </row>
     <row r="72" spans="1:8" ht="25.2" customHeight="1">
-      <c r="A72" s="159"/>
-      <c r="B72" s="159"/>
-      <c r="C72" s="159"/>
-      <c r="D72" s="159"/>
-      <c r="E72" s="159"/>
-      <c r="F72" s="159"/>
-      <c r="G72" s="159"/>
-      <c r="H72" s="159"/>
+      <c r="A72" s="163"/>
+      <c r="B72" s="163"/>
+      <c r="C72" s="163"/>
+      <c r="D72" s="163"/>
+      <c r="E72" s="163"/>
+      <c r="F72" s="163"/>
+      <c r="G72" s="163"/>
+      <c r="H72" s="163"/>
     </row>
     <row r="73" spans="1:8" ht="25.2" customHeight="1">
-      <c r="A73" s="159"/>
-      <c r="B73" s="159"/>
-      <c r="C73" s="159"/>
-      <c r="D73" s="159"/>
-      <c r="E73" s="159"/>
-      <c r="F73" s="159"/>
-      <c r="G73" s="159"/>
-      <c r="H73" s="159"/>
+      <c r="A73" s="163"/>
+      <c r="B73" s="163"/>
+      <c r="C73" s="163"/>
+      <c r="D73" s="163"/>
+      <c r="E73" s="163"/>
+      <c r="F73" s="163"/>
+      <c r="G73" s="163"/>
+      <c r="H73" s="163"/>
     </row>
     <row r="74" spans="1:8" ht="24.6" customHeight="1">
-      <c r="A74" s="159"/>
-      <c r="B74" s="159"/>
-      <c r="C74" s="159"/>
-      <c r="D74" s="159"/>
-      <c r="E74" s="159"/>
-      <c r="F74" s="159"/>
-      <c r="G74" s="159"/>
-      <c r="H74" s="159"/>
+      <c r="A74" s="163"/>
+      <c r="B74" s="163"/>
+      <c r="C74" s="163"/>
+      <c r="D74" s="163"/>
+      <c r="E74" s="163"/>
+      <c r="F74" s="163"/>
+      <c r="G74" s="163"/>
+      <c r="H74" s="163"/>
     </row>
     <row r="75" spans="1:8" ht="25.2" customHeight="1" thickBot="1">
-      <c r="A75" s="159"/>
-      <c r="B75" s="159"/>
-      <c r="C75" s="159"/>
-      <c r="D75" s="159"/>
-      <c r="E75" s="159"/>
-      <c r="F75" s="159"/>
-      <c r="G75" s="159"/>
-      <c r="H75" s="159"/>
+      <c r="A75" s="163"/>
+      <c r="B75" s="163"/>
+      <c r="C75" s="163"/>
+      <c r="D75" s="163"/>
+      <c r="E75" s="163"/>
+      <c r="F75" s="163"/>
+      <c r="G75" s="163"/>
+      <c r="H75" s="163"/>
     </row>
     <row r="76" spans="1:8" ht="55.2" customHeight="1" thickBot="1">
       <c r="A76" s="3"/>
-      <c r="B76" s="227" t="s">
+      <c r="B76" s="235" t="s">
         <v>30</v>
       </c>
-      <c r="C76" s="228"/>
-      <c r="D76" s="227" t="s">
+      <c r="C76" s="236"/>
+      <c r="D76" s="235" t="s">
         <v>46</v>
       </c>
-      <c r="E76" s="228"/>
-      <c r="F76" s="228"/>
-      <c r="G76" s="228"/>
-      <c r="H76" s="229"/>
+      <c r="E76" s="236"/>
+      <c r="F76" s="236"/>
+      <c r="G76" s="236"/>
+      <c r="H76" s="237"/>
     </row>
     <row r="77" spans="1:8" ht="55.2" customHeight="1" thickBot="1">
       <c r="A77" s="1"/>
@@ -30631,88 +30634,88 @@
       <c r="H102" s="43"/>
     </row>
     <row r="103" spans="1:8" ht="24.6" customHeight="1">
-      <c r="A103" s="159"/>
-      <c r="B103" s="159"/>
-      <c r="C103" s="159"/>
-      <c r="D103" s="159"/>
-      <c r="E103" s="159"/>
-      <c r="F103" s="159"/>
-      <c r="G103" s="159"/>
-      <c r="H103" s="159"/>
+      <c r="A103" s="163"/>
+      <c r="B103" s="163"/>
+      <c r="C103" s="163"/>
+      <c r="D103" s="163"/>
+      <c r="E103" s="163"/>
+      <c r="F103" s="163"/>
+      <c r="G103" s="163"/>
+      <c r="H103" s="163"/>
     </row>
     <row r="104" spans="1:8" ht="25.2" customHeight="1">
-      <c r="A104" s="159"/>
-      <c r="B104" s="159"/>
-      <c r="C104" s="159"/>
-      <c r="D104" s="159"/>
-      <c r="E104" s="159"/>
-      <c r="F104" s="159"/>
-      <c r="G104" s="159"/>
-      <c r="H104" s="159"/>
+      <c r="A104" s="163"/>
+      <c r="B104" s="163"/>
+      <c r="C104" s="163"/>
+      <c r="D104" s="163"/>
+      <c r="E104" s="163"/>
+      <c r="F104" s="163"/>
+      <c r="G104" s="163"/>
+      <c r="H104" s="163"/>
     </row>
     <row r="105" spans="1:8" ht="25.2" customHeight="1">
-      <c r="A105" s="159"/>
-      <c r="B105" s="159"/>
-      <c r="C105" s="159"/>
-      <c r="D105" s="159"/>
-      <c r="E105" s="159"/>
-      <c r="F105" s="159"/>
-      <c r="G105" s="159"/>
-      <c r="H105" s="159"/>
+      <c r="A105" s="163"/>
+      <c r="B105" s="163"/>
+      <c r="C105" s="163"/>
+      <c r="D105" s="163"/>
+      <c r="E105" s="163"/>
+      <c r="F105" s="163"/>
+      <c r="G105" s="163"/>
+      <c r="H105" s="163"/>
     </row>
     <row r="106" spans="1:8" ht="25.2" customHeight="1">
-      <c r="A106" s="159"/>
-      <c r="B106" s="159"/>
-      <c r="C106" s="159"/>
-      <c r="D106" s="159"/>
-      <c r="E106" s="159"/>
-      <c r="F106" s="159"/>
-      <c r="G106" s="159"/>
-      <c r="H106" s="159"/>
+      <c r="A106" s="163"/>
+      <c r="B106" s="163"/>
+      <c r="C106" s="163"/>
+      <c r="D106" s="163"/>
+      <c r="E106" s="163"/>
+      <c r="F106" s="163"/>
+      <c r="G106" s="163"/>
+      <c r="H106" s="163"/>
     </row>
     <row r="107" spans="1:8" ht="25.2" customHeight="1">
-      <c r="A107" s="159"/>
-      <c r="B107" s="159"/>
-      <c r="C107" s="159"/>
-      <c r="D107" s="159"/>
-      <c r="E107" s="159"/>
-      <c r="F107" s="159"/>
-      <c r="G107" s="159"/>
-      <c r="H107" s="159"/>
+      <c r="A107" s="163"/>
+      <c r="B107" s="163"/>
+      <c r="C107" s="163"/>
+      <c r="D107" s="163"/>
+      <c r="E107" s="163"/>
+      <c r="F107" s="163"/>
+      <c r="G107" s="163"/>
+      <c r="H107" s="163"/>
     </row>
     <row r="108" spans="1:8" ht="24.6" customHeight="1">
-      <c r="A108" s="159"/>
-      <c r="B108" s="159"/>
-      <c r="C108" s="159"/>
-      <c r="D108" s="159"/>
-      <c r="E108" s="159"/>
-      <c r="F108" s="159"/>
-      <c r="G108" s="159"/>
-      <c r="H108" s="159"/>
+      <c r="A108" s="163"/>
+      <c r="B108" s="163"/>
+      <c r="C108" s="163"/>
+      <c r="D108" s="163"/>
+      <c r="E108" s="163"/>
+      <c r="F108" s="163"/>
+      <c r="G108" s="163"/>
+      <c r="H108" s="163"/>
     </row>
     <row r="109" spans="1:8" ht="25.2" customHeight="1" thickBot="1">
-      <c r="A109" s="159"/>
-      <c r="B109" s="159"/>
-      <c r="C109" s="159"/>
-      <c r="D109" s="159"/>
-      <c r="E109" s="159"/>
-      <c r="F109" s="159"/>
-      <c r="G109" s="159"/>
-      <c r="H109" s="159"/>
+      <c r="A109" s="163"/>
+      <c r="B109" s="163"/>
+      <c r="C109" s="163"/>
+      <c r="D109" s="163"/>
+      <c r="E109" s="163"/>
+      <c r="F109" s="163"/>
+      <c r="G109" s="163"/>
+      <c r="H109" s="163"/>
     </row>
     <row r="110" spans="1:8" ht="55.2" customHeight="1" thickBot="1">
       <c r="A110" s="3"/>
-      <c r="B110" s="227" t="s">
+      <c r="B110" s="235" t="s">
         <v>30</v>
       </c>
-      <c r="C110" s="228"/>
-      <c r="D110" s="227" t="s">
+      <c r="C110" s="236"/>
+      <c r="D110" s="235" t="s">
         <v>47</v>
       </c>
-      <c r="E110" s="228"/>
-      <c r="F110" s="228"/>
-      <c r="G110" s="228"/>
-      <c r="H110" s="229"/>
+      <c r="E110" s="236"/>
+      <c r="F110" s="236"/>
+      <c r="G110" s="236"/>
+      <c r="H110" s="237"/>
     </row>
     <row r="111" spans="1:8" ht="55.2" customHeight="1" thickBot="1">
       <c r="A111" s="1"/>
@@ -31052,88 +31055,88 @@
       <c r="H136" s="43"/>
     </row>
     <row r="137" spans="1:8" ht="24.6" customHeight="1">
-      <c r="A137" s="159"/>
-      <c r="B137" s="159"/>
-      <c r="C137" s="159"/>
-      <c r="D137" s="159"/>
-      <c r="E137" s="159"/>
-      <c r="F137" s="159"/>
-      <c r="G137" s="159"/>
-      <c r="H137" s="159"/>
+      <c r="A137" s="163"/>
+      <c r="B137" s="163"/>
+      <c r="C137" s="163"/>
+      <c r="D137" s="163"/>
+      <c r="E137" s="163"/>
+      <c r="F137" s="163"/>
+      <c r="G137" s="163"/>
+      <c r="H137" s="163"/>
     </row>
     <row r="138" spans="1:8" ht="25.2" customHeight="1">
-      <c r="A138" s="159"/>
-      <c r="B138" s="159"/>
-      <c r="C138" s="159"/>
-      <c r="D138" s="159"/>
-      <c r="E138" s="159"/>
-      <c r="F138" s="159"/>
-      <c r="G138" s="159"/>
-      <c r="H138" s="159"/>
+      <c r="A138" s="163"/>
+      <c r="B138" s="163"/>
+      <c r="C138" s="163"/>
+      <c r="D138" s="163"/>
+      <c r="E138" s="163"/>
+      <c r="F138" s="163"/>
+      <c r="G138" s="163"/>
+      <c r="H138" s="163"/>
     </row>
     <row r="139" spans="1:8" ht="25.2" customHeight="1">
-      <c r="A139" s="159"/>
-      <c r="B139" s="159"/>
-      <c r="C139" s="159"/>
-      <c r="D139" s="159"/>
-      <c r="E139" s="159"/>
-      <c r="F139" s="159"/>
-      <c r="G139" s="159"/>
-      <c r="H139" s="159"/>
+      <c r="A139" s="163"/>
+      <c r="B139" s="163"/>
+      <c r="C139" s="163"/>
+      <c r="D139" s="163"/>
+      <c r="E139" s="163"/>
+      <c r="F139" s="163"/>
+      <c r="G139" s="163"/>
+      <c r="H139" s="163"/>
     </row>
     <row r="140" spans="1:8" ht="25.2" customHeight="1">
-      <c r="A140" s="159"/>
-      <c r="B140" s="159"/>
-      <c r="C140" s="159"/>
-      <c r="D140" s="159"/>
-      <c r="E140" s="159"/>
-      <c r="F140" s="159"/>
-      <c r="G140" s="159"/>
-      <c r="H140" s="159"/>
+      <c r="A140" s="163"/>
+      <c r="B140" s="163"/>
+      <c r="C140" s="163"/>
+      <c r="D140" s="163"/>
+      <c r="E140" s="163"/>
+      <c r="F140" s="163"/>
+      <c r="G140" s="163"/>
+      <c r="H140" s="163"/>
     </row>
     <row r="141" spans="1:8" ht="25.2" customHeight="1">
-      <c r="A141" s="159"/>
-      <c r="B141" s="159"/>
-      <c r="C141" s="159"/>
-      <c r="D141" s="159"/>
-      <c r="E141" s="159"/>
-      <c r="F141" s="159"/>
-      <c r="G141" s="159"/>
-      <c r="H141" s="159"/>
+      <c r="A141" s="163"/>
+      <c r="B141" s="163"/>
+      <c r="C141" s="163"/>
+      <c r="D141" s="163"/>
+      <c r="E141" s="163"/>
+      <c r="F141" s="163"/>
+      <c r="G141" s="163"/>
+      <c r="H141" s="163"/>
     </row>
     <row r="142" spans="1:8" ht="24.6" customHeight="1">
-      <c r="A142" s="159"/>
-      <c r="B142" s="159"/>
-      <c r="C142" s="159"/>
-      <c r="D142" s="159"/>
-      <c r="E142" s="159"/>
-      <c r="F142" s="159"/>
-      <c r="G142" s="159"/>
-      <c r="H142" s="159"/>
+      <c r="A142" s="163"/>
+      <c r="B142" s="163"/>
+      <c r="C142" s="163"/>
+      <c r="D142" s="163"/>
+      <c r="E142" s="163"/>
+      <c r="F142" s="163"/>
+      <c r="G142" s="163"/>
+      <c r="H142" s="163"/>
     </row>
     <row r="143" spans="1:8" ht="25.2" customHeight="1" thickBot="1">
-      <c r="A143" s="159"/>
-      <c r="B143" s="159"/>
-      <c r="C143" s="159"/>
-      <c r="D143" s="159"/>
-      <c r="E143" s="159"/>
-      <c r="F143" s="159"/>
-      <c r="G143" s="159"/>
-      <c r="H143" s="159"/>
+      <c r="A143" s="163"/>
+      <c r="B143" s="163"/>
+      <c r="C143" s="163"/>
+      <c r="D143" s="163"/>
+      <c r="E143" s="163"/>
+      <c r="F143" s="163"/>
+      <c r="G143" s="163"/>
+      <c r="H143" s="163"/>
     </row>
     <row r="144" spans="1:8" ht="55.2" customHeight="1" thickBot="1">
       <c r="A144" s="3"/>
-      <c r="B144" s="227" t="s">
+      <c r="B144" s="235" t="s">
         <v>30</v>
       </c>
-      <c r="C144" s="228"/>
-      <c r="D144" s="227" t="s">
+      <c r="C144" s="236"/>
+      <c r="D144" s="235" t="s">
         <v>48</v>
       </c>
-      <c r="E144" s="228"/>
-      <c r="F144" s="228"/>
-      <c r="G144" s="228"/>
-      <c r="H144" s="229"/>
+      <c r="E144" s="236"/>
+      <c r="F144" s="236"/>
+      <c r="G144" s="236"/>
+      <c r="H144" s="237"/>
     </row>
     <row r="145" spans="1:8" ht="55.2" customHeight="1" thickBot="1">
       <c r="A145" s="1"/>
@@ -31700,12 +31703,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B144:C144"/>
-    <mergeCell ref="D144:H144"/>
-    <mergeCell ref="A103:H109"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="D76:H76"/>
-    <mergeCell ref="A137:H143"/>
     <mergeCell ref="A1:H7"/>
     <mergeCell ref="B42:C42"/>
     <mergeCell ref="D42:H42"/>
@@ -31715,6 +31712,12 @@
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="D8:H8"/>
     <mergeCell ref="A69:H75"/>
+    <mergeCell ref="B144:C144"/>
+    <mergeCell ref="D144:H144"/>
+    <mergeCell ref="A103:H109"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="D76:H76"/>
+    <mergeCell ref="A137:H143"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -31754,88 +31757,88 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="24.6" customHeight="1">
-      <c r="A1" s="159"/>
-      <c r="B1" s="159"/>
-      <c r="C1" s="159"/>
-      <c r="D1" s="159"/>
-      <c r="E1" s="159"/>
-      <c r="F1" s="159"/>
-      <c r="G1" s="159"/>
-      <c r="H1" s="159"/>
+      <c r="A1" s="163"/>
+      <c r="B1" s="163"/>
+      <c r="C1" s="163"/>
+      <c r="D1" s="163"/>
+      <c r="E1" s="163"/>
+      <c r="F1" s="163"/>
+      <c r="G1" s="163"/>
+      <c r="H1" s="163"/>
     </row>
     <row r="2" spans="1:8" ht="25.2" customHeight="1">
-      <c r="A2" s="159"/>
-      <c r="B2" s="159"/>
-      <c r="C2" s="159"/>
-      <c r="D2" s="159"/>
-      <c r="E2" s="159"/>
-      <c r="F2" s="159"/>
-      <c r="G2" s="159"/>
-      <c r="H2" s="159"/>
+      <c r="A2" s="163"/>
+      <c r="B2" s="163"/>
+      <c r="C2" s="163"/>
+      <c r="D2" s="163"/>
+      <c r="E2" s="163"/>
+      <c r="F2" s="163"/>
+      <c r="G2" s="163"/>
+      <c r="H2" s="163"/>
     </row>
     <row r="3" spans="1:8" ht="25.2" customHeight="1">
-      <c r="A3" s="159"/>
-      <c r="B3" s="159"/>
-      <c r="C3" s="159"/>
-      <c r="D3" s="159"/>
-      <c r="E3" s="159"/>
-      <c r="F3" s="159"/>
-      <c r="G3" s="159"/>
-      <c r="H3" s="159"/>
+      <c r="A3" s="163"/>
+      <c r="B3" s="163"/>
+      <c r="C3" s="163"/>
+      <c r="D3" s="163"/>
+      <c r="E3" s="163"/>
+      <c r="F3" s="163"/>
+      <c r="G3" s="163"/>
+      <c r="H3" s="163"/>
     </row>
     <row r="4" spans="1:8" ht="25.2" customHeight="1">
-      <c r="A4" s="159"/>
-      <c r="B4" s="159"/>
-      <c r="C4" s="159"/>
-      <c r="D4" s="159"/>
-      <c r="E4" s="159"/>
-      <c r="F4" s="159"/>
-      <c r="G4" s="159"/>
-      <c r="H4" s="159"/>
+      <c r="A4" s="163"/>
+      <c r="B4" s="163"/>
+      <c r="C4" s="163"/>
+      <c r="D4" s="163"/>
+      <c r="E4" s="163"/>
+      <c r="F4" s="163"/>
+      <c r="G4" s="163"/>
+      <c r="H4" s="163"/>
     </row>
     <row r="5" spans="1:8" ht="25.2" customHeight="1">
-      <c r="A5" s="159"/>
-      <c r="B5" s="159"/>
-      <c r="C5" s="159"/>
-      <c r="D5" s="159"/>
-      <c r="E5" s="159"/>
-      <c r="F5" s="159"/>
-      <c r="G5" s="159"/>
-      <c r="H5" s="159"/>
+      <c r="A5" s="163"/>
+      <c r="B5" s="163"/>
+      <c r="C5" s="163"/>
+      <c r="D5" s="163"/>
+      <c r="E5" s="163"/>
+      <c r="F5" s="163"/>
+      <c r="G5" s="163"/>
+      <c r="H5" s="163"/>
     </row>
     <row r="6" spans="1:8" ht="24.6" customHeight="1">
-      <c r="A6" s="159"/>
-      <c r="B6" s="159"/>
-      <c r="C6" s="159"/>
-      <c r="D6" s="159"/>
-      <c r="E6" s="159"/>
-      <c r="F6" s="159"/>
-      <c r="G6" s="159"/>
-      <c r="H6" s="159"/>
+      <c r="A6" s="163"/>
+      <c r="B6" s="163"/>
+      <c r="C6" s="163"/>
+      <c r="D6" s="163"/>
+      <c r="E6" s="163"/>
+      <c r="F6" s="163"/>
+      <c r="G6" s="163"/>
+      <c r="H6" s="163"/>
     </row>
     <row r="7" spans="1:8" ht="25.2" customHeight="1" thickBot="1">
-      <c r="A7" s="159"/>
-      <c r="B7" s="159"/>
-      <c r="C7" s="159"/>
-      <c r="D7" s="159"/>
-      <c r="E7" s="159"/>
-      <c r="F7" s="159"/>
-      <c r="G7" s="159"/>
-      <c r="H7" s="159"/>
+      <c r="A7" s="163"/>
+      <c r="B7" s="163"/>
+      <c r="C7" s="163"/>
+      <c r="D7" s="163"/>
+      <c r="E7" s="163"/>
+      <c r="F7" s="163"/>
+      <c r="G7" s="163"/>
+      <c r="H7" s="163"/>
     </row>
     <row r="8" spans="1:8" ht="60" customHeight="1" thickBot="1">
       <c r="A8" s="3"/>
-      <c r="B8" s="230" t="s">
+      <c r="B8" s="238" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="231"/>
-      <c r="D8" s="230" t="s">
+      <c r="C8" s="239"/>
+      <c r="D8" s="238" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="231"/>
-      <c r="F8" s="231"/>
-      <c r="G8" s="231"/>
-      <c r="H8" s="232"/>
+      <c r="E8" s="239"/>
+      <c r="F8" s="239"/>
+      <c r="G8" s="239"/>
+      <c r="H8" s="240"/>
     </row>
     <row r="9" spans="1:8" s="1" customFormat="1" ht="60" customHeight="1" thickBot="1">
       <c r="B9" s="47" t="s">
@@ -32174,88 +32177,88 @@
       <c r="H34" s="43"/>
     </row>
     <row r="35" spans="1:8" ht="24.6" customHeight="1">
-      <c r="A35" s="159"/>
-      <c r="B35" s="159"/>
-      <c r="C35" s="159"/>
-      <c r="D35" s="159"/>
-      <c r="E35" s="159"/>
-      <c r="F35" s="159"/>
-      <c r="G35" s="159"/>
-      <c r="H35" s="159"/>
+      <c r="A35" s="163"/>
+      <c r="B35" s="163"/>
+      <c r="C35" s="163"/>
+      <c r="D35" s="163"/>
+      <c r="E35" s="163"/>
+      <c r="F35" s="163"/>
+      <c r="G35" s="163"/>
+      <c r="H35" s="163"/>
     </row>
     <row r="36" spans="1:8" ht="25.2" customHeight="1">
-      <c r="A36" s="159"/>
-      <c r="B36" s="159"/>
-      <c r="C36" s="159"/>
-      <c r="D36" s="159"/>
-      <c r="E36" s="159"/>
-      <c r="F36" s="159"/>
-      <c r="G36" s="159"/>
-      <c r="H36" s="159"/>
+      <c r="A36" s="163"/>
+      <c r="B36" s="163"/>
+      <c r="C36" s="163"/>
+      <c r="D36" s="163"/>
+      <c r="E36" s="163"/>
+      <c r="F36" s="163"/>
+      <c r="G36" s="163"/>
+      <c r="H36" s="163"/>
     </row>
     <row r="37" spans="1:8" ht="25.2" customHeight="1">
-      <c r="A37" s="159"/>
-      <c r="B37" s="159"/>
-      <c r="C37" s="159"/>
-      <c r="D37" s="159"/>
-      <c r="E37" s="159"/>
-      <c r="F37" s="159"/>
-      <c r="G37" s="159"/>
-      <c r="H37" s="159"/>
+      <c r="A37" s="163"/>
+      <c r="B37" s="163"/>
+      <c r="C37" s="163"/>
+      <c r="D37" s="163"/>
+      <c r="E37" s="163"/>
+      <c r="F37" s="163"/>
+      <c r="G37" s="163"/>
+      <c r="H37" s="163"/>
     </row>
     <row r="38" spans="1:8" ht="25.2" customHeight="1">
-      <c r="A38" s="159"/>
-      <c r="B38" s="159"/>
-      <c r="C38" s="159"/>
-      <c r="D38" s="159"/>
-      <c r="E38" s="159"/>
-      <c r="F38" s="159"/>
-      <c r="G38" s="159"/>
-      <c r="H38" s="159"/>
+      <c r="A38" s="163"/>
+      <c r="B38" s="163"/>
+      <c r="C38" s="163"/>
+      <c r="D38" s="163"/>
+      <c r="E38" s="163"/>
+      <c r="F38" s="163"/>
+      <c r="G38" s="163"/>
+      <c r="H38" s="163"/>
     </row>
     <row r="39" spans="1:8" ht="25.2" customHeight="1">
-      <c r="A39" s="159"/>
-      <c r="B39" s="159"/>
-      <c r="C39" s="159"/>
-      <c r="D39" s="159"/>
-      <c r="E39" s="159"/>
-      <c r="F39" s="159"/>
-      <c r="G39" s="159"/>
-      <c r="H39" s="159"/>
+      <c r="A39" s="163"/>
+      <c r="B39" s="163"/>
+      <c r="C39" s="163"/>
+      <c r="D39" s="163"/>
+      <c r="E39" s="163"/>
+      <c r="F39" s="163"/>
+      <c r="G39" s="163"/>
+      <c r="H39" s="163"/>
     </row>
     <row r="40" spans="1:8" ht="24.6" customHeight="1">
-      <c r="A40" s="159"/>
-      <c r="B40" s="159"/>
-      <c r="C40" s="159"/>
-      <c r="D40" s="159"/>
-      <c r="E40" s="159"/>
-      <c r="F40" s="159"/>
-      <c r="G40" s="159"/>
-      <c r="H40" s="159"/>
+      <c r="A40" s="163"/>
+      <c r="B40" s="163"/>
+      <c r="C40" s="163"/>
+      <c r="D40" s="163"/>
+      <c r="E40" s="163"/>
+      <c r="F40" s="163"/>
+      <c r="G40" s="163"/>
+      <c r="H40" s="163"/>
     </row>
     <row r="41" spans="1:8" ht="25.2" customHeight="1" thickBot="1">
-      <c r="A41" s="159"/>
-      <c r="B41" s="159"/>
-      <c r="C41" s="159"/>
-      <c r="D41" s="159"/>
-      <c r="E41" s="159"/>
-      <c r="F41" s="159"/>
-      <c r="G41" s="159"/>
-      <c r="H41" s="159"/>
+      <c r="A41" s="163"/>
+      <c r="B41" s="163"/>
+      <c r="C41" s="163"/>
+      <c r="D41" s="163"/>
+      <c r="E41" s="163"/>
+      <c r="F41" s="163"/>
+      <c r="G41" s="163"/>
+      <c r="H41" s="163"/>
     </row>
     <row r="42" spans="1:8" ht="60" customHeight="1" thickBot="1">
       <c r="A42" s="3"/>
-      <c r="B42" s="230" t="s">
+      <c r="B42" s="238" t="s">
         <v>30</v>
       </c>
-      <c r="C42" s="231"/>
-      <c r="D42" s="230" t="s">
+      <c r="C42" s="239"/>
+      <c r="D42" s="238" t="s">
         <v>42</v>
       </c>
-      <c r="E42" s="231"/>
-      <c r="F42" s="231"/>
-      <c r="G42" s="231"/>
-      <c r="H42" s="232"/>
+      <c r="E42" s="239"/>
+      <c r="F42" s="239"/>
+      <c r="G42" s="239"/>
+      <c r="H42" s="240"/>
     </row>
     <row r="43" spans="1:8" ht="60" customHeight="1" thickBot="1">
       <c r="A43" s="1"/>
@@ -32595,88 +32598,88 @@
       <c r="H68" s="43"/>
     </row>
     <row r="69" spans="1:8" ht="24.6" customHeight="1">
-      <c r="A69" s="159"/>
-      <c r="B69" s="159"/>
-      <c r="C69" s="159"/>
-      <c r="D69" s="159"/>
-      <c r="E69" s="159"/>
-      <c r="F69" s="159"/>
-      <c r="G69" s="159"/>
-      <c r="H69" s="159"/>
+      <c r="A69" s="163"/>
+      <c r="B69" s="163"/>
+      <c r="C69" s="163"/>
+      <c r="D69" s="163"/>
+      <c r="E69" s="163"/>
+      <c r="F69" s="163"/>
+      <c r="G69" s="163"/>
+      <c r="H69" s="163"/>
     </row>
     <row r="70" spans="1:8" ht="25.2" customHeight="1">
-      <c r="A70" s="159"/>
-      <c r="B70" s="159"/>
-      <c r="C70" s="159"/>
-      <c r="D70" s="159"/>
-      <c r="E70" s="159"/>
-      <c r="F70" s="159"/>
-      <c r="G70" s="159"/>
-      <c r="H70" s="159"/>
+      <c r="A70" s="163"/>
+      <c r="B70" s="163"/>
+      <c r="C70" s="163"/>
+      <c r="D70" s="163"/>
+      <c r="E70" s="163"/>
+      <c r="F70" s="163"/>
+      <c r="G70" s="163"/>
+      <c r="H70" s="163"/>
     </row>
     <row r="71" spans="1:8" ht="25.2" customHeight="1">
-      <c r="A71" s="159"/>
-      <c r="B71" s="159"/>
-      <c r="C71" s="159"/>
-      <c r="D71" s="159"/>
-      <c r="E71" s="159"/>
-      <c r="F71" s="159"/>
-      <c r="G71" s="159"/>
-      <c r="H71" s="159"/>
+      <c r="A71" s="163"/>
+      <c r="B71" s="163"/>
+      <c r="C71" s="163"/>
+      <c r="D71" s="163"/>
+      <c r="E71" s="163"/>
+      <c r="F71" s="163"/>
+      <c r="G71" s="163"/>
+      <c r="H71" s="163"/>
     </row>
     <row r="72" spans="1:8" ht="25.2" customHeight="1">
-      <c r="A72" s="159"/>
-      <c r="B72" s="159"/>
-      <c r="C72" s="159"/>
-      <c r="D72" s="159"/>
-      <c r="E72" s="159"/>
-      <c r="F72" s="159"/>
-      <c r="G72" s="159"/>
-      <c r="H72" s="159"/>
+      <c r="A72" s="163"/>
+      <c r="B72" s="163"/>
+      <c r="C72" s="163"/>
+      <c r="D72" s="163"/>
+      <c r="E72" s="163"/>
+      <c r="F72" s="163"/>
+      <c r="G72" s="163"/>
+      <c r="H72" s="163"/>
     </row>
     <row r="73" spans="1:8" ht="25.2" customHeight="1">
-      <c r="A73" s="159"/>
-      <c r="B73" s="159"/>
-      <c r="C73" s="159"/>
-      <c r="D73" s="159"/>
-      <c r="E73" s="159"/>
-      <c r="F73" s="159"/>
-      <c r="G73" s="159"/>
-      <c r="H73" s="159"/>
+      <c r="A73" s="163"/>
+      <c r="B73" s="163"/>
+      <c r="C73" s="163"/>
+      <c r="D73" s="163"/>
+      <c r="E73" s="163"/>
+      <c r="F73" s="163"/>
+      <c r="G73" s="163"/>
+      <c r="H73" s="163"/>
     </row>
     <row r="74" spans="1:8" ht="24.6" customHeight="1">
-      <c r="A74" s="159"/>
-      <c r="B74" s="159"/>
-      <c r="C74" s="159"/>
-      <c r="D74" s="159"/>
-      <c r="E74" s="159"/>
-      <c r="F74" s="159"/>
-      <c r="G74" s="159"/>
-      <c r="H74" s="159"/>
+      <c r="A74" s="163"/>
+      <c r="B74" s="163"/>
+      <c r="C74" s="163"/>
+      <c r="D74" s="163"/>
+      <c r="E74" s="163"/>
+      <c r="F74" s="163"/>
+      <c r="G74" s="163"/>
+      <c r="H74" s="163"/>
     </row>
     <row r="75" spans="1:8" ht="25.2" customHeight="1" thickBot="1">
-      <c r="A75" s="159"/>
-      <c r="B75" s="159"/>
-      <c r="C75" s="159"/>
-      <c r="D75" s="159"/>
-      <c r="E75" s="159"/>
-      <c r="F75" s="159"/>
-      <c r="G75" s="159"/>
-      <c r="H75" s="159"/>
+      <c r="A75" s="163"/>
+      <c r="B75" s="163"/>
+      <c r="C75" s="163"/>
+      <c r="D75" s="163"/>
+      <c r="E75" s="163"/>
+      <c r="F75" s="163"/>
+      <c r="G75" s="163"/>
+      <c r="H75" s="163"/>
     </row>
     <row r="76" spans="1:8" ht="55.2" customHeight="1" thickBot="1">
       <c r="A76" s="3"/>
-      <c r="B76" s="230" t="s">
+      <c r="B76" s="238" t="s">
         <v>30</v>
       </c>
-      <c r="C76" s="231"/>
-      <c r="D76" s="230" t="s">
+      <c r="C76" s="239"/>
+      <c r="D76" s="238" t="s">
         <v>46</v>
       </c>
-      <c r="E76" s="231"/>
-      <c r="F76" s="231"/>
-      <c r="G76" s="231"/>
-      <c r="H76" s="232"/>
+      <c r="E76" s="239"/>
+      <c r="F76" s="239"/>
+      <c r="G76" s="239"/>
+      <c r="H76" s="240"/>
     </row>
     <row r="77" spans="1:8" ht="55.2" customHeight="1" thickBot="1">
       <c r="A77" s="1"/>
@@ -33016,88 +33019,88 @@
       <c r="H102" s="43"/>
     </row>
     <row r="103" spans="1:8" ht="24.6" customHeight="1">
-      <c r="A103" s="159"/>
-      <c r="B103" s="159"/>
-      <c r="C103" s="159"/>
-      <c r="D103" s="159"/>
-      <c r="E103" s="159"/>
-      <c r="F103" s="159"/>
-      <c r="G103" s="159"/>
-      <c r="H103" s="159"/>
+      <c r="A103" s="163"/>
+      <c r="B103" s="163"/>
+      <c r="C103" s="163"/>
+      <c r="D103" s="163"/>
+      <c r="E103" s="163"/>
+      <c r="F103" s="163"/>
+      <c r="G103" s="163"/>
+      <c r="H103" s="163"/>
     </row>
     <row r="104" spans="1:8" ht="25.2" customHeight="1">
-      <c r="A104" s="159"/>
-      <c r="B104" s="159"/>
-      <c r="C104" s="159"/>
-      <c r="D104" s="159"/>
-      <c r="E104" s="159"/>
-      <c r="F104" s="159"/>
-      <c r="G104" s="159"/>
-      <c r="H104" s="159"/>
+      <c r="A104" s="163"/>
+      <c r="B104" s="163"/>
+      <c r="C104" s="163"/>
+      <c r="D104" s="163"/>
+      <c r="E104" s="163"/>
+      <c r="F104" s="163"/>
+      <c r="G104" s="163"/>
+      <c r="H104" s="163"/>
     </row>
     <row r="105" spans="1:8" ht="25.2" customHeight="1">
-      <c r="A105" s="159"/>
-      <c r="B105" s="159"/>
-      <c r="C105" s="159"/>
-      <c r="D105" s="159"/>
-      <c r="E105" s="159"/>
-      <c r="F105" s="159"/>
-      <c r="G105" s="159"/>
-      <c r="H105" s="159"/>
+      <c r="A105" s="163"/>
+      <c r="B105" s="163"/>
+      <c r="C105" s="163"/>
+      <c r="D105" s="163"/>
+      <c r="E105" s="163"/>
+      <c r="F105" s="163"/>
+      <c r="G105" s="163"/>
+      <c r="H105" s="163"/>
     </row>
     <row r="106" spans="1:8" ht="25.2" customHeight="1">
-      <c r="A106" s="159"/>
-      <c r="B106" s="159"/>
-      <c r="C106" s="159"/>
-      <c r="D106" s="159"/>
-      <c r="E106" s="159"/>
-      <c r="F106" s="159"/>
-      <c r="G106" s="159"/>
-      <c r="H106" s="159"/>
+      <c r="A106" s="163"/>
+      <c r="B106" s="163"/>
+      <c r="C106" s="163"/>
+      <c r="D106" s="163"/>
+      <c r="E106" s="163"/>
+      <c r="F106" s="163"/>
+      <c r="G106" s="163"/>
+      <c r="H106" s="163"/>
     </row>
     <row r="107" spans="1:8" ht="25.2" customHeight="1">
-      <c r="A107" s="159"/>
-      <c r="B107" s="159"/>
-      <c r="C107" s="159"/>
-      <c r="D107" s="159"/>
-      <c r="E107" s="159"/>
-      <c r="F107" s="159"/>
-      <c r="G107" s="159"/>
-      <c r="H107" s="159"/>
+      <c r="A107" s="163"/>
+      <c r="B107" s="163"/>
+      <c r="C107" s="163"/>
+      <c r="D107" s="163"/>
+      <c r="E107" s="163"/>
+      <c r="F107" s="163"/>
+      <c r="G107" s="163"/>
+      <c r="H107" s="163"/>
     </row>
     <row r="108" spans="1:8" ht="24.6" customHeight="1">
-      <c r="A108" s="159"/>
-      <c r="B108" s="159"/>
-      <c r="C108" s="159"/>
-      <c r="D108" s="159"/>
-      <c r="E108" s="159"/>
-      <c r="F108" s="159"/>
-      <c r="G108" s="159"/>
-      <c r="H108" s="159"/>
+      <c r="A108" s="163"/>
+      <c r="B108" s="163"/>
+      <c r="C108" s="163"/>
+      <c r="D108" s="163"/>
+      <c r="E108" s="163"/>
+      <c r="F108" s="163"/>
+      <c r="G108" s="163"/>
+      <c r="H108" s="163"/>
     </row>
     <row r="109" spans="1:8" ht="25.2" customHeight="1" thickBot="1">
-      <c r="A109" s="159"/>
-      <c r="B109" s="159"/>
-      <c r="C109" s="159"/>
-      <c r="D109" s="159"/>
-      <c r="E109" s="159"/>
-      <c r="F109" s="159"/>
-      <c r="G109" s="159"/>
-      <c r="H109" s="159"/>
+      <c r="A109" s="163"/>
+      <c r="B109" s="163"/>
+      <c r="C109" s="163"/>
+      <c r="D109" s="163"/>
+      <c r="E109" s="163"/>
+      <c r="F109" s="163"/>
+      <c r="G109" s="163"/>
+      <c r="H109" s="163"/>
     </row>
     <row r="110" spans="1:8" ht="55.2" customHeight="1" thickBot="1">
       <c r="A110" s="3"/>
-      <c r="B110" s="230" t="s">
+      <c r="B110" s="238" t="s">
         <v>30</v>
       </c>
-      <c r="C110" s="231"/>
-      <c r="D110" s="230" t="s">
+      <c r="C110" s="239"/>
+      <c r="D110" s="238" t="s">
         <v>47</v>
       </c>
-      <c r="E110" s="231"/>
-      <c r="F110" s="231"/>
-      <c r="G110" s="231"/>
-      <c r="H110" s="232"/>
+      <c r="E110" s="239"/>
+      <c r="F110" s="239"/>
+      <c r="G110" s="239"/>
+      <c r="H110" s="240"/>
     </row>
     <row r="111" spans="1:8" ht="55.2" customHeight="1" thickBot="1">
       <c r="A111" s="1"/>
@@ -33437,88 +33440,88 @@
       <c r="H136" s="43"/>
     </row>
     <row r="137" spans="1:8" ht="24.6" customHeight="1">
-      <c r="A137" s="159"/>
-      <c r="B137" s="159"/>
-      <c r="C137" s="159"/>
-      <c r="D137" s="159"/>
-      <c r="E137" s="159"/>
-      <c r="F137" s="159"/>
-      <c r="G137" s="159"/>
-      <c r="H137" s="159"/>
+      <c r="A137" s="163"/>
+      <c r="B137" s="163"/>
+      <c r="C137" s="163"/>
+      <c r="D137" s="163"/>
+      <c r="E137" s="163"/>
+      <c r="F137" s="163"/>
+      <c r="G137" s="163"/>
+      <c r="H137" s="163"/>
     </row>
     <row r="138" spans="1:8" ht="25.2" customHeight="1">
-      <c r="A138" s="159"/>
-      <c r="B138" s="159"/>
-      <c r="C138" s="159"/>
-      <c r="D138" s="159"/>
-      <c r="E138" s="159"/>
-      <c r="F138" s="159"/>
-      <c r="G138" s="159"/>
-      <c r="H138" s="159"/>
+      <c r="A138" s="163"/>
+      <c r="B138" s="163"/>
+      <c r="C138" s="163"/>
+      <c r="D138" s="163"/>
+      <c r="E138" s="163"/>
+      <c r="F138" s="163"/>
+      <c r="G138" s="163"/>
+      <c r="H138" s="163"/>
     </row>
     <row r="139" spans="1:8" ht="25.2" customHeight="1">
-      <c r="A139" s="159"/>
-      <c r="B139" s="159"/>
-      <c r="C139" s="159"/>
-      <c r="D139" s="159"/>
-      <c r="E139" s="159"/>
-      <c r="F139" s="159"/>
-      <c r="G139" s="159"/>
-      <c r="H139" s="159"/>
+      <c r="A139" s="163"/>
+      <c r="B139" s="163"/>
+      <c r="C139" s="163"/>
+      <c r="D139" s="163"/>
+      <c r="E139" s="163"/>
+      <c r="F139" s="163"/>
+      <c r="G139" s="163"/>
+      <c r="H139" s="163"/>
     </row>
     <row r="140" spans="1:8" ht="25.2" customHeight="1">
-      <c r="A140" s="159"/>
-      <c r="B140" s="159"/>
-      <c r="C140" s="159"/>
-      <c r="D140" s="159"/>
-      <c r="E140" s="159"/>
-      <c r="F140" s="159"/>
-      <c r="G140" s="159"/>
-      <c r="H140" s="159"/>
+      <c r="A140" s="163"/>
+      <c r="B140" s="163"/>
+      <c r="C140" s="163"/>
+      <c r="D140" s="163"/>
+      <c r="E140" s="163"/>
+      <c r="F140" s="163"/>
+      <c r="G140" s="163"/>
+      <c r="H140" s="163"/>
     </row>
     <row r="141" spans="1:8" ht="25.2" customHeight="1">
-      <c r="A141" s="159"/>
-      <c r="B141" s="159"/>
-      <c r="C141" s="159"/>
-      <c r="D141" s="159"/>
-      <c r="E141" s="159"/>
-      <c r="F141" s="159"/>
-      <c r="G141" s="159"/>
-      <c r="H141" s="159"/>
+      <c r="A141" s="163"/>
+      <c r="B141" s="163"/>
+      <c r="C141" s="163"/>
+      <c r="D141" s="163"/>
+      <c r="E141" s="163"/>
+      <c r="F141" s="163"/>
+      <c r="G141" s="163"/>
+      <c r="H141" s="163"/>
     </row>
     <row r="142" spans="1:8" ht="24.6" customHeight="1">
-      <c r="A142" s="159"/>
-      <c r="B142" s="159"/>
-      <c r="C142" s="159"/>
-      <c r="D142" s="159"/>
-      <c r="E142" s="159"/>
-      <c r="F142" s="159"/>
-      <c r="G142" s="159"/>
-      <c r="H142" s="159"/>
+      <c r="A142" s="163"/>
+      <c r="B142" s="163"/>
+      <c r="C142" s="163"/>
+      <c r="D142" s="163"/>
+      <c r="E142" s="163"/>
+      <c r="F142" s="163"/>
+      <c r="G142" s="163"/>
+      <c r="H142" s="163"/>
     </row>
     <row r="143" spans="1:8" ht="25.2" customHeight="1" thickBot="1">
-      <c r="A143" s="159"/>
-      <c r="B143" s="159"/>
-      <c r="C143" s="159"/>
-      <c r="D143" s="159"/>
-      <c r="E143" s="159"/>
-      <c r="F143" s="159"/>
-      <c r="G143" s="159"/>
-      <c r="H143" s="159"/>
+      <c r="A143" s="163"/>
+      <c r="B143" s="163"/>
+      <c r="C143" s="163"/>
+      <c r="D143" s="163"/>
+      <c r="E143" s="163"/>
+      <c r="F143" s="163"/>
+      <c r="G143" s="163"/>
+      <c r="H143" s="163"/>
     </row>
     <row r="144" spans="1:8" ht="55.2" customHeight="1" thickBot="1">
       <c r="A144" s="3"/>
-      <c r="B144" s="230" t="s">
+      <c r="B144" s="238" t="s">
         <v>30</v>
       </c>
-      <c r="C144" s="231"/>
-      <c r="D144" s="230" t="s">
+      <c r="C144" s="239"/>
+      <c r="D144" s="238" t="s">
         <v>48</v>
       </c>
-      <c r="E144" s="231"/>
-      <c r="F144" s="231"/>
-      <c r="G144" s="231"/>
-      <c r="H144" s="232"/>
+      <c r="E144" s="239"/>
+      <c r="F144" s="239"/>
+      <c r="G144" s="239"/>
+      <c r="H144" s="240"/>
     </row>
     <row r="145" spans="1:8" ht="55.2" customHeight="1" thickBot="1">
       <c r="A145" s="1"/>
@@ -34085,6 +34088,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B144:C144"/>
+    <mergeCell ref="D144:H144"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="D76:H76"/>
+    <mergeCell ref="B110:C110"/>
+    <mergeCell ref="D110:H110"/>
     <mergeCell ref="A1:H7"/>
     <mergeCell ref="A35:H41"/>
     <mergeCell ref="A69:H75"/>
@@ -34094,12 +34103,6 @@
     <mergeCell ref="D8:H8"/>
     <mergeCell ref="B42:C42"/>
     <mergeCell ref="D42:H42"/>
-    <mergeCell ref="B144:C144"/>
-    <mergeCell ref="D144:H144"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="D76:H76"/>
-    <mergeCell ref="B110:C110"/>
-    <mergeCell ref="D110:H110"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -34148,199 +34151,199 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="25.2" customHeight="1">
-      <c r="A1" s="159"/>
-      <c r="B1" s="159"/>
-      <c r="C1" s="159"/>
-      <c r="D1" s="159"/>
-      <c r="E1" s="159"/>
-      <c r="F1" s="159"/>
-      <c r="G1" s="159"/>
-      <c r="H1" s="159"/>
-      <c r="I1" s="159"/>
-      <c r="J1" s="159"/>
-      <c r="K1" s="159"/>
-      <c r="L1" s="159"/>
-      <c r="M1" s="159"/>
-      <c r="N1" s="159"/>
-      <c r="O1" s="159"/>
-      <c r="P1" s="159"/>
-      <c r="Q1" s="159"/>
+      <c r="A1" s="163"/>
+      <c r="B1" s="163"/>
+      <c r="C1" s="163"/>
+      <c r="D1" s="163"/>
+      <c r="E1" s="163"/>
+      <c r="F1" s="163"/>
+      <c r="G1" s="163"/>
+      <c r="H1" s="163"/>
+      <c r="I1" s="163"/>
+      <c r="J1" s="163"/>
+      <c r="K1" s="163"/>
+      <c r="L1" s="163"/>
+      <c r="M1" s="163"/>
+      <c r="N1" s="163"/>
+      <c r="O1" s="163"/>
+      <c r="P1" s="163"/>
+      <c r="Q1" s="163"/>
     </row>
     <row r="2" spans="1:28" ht="25.2" customHeight="1">
-      <c r="A2" s="159"/>
-      <c r="B2" s="159"/>
-      <c r="C2" s="159"/>
-      <c r="D2" s="159"/>
-      <c r="E2" s="159"/>
-      <c r="F2" s="159"/>
-      <c r="G2" s="159"/>
-      <c r="H2" s="159"/>
-      <c r="I2" s="159"/>
-      <c r="J2" s="159"/>
-      <c r="K2" s="159"/>
-      <c r="L2" s="159"/>
-      <c r="M2" s="159"/>
-      <c r="N2" s="159"/>
-      <c r="O2" s="159"/>
-      <c r="P2" s="159"/>
-      <c r="Q2" s="159"/>
+      <c r="A2" s="163"/>
+      <c r="B2" s="163"/>
+      <c r="C2" s="163"/>
+      <c r="D2" s="163"/>
+      <c r="E2" s="163"/>
+      <c r="F2" s="163"/>
+      <c r="G2" s="163"/>
+      <c r="H2" s="163"/>
+      <c r="I2" s="163"/>
+      <c r="J2" s="163"/>
+      <c r="K2" s="163"/>
+      <c r="L2" s="163"/>
+      <c r="M2" s="163"/>
+      <c r="N2" s="163"/>
+      <c r="O2" s="163"/>
+      <c r="P2" s="163"/>
+      <c r="Q2" s="163"/>
     </row>
     <row r="3" spans="1:28" ht="25.2" customHeight="1">
-      <c r="A3" s="159"/>
-      <c r="B3" s="159"/>
-      <c r="C3" s="159"/>
-      <c r="D3" s="159"/>
-      <c r="E3" s="159"/>
-      <c r="F3" s="159"/>
-      <c r="G3" s="159"/>
-      <c r="H3" s="159"/>
-      <c r="I3" s="159"/>
-      <c r="J3" s="159"/>
-      <c r="K3" s="159"/>
-      <c r="L3" s="159"/>
-      <c r="M3" s="159"/>
-      <c r="N3" s="159"/>
-      <c r="O3" s="159"/>
-      <c r="P3" s="159"/>
-      <c r="Q3" s="159"/>
+      <c r="A3" s="163"/>
+      <c r="B3" s="163"/>
+      <c r="C3" s="163"/>
+      <c r="D3" s="163"/>
+      <c r="E3" s="163"/>
+      <c r="F3" s="163"/>
+      <c r="G3" s="163"/>
+      <c r="H3" s="163"/>
+      <c r="I3" s="163"/>
+      <c r="J3" s="163"/>
+      <c r="K3" s="163"/>
+      <c r="L3" s="163"/>
+      <c r="M3" s="163"/>
+      <c r="N3" s="163"/>
+      <c r="O3" s="163"/>
+      <c r="P3" s="163"/>
+      <c r="Q3" s="163"/>
     </row>
     <row r="4" spans="1:28" ht="25.2" customHeight="1">
-      <c r="A4" s="159"/>
-      <c r="B4" s="159"/>
-      <c r="C4" s="159"/>
-      <c r="D4" s="159"/>
-      <c r="E4" s="159"/>
-      <c r="F4" s="159"/>
-      <c r="G4" s="159"/>
-      <c r="H4" s="159"/>
-      <c r="I4" s="159"/>
-      <c r="J4" s="159"/>
-      <c r="K4" s="159"/>
-      <c r="L4" s="159"/>
-      <c r="M4" s="159"/>
-      <c r="N4" s="159"/>
-      <c r="O4" s="159"/>
-      <c r="P4" s="159"/>
-      <c r="Q4" s="159"/>
+      <c r="A4" s="163"/>
+      <c r="B4" s="163"/>
+      <c r="C4" s="163"/>
+      <c r="D4" s="163"/>
+      <c r="E4" s="163"/>
+      <c r="F4" s="163"/>
+      <c r="G4" s="163"/>
+      <c r="H4" s="163"/>
+      <c r="I4" s="163"/>
+      <c r="J4" s="163"/>
+      <c r="K4" s="163"/>
+      <c r="L4" s="163"/>
+      <c r="M4" s="163"/>
+      <c r="N4" s="163"/>
+      <c r="O4" s="163"/>
+      <c r="P4" s="163"/>
+      <c r="Q4" s="163"/>
     </row>
     <row r="5" spans="1:28" ht="25.2" customHeight="1">
-      <c r="A5" s="159"/>
-      <c r="B5" s="159"/>
-      <c r="C5" s="159"/>
-      <c r="D5" s="159"/>
-      <c r="E5" s="159"/>
-      <c r="F5" s="159"/>
-      <c r="G5" s="159"/>
-      <c r="H5" s="159"/>
-      <c r="I5" s="159"/>
-      <c r="J5" s="159"/>
-      <c r="K5" s="159"/>
-      <c r="L5" s="159"/>
-      <c r="M5" s="159"/>
-      <c r="N5" s="159"/>
-      <c r="O5" s="159"/>
-      <c r="P5" s="159"/>
-      <c r="Q5" s="159"/>
+      <c r="A5" s="163"/>
+      <c r="B5" s="163"/>
+      <c r="C5" s="163"/>
+      <c r="D5" s="163"/>
+      <c r="E5" s="163"/>
+      <c r="F5" s="163"/>
+      <c r="G5" s="163"/>
+      <c r="H5" s="163"/>
+      <c r="I5" s="163"/>
+      <c r="J5" s="163"/>
+      <c r="K5" s="163"/>
+      <c r="L5" s="163"/>
+      <c r="M5" s="163"/>
+      <c r="N5" s="163"/>
+      <c r="O5" s="163"/>
+      <c r="P5" s="163"/>
+      <c r="Q5" s="163"/>
     </row>
     <row r="6" spans="1:28" ht="25.2" customHeight="1">
-      <c r="A6" s="159"/>
-      <c r="B6" s="159"/>
-      <c r="C6" s="159"/>
-      <c r="D6" s="159"/>
-      <c r="E6" s="159"/>
-      <c r="F6" s="159"/>
-      <c r="G6" s="159"/>
-      <c r="H6" s="159"/>
-      <c r="I6" s="159"/>
-      <c r="J6" s="159"/>
-      <c r="K6" s="159"/>
-      <c r="L6" s="159"/>
-      <c r="M6" s="159"/>
-      <c r="N6" s="159"/>
-      <c r="O6" s="159"/>
-      <c r="P6" s="159"/>
-      <c r="Q6" s="159"/>
+      <c r="A6" s="163"/>
+      <c r="B6" s="163"/>
+      <c r="C6" s="163"/>
+      <c r="D6" s="163"/>
+      <c r="E6" s="163"/>
+      <c r="F6" s="163"/>
+      <c r="G6" s="163"/>
+      <c r="H6" s="163"/>
+      <c r="I6" s="163"/>
+      <c r="J6" s="163"/>
+      <c r="K6" s="163"/>
+      <c r="L6" s="163"/>
+      <c r="M6" s="163"/>
+      <c r="N6" s="163"/>
+      <c r="O6" s="163"/>
+      <c r="P6" s="163"/>
+      <c r="Q6" s="163"/>
     </row>
     <row r="7" spans="1:28" ht="25.2" customHeight="1" thickBot="1">
-      <c r="A7" s="159"/>
-      <c r="B7" s="159"/>
-      <c r="C7" s="159"/>
-      <c r="D7" s="159"/>
-      <c r="E7" s="159"/>
-      <c r="F7" s="159"/>
-      <c r="G7" s="159"/>
-      <c r="H7" s="159"/>
-      <c r="I7" s="159"/>
-      <c r="J7" s="159"/>
-      <c r="K7" s="159"/>
-      <c r="L7" s="159"/>
-      <c r="M7" s="159"/>
-      <c r="N7" s="159"/>
-      <c r="O7" s="159"/>
-      <c r="P7" s="159"/>
-      <c r="Q7" s="159"/>
+      <c r="A7" s="163"/>
+      <c r="B7" s="163"/>
+      <c r="C7" s="163"/>
+      <c r="D7" s="163"/>
+      <c r="E7" s="163"/>
+      <c r="F7" s="163"/>
+      <c r="G7" s="163"/>
+      <c r="H7" s="163"/>
+      <c r="I7" s="163"/>
+      <c r="J7" s="163"/>
+      <c r="K7" s="163"/>
+      <c r="L7" s="163"/>
+      <c r="M7" s="163"/>
+      <c r="N7" s="163"/>
+      <c r="O7" s="163"/>
+      <c r="P7" s="163"/>
+      <c r="Q7" s="163"/>
     </row>
     <row r="8" spans="1:28" s="77" customFormat="1" ht="45" customHeight="1" thickBot="1">
       <c r="A8" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="236" t="s">
+      <c r="B8" s="244" t="s">
         <v>147</v>
       </c>
-      <c r="C8" s="237"/>
-      <c r="D8" s="237"/>
-      <c r="E8" s="237"/>
-      <c r="F8" s="242"/>
+      <c r="C8" s="245"/>
+      <c r="D8" s="245"/>
+      <c r="E8" s="245"/>
+      <c r="F8" s="250"/>
       <c r="G8" s="76" t="s">
         <v>52</v>
       </c>
-      <c r="H8" s="236" t="s">
+      <c r="H8" s="244" t="s">
         <v>130</v>
       </c>
-      <c r="I8" s="237"/>
-      <c r="J8" s="237"/>
-      <c r="K8" s="238"/>
-      <c r="L8" s="246"/>
-      <c r="M8" s="247"/>
-      <c r="N8" s="247"/>
-      <c r="O8" s="247"/>
-      <c r="P8" s="247"/>
-      <c r="Q8" s="247"/>
+      <c r="I8" s="245"/>
+      <c r="J8" s="245"/>
+      <c r="K8" s="246"/>
+      <c r="L8" s="254"/>
+      <c r="M8" s="255"/>
+      <c r="N8" s="255"/>
+      <c r="O8" s="255"/>
+      <c r="P8" s="255"/>
+      <c r="Q8" s="255"/>
       <c r="X8" s="141"/>
     </row>
     <row r="9" spans="1:28" ht="45" customHeight="1" thickBot="1">
-      <c r="A9" s="159"/>
-      <c r="B9" s="159"/>
-      <c r="C9" s="159"/>
-      <c r="D9" s="159"/>
-      <c r="E9" s="159"/>
-      <c r="F9" s="159"/>
-      <c r="G9" s="159"/>
-      <c r="H9" s="159"/>
-      <c r="I9" s="159"/>
-      <c r="J9" s="159"/>
-      <c r="K9" s="159"/>
-      <c r="L9" s="159"/>
-      <c r="M9" s="159"/>
-      <c r="N9" s="159"/>
-      <c r="O9" s="159"/>
-      <c r="P9" s="159"/>
-      <c r="Q9" s="159"/>
+      <c r="A9" s="163"/>
+      <c r="B9" s="163"/>
+      <c r="C9" s="163"/>
+      <c r="D9" s="163"/>
+      <c r="E9" s="163"/>
+      <c r="F9" s="163"/>
+      <c r="G9" s="163"/>
+      <c r="H9" s="163"/>
+      <c r="I9" s="163"/>
+      <c r="J9" s="163"/>
+      <c r="K9" s="163"/>
+      <c r="L9" s="163"/>
+      <c r="M9" s="163"/>
+      <c r="N9" s="163"/>
+      <c r="O9" s="163"/>
+      <c r="P9" s="163"/>
+      <c r="Q9" s="163"/>
     </row>
     <row r="10" spans="1:28" s="74" customFormat="1" ht="45" customHeight="1">
-      <c r="A10" s="243" t="s">
+      <c r="A10" s="251" t="s">
         <v>53</v>
       </c>
-      <c r="B10" s="244"/>
-      <c r="C10" s="244"/>
-      <c r="D10" s="244"/>
-      <c r="E10" s="244"/>
-      <c r="F10" s="244"/>
-      <c r="G10" s="244"/>
-      <c r="H10" s="244"/>
-      <c r="I10" s="244"/>
-      <c r="J10" s="244"/>
-      <c r="K10" s="245"/>
+      <c r="B10" s="252"/>
+      <c r="C10" s="252"/>
+      <c r="D10" s="252"/>
+      <c r="E10" s="252"/>
+      <c r="F10" s="252"/>
+      <c r="G10" s="252"/>
+      <c r="H10" s="252"/>
+      <c r="I10" s="252"/>
+      <c r="J10" s="252"/>
+      <c r="K10" s="253"/>
       <c r="L10" s="130" t="s">
         <v>131</v>
       </c>
@@ -34377,36 +34380,36 @@
       <c r="W10" s="143" t="s">
         <v>56</v>
       </c>
-      <c r="X10" s="248" t="s">
+      <c r="X10" s="256" t="s">
         <v>142</v>
       </c>
-      <c r="Y10" s="254" t="s">
+      <c r="Y10" s="262" t="s">
         <v>146</v>
       </c>
-      <c r="Z10" s="250" t="s">
+      <c r="Z10" s="258" t="s">
         <v>144</v>
       </c>
-      <c r="AA10" s="250" t="s">
+      <c r="AA10" s="258" t="s">
         <v>145</v>
       </c>
-      <c r="AB10" s="252" t="s">
+      <c r="AB10" s="260" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="11" spans="1:28" s="74" customFormat="1" ht="45" customHeight="1">
-      <c r="A11" s="239" t="s">
+      <c r="A11" s="247" t="s">
         <v>57</v>
       </c>
-      <c r="B11" s="240"/>
-      <c r="C11" s="240"/>
-      <c r="D11" s="240"/>
-      <c r="E11" s="240"/>
-      <c r="F11" s="240"/>
-      <c r="G11" s="240"/>
-      <c r="H11" s="240"/>
-      <c r="I11" s="240"/>
-      <c r="J11" s="240"/>
-      <c r="K11" s="241"/>
+      <c r="B11" s="248"/>
+      <c r="C11" s="248"/>
+      <c r="D11" s="248"/>
+      <c r="E11" s="248"/>
+      <c r="F11" s="248"/>
+      <c r="G11" s="248"/>
+      <c r="H11" s="248"/>
+      <c r="I11" s="248"/>
+      <c r="J11" s="248"/>
+      <c r="K11" s="249"/>
       <c r="L11" s="132"/>
       <c r="M11" s="128"/>
       <c r="N11" s="128"/>
@@ -34419,11 +34422,11 @@
       <c r="U11" s="128"/>
       <c r="V11" s="128"/>
       <c r="W11" s="144"/>
-      <c r="X11" s="249"/>
-      <c r="Y11" s="255"/>
-      <c r="Z11" s="251"/>
-      <c r="AA11" s="251"/>
-      <c r="AB11" s="253"/>
+      <c r="X11" s="257"/>
+      <c r="Y11" s="263"/>
+      <c r="Z11" s="259"/>
+      <c r="AA11" s="259"/>
+      <c r="AB11" s="261"/>
     </row>
     <row r="12" spans="1:28" s="74" customFormat="1" ht="45" customHeight="1">
       <c r="A12" s="148" t="s">
@@ -34459,23 +34462,23 @@
       <c r="K12" s="149" t="s">
         <v>64</v>
       </c>
-      <c r="L12" s="233"/>
-      <c r="M12" s="234"/>
-      <c r="N12" s="234"/>
-      <c r="O12" s="234"/>
-      <c r="P12" s="234"/>
-      <c r="Q12" s="234"/>
-      <c r="R12" s="234"/>
-      <c r="S12" s="234"/>
-      <c r="T12" s="234"/>
-      <c r="U12" s="234"/>
-      <c r="V12" s="234"/>
-      <c r="W12" s="234"/>
-      <c r="X12" s="234"/>
-      <c r="Y12" s="234"/>
-      <c r="Z12" s="234"/>
-      <c r="AA12" s="234"/>
-      <c r="AB12" s="235"/>
+      <c r="L12" s="241"/>
+      <c r="M12" s="242"/>
+      <c r="N12" s="242"/>
+      <c r="O12" s="242"/>
+      <c r="P12" s="242"/>
+      <c r="Q12" s="242"/>
+      <c r="R12" s="242"/>
+      <c r="S12" s="242"/>
+      <c r="T12" s="242"/>
+      <c r="U12" s="242"/>
+      <c r="V12" s="242"/>
+      <c r="W12" s="242"/>
+      <c r="X12" s="242"/>
+      <c r="Y12" s="242"/>
+      <c r="Z12" s="242"/>
+      <c r="AA12" s="242"/>
+      <c r="AB12" s="243"/>
     </row>
     <row r="13" spans="1:28" s="79" customFormat="1" ht="60" customHeight="1">
       <c r="A13" s="150"/>
@@ -34655,23 +34658,23 @@
       <c r="K17" s="149" t="s">
         <v>63</v>
       </c>
-      <c r="L17" s="233"/>
-      <c r="M17" s="234"/>
-      <c r="N17" s="234"/>
-      <c r="O17" s="234"/>
-      <c r="P17" s="234"/>
-      <c r="Q17" s="234"/>
-      <c r="R17" s="234"/>
-      <c r="S17" s="234"/>
-      <c r="T17" s="234"/>
-      <c r="U17" s="234"/>
-      <c r="V17" s="234"/>
-      <c r="W17" s="234"/>
-      <c r="X17" s="234"/>
-      <c r="Y17" s="234"/>
-      <c r="Z17" s="234"/>
-      <c r="AA17" s="234"/>
-      <c r="AB17" s="234"/>
+      <c r="L17" s="241"/>
+      <c r="M17" s="242"/>
+      <c r="N17" s="242"/>
+      <c r="O17" s="242"/>
+      <c r="P17" s="242"/>
+      <c r="Q17" s="242"/>
+      <c r="R17" s="242"/>
+      <c r="S17" s="242"/>
+      <c r="T17" s="242"/>
+      <c r="U17" s="242"/>
+      <c r="V17" s="242"/>
+      <c r="W17" s="242"/>
+      <c r="X17" s="242"/>
+      <c r="Y17" s="242"/>
+      <c r="Z17" s="242"/>
+      <c r="AA17" s="242"/>
+      <c r="AB17" s="242"/>
     </row>
     <row r="18" spans="1:28" s="79" customFormat="1" ht="60" customHeight="1">
       <c r="A18" s="153"/>
@@ -35449,22 +35452,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="143.4" customHeight="1" thickBot="1">
-      <c r="A1" s="269"/>
-      <c r="B1" s="269"/>
-      <c r="C1" s="269"/>
+      <c r="A1" s="277"/>
+      <c r="B1" s="277"/>
+      <c r="C1" s="277"/>
     </row>
     <row r="2" spans="1:3" ht="64.95" customHeight="1" thickBot="1">
-      <c r="A2" s="273" t="s">
+      <c r="A2" s="264" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="274"/>
-      <c r="C2" s="275"/>
+      <c r="B2" s="265"/>
+      <c r="C2" s="266"/>
     </row>
     <row r="3" spans="1:3" ht="49.95" customHeight="1">
-      <c r="A3" s="264" t="s">
+      <c r="A3" s="272" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="270" t="s">
+      <c r="B3" s="269" t="s">
         <v>67</v>
       </c>
       <c r="C3" s="58" t="s">
@@ -35472,22 +35475,22 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="49.95" customHeight="1">
-      <c r="A4" s="265"/>
+      <c r="A4" s="273"/>
       <c r="B4" s="271"/>
       <c r="C4" s="59" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="49.95" customHeight="1" thickBot="1">
-      <c r="A5" s="265"/>
-      <c r="B5" s="272"/>
+      <c r="A5" s="273"/>
+      <c r="B5" s="270"/>
       <c r="C5" s="103" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="49.95" customHeight="1">
-      <c r="A6" s="265"/>
-      <c r="B6" s="270" t="s">
+      <c r="A6" s="273"/>
+      <c r="B6" s="269" t="s">
         <v>71</v>
       </c>
       <c r="C6" s="58" t="s">
@@ -35495,21 +35498,21 @@
       </c>
     </row>
     <row r="7" spans="1:3" ht="49.95" customHeight="1">
-      <c r="A7" s="265"/>
+      <c r="A7" s="273"/>
       <c r="B7" s="271"/>
       <c r="C7" s="59" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="49.95" customHeight="1" thickBot="1">
-      <c r="A8" s="266"/>
-      <c r="B8" s="272"/>
+      <c r="A8" s="274"/>
+      <c r="B8" s="270"/>
       <c r="C8" s="61" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="49.95" customHeight="1">
-      <c r="A9" s="266"/>
+      <c r="A9" s="274"/>
       <c r="B9" s="271" t="s">
         <v>75</v>
       </c>
@@ -35518,17 +35521,17 @@
       </c>
     </row>
     <row r="10" spans="1:3" ht="49.95" customHeight="1" thickBot="1">
-      <c r="A10" s="268"/>
-      <c r="B10" s="272"/>
+      <c r="A10" s="275"/>
+      <c r="B10" s="270"/>
       <c r="C10" s="61" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="49.95" customHeight="1">
-      <c r="A11" s="265" t="s">
+      <c r="A11" s="273" t="s">
         <v>78</v>
       </c>
-      <c r="B11" s="270" t="s">
+      <c r="B11" s="269" t="s">
         <v>67</v>
       </c>
       <c r="C11" s="58" t="s">
@@ -35536,22 +35539,22 @@
       </c>
     </row>
     <row r="12" spans="1:3" ht="49.95" customHeight="1">
-      <c r="A12" s="265"/>
+      <c r="A12" s="273"/>
       <c r="B12" s="271"/>
       <c r="C12" s="59" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="49.95" customHeight="1" thickBot="1">
-      <c r="A13" s="265"/>
-      <c r="B13" s="272"/>
+      <c r="A13" s="273"/>
+      <c r="B13" s="270"/>
       <c r="C13" s="60" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="49.95" customHeight="1">
-      <c r="A14" s="265"/>
-      <c r="B14" s="270" t="s">
+      <c r="A14" s="273"/>
+      <c r="B14" s="269" t="s">
         <v>80</v>
       </c>
       <c r="C14" s="58" t="s">
@@ -35559,15 +35562,15 @@
       </c>
     </row>
     <row r="15" spans="1:3" ht="49.95" customHeight="1">
-      <c r="A15" s="265"/>
+      <c r="A15" s="273"/>
       <c r="B15" s="271"/>
       <c r="C15" s="59" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="49.95" customHeight="1" thickBot="1">
-      <c r="A16" s="266"/>
-      <c r="B16" s="272" t="s">
+      <c r="A16" s="274"/>
+      <c r="B16" s="270" t="s">
         <v>80</v>
       </c>
       <c r="C16" s="61" t="s">
@@ -35575,7 +35578,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" ht="49.95" customHeight="1" thickBot="1">
-      <c r="A17" s="266"/>
+      <c r="A17" s="274"/>
       <c r="B17" s="53" t="s">
         <v>82</v>
       </c>
@@ -35584,7 +35587,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" ht="49.95" customHeight="1" thickBot="1">
-      <c r="A18" s="267"/>
+      <c r="A18" s="276"/>
       <c r="B18" s="54" t="s">
         <v>75</v>
       </c>
@@ -35593,10 +35596,10 @@
       </c>
     </row>
     <row r="19" spans="1:3" ht="49.95" customHeight="1">
-      <c r="A19" s="260" t="s">
+      <c r="A19" s="267" t="s">
         <v>84</v>
       </c>
-      <c r="B19" s="270" t="s">
+      <c r="B19" s="269" t="s">
         <v>85</v>
       </c>
       <c r="C19" s="58" t="s">
@@ -35604,8 +35607,8 @@
       </c>
     </row>
     <row r="20" spans="1:3" ht="49.95" customHeight="1" thickBot="1">
-      <c r="A20" s="262"/>
-      <c r="B20" s="272"/>
+      <c r="A20" s="268"/>
+      <c r="B20" s="270"/>
       <c r="C20" s="60" t="s">
         <v>87</v>
       </c>
@@ -35622,7 +35625,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" ht="49.95" customHeight="1">
-      <c r="A22" s="264" t="s">
+      <c r="A22" s="272" t="s">
         <v>90</v>
       </c>
       <c r="B22" s="56" t="s">
@@ -35633,7 +35636,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" ht="49.95" customHeight="1" thickBot="1">
-      <c r="A23" s="268"/>
+      <c r="A23" s="275"/>
       <c r="B23" s="57" t="s">
         <v>93</v>
       </c>
@@ -35642,17 +35645,17 @@
       </c>
     </row>
     <row r="24" spans="1:3" s="102" customFormat="1" ht="64.95" customHeight="1" thickBot="1">
-      <c r="A24" s="273" t="s">
+      <c r="A24" s="264" t="s">
         <v>95</v>
       </c>
-      <c r="B24" s="274"/>
-      <c r="C24" s="275"/>
+      <c r="B24" s="265"/>
+      <c r="C24" s="266"/>
     </row>
     <row r="25" spans="1:3" ht="49.95" customHeight="1">
-      <c r="A25" s="256" t="s">
+      <c r="A25" s="278" t="s">
         <v>96</v>
       </c>
-      <c r="B25" s="258" t="s">
+      <c r="B25" s="280" t="s">
         <v>85</v>
       </c>
       <c r="C25" s="58" t="s">
@@ -35660,14 +35663,14 @@
       </c>
     </row>
     <row r="26" spans="1:3" ht="49.95" customHeight="1" thickBot="1">
-      <c r="A26" s="257"/>
-      <c r="B26" s="259"/>
+      <c r="A26" s="279"/>
+      <c r="B26" s="281"/>
       <c r="C26" s="71" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="49.95" customHeight="1" thickBot="1">
-      <c r="A27" s="264" t="s">
+      <c r="A27" s="272" t="s">
         <v>98</v>
       </c>
       <c r="B27" s="66" t="s">
@@ -35678,8 +35681,8 @@
       </c>
     </row>
     <row r="28" spans="1:3" ht="49.95" customHeight="1">
-      <c r="A28" s="265"/>
-      <c r="B28" s="258" t="s">
+      <c r="A28" s="273"/>
+      <c r="B28" s="280" t="s">
         <v>100</v>
       </c>
       <c r="C28" s="70" t="s">
@@ -35687,22 +35690,22 @@
       </c>
     </row>
     <row r="29" spans="1:3" ht="49.95" customHeight="1">
-      <c r="A29" s="265"/>
-      <c r="B29" s="263"/>
+      <c r="A29" s="273"/>
+      <c r="B29" s="283"/>
       <c r="C29" s="101" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="49.95" customHeight="1" thickBot="1">
-      <c r="A30" s="266"/>
-      <c r="B30" s="259"/>
+      <c r="A30" s="274"/>
+      <c r="B30" s="281"/>
       <c r="C30" s="71" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="49.95" customHeight="1">
-      <c r="A31" s="267"/>
-      <c r="B31" s="258" t="s">
+      <c r="A31" s="276"/>
+      <c r="B31" s="280" t="s">
         <v>104</v>
       </c>
       <c r="C31" s="70" t="s">
@@ -35710,21 +35713,21 @@
       </c>
     </row>
     <row r="32" spans="1:3" ht="49.95" customHeight="1">
-      <c r="A32" s="267"/>
-      <c r="B32" s="263"/>
+      <c r="A32" s="276"/>
+      <c r="B32" s="283"/>
       <c r="C32" s="101" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="49.95" customHeight="1" thickBot="1">
-      <c r="A33" s="268"/>
-      <c r="B33" s="259"/>
+      <c r="A33" s="275"/>
+      <c r="B33" s="281"/>
       <c r="C33" s="71" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="49.95" customHeight="1" thickBot="1">
-      <c r="A34" s="264" t="s">
+      <c r="A34" s="272" t="s">
         <v>108</v>
       </c>
       <c r="B34" s="67" t="s">
@@ -35735,8 +35738,8 @@
       </c>
     </row>
     <row r="35" spans="1:3" ht="49.95" customHeight="1">
-      <c r="A35" s="261"/>
-      <c r="B35" s="258" t="s">
+      <c r="A35" s="282"/>
+      <c r="B35" s="280" t="s">
         <v>85</v>
       </c>
       <c r="C35" s="70" t="s">
@@ -35744,17 +35747,17 @@
       </c>
     </row>
     <row r="36" spans="1:3" ht="49.95" customHeight="1" thickBot="1">
-      <c r="A36" s="268"/>
-      <c r="B36" s="259"/>
+      <c r="A36" s="275"/>
+      <c r="B36" s="281"/>
       <c r="C36" s="71" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="49.95" customHeight="1">
-      <c r="A37" s="260" t="s">
+      <c r="A37" s="267" t="s">
         <v>110</v>
       </c>
-      <c r="B37" s="258" t="s">
+      <c r="B37" s="280" t="s">
         <v>93</v>
       </c>
       <c r="C37" s="70" t="s">
@@ -35762,15 +35765,15 @@
       </c>
     </row>
     <row r="38" spans="1:3" ht="49.95" customHeight="1" thickBot="1">
-      <c r="A38" s="261"/>
-      <c r="B38" s="259"/>
+      <c r="A38" s="282"/>
+      <c r="B38" s="281"/>
       <c r="C38" s="71" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="49.95" customHeight="1">
-      <c r="A39" s="261"/>
-      <c r="B39" s="258" t="s">
+      <c r="A39" s="282"/>
+      <c r="B39" s="280" t="s">
         <v>85</v>
       </c>
       <c r="C39" s="70" t="s">
@@ -35778,15 +35781,15 @@
       </c>
     </row>
     <row r="40" spans="1:3" ht="49.95" customHeight="1">
-      <c r="A40" s="261"/>
-      <c r="B40" s="263"/>
+      <c r="A40" s="282"/>
+      <c r="B40" s="283"/>
       <c r="C40" s="101" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="49.95" customHeight="1" thickBot="1">
-      <c r="A41" s="262"/>
-      <c r="B41" s="259"/>
+      <c r="A41" s="268"/>
+      <c r="B41" s="281"/>
       <c r="C41" s="71" t="s">
         <v>115</v>
       </c>
@@ -35804,19 +35807,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:A10"/>
-    <mergeCell ref="A11:A18"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B11:B13"/>
     <mergeCell ref="A25:A26"/>
     <mergeCell ref="B25:B26"/>
     <mergeCell ref="A37:A41"/>
@@ -35827,6 +35817,19 @@
     <mergeCell ref="B31:B33"/>
     <mergeCell ref="B28:B30"/>
     <mergeCell ref="B35:B36"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:A10"/>
+    <mergeCell ref="A11:A18"/>
+    <mergeCell ref="A22:A23"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="8" scale="51" orientation="portrait" r:id="rId1"/>
@@ -35935,15 +35938,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006673AC431987FE4185CAD404CA5AE74A" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2f556ad2abcb557431d10f2a0a3cf3ce">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8e6fe642-caf1-4ef1-ad11-e14ce45e87ce" xmlns:ns3="86e4e4b2-4fc5-452c-89e1-8c93931c495c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b7f2f51f36cd392740b3e0022adfb54e" ns2:_="" ns3:_="">
     <xsd:import namespace="8e6fe642-caf1-4ef1-ad11-e14ce45e87ce"/>
@@ -36186,6 +36180,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{42203054-B3A2-465B-862F-9F0934F7E665}">
   <ds:schemaRefs>
@@ -36198,14 +36201,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{88197E8E-D39A-4F6E-A0D0-F4A47BF89B57}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C96A4411-A89D-4094-9D9A-321A379B8A7E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -36222,4 +36217,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{88197E8E-D39A-4F6E-A0D0-F4A47BF89B57}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Enfants/Présences_G_Neufchâteau_2023.xlsx
+++ b/Enfants/Présences_G_Neufchâteau_2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Projet opti\PlaineNeufchateau\Enfants\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3B9F17B-6388-4426-A6E0-2E3A6BC8F86D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55D6F87F-DDB6-4818-90ED-7E37659066D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="2" xr2:uid="{2E45D3B6-BA62-4BD1-9AF3-2C898B011183}"/>
   </bookViews>
@@ -3093,35 +3093,14 @@
     <xf numFmtId="0" fontId="39" fillId="5" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3165,10 +3144,25 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3213,10 +3207,10 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3261,10 +3255,10 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="49" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3308,6 +3302,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3396,48 +3396,6 @@
     <xf numFmtId="0" fontId="54" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3450,11 +3408,53 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -19102,277 +19102,277 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="45" customHeight="1">
-      <c r="A1" s="163"/>
-      <c r="B1" s="163"/>
-      <c r="C1" s="163"/>
-      <c r="D1" s="163"/>
-      <c r="E1" s="163"/>
-      <c r="F1" s="163"/>
-      <c r="G1" s="163"/>
-      <c r="H1" s="163"/>
-      <c r="I1" s="163"/>
-      <c r="J1" s="163"/>
-      <c r="K1" s="163"/>
-      <c r="L1" s="163"/>
-      <c r="M1" s="163"/>
-      <c r="N1" s="163"/>
-      <c r="O1" s="163"/>
-      <c r="P1" s="163"/>
-      <c r="Q1" s="163"/>
-      <c r="R1" s="163"/>
-      <c r="S1" s="163"/>
-      <c r="T1" s="163"/>
-      <c r="U1" s="163"/>
-      <c r="V1" s="163"/>
-      <c r="W1" s="163"/>
-      <c r="X1" s="163"/>
-      <c r="Y1" s="163"/>
-      <c r="Z1" s="163"/>
-      <c r="AA1" s="163"/>
-      <c r="AB1" s="163"/>
-      <c r="AC1" s="163"/>
-      <c r="AD1" s="163"/>
-      <c r="AE1" s="163"/>
-      <c r="AF1" s="163"/>
-      <c r="AG1" s="163"/>
-      <c r="AH1" s="163"/>
-      <c r="AI1" s="163"/>
-      <c r="AJ1" s="163"/>
+      <c r="A1" s="165"/>
+      <c r="B1" s="165"/>
+      <c r="C1" s="165"/>
+      <c r="D1" s="165"/>
+      <c r="E1" s="165"/>
+      <c r="F1" s="165"/>
+      <c r="G1" s="165"/>
+      <c r="H1" s="165"/>
+      <c r="I1" s="165"/>
+      <c r="J1" s="165"/>
+      <c r="K1" s="165"/>
+      <c r="L1" s="165"/>
+      <c r="M1" s="165"/>
+      <c r="N1" s="165"/>
+      <c r="O1" s="165"/>
+      <c r="P1" s="165"/>
+      <c r="Q1" s="165"/>
+      <c r="R1" s="165"/>
+      <c r="S1" s="165"/>
+      <c r="T1" s="165"/>
+      <c r="U1" s="165"/>
+      <c r="V1" s="165"/>
+      <c r="W1" s="165"/>
+      <c r="X1" s="165"/>
+      <c r="Y1" s="165"/>
+      <c r="Z1" s="165"/>
+      <c r="AA1" s="165"/>
+      <c r="AB1" s="165"/>
+      <c r="AC1" s="165"/>
+      <c r="AD1" s="165"/>
+      <c r="AE1" s="165"/>
+      <c r="AF1" s="165"/>
+      <c r="AG1" s="165"/>
+      <c r="AH1" s="165"/>
+      <c r="AI1" s="165"/>
+      <c r="AJ1" s="165"/>
     </row>
     <row r="2" spans="1:37" ht="45" customHeight="1">
-      <c r="A2" s="163"/>
-      <c r="B2" s="163"/>
-      <c r="C2" s="163"/>
-      <c r="D2" s="163"/>
-      <c r="E2" s="163"/>
-      <c r="F2" s="163"/>
-      <c r="G2" s="163"/>
-      <c r="H2" s="163"/>
-      <c r="I2" s="163"/>
-      <c r="J2" s="163"/>
-      <c r="K2" s="163"/>
-      <c r="L2" s="163"/>
-      <c r="M2" s="163"/>
-      <c r="N2" s="163"/>
-      <c r="O2" s="163"/>
-      <c r="P2" s="163"/>
-      <c r="Q2" s="163"/>
-      <c r="R2" s="163"/>
-      <c r="S2" s="163"/>
-      <c r="T2" s="163"/>
-      <c r="U2" s="163"/>
-      <c r="V2" s="163"/>
-      <c r="W2" s="163"/>
-      <c r="X2" s="163"/>
-      <c r="Y2" s="163"/>
-      <c r="Z2" s="163"/>
-      <c r="AA2" s="163"/>
-      <c r="AB2" s="163"/>
-      <c r="AC2" s="163"/>
-      <c r="AD2" s="163"/>
-      <c r="AE2" s="163"/>
-      <c r="AF2" s="163"/>
-      <c r="AG2" s="163"/>
-      <c r="AH2" s="163"/>
-      <c r="AI2" s="163"/>
-      <c r="AJ2" s="163"/>
+      <c r="A2" s="165"/>
+      <c r="B2" s="165"/>
+      <c r="C2" s="165"/>
+      <c r="D2" s="165"/>
+      <c r="E2" s="165"/>
+      <c r="F2" s="165"/>
+      <c r="G2" s="165"/>
+      <c r="H2" s="165"/>
+      <c r="I2" s="165"/>
+      <c r="J2" s="165"/>
+      <c r="K2" s="165"/>
+      <c r="L2" s="165"/>
+      <c r="M2" s="165"/>
+      <c r="N2" s="165"/>
+      <c r="O2" s="165"/>
+      <c r="P2" s="165"/>
+      <c r="Q2" s="165"/>
+      <c r="R2" s="165"/>
+      <c r="S2" s="165"/>
+      <c r="T2" s="165"/>
+      <c r="U2" s="165"/>
+      <c r="V2" s="165"/>
+      <c r="W2" s="165"/>
+      <c r="X2" s="165"/>
+      <c r="Y2" s="165"/>
+      <c r="Z2" s="165"/>
+      <c r="AA2" s="165"/>
+      <c r="AB2" s="165"/>
+      <c r="AC2" s="165"/>
+      <c r="AD2" s="165"/>
+      <c r="AE2" s="165"/>
+      <c r="AF2" s="165"/>
+      <c r="AG2" s="165"/>
+      <c r="AH2" s="165"/>
+      <c r="AI2" s="165"/>
+      <c r="AJ2" s="165"/>
     </row>
     <row r="3" spans="1:37" ht="45" customHeight="1">
-      <c r="A3" s="163"/>
-      <c r="B3" s="163"/>
-      <c r="C3" s="163"/>
-      <c r="D3" s="163"/>
-      <c r="E3" s="163"/>
-      <c r="F3" s="163"/>
-      <c r="G3" s="163"/>
-      <c r="H3" s="163"/>
-      <c r="I3" s="163"/>
-      <c r="J3" s="163"/>
-      <c r="K3" s="163"/>
-      <c r="L3" s="163"/>
-      <c r="M3" s="163"/>
-      <c r="N3" s="163"/>
-      <c r="O3" s="163"/>
-      <c r="P3" s="163"/>
-      <c r="Q3" s="163"/>
-      <c r="R3" s="163"/>
-      <c r="S3" s="163"/>
-      <c r="T3" s="163"/>
-      <c r="U3" s="163"/>
-      <c r="V3" s="163"/>
-      <c r="W3" s="163"/>
-      <c r="X3" s="163"/>
-      <c r="Y3" s="163"/>
-      <c r="Z3" s="163"/>
-      <c r="AA3" s="163"/>
-      <c r="AB3" s="163"/>
-      <c r="AC3" s="163"/>
-      <c r="AD3" s="163"/>
-      <c r="AE3" s="163"/>
-      <c r="AF3" s="163"/>
-      <c r="AG3" s="163"/>
-      <c r="AH3" s="163"/>
-      <c r="AI3" s="163"/>
-      <c r="AJ3" s="163"/>
+      <c r="A3" s="165"/>
+      <c r="B3" s="165"/>
+      <c r="C3" s="165"/>
+      <c r="D3" s="165"/>
+      <c r="E3" s="165"/>
+      <c r="F3" s="165"/>
+      <c r="G3" s="165"/>
+      <c r="H3" s="165"/>
+      <c r="I3" s="165"/>
+      <c r="J3" s="165"/>
+      <c r="K3" s="165"/>
+      <c r="L3" s="165"/>
+      <c r="M3" s="165"/>
+      <c r="N3" s="165"/>
+      <c r="O3" s="165"/>
+      <c r="P3" s="165"/>
+      <c r="Q3" s="165"/>
+      <c r="R3" s="165"/>
+      <c r="S3" s="165"/>
+      <c r="T3" s="165"/>
+      <c r="U3" s="165"/>
+      <c r="V3" s="165"/>
+      <c r="W3" s="165"/>
+      <c r="X3" s="165"/>
+      <c r="Y3" s="165"/>
+      <c r="Z3" s="165"/>
+      <c r="AA3" s="165"/>
+      <c r="AB3" s="165"/>
+      <c r="AC3" s="165"/>
+      <c r="AD3" s="165"/>
+      <c r="AE3" s="165"/>
+      <c r="AF3" s="165"/>
+      <c r="AG3" s="165"/>
+      <c r="AH3" s="165"/>
+      <c r="AI3" s="165"/>
+      <c r="AJ3" s="165"/>
     </row>
     <row r="4" spans="1:37" ht="45" customHeight="1">
-      <c r="A4" s="163"/>
-      <c r="B4" s="163"/>
-      <c r="C4" s="163"/>
-      <c r="D4" s="163"/>
-      <c r="E4" s="163"/>
-      <c r="F4" s="163"/>
-      <c r="G4" s="163"/>
-      <c r="H4" s="163"/>
-      <c r="I4" s="163"/>
-      <c r="J4" s="163"/>
-      <c r="K4" s="163"/>
-      <c r="L4" s="163"/>
-      <c r="M4" s="163"/>
-      <c r="N4" s="163"/>
-      <c r="O4" s="163"/>
-      <c r="P4" s="163"/>
-      <c r="Q4" s="163"/>
-      <c r="R4" s="163"/>
-      <c r="S4" s="163"/>
-      <c r="T4" s="163"/>
-      <c r="U4" s="163"/>
-      <c r="V4" s="163"/>
-      <c r="W4" s="163"/>
-      <c r="X4" s="163"/>
-      <c r="Y4" s="163"/>
-      <c r="Z4" s="163"/>
-      <c r="AA4" s="163"/>
-      <c r="AB4" s="163"/>
-      <c r="AC4" s="163"/>
-      <c r="AD4" s="163"/>
-      <c r="AE4" s="163"/>
-      <c r="AF4" s="163"/>
-      <c r="AG4" s="163"/>
-      <c r="AH4" s="163"/>
-      <c r="AI4" s="163"/>
-      <c r="AJ4" s="163"/>
+      <c r="A4" s="165"/>
+      <c r="B4" s="165"/>
+      <c r="C4" s="165"/>
+      <c r="D4" s="165"/>
+      <c r="E4" s="165"/>
+      <c r="F4" s="165"/>
+      <c r="G4" s="165"/>
+      <c r="H4" s="165"/>
+      <c r="I4" s="165"/>
+      <c r="J4" s="165"/>
+      <c r="K4" s="165"/>
+      <c r="L4" s="165"/>
+      <c r="M4" s="165"/>
+      <c r="N4" s="165"/>
+      <c r="O4" s="165"/>
+      <c r="P4" s="165"/>
+      <c r="Q4" s="165"/>
+      <c r="R4" s="165"/>
+      <c r="S4" s="165"/>
+      <c r="T4" s="165"/>
+      <c r="U4" s="165"/>
+      <c r="V4" s="165"/>
+      <c r="W4" s="165"/>
+      <c r="X4" s="165"/>
+      <c r="Y4" s="165"/>
+      <c r="Z4" s="165"/>
+      <c r="AA4" s="165"/>
+      <c r="AB4" s="165"/>
+      <c r="AC4" s="165"/>
+      <c r="AD4" s="165"/>
+      <c r="AE4" s="165"/>
+      <c r="AF4" s="165"/>
+      <c r="AG4" s="165"/>
+      <c r="AH4" s="165"/>
+      <c r="AI4" s="165"/>
+      <c r="AJ4" s="165"/>
     </row>
     <row r="5" spans="1:37" ht="45" customHeight="1">
-      <c r="A5" s="163"/>
-      <c r="B5" s="163"/>
-      <c r="C5" s="163"/>
-      <c r="D5" s="163"/>
-      <c r="E5" s="163"/>
-      <c r="F5" s="163"/>
-      <c r="G5" s="163"/>
-      <c r="H5" s="163"/>
-      <c r="I5" s="163"/>
-      <c r="J5" s="163"/>
-      <c r="K5" s="163"/>
-      <c r="L5" s="163"/>
-      <c r="M5" s="163"/>
-      <c r="N5" s="163"/>
-      <c r="O5" s="163"/>
-      <c r="P5" s="163"/>
-      <c r="Q5" s="163"/>
-      <c r="R5" s="163"/>
-      <c r="S5" s="163"/>
-      <c r="T5" s="163"/>
-      <c r="U5" s="163"/>
-      <c r="V5" s="163"/>
-      <c r="W5" s="163"/>
-      <c r="X5" s="163"/>
-      <c r="Y5" s="163"/>
-      <c r="Z5" s="163"/>
-      <c r="AA5" s="163"/>
-      <c r="AB5" s="163"/>
-      <c r="AC5" s="163"/>
-      <c r="AD5" s="163"/>
-      <c r="AE5" s="163"/>
-      <c r="AF5" s="163"/>
-      <c r="AG5" s="163"/>
-      <c r="AH5" s="163"/>
-      <c r="AI5" s="163"/>
-      <c r="AJ5" s="163"/>
+      <c r="A5" s="165"/>
+      <c r="B5" s="165"/>
+      <c r="C5" s="165"/>
+      <c r="D5" s="165"/>
+      <c r="E5" s="165"/>
+      <c r="F5" s="165"/>
+      <c r="G5" s="165"/>
+      <c r="H5" s="165"/>
+      <c r="I5" s="165"/>
+      <c r="J5" s="165"/>
+      <c r="K5" s="165"/>
+      <c r="L5" s="165"/>
+      <c r="M5" s="165"/>
+      <c r="N5" s="165"/>
+      <c r="O5" s="165"/>
+      <c r="P5" s="165"/>
+      <c r="Q5" s="165"/>
+      <c r="R5" s="165"/>
+      <c r="S5" s="165"/>
+      <c r="T5" s="165"/>
+      <c r="U5" s="165"/>
+      <c r="V5" s="165"/>
+      <c r="W5" s="165"/>
+      <c r="X5" s="165"/>
+      <c r="Y5" s="165"/>
+      <c r="Z5" s="165"/>
+      <c r="AA5" s="165"/>
+      <c r="AB5" s="165"/>
+      <c r="AC5" s="165"/>
+      <c r="AD5" s="165"/>
+      <c r="AE5" s="165"/>
+      <c r="AF5" s="165"/>
+      <c r="AG5" s="165"/>
+      <c r="AH5" s="165"/>
+      <c r="AI5" s="165"/>
+      <c r="AJ5" s="165"/>
     </row>
     <row r="6" spans="1:37" ht="45" customHeight="1">
-      <c r="A6" s="163"/>
-      <c r="B6" s="163"/>
-      <c r="C6" s="163"/>
-      <c r="D6" s="163"/>
-      <c r="E6" s="163"/>
-      <c r="F6" s="163"/>
-      <c r="G6" s="163"/>
-      <c r="H6" s="163"/>
-      <c r="I6" s="163"/>
-      <c r="J6" s="163"/>
-      <c r="K6" s="163"/>
-      <c r="L6" s="163"/>
-      <c r="M6" s="163"/>
-      <c r="N6" s="163"/>
-      <c r="O6" s="163"/>
-      <c r="P6" s="163"/>
-      <c r="Q6" s="163"/>
-      <c r="R6" s="163"/>
-      <c r="S6" s="163"/>
-      <c r="T6" s="163"/>
-      <c r="U6" s="163"/>
-      <c r="V6" s="163"/>
-      <c r="W6" s="163"/>
-      <c r="X6" s="163"/>
-      <c r="Y6" s="163"/>
-      <c r="Z6" s="163"/>
-      <c r="AA6" s="163"/>
-      <c r="AB6" s="163"/>
-      <c r="AC6" s="163"/>
-      <c r="AD6" s="163"/>
-      <c r="AE6" s="163"/>
-      <c r="AF6" s="163"/>
-      <c r="AG6" s="163"/>
-      <c r="AH6" s="163"/>
-      <c r="AI6" s="163"/>
-      <c r="AJ6" s="163"/>
+      <c r="A6" s="165"/>
+      <c r="B6" s="165"/>
+      <c r="C6" s="165"/>
+      <c r="D6" s="165"/>
+      <c r="E6" s="165"/>
+      <c r="F6" s="165"/>
+      <c r="G6" s="165"/>
+      <c r="H6" s="165"/>
+      <c r="I6" s="165"/>
+      <c r="J6" s="165"/>
+      <c r="K6" s="165"/>
+      <c r="L6" s="165"/>
+      <c r="M6" s="165"/>
+      <c r="N6" s="165"/>
+      <c r="O6" s="165"/>
+      <c r="P6" s="165"/>
+      <c r="Q6" s="165"/>
+      <c r="R6" s="165"/>
+      <c r="S6" s="165"/>
+      <c r="T6" s="165"/>
+      <c r="U6" s="165"/>
+      <c r="V6" s="165"/>
+      <c r="W6" s="165"/>
+      <c r="X6" s="165"/>
+      <c r="Y6" s="165"/>
+      <c r="Z6" s="165"/>
+      <c r="AA6" s="165"/>
+      <c r="AB6" s="165"/>
+      <c r="AC6" s="165"/>
+      <c r="AD6" s="165"/>
+      <c r="AE6" s="165"/>
+      <c r="AF6" s="165"/>
+      <c r="AG6" s="165"/>
+      <c r="AH6" s="165"/>
+      <c r="AI6" s="165"/>
+      <c r="AJ6" s="165"/>
     </row>
     <row r="7" spans="1:37" ht="45" customHeight="1" thickBot="1">
-      <c r="A7" s="163"/>
-      <c r="B7" s="163"/>
-      <c r="C7" s="163"/>
-      <c r="D7" s="163"/>
-      <c r="E7" s="163"/>
-      <c r="F7" s="163"/>
-      <c r="G7" s="163"/>
-      <c r="H7" s="163"/>
-      <c r="I7" s="163"/>
-      <c r="J7" s="163"/>
-      <c r="K7" s="163"/>
-      <c r="L7" s="163"/>
-      <c r="M7" s="163"/>
-      <c r="N7" s="163"/>
-      <c r="O7" s="163"/>
-      <c r="P7" s="163"/>
-      <c r="Q7" s="163"/>
-      <c r="R7" s="163"/>
-      <c r="S7" s="163"/>
-      <c r="T7" s="163"/>
-      <c r="U7" s="163"/>
-      <c r="V7" s="163"/>
-      <c r="W7" s="163"/>
-      <c r="X7" s="163"/>
-      <c r="Y7" s="163"/>
-      <c r="Z7" s="163"/>
-      <c r="AA7" s="163"/>
-      <c r="AB7" s="163"/>
-      <c r="AC7" s="163"/>
-      <c r="AD7" s="163"/>
-      <c r="AE7" s="163"/>
-      <c r="AF7" s="163"/>
-      <c r="AG7" s="163"/>
-      <c r="AH7" s="163"/>
-      <c r="AI7" s="163"/>
-      <c r="AJ7" s="163"/>
+      <c r="A7" s="165"/>
+      <c r="B7" s="165"/>
+      <c r="C7" s="165"/>
+      <c r="D7" s="165"/>
+      <c r="E7" s="165"/>
+      <c r="F7" s="165"/>
+      <c r="G7" s="165"/>
+      <c r="H7" s="165"/>
+      <c r="I7" s="165"/>
+      <c r="J7" s="165"/>
+      <c r="K7" s="165"/>
+      <c r="L7" s="165"/>
+      <c r="M7" s="165"/>
+      <c r="N7" s="165"/>
+      <c r="O7" s="165"/>
+      <c r="P7" s="165"/>
+      <c r="Q7" s="165"/>
+      <c r="R7" s="165"/>
+      <c r="S7" s="165"/>
+      <c r="T7" s="165"/>
+      <c r="U7" s="165"/>
+      <c r="V7" s="165"/>
+      <c r="W7" s="165"/>
+      <c r="X7" s="165"/>
+      <c r="Y7" s="165"/>
+      <c r="Z7" s="165"/>
+      <c r="AA7" s="165"/>
+      <c r="AB7" s="165"/>
+      <c r="AC7" s="165"/>
+      <c r="AD7" s="165"/>
+      <c r="AE7" s="165"/>
+      <c r="AF7" s="165"/>
+      <c r="AG7" s="165"/>
+      <c r="AH7" s="165"/>
+      <c r="AI7" s="165"/>
+      <c r="AJ7" s="165"/>
     </row>
     <row r="8" spans="1:37" ht="49.95" customHeight="1" thickBot="1">
       <c r="A8" s="90"/>
-      <c r="B8" s="166" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="167"/>
+      <c r="B8" s="182" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="183"/>
       <c r="D8" s="14"/>
       <c r="E8" s="15" t="s">
         <v>133</v>
@@ -19381,34 +19381,34 @@
       <c r="G8" s="17"/>
       <c r="H8" s="17"/>
       <c r="I8" s="18"/>
-      <c r="J8" s="168"/>
-      <c r="K8" s="169"/>
-      <c r="L8" s="170"/>
-      <c r="M8" s="164" t="s">
+      <c r="J8" s="184"/>
+      <c r="K8" s="185"/>
+      <c r="L8" s="186"/>
+      <c r="M8" s="180" t="s">
         <v>135</v>
       </c>
-      <c r="N8" s="165"/>
-      <c r="O8" s="165"/>
-      <c r="P8" s="165"/>
-      <c r="Q8" s="165"/>
-      <c r="R8" s="165"/>
-      <c r="S8" s="165"/>
-      <c r="T8" s="165"/>
-      <c r="U8" s="165"/>
-      <c r="V8" s="165"/>
-      <c r="W8" s="165"/>
-      <c r="X8" s="165"/>
-      <c r="Y8" s="165"/>
-      <c r="Z8" s="165"/>
-      <c r="AA8" s="165"/>
-      <c r="AB8" s="165"/>
-      <c r="AC8" s="165"/>
-      <c r="AD8" s="165"/>
-      <c r="AE8" s="165"/>
-      <c r="AF8" s="165"/>
-      <c r="AG8" s="165"/>
-      <c r="AH8" s="165"/>
-      <c r="AI8" s="165"/>
+      <c r="N8" s="181"/>
+      <c r="O8" s="181"/>
+      <c r="P8" s="181"/>
+      <c r="Q8" s="181"/>
+      <c r="R8" s="181"/>
+      <c r="S8" s="181"/>
+      <c r="T8" s="181"/>
+      <c r="U8" s="181"/>
+      <c r="V8" s="181"/>
+      <c r="W8" s="181"/>
+      <c r="X8" s="181"/>
+      <c r="Y8" s="181"/>
+      <c r="Z8" s="181"/>
+      <c r="AA8" s="181"/>
+      <c r="AB8" s="181"/>
+      <c r="AC8" s="181"/>
+      <c r="AD8" s="181"/>
+      <c r="AE8" s="181"/>
+      <c r="AF8" s="181"/>
+      <c r="AG8" s="181"/>
+      <c r="AH8" s="181"/>
+      <c r="AI8" s="181"/>
       <c r="AJ8" s="12"/>
       <c r="AK8" s="15" t="s">
         <v>136</v>
@@ -19416,82 +19416,82 @@
     </row>
     <row r="9" spans="1:37" ht="49.95" customHeight="1" thickBot="1">
       <c r="A9" s="91"/>
-      <c r="B9" s="185" t="s">
+      <c r="B9" s="178" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="181" t="s">
+      <c r="C9" s="174" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="181" t="s">
+      <c r="D9" s="174" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="181" t="s">
+      <c r="E9" s="174" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="181" t="s">
+      <c r="F9" s="174" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="183" t="s">
+      <c r="G9" s="176" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="181" t="s">
+      <c r="H9" s="174" t="s">
         <v>7</v>
       </c>
-      <c r="I9" s="183" t="s">
+      <c r="I9" s="176" t="s">
         <v>8</v>
       </c>
-      <c r="J9" s="183" t="s">
+      <c r="J9" s="176" t="s">
         <v>9</v>
       </c>
-      <c r="K9" s="183" t="s">
+      <c r="K9" s="176" t="s">
         <v>10</v>
       </c>
-      <c r="L9" s="179" t="s">
+      <c r="L9" s="172" t="s">
         <v>11</v>
       </c>
-      <c r="M9" s="174" t="s">
+      <c r="M9" s="167" t="s">
         <v>12</v>
       </c>
-      <c r="N9" s="173"/>
-      <c r="O9" s="173"/>
-      <c r="P9" s="173"/>
-      <c r="Q9" s="173"/>
-      <c r="R9" s="173"/>
-      <c r="S9" s="173"/>
-      <c r="T9" s="173"/>
-      <c r="U9" s="173"/>
-      <c r="V9" s="173"/>
-      <c r="W9" s="175"/>
-      <c r="X9" s="173"/>
-      <c r="Y9" s="173"/>
-      <c r="Z9" s="173"/>
-      <c r="AA9" s="173"/>
-      <c r="AB9" s="173"/>
-      <c r="AC9" s="173"/>
-      <c r="AD9" s="173"/>
-      <c r="AE9" s="173"/>
-      <c r="AF9" s="173"/>
-      <c r="AG9" s="173"/>
-      <c r="AH9" s="173"/>
-      <c r="AI9" s="173"/>
+      <c r="N9" s="166"/>
+      <c r="O9" s="166"/>
+      <c r="P9" s="166"/>
+      <c r="Q9" s="166"/>
+      <c r="R9" s="166"/>
+      <c r="S9" s="166"/>
+      <c r="T9" s="166"/>
+      <c r="U9" s="166"/>
+      <c r="V9" s="166"/>
+      <c r="W9" s="168"/>
+      <c r="X9" s="166"/>
+      <c r="Y9" s="166"/>
+      <c r="Z9" s="166"/>
+      <c r="AA9" s="166"/>
+      <c r="AB9" s="166"/>
+      <c r="AC9" s="166"/>
+      <c r="AD9" s="166"/>
+      <c r="AE9" s="166"/>
+      <c r="AF9" s="166"/>
+      <c r="AG9" s="166"/>
+      <c r="AH9" s="166"/>
+      <c r="AI9" s="166"/>
       <c r="AJ9" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="AK9" s="171"/>
+      <c r="AK9" s="163"/>
     </row>
     <row r="10" spans="1:37" ht="49.95" customHeight="1" thickBot="1">
       <c r="A10" s="92"/>
-      <c r="B10" s="186"/>
-      <c r="C10" s="182"/>
-      <c r="D10" s="182"/>
-      <c r="E10" s="182"/>
-      <c r="F10" s="182"/>
-      <c r="G10" s="184"/>
-      <c r="H10" s="182"/>
-      <c r="I10" s="184"/>
-      <c r="J10" s="184"/>
-      <c r="K10" s="184"/>
-      <c r="L10" s="180"/>
+      <c r="B10" s="179"/>
+      <c r="C10" s="175"/>
+      <c r="D10" s="175"/>
+      <c r="E10" s="175"/>
+      <c r="F10" s="175"/>
+      <c r="G10" s="177"/>
+      <c r="H10" s="175"/>
+      <c r="I10" s="177"/>
+      <c r="J10" s="177"/>
+      <c r="K10" s="177"/>
+      <c r="L10" s="173"/>
       <c r="M10" s="4" t="s">
         <v>14</v>
       </c>
@@ -19564,7 +19564,7 @@
       <c r="AJ10" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="AK10" s="172"/>
+      <c r="AK10" s="164"/>
     </row>
     <row r="11" spans="1:37" ht="64.95" customHeight="1" thickBot="1">
       <c r="A11" s="93" t="s">
@@ -21394,19 +21394,19 @@
     </row>
     <row r="52" spans="1:37" s="99" customFormat="1" ht="45" customHeight="1" thickBot="1">
       <c r="A52" s="95"/>
-      <c r="B52" s="176" t="s">
+      <c r="B52" s="169" t="s">
         <v>29</v>
       </c>
-      <c r="C52" s="177"/>
-      <c r="D52" s="177"/>
-      <c r="E52" s="177"/>
-      <c r="F52" s="177"/>
-      <c r="G52" s="177"/>
-      <c r="H52" s="177"/>
-      <c r="I52" s="177"/>
-      <c r="J52" s="177"/>
-      <c r="K52" s="177"/>
-      <c r="L52" s="178"/>
+      <c r="C52" s="170"/>
+      <c r="D52" s="170"/>
+      <c r="E52" s="170"/>
+      <c r="F52" s="170"/>
+      <c r="G52" s="170"/>
+      <c r="H52" s="170"/>
+      <c r="I52" s="170"/>
+      <c r="J52" s="170"/>
+      <c r="K52" s="170"/>
+      <c r="L52" s="171"/>
       <c r="M52" s="96">
         <f>COUNTA(M12:M51)</f>
         <v>0</v>
@@ -21500,44 +21500,49 @@
       <c r="AK52" s="85"/>
     </row>
     <row r="53" spans="1:37" ht="14.4">
-      <c r="A53" s="163"/>
-      <c r="B53" s="163"/>
-      <c r="C53" s="163"/>
-      <c r="D53" s="163"/>
-      <c r="E53" s="163"/>
-      <c r="F53" s="163"/>
-      <c r="G53" s="163"/>
-      <c r="H53" s="163"/>
-      <c r="I53" s="163"/>
-      <c r="J53" s="163"/>
-      <c r="K53" s="163"/>
-      <c r="L53" s="163"/>
-      <c r="M53" s="163"/>
-      <c r="N53" s="163"/>
-      <c r="O53" s="163"/>
-      <c r="P53" s="163"/>
-      <c r="Q53" s="163"/>
-      <c r="R53" s="163"/>
-      <c r="S53" s="163"/>
-      <c r="T53" s="163"/>
-      <c r="U53" s="163"/>
-      <c r="V53" s="163"/>
-      <c r="W53" s="163"/>
-      <c r="X53" s="163"/>
-      <c r="Y53" s="163"/>
-      <c r="Z53" s="163"/>
-      <c r="AA53" s="163"/>
-      <c r="AB53" s="163"/>
-      <c r="AC53" s="163"/>
-      <c r="AD53" s="163"/>
-      <c r="AE53" s="163"/>
-      <c r="AF53" s="163"/>
-      <c r="AG53" s="163"/>
-      <c r="AH53" s="163"/>
-      <c r="AI53" s="163"/>
+      <c r="A53" s="165"/>
+      <c r="B53" s="165"/>
+      <c r="C53" s="165"/>
+      <c r="D53" s="165"/>
+      <c r="E53" s="165"/>
+      <c r="F53" s="165"/>
+      <c r="G53" s="165"/>
+      <c r="H53" s="165"/>
+      <c r="I53" s="165"/>
+      <c r="J53" s="165"/>
+      <c r="K53" s="165"/>
+      <c r="L53" s="165"/>
+      <c r="M53" s="165"/>
+      <c r="N53" s="165"/>
+      <c r="O53" s="165"/>
+      <c r="P53" s="165"/>
+      <c r="Q53" s="165"/>
+      <c r="R53" s="165"/>
+      <c r="S53" s="165"/>
+      <c r="T53" s="165"/>
+      <c r="U53" s="165"/>
+      <c r="V53" s="165"/>
+      <c r="W53" s="165"/>
+      <c r="X53" s="165"/>
+      <c r="Y53" s="165"/>
+      <c r="Z53" s="165"/>
+      <c r="AA53" s="165"/>
+      <c r="AB53" s="165"/>
+      <c r="AC53" s="165"/>
+      <c r="AD53" s="165"/>
+      <c r="AE53" s="165"/>
+      <c r="AF53" s="165"/>
+      <c r="AG53" s="165"/>
+      <c r="AH53" s="165"/>
+      <c r="AI53" s="165"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="AJ1:AJ7"/>
+    <mergeCell ref="A1:AI7"/>
+    <mergeCell ref="M8:AI8"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="J8:L8"/>
     <mergeCell ref="AK9:AK10"/>
     <mergeCell ref="A53:AI53"/>
     <mergeCell ref="X9:AI9"/>
@@ -21554,11 +21559,6 @@
     <mergeCell ref="E9:E10"/>
     <mergeCell ref="J9:J10"/>
     <mergeCell ref="K9:K10"/>
-    <mergeCell ref="AJ1:AJ7"/>
-    <mergeCell ref="A1:AI7"/>
-    <mergeCell ref="M8:AI8"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="J8:L8"/>
   </mergeCells>
   <conditionalFormatting sqref="M11:AI52 E12:K51">
     <cfRule type="containsBlanks" dxfId="12" priority="12">
@@ -21635,277 +21635,277 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="45" customHeight="1">
-      <c r="A1" s="163"/>
-      <c r="B1" s="163"/>
-      <c r="C1" s="163"/>
-      <c r="D1" s="163"/>
-      <c r="E1" s="163"/>
-      <c r="F1" s="163"/>
-      <c r="G1" s="163"/>
-      <c r="H1" s="163"/>
-      <c r="I1" s="163"/>
-      <c r="J1" s="163"/>
-      <c r="K1" s="163"/>
-      <c r="L1" s="163"/>
-      <c r="M1" s="163"/>
-      <c r="N1" s="163"/>
-      <c r="O1" s="163"/>
-      <c r="P1" s="163"/>
-      <c r="Q1" s="163"/>
-      <c r="R1" s="163"/>
-      <c r="S1" s="163"/>
-      <c r="T1" s="163"/>
-      <c r="U1" s="163"/>
-      <c r="V1" s="163"/>
-      <c r="W1" s="163"/>
-      <c r="X1" s="163"/>
-      <c r="Y1" s="163"/>
-      <c r="Z1" s="163"/>
-      <c r="AA1" s="163"/>
-      <c r="AB1" s="163"/>
-      <c r="AC1" s="163"/>
-      <c r="AD1" s="163"/>
-      <c r="AE1" s="163"/>
-      <c r="AF1" s="163"/>
-      <c r="AG1" s="163"/>
-      <c r="AH1" s="163"/>
-      <c r="AI1" s="163"/>
-      <c r="AJ1" s="163"/>
+      <c r="A1" s="165"/>
+      <c r="B1" s="165"/>
+      <c r="C1" s="165"/>
+      <c r="D1" s="165"/>
+      <c r="E1" s="165"/>
+      <c r="F1" s="165"/>
+      <c r="G1" s="165"/>
+      <c r="H1" s="165"/>
+      <c r="I1" s="165"/>
+      <c r="J1" s="165"/>
+      <c r="K1" s="165"/>
+      <c r="L1" s="165"/>
+      <c r="M1" s="165"/>
+      <c r="N1" s="165"/>
+      <c r="O1" s="165"/>
+      <c r="P1" s="165"/>
+      <c r="Q1" s="165"/>
+      <c r="R1" s="165"/>
+      <c r="S1" s="165"/>
+      <c r="T1" s="165"/>
+      <c r="U1" s="165"/>
+      <c r="V1" s="165"/>
+      <c r="W1" s="165"/>
+      <c r="X1" s="165"/>
+      <c r="Y1" s="165"/>
+      <c r="Z1" s="165"/>
+      <c r="AA1" s="165"/>
+      <c r="AB1" s="165"/>
+      <c r="AC1" s="165"/>
+      <c r="AD1" s="165"/>
+      <c r="AE1" s="165"/>
+      <c r="AF1" s="165"/>
+      <c r="AG1" s="165"/>
+      <c r="AH1" s="165"/>
+      <c r="AI1" s="165"/>
+      <c r="AJ1" s="165"/>
     </row>
     <row r="2" spans="1:37" ht="45" customHeight="1">
-      <c r="A2" s="163"/>
-      <c r="B2" s="163"/>
-      <c r="C2" s="163"/>
-      <c r="D2" s="163"/>
-      <c r="E2" s="163"/>
-      <c r="F2" s="163"/>
-      <c r="G2" s="163"/>
-      <c r="H2" s="163"/>
-      <c r="I2" s="163"/>
-      <c r="J2" s="163"/>
-      <c r="K2" s="163"/>
-      <c r="L2" s="163"/>
-      <c r="M2" s="163"/>
-      <c r="N2" s="163"/>
-      <c r="O2" s="163"/>
-      <c r="P2" s="163"/>
-      <c r="Q2" s="163"/>
-      <c r="R2" s="163"/>
-      <c r="S2" s="163"/>
-      <c r="T2" s="163"/>
-      <c r="U2" s="163"/>
-      <c r="V2" s="163"/>
-      <c r="W2" s="163"/>
-      <c r="X2" s="163"/>
-      <c r="Y2" s="163"/>
-      <c r="Z2" s="163"/>
-      <c r="AA2" s="163"/>
-      <c r="AB2" s="163"/>
-      <c r="AC2" s="163"/>
-      <c r="AD2" s="163"/>
-      <c r="AE2" s="163"/>
-      <c r="AF2" s="163"/>
-      <c r="AG2" s="163"/>
-      <c r="AH2" s="163"/>
-      <c r="AI2" s="163"/>
-      <c r="AJ2" s="163"/>
+      <c r="A2" s="165"/>
+      <c r="B2" s="165"/>
+      <c r="C2" s="165"/>
+      <c r="D2" s="165"/>
+      <c r="E2" s="165"/>
+      <c r="F2" s="165"/>
+      <c r="G2" s="165"/>
+      <c r="H2" s="165"/>
+      <c r="I2" s="165"/>
+      <c r="J2" s="165"/>
+      <c r="K2" s="165"/>
+      <c r="L2" s="165"/>
+      <c r="M2" s="165"/>
+      <c r="N2" s="165"/>
+      <c r="O2" s="165"/>
+      <c r="P2" s="165"/>
+      <c r="Q2" s="165"/>
+      <c r="R2" s="165"/>
+      <c r="S2" s="165"/>
+      <c r="T2" s="165"/>
+      <c r="U2" s="165"/>
+      <c r="V2" s="165"/>
+      <c r="W2" s="165"/>
+      <c r="X2" s="165"/>
+      <c r="Y2" s="165"/>
+      <c r="Z2" s="165"/>
+      <c r="AA2" s="165"/>
+      <c r="AB2" s="165"/>
+      <c r="AC2" s="165"/>
+      <c r="AD2" s="165"/>
+      <c r="AE2" s="165"/>
+      <c r="AF2" s="165"/>
+      <c r="AG2" s="165"/>
+      <c r="AH2" s="165"/>
+      <c r="AI2" s="165"/>
+      <c r="AJ2" s="165"/>
     </row>
     <row r="3" spans="1:37" ht="45" customHeight="1">
-      <c r="A3" s="163"/>
-      <c r="B3" s="163"/>
-      <c r="C3" s="163"/>
-      <c r="D3" s="163"/>
-      <c r="E3" s="163"/>
-      <c r="F3" s="163"/>
-      <c r="G3" s="163"/>
-      <c r="H3" s="163"/>
-      <c r="I3" s="163"/>
-      <c r="J3" s="163"/>
-      <c r="K3" s="163"/>
-      <c r="L3" s="163"/>
-      <c r="M3" s="163"/>
-      <c r="N3" s="163"/>
-      <c r="O3" s="163"/>
-      <c r="P3" s="163"/>
-      <c r="Q3" s="163"/>
-      <c r="R3" s="163"/>
-      <c r="S3" s="163"/>
-      <c r="T3" s="163"/>
-      <c r="U3" s="163"/>
-      <c r="V3" s="163"/>
-      <c r="W3" s="163"/>
-      <c r="X3" s="163"/>
-      <c r="Y3" s="163"/>
-      <c r="Z3" s="163"/>
-      <c r="AA3" s="163"/>
-      <c r="AB3" s="163"/>
-      <c r="AC3" s="163"/>
-      <c r="AD3" s="163"/>
-      <c r="AE3" s="163"/>
-      <c r="AF3" s="163"/>
-      <c r="AG3" s="163"/>
-      <c r="AH3" s="163"/>
-      <c r="AI3" s="163"/>
-      <c r="AJ3" s="163"/>
+      <c r="A3" s="165"/>
+      <c r="B3" s="165"/>
+      <c r="C3" s="165"/>
+      <c r="D3" s="165"/>
+      <c r="E3" s="165"/>
+      <c r="F3" s="165"/>
+      <c r="G3" s="165"/>
+      <c r="H3" s="165"/>
+      <c r="I3" s="165"/>
+      <c r="J3" s="165"/>
+      <c r="K3" s="165"/>
+      <c r="L3" s="165"/>
+      <c r="M3" s="165"/>
+      <c r="N3" s="165"/>
+      <c r="O3" s="165"/>
+      <c r="P3" s="165"/>
+      <c r="Q3" s="165"/>
+      <c r="R3" s="165"/>
+      <c r="S3" s="165"/>
+      <c r="T3" s="165"/>
+      <c r="U3" s="165"/>
+      <c r="V3" s="165"/>
+      <c r="W3" s="165"/>
+      <c r="X3" s="165"/>
+      <c r="Y3" s="165"/>
+      <c r="Z3" s="165"/>
+      <c r="AA3" s="165"/>
+      <c r="AB3" s="165"/>
+      <c r="AC3" s="165"/>
+      <c r="AD3" s="165"/>
+      <c r="AE3" s="165"/>
+      <c r="AF3" s="165"/>
+      <c r="AG3" s="165"/>
+      <c r="AH3" s="165"/>
+      <c r="AI3" s="165"/>
+      <c r="AJ3" s="165"/>
     </row>
     <row r="4" spans="1:37" ht="45" customHeight="1">
-      <c r="A4" s="163"/>
-      <c r="B4" s="163"/>
-      <c r="C4" s="163"/>
-      <c r="D4" s="163"/>
-      <c r="E4" s="163"/>
-      <c r="F4" s="163"/>
-      <c r="G4" s="163"/>
-      <c r="H4" s="163"/>
-      <c r="I4" s="163"/>
-      <c r="J4" s="163"/>
-      <c r="K4" s="163"/>
-      <c r="L4" s="163"/>
-      <c r="M4" s="163"/>
-      <c r="N4" s="163"/>
-      <c r="O4" s="163"/>
-      <c r="P4" s="163"/>
-      <c r="Q4" s="163"/>
-      <c r="R4" s="163"/>
-      <c r="S4" s="163"/>
-      <c r="T4" s="163"/>
-      <c r="U4" s="163"/>
-      <c r="V4" s="163"/>
-      <c r="W4" s="163"/>
-      <c r="X4" s="163"/>
-      <c r="Y4" s="163"/>
-      <c r="Z4" s="163"/>
-      <c r="AA4" s="163"/>
-      <c r="AB4" s="163"/>
-      <c r="AC4" s="163"/>
-      <c r="AD4" s="163"/>
-      <c r="AE4" s="163"/>
-      <c r="AF4" s="163"/>
-      <c r="AG4" s="163"/>
-      <c r="AH4" s="163"/>
-      <c r="AI4" s="163"/>
-      <c r="AJ4" s="163"/>
+      <c r="A4" s="165"/>
+      <c r="B4" s="165"/>
+      <c r="C4" s="165"/>
+      <c r="D4" s="165"/>
+      <c r="E4" s="165"/>
+      <c r="F4" s="165"/>
+      <c r="G4" s="165"/>
+      <c r="H4" s="165"/>
+      <c r="I4" s="165"/>
+      <c r="J4" s="165"/>
+      <c r="K4" s="165"/>
+      <c r="L4" s="165"/>
+      <c r="M4" s="165"/>
+      <c r="N4" s="165"/>
+      <c r="O4" s="165"/>
+      <c r="P4" s="165"/>
+      <c r="Q4" s="165"/>
+      <c r="R4" s="165"/>
+      <c r="S4" s="165"/>
+      <c r="T4" s="165"/>
+      <c r="U4" s="165"/>
+      <c r="V4" s="165"/>
+      <c r="W4" s="165"/>
+      <c r="X4" s="165"/>
+      <c r="Y4" s="165"/>
+      <c r="Z4" s="165"/>
+      <c r="AA4" s="165"/>
+      <c r="AB4" s="165"/>
+      <c r="AC4" s="165"/>
+      <c r="AD4" s="165"/>
+      <c r="AE4" s="165"/>
+      <c r="AF4" s="165"/>
+      <c r="AG4" s="165"/>
+      <c r="AH4" s="165"/>
+      <c r="AI4" s="165"/>
+      <c r="AJ4" s="165"/>
     </row>
     <row r="5" spans="1:37" ht="45" customHeight="1">
-      <c r="A5" s="163"/>
-      <c r="B5" s="163"/>
-      <c r="C5" s="163"/>
-      <c r="D5" s="163"/>
-      <c r="E5" s="163"/>
-      <c r="F5" s="163"/>
-      <c r="G5" s="163"/>
-      <c r="H5" s="163"/>
-      <c r="I5" s="163"/>
-      <c r="J5" s="163"/>
-      <c r="K5" s="163"/>
-      <c r="L5" s="163"/>
-      <c r="M5" s="163"/>
-      <c r="N5" s="163"/>
-      <c r="O5" s="163"/>
-      <c r="P5" s="163"/>
-      <c r="Q5" s="163"/>
-      <c r="R5" s="163"/>
-      <c r="S5" s="163"/>
-      <c r="T5" s="163"/>
-      <c r="U5" s="163"/>
-      <c r="V5" s="163"/>
-      <c r="W5" s="163"/>
-      <c r="X5" s="163"/>
-      <c r="Y5" s="163"/>
-      <c r="Z5" s="163"/>
-      <c r="AA5" s="163"/>
-      <c r="AB5" s="163"/>
-      <c r="AC5" s="163"/>
-      <c r="AD5" s="163"/>
-      <c r="AE5" s="163"/>
-      <c r="AF5" s="163"/>
-      <c r="AG5" s="163"/>
-      <c r="AH5" s="163"/>
-      <c r="AI5" s="163"/>
-      <c r="AJ5" s="163"/>
+      <c r="A5" s="165"/>
+      <c r="B5" s="165"/>
+      <c r="C5" s="165"/>
+      <c r="D5" s="165"/>
+      <c r="E5" s="165"/>
+      <c r="F5" s="165"/>
+      <c r="G5" s="165"/>
+      <c r="H5" s="165"/>
+      <c r="I5" s="165"/>
+      <c r="J5" s="165"/>
+      <c r="K5" s="165"/>
+      <c r="L5" s="165"/>
+      <c r="M5" s="165"/>
+      <c r="N5" s="165"/>
+      <c r="O5" s="165"/>
+      <c r="P5" s="165"/>
+      <c r="Q5" s="165"/>
+      <c r="R5" s="165"/>
+      <c r="S5" s="165"/>
+      <c r="T5" s="165"/>
+      <c r="U5" s="165"/>
+      <c r="V5" s="165"/>
+      <c r="W5" s="165"/>
+      <c r="X5" s="165"/>
+      <c r="Y5" s="165"/>
+      <c r="Z5" s="165"/>
+      <c r="AA5" s="165"/>
+      <c r="AB5" s="165"/>
+      <c r="AC5" s="165"/>
+      <c r="AD5" s="165"/>
+      <c r="AE5" s="165"/>
+      <c r="AF5" s="165"/>
+      <c r="AG5" s="165"/>
+      <c r="AH5" s="165"/>
+      <c r="AI5" s="165"/>
+      <c r="AJ5" s="165"/>
     </row>
     <row r="6" spans="1:37" ht="45" customHeight="1">
-      <c r="A6" s="163"/>
-      <c r="B6" s="163"/>
-      <c r="C6" s="163"/>
-      <c r="D6" s="163"/>
-      <c r="E6" s="163"/>
-      <c r="F6" s="163"/>
-      <c r="G6" s="163"/>
-      <c r="H6" s="163"/>
-      <c r="I6" s="163"/>
-      <c r="J6" s="163"/>
-      <c r="K6" s="163"/>
-      <c r="L6" s="163"/>
-      <c r="M6" s="163"/>
-      <c r="N6" s="163"/>
-      <c r="O6" s="163"/>
-      <c r="P6" s="163"/>
-      <c r="Q6" s="163"/>
-      <c r="R6" s="163"/>
-      <c r="S6" s="163"/>
-      <c r="T6" s="163"/>
-      <c r="U6" s="163"/>
-      <c r="V6" s="163"/>
-      <c r="W6" s="163"/>
-      <c r="X6" s="163"/>
-      <c r="Y6" s="163"/>
-      <c r="Z6" s="163"/>
-      <c r="AA6" s="163"/>
-      <c r="AB6" s="163"/>
-      <c r="AC6" s="163"/>
-      <c r="AD6" s="163"/>
-      <c r="AE6" s="163"/>
-      <c r="AF6" s="163"/>
-      <c r="AG6" s="163"/>
-      <c r="AH6" s="163"/>
-      <c r="AI6" s="163"/>
-      <c r="AJ6" s="163"/>
+      <c r="A6" s="165"/>
+      <c r="B6" s="165"/>
+      <c r="C6" s="165"/>
+      <c r="D6" s="165"/>
+      <c r="E6" s="165"/>
+      <c r="F6" s="165"/>
+      <c r="G6" s="165"/>
+      <c r="H6" s="165"/>
+      <c r="I6" s="165"/>
+      <c r="J6" s="165"/>
+      <c r="K6" s="165"/>
+      <c r="L6" s="165"/>
+      <c r="M6" s="165"/>
+      <c r="N6" s="165"/>
+      <c r="O6" s="165"/>
+      <c r="P6" s="165"/>
+      <c r="Q6" s="165"/>
+      <c r="R6" s="165"/>
+      <c r="S6" s="165"/>
+      <c r="T6" s="165"/>
+      <c r="U6" s="165"/>
+      <c r="V6" s="165"/>
+      <c r="W6" s="165"/>
+      <c r="X6" s="165"/>
+      <c r="Y6" s="165"/>
+      <c r="Z6" s="165"/>
+      <c r="AA6" s="165"/>
+      <c r="AB6" s="165"/>
+      <c r="AC6" s="165"/>
+      <c r="AD6" s="165"/>
+      <c r="AE6" s="165"/>
+      <c r="AF6" s="165"/>
+      <c r="AG6" s="165"/>
+      <c r="AH6" s="165"/>
+      <c r="AI6" s="165"/>
+      <c r="AJ6" s="165"/>
     </row>
     <row r="7" spans="1:37" ht="45" customHeight="1" thickBot="1">
-      <c r="A7" s="163"/>
-      <c r="B7" s="163"/>
-      <c r="C7" s="163"/>
-      <c r="D7" s="163"/>
-      <c r="E7" s="163"/>
-      <c r="F7" s="163"/>
-      <c r="G7" s="163"/>
-      <c r="H7" s="163"/>
-      <c r="I7" s="163"/>
-      <c r="J7" s="163"/>
-      <c r="K7" s="163"/>
-      <c r="L7" s="163"/>
-      <c r="M7" s="163"/>
-      <c r="N7" s="163"/>
-      <c r="O7" s="163"/>
-      <c r="P7" s="163"/>
-      <c r="Q7" s="163"/>
-      <c r="R7" s="163"/>
-      <c r="S7" s="163"/>
-      <c r="T7" s="163"/>
-      <c r="U7" s="163"/>
-      <c r="V7" s="163"/>
-      <c r="W7" s="163"/>
-      <c r="X7" s="163"/>
-      <c r="Y7" s="163"/>
-      <c r="Z7" s="163"/>
-      <c r="AA7" s="163"/>
-      <c r="AB7" s="163"/>
-      <c r="AC7" s="163"/>
-      <c r="AD7" s="163"/>
-      <c r="AE7" s="163"/>
-      <c r="AF7" s="163"/>
-      <c r="AG7" s="163"/>
-      <c r="AH7" s="163"/>
-      <c r="AI7" s="163"/>
-      <c r="AJ7" s="163"/>
+      <c r="A7" s="165"/>
+      <c r="B7" s="165"/>
+      <c r="C7" s="165"/>
+      <c r="D7" s="165"/>
+      <c r="E7" s="165"/>
+      <c r="F7" s="165"/>
+      <c r="G7" s="165"/>
+      <c r="H7" s="165"/>
+      <c r="I7" s="165"/>
+      <c r="J7" s="165"/>
+      <c r="K7" s="165"/>
+      <c r="L7" s="165"/>
+      <c r="M7" s="165"/>
+      <c r="N7" s="165"/>
+      <c r="O7" s="165"/>
+      <c r="P7" s="165"/>
+      <c r="Q7" s="165"/>
+      <c r="R7" s="165"/>
+      <c r="S7" s="165"/>
+      <c r="T7" s="165"/>
+      <c r="U7" s="165"/>
+      <c r="V7" s="165"/>
+      <c r="W7" s="165"/>
+      <c r="X7" s="165"/>
+      <c r="Y7" s="165"/>
+      <c r="Z7" s="165"/>
+      <c r="AA7" s="165"/>
+      <c r="AB7" s="165"/>
+      <c r="AC7" s="165"/>
+      <c r="AD7" s="165"/>
+      <c r="AE7" s="165"/>
+      <c r="AF7" s="165"/>
+      <c r="AG7" s="165"/>
+      <c r="AH7" s="165"/>
+      <c r="AI7" s="165"/>
+      <c r="AJ7" s="165"/>
     </row>
     <row r="8" spans="1:37" ht="49.95" customHeight="1" thickBot="1">
       <c r="A8" s="90"/>
-      <c r="B8" s="187" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="188"/>
+      <c r="B8" s="201" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="202"/>
       <c r="D8" s="14"/>
       <c r="E8" s="15" t="s">
         <v>133</v>
@@ -21914,34 +21914,34 @@
       <c r="G8" s="17"/>
       <c r="H8" s="17"/>
       <c r="I8" s="18"/>
-      <c r="J8" s="168"/>
-      <c r="K8" s="169"/>
-      <c r="L8" s="170"/>
-      <c r="M8" s="164" t="s">
+      <c r="J8" s="184"/>
+      <c r="K8" s="185"/>
+      <c r="L8" s="186"/>
+      <c r="M8" s="180" t="s">
         <v>135</v>
       </c>
-      <c r="N8" s="165"/>
-      <c r="O8" s="165"/>
-      <c r="P8" s="165"/>
-      <c r="Q8" s="165"/>
-      <c r="R8" s="165"/>
-      <c r="S8" s="165"/>
-      <c r="T8" s="165"/>
-      <c r="U8" s="165"/>
-      <c r="V8" s="165"/>
-      <c r="W8" s="165"/>
-      <c r="X8" s="165"/>
-      <c r="Y8" s="165"/>
-      <c r="Z8" s="165"/>
-      <c r="AA8" s="165"/>
-      <c r="AB8" s="165"/>
-      <c r="AC8" s="165"/>
-      <c r="AD8" s="165"/>
-      <c r="AE8" s="165"/>
-      <c r="AF8" s="165"/>
-      <c r="AG8" s="165"/>
-      <c r="AH8" s="165"/>
-      <c r="AI8" s="165"/>
+      <c r="N8" s="181"/>
+      <c r="O8" s="181"/>
+      <c r="P8" s="181"/>
+      <c r="Q8" s="181"/>
+      <c r="R8" s="181"/>
+      <c r="S8" s="181"/>
+      <c r="T8" s="181"/>
+      <c r="U8" s="181"/>
+      <c r="V8" s="181"/>
+      <c r="W8" s="181"/>
+      <c r="X8" s="181"/>
+      <c r="Y8" s="181"/>
+      <c r="Z8" s="181"/>
+      <c r="AA8" s="181"/>
+      <c r="AB8" s="181"/>
+      <c r="AC8" s="181"/>
+      <c r="AD8" s="181"/>
+      <c r="AE8" s="181"/>
+      <c r="AF8" s="181"/>
+      <c r="AG8" s="181"/>
+      <c r="AH8" s="181"/>
+      <c r="AI8" s="181"/>
       <c r="AJ8" s="12"/>
       <c r="AK8" s="15" t="s">
         <v>136</v>
@@ -21949,82 +21949,82 @@
     </row>
     <row r="9" spans="1:37" ht="49.95" customHeight="1" thickBot="1">
       <c r="A9" s="91"/>
-      <c r="B9" s="201" t="s">
+      <c r="B9" s="199" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="197" t="s">
+      <c r="C9" s="195" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="197" t="s">
+      <c r="D9" s="195" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="197" t="s">
+      <c r="E9" s="195" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="197" t="s">
+      <c r="F9" s="195" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="195" t="s">
+      <c r="G9" s="193" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="197" t="s">
+      <c r="H9" s="195" t="s">
         <v>7</v>
       </c>
-      <c r="I9" s="195" t="s">
+      <c r="I9" s="193" t="s">
         <v>8</v>
       </c>
-      <c r="J9" s="195" t="s">
+      <c r="J9" s="193" t="s">
         <v>9</v>
       </c>
-      <c r="K9" s="195" t="s">
+      <c r="K9" s="193" t="s">
         <v>10</v>
       </c>
-      <c r="L9" s="199" t="s">
+      <c r="L9" s="197" t="s">
         <v>11</v>
       </c>
-      <c r="M9" s="189" t="s">
+      <c r="M9" s="187" t="s">
         <v>12</v>
       </c>
-      <c r="N9" s="190"/>
-      <c r="O9" s="190"/>
-      <c r="P9" s="190"/>
-      <c r="Q9" s="190"/>
-      <c r="R9" s="190"/>
-      <c r="S9" s="190"/>
-      <c r="T9" s="190"/>
-      <c r="U9" s="190"/>
-      <c r="V9" s="190"/>
-      <c r="W9" s="191"/>
-      <c r="X9" s="173"/>
-      <c r="Y9" s="173"/>
-      <c r="Z9" s="173"/>
-      <c r="AA9" s="173"/>
-      <c r="AB9" s="173"/>
-      <c r="AC9" s="173"/>
-      <c r="AD9" s="173"/>
-      <c r="AE9" s="173"/>
-      <c r="AF9" s="173"/>
-      <c r="AG9" s="173"/>
-      <c r="AH9" s="173"/>
-      <c r="AI9" s="173"/>
+      <c r="N9" s="188"/>
+      <c r="O9" s="188"/>
+      <c r="P9" s="188"/>
+      <c r="Q9" s="188"/>
+      <c r="R9" s="188"/>
+      <c r="S9" s="188"/>
+      <c r="T9" s="188"/>
+      <c r="U9" s="188"/>
+      <c r="V9" s="188"/>
+      <c r="W9" s="189"/>
+      <c r="X9" s="166"/>
+      <c r="Y9" s="166"/>
+      <c r="Z9" s="166"/>
+      <c r="AA9" s="166"/>
+      <c r="AB9" s="166"/>
+      <c r="AC9" s="166"/>
+      <c r="AD9" s="166"/>
+      <c r="AE9" s="166"/>
+      <c r="AF9" s="166"/>
+      <c r="AG9" s="166"/>
+      <c r="AH9" s="166"/>
+      <c r="AI9" s="166"/>
       <c r="AJ9" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="AK9" s="171"/>
+      <c r="AK9" s="163"/>
     </row>
     <row r="10" spans="1:37" ht="49.95" customHeight="1" thickBot="1">
       <c r="A10" s="92"/>
-      <c r="B10" s="202"/>
-      <c r="C10" s="198"/>
-      <c r="D10" s="198"/>
-      <c r="E10" s="198"/>
-      <c r="F10" s="198"/>
-      <c r="G10" s="196"/>
-      <c r="H10" s="198"/>
-      <c r="I10" s="196"/>
-      <c r="J10" s="196"/>
-      <c r="K10" s="196"/>
-      <c r="L10" s="200"/>
+      <c r="B10" s="200"/>
+      <c r="C10" s="196"/>
+      <c r="D10" s="196"/>
+      <c r="E10" s="196"/>
+      <c r="F10" s="196"/>
+      <c r="G10" s="194"/>
+      <c r="H10" s="196"/>
+      <c r="I10" s="194"/>
+      <c r="J10" s="194"/>
+      <c r="K10" s="194"/>
+      <c r="L10" s="198"/>
       <c r="M10" s="4" t="s">
         <v>14</v>
       </c>
@@ -22097,7 +22097,7 @@
       <c r="AJ10" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="AK10" s="172"/>
+      <c r="AK10" s="164"/>
     </row>
     <row r="11" spans="1:37" ht="64.95" customHeight="1" thickBot="1">
       <c r="A11" s="93" t="s">
@@ -23927,19 +23927,19 @@
     </row>
     <row r="52" spans="1:37" s="99" customFormat="1" ht="45" customHeight="1" thickBot="1">
       <c r="A52" s="95"/>
-      <c r="B52" s="192" t="s">
+      <c r="B52" s="190" t="s">
         <v>29</v>
       </c>
-      <c r="C52" s="193"/>
-      <c r="D52" s="193"/>
-      <c r="E52" s="193"/>
-      <c r="F52" s="193"/>
-      <c r="G52" s="193"/>
-      <c r="H52" s="193"/>
-      <c r="I52" s="193"/>
-      <c r="J52" s="193"/>
-      <c r="K52" s="193"/>
-      <c r="L52" s="194"/>
+      <c r="C52" s="191"/>
+      <c r="D52" s="191"/>
+      <c r="E52" s="191"/>
+      <c r="F52" s="191"/>
+      <c r="G52" s="191"/>
+      <c r="H52" s="191"/>
+      <c r="I52" s="191"/>
+      <c r="J52" s="191"/>
+      <c r="K52" s="191"/>
+      <c r="L52" s="192"/>
       <c r="M52" s="119">
         <f>COUNTA(M12:M51)</f>
         <v>0</v>
@@ -24033,44 +24033,49 @@
       <c r="AK52" s="85"/>
     </row>
     <row r="53" spans="1:37" ht="14.4">
-      <c r="A53" s="163"/>
-      <c r="B53" s="163"/>
-      <c r="C53" s="163"/>
-      <c r="D53" s="163"/>
-      <c r="E53" s="163"/>
-      <c r="F53" s="163"/>
-      <c r="G53" s="163"/>
-      <c r="H53" s="163"/>
-      <c r="I53" s="163"/>
-      <c r="J53" s="163"/>
-      <c r="K53" s="163"/>
-      <c r="L53" s="163"/>
-      <c r="M53" s="163"/>
-      <c r="N53" s="163"/>
-      <c r="O53" s="163"/>
-      <c r="P53" s="163"/>
-      <c r="Q53" s="163"/>
-      <c r="R53" s="163"/>
-      <c r="S53" s="163"/>
-      <c r="T53" s="163"/>
-      <c r="U53" s="163"/>
-      <c r="V53" s="163"/>
-      <c r="W53" s="163"/>
-      <c r="X53" s="163"/>
-      <c r="Y53" s="163"/>
-      <c r="Z53" s="163"/>
-      <c r="AA53" s="163"/>
-      <c r="AB53" s="163"/>
-      <c r="AC53" s="163"/>
-      <c r="AD53" s="163"/>
-      <c r="AE53" s="163"/>
-      <c r="AF53" s="163"/>
-      <c r="AG53" s="163"/>
-      <c r="AH53" s="163"/>
-      <c r="AI53" s="163"/>
+      <c r="A53" s="165"/>
+      <c r="B53" s="165"/>
+      <c r="C53" s="165"/>
+      <c r="D53" s="165"/>
+      <c r="E53" s="165"/>
+      <c r="F53" s="165"/>
+      <c r="G53" s="165"/>
+      <c r="H53" s="165"/>
+      <c r="I53" s="165"/>
+      <c r="J53" s="165"/>
+      <c r="K53" s="165"/>
+      <c r="L53" s="165"/>
+      <c r="M53" s="165"/>
+      <c r="N53" s="165"/>
+      <c r="O53" s="165"/>
+      <c r="P53" s="165"/>
+      <c r="Q53" s="165"/>
+      <c r="R53" s="165"/>
+      <c r="S53" s="165"/>
+      <c r="T53" s="165"/>
+      <c r="U53" s="165"/>
+      <c r="V53" s="165"/>
+      <c r="W53" s="165"/>
+      <c r="X53" s="165"/>
+      <c r="Y53" s="165"/>
+      <c r="Z53" s="165"/>
+      <c r="AA53" s="165"/>
+      <c r="AB53" s="165"/>
+      <c r="AC53" s="165"/>
+      <c r="AD53" s="165"/>
+      <c r="AE53" s="165"/>
+      <c r="AF53" s="165"/>
+      <c r="AG53" s="165"/>
+      <c r="AH53" s="165"/>
+      <c r="AI53" s="165"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A1:AI7"/>
+    <mergeCell ref="AJ1:AJ7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="M8:AI8"/>
     <mergeCell ref="M9:W9"/>
     <mergeCell ref="X9:AI9"/>
     <mergeCell ref="AK9:AK10"/>
@@ -24087,11 +24092,6 @@
     <mergeCell ref="D9:D10"/>
     <mergeCell ref="E9:E10"/>
     <mergeCell ref="F9:F10"/>
-    <mergeCell ref="A1:AI7"/>
-    <mergeCell ref="AJ1:AJ7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="M8:AI8"/>
   </mergeCells>
   <conditionalFormatting sqref="M11:AI52 E12:K51">
     <cfRule type="containsBlanks" dxfId="10" priority="3">
@@ -24136,9 +24136,6 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0469A2B-3D5E-404B-A0AD-726F61A06C49}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
   <dimension ref="A1:AK53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="10" zoomScaleNormal="10" workbookViewId="0">
@@ -24168,277 +24165,277 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="45" customHeight="1">
-      <c r="A1" s="163"/>
-      <c r="B1" s="163"/>
-      <c r="C1" s="163"/>
-      <c r="D1" s="163"/>
-      <c r="E1" s="163"/>
-      <c r="F1" s="163"/>
-      <c r="G1" s="163"/>
-      <c r="H1" s="163"/>
-      <c r="I1" s="163"/>
-      <c r="J1" s="163"/>
-      <c r="K1" s="163"/>
-      <c r="L1" s="163"/>
-      <c r="M1" s="163"/>
-      <c r="N1" s="163"/>
-      <c r="O1" s="163"/>
-      <c r="P1" s="163"/>
-      <c r="Q1" s="163"/>
-      <c r="R1" s="163"/>
-      <c r="S1" s="163"/>
-      <c r="T1" s="163"/>
-      <c r="U1" s="163"/>
-      <c r="V1" s="163"/>
-      <c r="W1" s="163"/>
-      <c r="X1" s="163"/>
-      <c r="Y1" s="163"/>
-      <c r="Z1" s="163"/>
-      <c r="AA1" s="163"/>
-      <c r="AB1" s="163"/>
-      <c r="AC1" s="163"/>
-      <c r="AD1" s="163"/>
-      <c r="AE1" s="163"/>
-      <c r="AF1" s="163"/>
-      <c r="AG1" s="163"/>
-      <c r="AH1" s="163"/>
-      <c r="AI1" s="163"/>
-      <c r="AJ1" s="163"/>
+      <c r="A1" s="165"/>
+      <c r="B1" s="165"/>
+      <c r="C1" s="165"/>
+      <c r="D1" s="165"/>
+      <c r="E1" s="165"/>
+      <c r="F1" s="165"/>
+      <c r="G1" s="165"/>
+      <c r="H1" s="165"/>
+      <c r="I1" s="165"/>
+      <c r="J1" s="165"/>
+      <c r="K1" s="165"/>
+      <c r="L1" s="165"/>
+      <c r="M1" s="165"/>
+      <c r="N1" s="165"/>
+      <c r="O1" s="165"/>
+      <c r="P1" s="165"/>
+      <c r="Q1" s="165"/>
+      <c r="R1" s="165"/>
+      <c r="S1" s="165"/>
+      <c r="T1" s="165"/>
+      <c r="U1" s="165"/>
+      <c r="V1" s="165"/>
+      <c r="W1" s="165"/>
+      <c r="X1" s="165"/>
+      <c r="Y1" s="165"/>
+      <c r="Z1" s="165"/>
+      <c r="AA1" s="165"/>
+      <c r="AB1" s="165"/>
+      <c r="AC1" s="165"/>
+      <c r="AD1" s="165"/>
+      <c r="AE1" s="165"/>
+      <c r="AF1" s="165"/>
+      <c r="AG1" s="165"/>
+      <c r="AH1" s="165"/>
+      <c r="AI1" s="165"/>
+      <c r="AJ1" s="165"/>
     </row>
     <row r="2" spans="1:37" ht="45" customHeight="1">
-      <c r="A2" s="163"/>
-      <c r="B2" s="163"/>
-      <c r="C2" s="163"/>
-      <c r="D2" s="163"/>
-      <c r="E2" s="163"/>
-      <c r="F2" s="163"/>
-      <c r="G2" s="163"/>
-      <c r="H2" s="163"/>
-      <c r="I2" s="163"/>
-      <c r="J2" s="163"/>
-      <c r="K2" s="163"/>
-      <c r="L2" s="163"/>
-      <c r="M2" s="163"/>
-      <c r="N2" s="163"/>
-      <c r="O2" s="163"/>
-      <c r="P2" s="163"/>
-      <c r="Q2" s="163"/>
-      <c r="R2" s="163"/>
-      <c r="S2" s="163"/>
-      <c r="T2" s="163"/>
-      <c r="U2" s="163"/>
-      <c r="V2" s="163"/>
-      <c r="W2" s="163"/>
-      <c r="X2" s="163"/>
-      <c r="Y2" s="163"/>
-      <c r="Z2" s="163"/>
-      <c r="AA2" s="163"/>
-      <c r="AB2" s="163"/>
-      <c r="AC2" s="163"/>
-      <c r="AD2" s="163"/>
-      <c r="AE2" s="163"/>
-      <c r="AF2" s="163"/>
-      <c r="AG2" s="163"/>
-      <c r="AH2" s="163"/>
-      <c r="AI2" s="163"/>
-      <c r="AJ2" s="163"/>
+      <c r="A2" s="165"/>
+      <c r="B2" s="165"/>
+      <c r="C2" s="165"/>
+      <c r="D2" s="165"/>
+      <c r="E2" s="165"/>
+      <c r="F2" s="165"/>
+      <c r="G2" s="165"/>
+      <c r="H2" s="165"/>
+      <c r="I2" s="165"/>
+      <c r="J2" s="165"/>
+      <c r="K2" s="165"/>
+      <c r="L2" s="165"/>
+      <c r="M2" s="165"/>
+      <c r="N2" s="165"/>
+      <c r="O2" s="165"/>
+      <c r="P2" s="165"/>
+      <c r="Q2" s="165"/>
+      <c r="R2" s="165"/>
+      <c r="S2" s="165"/>
+      <c r="T2" s="165"/>
+      <c r="U2" s="165"/>
+      <c r="V2" s="165"/>
+      <c r="W2" s="165"/>
+      <c r="X2" s="165"/>
+      <c r="Y2" s="165"/>
+      <c r="Z2" s="165"/>
+      <c r="AA2" s="165"/>
+      <c r="AB2" s="165"/>
+      <c r="AC2" s="165"/>
+      <c r="AD2" s="165"/>
+      <c r="AE2" s="165"/>
+      <c r="AF2" s="165"/>
+      <c r="AG2" s="165"/>
+      <c r="AH2" s="165"/>
+      <c r="AI2" s="165"/>
+      <c r="AJ2" s="165"/>
     </row>
     <row r="3" spans="1:37" ht="45" customHeight="1">
-      <c r="A3" s="163"/>
-      <c r="B3" s="163"/>
-      <c r="C3" s="163"/>
-      <c r="D3" s="163"/>
-      <c r="E3" s="163"/>
-      <c r="F3" s="163"/>
-      <c r="G3" s="163"/>
-      <c r="H3" s="163"/>
-      <c r="I3" s="163"/>
-      <c r="J3" s="163"/>
-      <c r="K3" s="163"/>
-      <c r="L3" s="163"/>
-      <c r="M3" s="163"/>
-      <c r="N3" s="163"/>
-      <c r="O3" s="163"/>
-      <c r="P3" s="163"/>
-      <c r="Q3" s="163"/>
-      <c r="R3" s="163"/>
-      <c r="S3" s="163"/>
-      <c r="T3" s="163"/>
-      <c r="U3" s="163"/>
-      <c r="V3" s="163"/>
-      <c r="W3" s="163"/>
-      <c r="X3" s="163"/>
-      <c r="Y3" s="163"/>
-      <c r="Z3" s="163"/>
-      <c r="AA3" s="163"/>
-      <c r="AB3" s="163"/>
-      <c r="AC3" s="163"/>
-      <c r="AD3" s="163"/>
-      <c r="AE3" s="163"/>
-      <c r="AF3" s="163"/>
-      <c r="AG3" s="163"/>
-      <c r="AH3" s="163"/>
-      <c r="AI3" s="163"/>
-      <c r="AJ3" s="163"/>
+      <c r="A3" s="165"/>
+      <c r="B3" s="165"/>
+      <c r="C3" s="165"/>
+      <c r="D3" s="165"/>
+      <c r="E3" s="165"/>
+      <c r="F3" s="165"/>
+      <c r="G3" s="165"/>
+      <c r="H3" s="165"/>
+      <c r="I3" s="165"/>
+      <c r="J3" s="165"/>
+      <c r="K3" s="165"/>
+      <c r="L3" s="165"/>
+      <c r="M3" s="165"/>
+      <c r="N3" s="165"/>
+      <c r="O3" s="165"/>
+      <c r="P3" s="165"/>
+      <c r="Q3" s="165"/>
+      <c r="R3" s="165"/>
+      <c r="S3" s="165"/>
+      <c r="T3" s="165"/>
+      <c r="U3" s="165"/>
+      <c r="V3" s="165"/>
+      <c r="W3" s="165"/>
+      <c r="X3" s="165"/>
+      <c r="Y3" s="165"/>
+      <c r="Z3" s="165"/>
+      <c r="AA3" s="165"/>
+      <c r="AB3" s="165"/>
+      <c r="AC3" s="165"/>
+      <c r="AD3" s="165"/>
+      <c r="AE3" s="165"/>
+      <c r="AF3" s="165"/>
+      <c r="AG3" s="165"/>
+      <c r="AH3" s="165"/>
+      <c r="AI3" s="165"/>
+      <c r="AJ3" s="165"/>
     </row>
     <row r="4" spans="1:37" ht="45" customHeight="1">
-      <c r="A4" s="163"/>
-      <c r="B4" s="163"/>
-      <c r="C4" s="163"/>
-      <c r="D4" s="163"/>
-      <c r="E4" s="163"/>
-      <c r="F4" s="163"/>
-      <c r="G4" s="163"/>
-      <c r="H4" s="163"/>
-      <c r="I4" s="163"/>
-      <c r="J4" s="163"/>
-      <c r="K4" s="163"/>
-      <c r="L4" s="163"/>
-      <c r="M4" s="163"/>
-      <c r="N4" s="163"/>
-      <c r="O4" s="163"/>
-      <c r="P4" s="163"/>
-      <c r="Q4" s="163"/>
-      <c r="R4" s="163"/>
-      <c r="S4" s="163"/>
-      <c r="T4" s="163"/>
-      <c r="U4" s="163"/>
-      <c r="V4" s="163"/>
-      <c r="W4" s="163"/>
-      <c r="X4" s="163"/>
-      <c r="Y4" s="163"/>
-      <c r="Z4" s="163"/>
-      <c r="AA4" s="163"/>
-      <c r="AB4" s="163"/>
-      <c r="AC4" s="163"/>
-      <c r="AD4" s="163"/>
-      <c r="AE4" s="163"/>
-      <c r="AF4" s="163"/>
-      <c r="AG4" s="163"/>
-      <c r="AH4" s="163"/>
-      <c r="AI4" s="163"/>
-      <c r="AJ4" s="163"/>
+      <c r="A4" s="165"/>
+      <c r="B4" s="165"/>
+      <c r="C4" s="165"/>
+      <c r="D4" s="165"/>
+      <c r="E4" s="165"/>
+      <c r="F4" s="165"/>
+      <c r="G4" s="165"/>
+      <c r="H4" s="165"/>
+      <c r="I4" s="165"/>
+      <c r="J4" s="165"/>
+      <c r="K4" s="165"/>
+      <c r="L4" s="165"/>
+      <c r="M4" s="165"/>
+      <c r="N4" s="165"/>
+      <c r="O4" s="165"/>
+      <c r="P4" s="165"/>
+      <c r="Q4" s="165"/>
+      <c r="R4" s="165"/>
+      <c r="S4" s="165"/>
+      <c r="T4" s="165"/>
+      <c r="U4" s="165"/>
+      <c r="V4" s="165"/>
+      <c r="W4" s="165"/>
+      <c r="X4" s="165"/>
+      <c r="Y4" s="165"/>
+      <c r="Z4" s="165"/>
+      <c r="AA4" s="165"/>
+      <c r="AB4" s="165"/>
+      <c r="AC4" s="165"/>
+      <c r="AD4" s="165"/>
+      <c r="AE4" s="165"/>
+      <c r="AF4" s="165"/>
+      <c r="AG4" s="165"/>
+      <c r="AH4" s="165"/>
+      <c r="AI4" s="165"/>
+      <c r="AJ4" s="165"/>
     </row>
     <row r="5" spans="1:37" ht="45" customHeight="1">
-      <c r="A5" s="163"/>
-      <c r="B5" s="163"/>
-      <c r="C5" s="163"/>
-      <c r="D5" s="163"/>
-      <c r="E5" s="163"/>
-      <c r="F5" s="163"/>
-      <c r="G5" s="163"/>
-      <c r="H5" s="163"/>
-      <c r="I5" s="163"/>
-      <c r="J5" s="163"/>
-      <c r="K5" s="163"/>
-      <c r="L5" s="163"/>
-      <c r="M5" s="163"/>
-      <c r="N5" s="163"/>
-      <c r="O5" s="163"/>
-      <c r="P5" s="163"/>
-      <c r="Q5" s="163"/>
-      <c r="R5" s="163"/>
-      <c r="S5" s="163"/>
-      <c r="T5" s="163"/>
-      <c r="U5" s="163"/>
-      <c r="V5" s="163"/>
-      <c r="W5" s="163"/>
-      <c r="X5" s="163"/>
-      <c r="Y5" s="163"/>
-      <c r="Z5" s="163"/>
-      <c r="AA5" s="163"/>
-      <c r="AB5" s="163"/>
-      <c r="AC5" s="163"/>
-      <c r="AD5" s="163"/>
-      <c r="AE5" s="163"/>
-      <c r="AF5" s="163"/>
-      <c r="AG5" s="163"/>
-      <c r="AH5" s="163"/>
-      <c r="AI5" s="163"/>
-      <c r="AJ5" s="163"/>
+      <c r="A5" s="165"/>
+      <c r="B5" s="165"/>
+      <c r="C5" s="165"/>
+      <c r="D5" s="165"/>
+      <c r="E5" s="165"/>
+      <c r="F5" s="165"/>
+      <c r="G5" s="165"/>
+      <c r="H5" s="165"/>
+      <c r="I5" s="165"/>
+      <c r="J5" s="165"/>
+      <c r="K5" s="165"/>
+      <c r="L5" s="165"/>
+      <c r="M5" s="165"/>
+      <c r="N5" s="165"/>
+      <c r="O5" s="165"/>
+      <c r="P5" s="165"/>
+      <c r="Q5" s="165"/>
+      <c r="R5" s="165"/>
+      <c r="S5" s="165"/>
+      <c r="T5" s="165"/>
+      <c r="U5" s="165"/>
+      <c r="V5" s="165"/>
+      <c r="W5" s="165"/>
+      <c r="X5" s="165"/>
+      <c r="Y5" s="165"/>
+      <c r="Z5" s="165"/>
+      <c r="AA5" s="165"/>
+      <c r="AB5" s="165"/>
+      <c r="AC5" s="165"/>
+      <c r="AD5" s="165"/>
+      <c r="AE5" s="165"/>
+      <c r="AF5" s="165"/>
+      <c r="AG5" s="165"/>
+      <c r="AH5" s="165"/>
+      <c r="AI5" s="165"/>
+      <c r="AJ5" s="165"/>
     </row>
     <row r="6" spans="1:37" ht="45" customHeight="1">
-      <c r="A6" s="163"/>
-      <c r="B6" s="163"/>
-      <c r="C6" s="163"/>
-      <c r="D6" s="163"/>
-      <c r="E6" s="163"/>
-      <c r="F6" s="163"/>
-      <c r="G6" s="163"/>
-      <c r="H6" s="163"/>
-      <c r="I6" s="163"/>
-      <c r="J6" s="163"/>
-      <c r="K6" s="163"/>
-      <c r="L6" s="163"/>
-      <c r="M6" s="163"/>
-      <c r="N6" s="163"/>
-      <c r="O6" s="163"/>
-      <c r="P6" s="163"/>
-      <c r="Q6" s="163"/>
-      <c r="R6" s="163"/>
-      <c r="S6" s="163"/>
-      <c r="T6" s="163"/>
-      <c r="U6" s="163"/>
-      <c r="V6" s="163"/>
-      <c r="W6" s="163"/>
-      <c r="X6" s="163"/>
-      <c r="Y6" s="163"/>
-      <c r="Z6" s="163"/>
-      <c r="AA6" s="163"/>
-      <c r="AB6" s="163"/>
-      <c r="AC6" s="163"/>
-      <c r="AD6" s="163"/>
-      <c r="AE6" s="163"/>
-      <c r="AF6" s="163"/>
-      <c r="AG6" s="163"/>
-      <c r="AH6" s="163"/>
-      <c r="AI6" s="163"/>
-      <c r="AJ6" s="163"/>
+      <c r="A6" s="165"/>
+      <c r="B6" s="165"/>
+      <c r="C6" s="165"/>
+      <c r="D6" s="165"/>
+      <c r="E6" s="165"/>
+      <c r="F6" s="165"/>
+      <c r="G6" s="165"/>
+      <c r="H6" s="165"/>
+      <c r="I6" s="165"/>
+      <c r="J6" s="165"/>
+      <c r="K6" s="165"/>
+      <c r="L6" s="165"/>
+      <c r="M6" s="165"/>
+      <c r="N6" s="165"/>
+      <c r="O6" s="165"/>
+      <c r="P6" s="165"/>
+      <c r="Q6" s="165"/>
+      <c r="R6" s="165"/>
+      <c r="S6" s="165"/>
+      <c r="T6" s="165"/>
+      <c r="U6" s="165"/>
+      <c r="V6" s="165"/>
+      <c r="W6" s="165"/>
+      <c r="X6" s="165"/>
+      <c r="Y6" s="165"/>
+      <c r="Z6" s="165"/>
+      <c r="AA6" s="165"/>
+      <c r="AB6" s="165"/>
+      <c r="AC6" s="165"/>
+      <c r="AD6" s="165"/>
+      <c r="AE6" s="165"/>
+      <c r="AF6" s="165"/>
+      <c r="AG6" s="165"/>
+      <c r="AH6" s="165"/>
+      <c r="AI6" s="165"/>
+      <c r="AJ6" s="165"/>
     </row>
     <row r="7" spans="1:37" ht="45" customHeight="1" thickBot="1">
-      <c r="A7" s="163"/>
-      <c r="B7" s="163"/>
-      <c r="C7" s="163"/>
-      <c r="D7" s="163"/>
-      <c r="E7" s="163"/>
-      <c r="F7" s="163"/>
-      <c r="G7" s="163"/>
-      <c r="H7" s="163"/>
-      <c r="I7" s="163"/>
-      <c r="J7" s="163"/>
-      <c r="K7" s="163"/>
-      <c r="L7" s="163"/>
-      <c r="M7" s="163"/>
-      <c r="N7" s="163"/>
-      <c r="O7" s="163"/>
-      <c r="P7" s="163"/>
-      <c r="Q7" s="163"/>
-      <c r="R7" s="163"/>
-      <c r="S7" s="163"/>
-      <c r="T7" s="163"/>
-      <c r="U7" s="163"/>
-      <c r="V7" s="163"/>
-      <c r="W7" s="163"/>
-      <c r="X7" s="163"/>
-      <c r="Y7" s="163"/>
-      <c r="Z7" s="163"/>
-      <c r="AA7" s="163"/>
-      <c r="AB7" s="163"/>
-      <c r="AC7" s="163"/>
-      <c r="AD7" s="163"/>
-      <c r="AE7" s="163"/>
-      <c r="AF7" s="163"/>
-      <c r="AG7" s="163"/>
-      <c r="AH7" s="163"/>
-      <c r="AI7" s="163"/>
-      <c r="AJ7" s="163"/>
+      <c r="A7" s="165"/>
+      <c r="B7" s="165"/>
+      <c r="C7" s="165"/>
+      <c r="D7" s="165"/>
+      <c r="E7" s="165"/>
+      <c r="F7" s="165"/>
+      <c r="G7" s="165"/>
+      <c r="H7" s="165"/>
+      <c r="I7" s="165"/>
+      <c r="J7" s="165"/>
+      <c r="K7" s="165"/>
+      <c r="L7" s="165"/>
+      <c r="M7" s="165"/>
+      <c r="N7" s="165"/>
+      <c r="O7" s="165"/>
+      <c r="P7" s="165"/>
+      <c r="Q7" s="165"/>
+      <c r="R7" s="165"/>
+      <c r="S7" s="165"/>
+      <c r="T7" s="165"/>
+      <c r="U7" s="165"/>
+      <c r="V7" s="165"/>
+      <c r="W7" s="165"/>
+      <c r="X7" s="165"/>
+      <c r="Y7" s="165"/>
+      <c r="Z7" s="165"/>
+      <c r="AA7" s="165"/>
+      <c r="AB7" s="165"/>
+      <c r="AC7" s="165"/>
+      <c r="AD7" s="165"/>
+      <c r="AE7" s="165"/>
+      <c r="AF7" s="165"/>
+      <c r="AG7" s="165"/>
+      <c r="AH7" s="165"/>
+      <c r="AI7" s="165"/>
+      <c r="AJ7" s="165"/>
     </row>
     <row r="8" spans="1:37" ht="49.95" customHeight="1" thickBot="1">
       <c r="A8" s="90"/>
-      <c r="B8" s="203" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="204"/>
+      <c r="B8" s="217" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="218"/>
       <c r="D8" s="14"/>
       <c r="E8" s="15" t="s">
         <v>133</v>
@@ -24447,34 +24444,34 @@
       <c r="G8" s="17"/>
       <c r="H8" s="17"/>
       <c r="I8" s="18"/>
-      <c r="J8" s="168"/>
-      <c r="K8" s="169"/>
-      <c r="L8" s="170"/>
-      <c r="M8" s="164" t="s">
+      <c r="J8" s="184"/>
+      <c r="K8" s="185"/>
+      <c r="L8" s="186"/>
+      <c r="M8" s="180" t="s">
         <v>135</v>
       </c>
-      <c r="N8" s="165"/>
-      <c r="O8" s="165"/>
-      <c r="P8" s="165"/>
-      <c r="Q8" s="165"/>
-      <c r="R8" s="165"/>
-      <c r="S8" s="165"/>
-      <c r="T8" s="165"/>
-      <c r="U8" s="165"/>
-      <c r="V8" s="165"/>
-      <c r="W8" s="165"/>
-      <c r="X8" s="165"/>
-      <c r="Y8" s="165"/>
-      <c r="Z8" s="165"/>
-      <c r="AA8" s="165"/>
-      <c r="AB8" s="165"/>
-      <c r="AC8" s="165"/>
-      <c r="AD8" s="165"/>
-      <c r="AE8" s="165"/>
-      <c r="AF8" s="165"/>
-      <c r="AG8" s="165"/>
-      <c r="AH8" s="165"/>
-      <c r="AI8" s="165"/>
+      <c r="N8" s="181"/>
+      <c r="O8" s="181"/>
+      <c r="P8" s="181"/>
+      <c r="Q8" s="181"/>
+      <c r="R8" s="181"/>
+      <c r="S8" s="181"/>
+      <c r="T8" s="181"/>
+      <c r="U8" s="181"/>
+      <c r="V8" s="181"/>
+      <c r="W8" s="181"/>
+      <c r="X8" s="181"/>
+      <c r="Y8" s="181"/>
+      <c r="Z8" s="181"/>
+      <c r="AA8" s="181"/>
+      <c r="AB8" s="181"/>
+      <c r="AC8" s="181"/>
+      <c r="AD8" s="181"/>
+      <c r="AE8" s="181"/>
+      <c r="AF8" s="181"/>
+      <c r="AG8" s="181"/>
+      <c r="AH8" s="181"/>
+      <c r="AI8" s="181"/>
       <c r="AJ8" s="12"/>
       <c r="AK8" s="15" t="s">
         <v>136</v>
@@ -24482,82 +24479,82 @@
     </row>
     <row r="9" spans="1:37" ht="49.95" customHeight="1" thickBot="1">
       <c r="A9" s="91"/>
-      <c r="B9" s="217" t="s">
+      <c r="B9" s="215" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="213" t="s">
+      <c r="C9" s="211" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="213" t="s">
+      <c r="D9" s="211" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="213" t="s">
+      <c r="E9" s="211" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="213" t="s">
+      <c r="F9" s="211" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="211" t="s">
+      <c r="G9" s="209" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="213" t="s">
+      <c r="H9" s="211" t="s">
         <v>7</v>
       </c>
-      <c r="I9" s="211" t="s">
+      <c r="I9" s="209" t="s">
         <v>8</v>
       </c>
-      <c r="J9" s="211" t="s">
+      <c r="J9" s="209" t="s">
         <v>9</v>
       </c>
-      <c r="K9" s="211" t="s">
+      <c r="K9" s="209" t="s">
         <v>10</v>
       </c>
-      <c r="L9" s="215" t="s">
+      <c r="L9" s="213" t="s">
         <v>11</v>
       </c>
-      <c r="M9" s="205" t="s">
+      <c r="M9" s="203" t="s">
         <v>12</v>
       </c>
-      <c r="N9" s="206"/>
-      <c r="O9" s="206"/>
-      <c r="P9" s="206"/>
-      <c r="Q9" s="206"/>
-      <c r="R9" s="206"/>
-      <c r="S9" s="206"/>
-      <c r="T9" s="206"/>
-      <c r="U9" s="206"/>
-      <c r="V9" s="206"/>
-      <c r="W9" s="207"/>
-      <c r="X9" s="173"/>
-      <c r="Y9" s="173"/>
-      <c r="Z9" s="173"/>
-      <c r="AA9" s="173"/>
-      <c r="AB9" s="173"/>
-      <c r="AC9" s="173"/>
-      <c r="AD9" s="173"/>
-      <c r="AE9" s="173"/>
-      <c r="AF9" s="173"/>
-      <c r="AG9" s="173"/>
-      <c r="AH9" s="173"/>
-      <c r="AI9" s="173"/>
+      <c r="N9" s="204"/>
+      <c r="O9" s="204"/>
+      <c r="P9" s="204"/>
+      <c r="Q9" s="204"/>
+      <c r="R9" s="204"/>
+      <c r="S9" s="204"/>
+      <c r="T9" s="204"/>
+      <c r="U9" s="204"/>
+      <c r="V9" s="204"/>
+      <c r="W9" s="205"/>
+      <c r="X9" s="166"/>
+      <c r="Y9" s="166"/>
+      <c r="Z9" s="166"/>
+      <c r="AA9" s="166"/>
+      <c r="AB9" s="166"/>
+      <c r="AC9" s="166"/>
+      <c r="AD9" s="166"/>
+      <c r="AE9" s="166"/>
+      <c r="AF9" s="166"/>
+      <c r="AG9" s="166"/>
+      <c r="AH9" s="166"/>
+      <c r="AI9" s="166"/>
       <c r="AJ9" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="AK9" s="171"/>
+      <c r="AK9" s="163"/>
     </row>
     <row r="10" spans="1:37" ht="49.95" customHeight="1" thickBot="1">
       <c r="A10" s="92"/>
-      <c r="B10" s="218"/>
-      <c r="C10" s="214"/>
-      <c r="D10" s="214"/>
-      <c r="E10" s="214"/>
-      <c r="F10" s="214"/>
-      <c r="G10" s="212"/>
-      <c r="H10" s="214"/>
-      <c r="I10" s="212"/>
-      <c r="J10" s="212"/>
-      <c r="K10" s="212"/>
-      <c r="L10" s="216"/>
+      <c r="B10" s="216"/>
+      <c r="C10" s="212"/>
+      <c r="D10" s="212"/>
+      <c r="E10" s="212"/>
+      <c r="F10" s="212"/>
+      <c r="G10" s="210"/>
+      <c r="H10" s="212"/>
+      <c r="I10" s="210"/>
+      <c r="J10" s="210"/>
+      <c r="K10" s="210"/>
+      <c r="L10" s="214"/>
       <c r="M10" s="4" t="s">
         <v>14</v>
       </c>
@@ -24630,7 +24627,7 @@
       <c r="AJ10" s="121" t="s">
         <v>20</v>
       </c>
-      <c r="AK10" s="172"/>
+      <c r="AK10" s="164"/>
     </row>
     <row r="11" spans="1:37" ht="64.95" customHeight="1" thickBot="1">
       <c r="A11" s="93" t="s">
@@ -26604,19 +26601,19 @@
     </row>
     <row r="52" spans="1:37" s="99" customFormat="1" ht="45" customHeight="1" thickBot="1">
       <c r="A52" s="95"/>
-      <c r="B52" s="208" t="s">
+      <c r="B52" s="206" t="s">
         <v>29</v>
       </c>
-      <c r="C52" s="209"/>
-      <c r="D52" s="209"/>
-      <c r="E52" s="209"/>
-      <c r="F52" s="209"/>
-      <c r="G52" s="209"/>
-      <c r="H52" s="209"/>
-      <c r="I52" s="209"/>
-      <c r="J52" s="209"/>
-      <c r="K52" s="209"/>
-      <c r="L52" s="210"/>
+      <c r="C52" s="207"/>
+      <c r="D52" s="207"/>
+      <c r="E52" s="207"/>
+      <c r="F52" s="207"/>
+      <c r="G52" s="207"/>
+      <c r="H52" s="207"/>
+      <c r="I52" s="207"/>
+      <c r="J52" s="207"/>
+      <c r="K52" s="207"/>
+      <c r="L52" s="208"/>
       <c r="M52" s="122">
         <f>COUNTA(M12:M51)</f>
         <v>0</v>
@@ -26710,44 +26707,49 @@
       <c r="AK52" s="85"/>
     </row>
     <row r="53" spans="1:37" ht="14.4">
-      <c r="A53" s="163"/>
-      <c r="B53" s="163"/>
-      <c r="C53" s="163"/>
-      <c r="D53" s="163"/>
-      <c r="E53" s="163"/>
-      <c r="F53" s="163"/>
-      <c r="G53" s="163"/>
-      <c r="H53" s="163"/>
-      <c r="I53" s="163"/>
-      <c r="J53" s="163"/>
-      <c r="K53" s="163"/>
-      <c r="L53" s="163"/>
-      <c r="M53" s="163"/>
-      <c r="N53" s="163"/>
-      <c r="O53" s="163"/>
-      <c r="P53" s="163"/>
-      <c r="Q53" s="163"/>
-      <c r="R53" s="163"/>
-      <c r="S53" s="163"/>
-      <c r="T53" s="163"/>
-      <c r="U53" s="163"/>
-      <c r="V53" s="163"/>
-      <c r="W53" s="163"/>
-      <c r="X53" s="163"/>
-      <c r="Y53" s="163"/>
-      <c r="Z53" s="163"/>
-      <c r="AA53" s="163"/>
-      <c r="AB53" s="163"/>
-      <c r="AC53" s="163"/>
-      <c r="AD53" s="163"/>
-      <c r="AE53" s="163"/>
-      <c r="AF53" s="163"/>
-      <c r="AG53" s="163"/>
-      <c r="AH53" s="163"/>
-      <c r="AI53" s="163"/>
+      <c r="A53" s="165"/>
+      <c r="B53" s="165"/>
+      <c r="C53" s="165"/>
+      <c r="D53" s="165"/>
+      <c r="E53" s="165"/>
+      <c r="F53" s="165"/>
+      <c r="G53" s="165"/>
+      <c r="H53" s="165"/>
+      <c r="I53" s="165"/>
+      <c r="J53" s="165"/>
+      <c r="K53" s="165"/>
+      <c r="L53" s="165"/>
+      <c r="M53" s="165"/>
+      <c r="N53" s="165"/>
+      <c r="O53" s="165"/>
+      <c r="P53" s="165"/>
+      <c r="Q53" s="165"/>
+      <c r="R53" s="165"/>
+      <c r="S53" s="165"/>
+      <c r="T53" s="165"/>
+      <c r="U53" s="165"/>
+      <c r="V53" s="165"/>
+      <c r="W53" s="165"/>
+      <c r="X53" s="165"/>
+      <c r="Y53" s="165"/>
+      <c r="Z53" s="165"/>
+      <c r="AA53" s="165"/>
+      <c r="AB53" s="165"/>
+      <c r="AC53" s="165"/>
+      <c r="AD53" s="165"/>
+      <c r="AE53" s="165"/>
+      <c r="AF53" s="165"/>
+      <c r="AG53" s="165"/>
+      <c r="AH53" s="165"/>
+      <c r="AI53" s="165"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A1:AI7"/>
+    <mergeCell ref="AJ1:AJ7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="M8:AI8"/>
     <mergeCell ref="M9:W9"/>
     <mergeCell ref="X9:AI9"/>
     <mergeCell ref="AK9:AK10"/>
@@ -26764,11 +26766,6 @@
     <mergeCell ref="D9:D10"/>
     <mergeCell ref="E9:E10"/>
     <mergeCell ref="F9:F10"/>
-    <mergeCell ref="A1:AI7"/>
-    <mergeCell ref="AJ1:AJ7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="M8:AI8"/>
   </mergeCells>
   <conditionalFormatting sqref="M11:AI52 E12:K51">
     <cfRule type="containsBlanks" dxfId="8" priority="3">
@@ -26782,7 +26779,7 @@
   </conditionalFormatting>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="16" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="42" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <drawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
@@ -26845,277 +26842,277 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="45" customHeight="1">
-      <c r="A1" s="163"/>
-      <c r="B1" s="163"/>
-      <c r="C1" s="163"/>
-      <c r="D1" s="163"/>
-      <c r="E1" s="163"/>
-      <c r="F1" s="163"/>
-      <c r="G1" s="163"/>
-      <c r="H1" s="163"/>
-      <c r="I1" s="163"/>
-      <c r="J1" s="163"/>
-      <c r="K1" s="163"/>
-      <c r="L1" s="163"/>
-      <c r="M1" s="163"/>
-      <c r="N1" s="163"/>
-      <c r="O1" s="163"/>
-      <c r="P1" s="163"/>
-      <c r="Q1" s="163"/>
-      <c r="R1" s="163"/>
-      <c r="S1" s="163"/>
-      <c r="T1" s="163"/>
-      <c r="U1" s="163"/>
-      <c r="V1" s="163"/>
-      <c r="W1" s="163"/>
-      <c r="X1" s="163"/>
-      <c r="Y1" s="163"/>
-      <c r="Z1" s="163"/>
-      <c r="AA1" s="163"/>
-      <c r="AB1" s="163"/>
-      <c r="AC1" s="163"/>
-      <c r="AD1" s="163"/>
-      <c r="AE1" s="163"/>
-      <c r="AF1" s="163"/>
-      <c r="AG1" s="163"/>
-      <c r="AH1" s="163"/>
-      <c r="AI1" s="163"/>
-      <c r="AJ1" s="163"/>
+      <c r="A1" s="165"/>
+      <c r="B1" s="165"/>
+      <c r="C1" s="165"/>
+      <c r="D1" s="165"/>
+      <c r="E1" s="165"/>
+      <c r="F1" s="165"/>
+      <c r="G1" s="165"/>
+      <c r="H1" s="165"/>
+      <c r="I1" s="165"/>
+      <c r="J1" s="165"/>
+      <c r="K1" s="165"/>
+      <c r="L1" s="165"/>
+      <c r="M1" s="165"/>
+      <c r="N1" s="165"/>
+      <c r="O1" s="165"/>
+      <c r="P1" s="165"/>
+      <c r="Q1" s="165"/>
+      <c r="R1" s="165"/>
+      <c r="S1" s="165"/>
+      <c r="T1" s="165"/>
+      <c r="U1" s="165"/>
+      <c r="V1" s="165"/>
+      <c r="W1" s="165"/>
+      <c r="X1" s="165"/>
+      <c r="Y1" s="165"/>
+      <c r="Z1" s="165"/>
+      <c r="AA1" s="165"/>
+      <c r="AB1" s="165"/>
+      <c r="AC1" s="165"/>
+      <c r="AD1" s="165"/>
+      <c r="AE1" s="165"/>
+      <c r="AF1" s="165"/>
+      <c r="AG1" s="165"/>
+      <c r="AH1" s="165"/>
+      <c r="AI1" s="165"/>
+      <c r="AJ1" s="165"/>
     </row>
     <row r="2" spans="1:37" ht="45" customHeight="1">
-      <c r="A2" s="163"/>
-      <c r="B2" s="163"/>
-      <c r="C2" s="163"/>
-      <c r="D2" s="163"/>
-      <c r="E2" s="163"/>
-      <c r="F2" s="163"/>
-      <c r="G2" s="163"/>
-      <c r="H2" s="163"/>
-      <c r="I2" s="163"/>
-      <c r="J2" s="163"/>
-      <c r="K2" s="163"/>
-      <c r="L2" s="163"/>
-      <c r="M2" s="163"/>
-      <c r="N2" s="163"/>
-      <c r="O2" s="163"/>
-      <c r="P2" s="163"/>
-      <c r="Q2" s="163"/>
-      <c r="R2" s="163"/>
-      <c r="S2" s="163"/>
-      <c r="T2" s="163"/>
-      <c r="U2" s="163"/>
-      <c r="V2" s="163"/>
-      <c r="W2" s="163"/>
-      <c r="X2" s="163"/>
-      <c r="Y2" s="163"/>
-      <c r="Z2" s="163"/>
-      <c r="AA2" s="163"/>
-      <c r="AB2" s="163"/>
-      <c r="AC2" s="163"/>
-      <c r="AD2" s="163"/>
-      <c r="AE2" s="163"/>
-      <c r="AF2" s="163"/>
-      <c r="AG2" s="163"/>
-      <c r="AH2" s="163"/>
-      <c r="AI2" s="163"/>
-      <c r="AJ2" s="163"/>
+      <c r="A2" s="165"/>
+      <c r="B2" s="165"/>
+      <c r="C2" s="165"/>
+      <c r="D2" s="165"/>
+      <c r="E2" s="165"/>
+      <c r="F2" s="165"/>
+      <c r="G2" s="165"/>
+      <c r="H2" s="165"/>
+      <c r="I2" s="165"/>
+      <c r="J2" s="165"/>
+      <c r="K2" s="165"/>
+      <c r="L2" s="165"/>
+      <c r="M2" s="165"/>
+      <c r="N2" s="165"/>
+      <c r="O2" s="165"/>
+      <c r="P2" s="165"/>
+      <c r="Q2" s="165"/>
+      <c r="R2" s="165"/>
+      <c r="S2" s="165"/>
+      <c r="T2" s="165"/>
+      <c r="U2" s="165"/>
+      <c r="V2" s="165"/>
+      <c r="W2" s="165"/>
+      <c r="X2" s="165"/>
+      <c r="Y2" s="165"/>
+      <c r="Z2" s="165"/>
+      <c r="AA2" s="165"/>
+      <c r="AB2" s="165"/>
+      <c r="AC2" s="165"/>
+      <c r="AD2" s="165"/>
+      <c r="AE2" s="165"/>
+      <c r="AF2" s="165"/>
+      <c r="AG2" s="165"/>
+      <c r="AH2" s="165"/>
+      <c r="AI2" s="165"/>
+      <c r="AJ2" s="165"/>
     </row>
     <row r="3" spans="1:37" ht="45" customHeight="1">
-      <c r="A3" s="163"/>
-      <c r="B3" s="163"/>
-      <c r="C3" s="163"/>
-      <c r="D3" s="163"/>
-      <c r="E3" s="163"/>
-      <c r="F3" s="163"/>
-      <c r="G3" s="163"/>
-      <c r="H3" s="163"/>
-      <c r="I3" s="163"/>
-      <c r="J3" s="163"/>
-      <c r="K3" s="163"/>
-      <c r="L3" s="163"/>
-      <c r="M3" s="163"/>
-      <c r="N3" s="163"/>
-      <c r="O3" s="163"/>
-      <c r="P3" s="163"/>
-      <c r="Q3" s="163"/>
-      <c r="R3" s="163"/>
-      <c r="S3" s="163"/>
-      <c r="T3" s="163"/>
-      <c r="U3" s="163"/>
-      <c r="V3" s="163"/>
-      <c r="W3" s="163"/>
-      <c r="X3" s="163"/>
-      <c r="Y3" s="163"/>
-      <c r="Z3" s="163"/>
-      <c r="AA3" s="163"/>
-      <c r="AB3" s="163"/>
-      <c r="AC3" s="163"/>
-      <c r="AD3" s="163"/>
-      <c r="AE3" s="163"/>
-      <c r="AF3" s="163"/>
-      <c r="AG3" s="163"/>
-      <c r="AH3" s="163"/>
-      <c r="AI3" s="163"/>
-      <c r="AJ3" s="163"/>
+      <c r="A3" s="165"/>
+      <c r="B3" s="165"/>
+      <c r="C3" s="165"/>
+      <c r="D3" s="165"/>
+      <c r="E3" s="165"/>
+      <c r="F3" s="165"/>
+      <c r="G3" s="165"/>
+      <c r="H3" s="165"/>
+      <c r="I3" s="165"/>
+      <c r="J3" s="165"/>
+      <c r="K3" s="165"/>
+      <c r="L3" s="165"/>
+      <c r="M3" s="165"/>
+      <c r="N3" s="165"/>
+      <c r="O3" s="165"/>
+      <c r="P3" s="165"/>
+      <c r="Q3" s="165"/>
+      <c r="R3" s="165"/>
+      <c r="S3" s="165"/>
+      <c r="T3" s="165"/>
+      <c r="U3" s="165"/>
+      <c r="V3" s="165"/>
+      <c r="W3" s="165"/>
+      <c r="X3" s="165"/>
+      <c r="Y3" s="165"/>
+      <c r="Z3" s="165"/>
+      <c r="AA3" s="165"/>
+      <c r="AB3" s="165"/>
+      <c r="AC3" s="165"/>
+      <c r="AD3" s="165"/>
+      <c r="AE3" s="165"/>
+      <c r="AF3" s="165"/>
+      <c r="AG3" s="165"/>
+      <c r="AH3" s="165"/>
+      <c r="AI3" s="165"/>
+      <c r="AJ3" s="165"/>
     </row>
     <row r="4" spans="1:37" ht="45" customHeight="1">
-      <c r="A4" s="163"/>
-      <c r="B4" s="163"/>
-      <c r="C4" s="163"/>
-      <c r="D4" s="163"/>
-      <c r="E4" s="163"/>
-      <c r="F4" s="163"/>
-      <c r="G4" s="163"/>
-      <c r="H4" s="163"/>
-      <c r="I4" s="163"/>
-      <c r="J4" s="163"/>
-      <c r="K4" s="163"/>
-      <c r="L4" s="163"/>
-      <c r="M4" s="163"/>
-      <c r="N4" s="163"/>
-      <c r="O4" s="163"/>
-      <c r="P4" s="163"/>
-      <c r="Q4" s="163"/>
-      <c r="R4" s="163"/>
-      <c r="S4" s="163"/>
-      <c r="T4" s="163"/>
-      <c r="U4" s="163"/>
-      <c r="V4" s="163"/>
-      <c r="W4" s="163"/>
-      <c r="X4" s="163"/>
-      <c r="Y4" s="163"/>
-      <c r="Z4" s="163"/>
-      <c r="AA4" s="163"/>
-      <c r="AB4" s="163"/>
-      <c r="AC4" s="163"/>
-      <c r="AD4" s="163"/>
-      <c r="AE4" s="163"/>
-      <c r="AF4" s="163"/>
-      <c r="AG4" s="163"/>
-      <c r="AH4" s="163"/>
-      <c r="AI4" s="163"/>
-      <c r="AJ4" s="163"/>
+      <c r="A4" s="165"/>
+      <c r="B4" s="165"/>
+      <c r="C4" s="165"/>
+      <c r="D4" s="165"/>
+      <c r="E4" s="165"/>
+      <c r="F4" s="165"/>
+      <c r="G4" s="165"/>
+      <c r="H4" s="165"/>
+      <c r="I4" s="165"/>
+      <c r="J4" s="165"/>
+      <c r="K4" s="165"/>
+      <c r="L4" s="165"/>
+      <c r="M4" s="165"/>
+      <c r="N4" s="165"/>
+      <c r="O4" s="165"/>
+      <c r="P4" s="165"/>
+      <c r="Q4" s="165"/>
+      <c r="R4" s="165"/>
+      <c r="S4" s="165"/>
+      <c r="T4" s="165"/>
+      <c r="U4" s="165"/>
+      <c r="V4" s="165"/>
+      <c r="W4" s="165"/>
+      <c r="X4" s="165"/>
+      <c r="Y4" s="165"/>
+      <c r="Z4" s="165"/>
+      <c r="AA4" s="165"/>
+      <c r="AB4" s="165"/>
+      <c r="AC4" s="165"/>
+      <c r="AD4" s="165"/>
+      <c r="AE4" s="165"/>
+      <c r="AF4" s="165"/>
+      <c r="AG4" s="165"/>
+      <c r="AH4" s="165"/>
+      <c r="AI4" s="165"/>
+      <c r="AJ4" s="165"/>
     </row>
     <row r="5" spans="1:37" ht="45" customHeight="1">
-      <c r="A5" s="163"/>
-      <c r="B5" s="163"/>
-      <c r="C5" s="163"/>
-      <c r="D5" s="163"/>
-      <c r="E5" s="163"/>
-      <c r="F5" s="163"/>
-      <c r="G5" s="163"/>
-      <c r="H5" s="163"/>
-      <c r="I5" s="163"/>
-      <c r="J5" s="163"/>
-      <c r="K5" s="163"/>
-      <c r="L5" s="163"/>
-      <c r="M5" s="163"/>
-      <c r="N5" s="163"/>
-      <c r="O5" s="163"/>
-      <c r="P5" s="163"/>
-      <c r="Q5" s="163"/>
-      <c r="R5" s="163"/>
-      <c r="S5" s="163"/>
-      <c r="T5" s="163"/>
-      <c r="U5" s="163"/>
-      <c r="V5" s="163"/>
-      <c r="W5" s="163"/>
-      <c r="X5" s="163"/>
-      <c r="Y5" s="163"/>
-      <c r="Z5" s="163"/>
-      <c r="AA5" s="163"/>
-      <c r="AB5" s="163"/>
-      <c r="AC5" s="163"/>
-      <c r="AD5" s="163"/>
-      <c r="AE5" s="163"/>
-      <c r="AF5" s="163"/>
-      <c r="AG5" s="163"/>
-      <c r="AH5" s="163"/>
-      <c r="AI5" s="163"/>
-      <c r="AJ5" s="163"/>
+      <c r="A5" s="165"/>
+      <c r="B5" s="165"/>
+      <c r="C5" s="165"/>
+      <c r="D5" s="165"/>
+      <c r="E5" s="165"/>
+      <c r="F5" s="165"/>
+      <c r="G5" s="165"/>
+      <c r="H5" s="165"/>
+      <c r="I5" s="165"/>
+      <c r="J5" s="165"/>
+      <c r="K5" s="165"/>
+      <c r="L5" s="165"/>
+      <c r="M5" s="165"/>
+      <c r="N5" s="165"/>
+      <c r="O5" s="165"/>
+      <c r="P5" s="165"/>
+      <c r="Q5" s="165"/>
+      <c r="R5" s="165"/>
+      <c r="S5" s="165"/>
+      <c r="T5" s="165"/>
+      <c r="U5" s="165"/>
+      <c r="V5" s="165"/>
+      <c r="W5" s="165"/>
+      <c r="X5" s="165"/>
+      <c r="Y5" s="165"/>
+      <c r="Z5" s="165"/>
+      <c r="AA5" s="165"/>
+      <c r="AB5" s="165"/>
+      <c r="AC5" s="165"/>
+      <c r="AD5" s="165"/>
+      <c r="AE5" s="165"/>
+      <c r="AF5" s="165"/>
+      <c r="AG5" s="165"/>
+      <c r="AH5" s="165"/>
+      <c r="AI5" s="165"/>
+      <c r="AJ5" s="165"/>
     </row>
     <row r="6" spans="1:37" ht="45" customHeight="1">
-      <c r="A6" s="163"/>
-      <c r="B6" s="163"/>
-      <c r="C6" s="163"/>
-      <c r="D6" s="163"/>
-      <c r="E6" s="163"/>
-      <c r="F6" s="163"/>
-      <c r="G6" s="163"/>
-      <c r="H6" s="163"/>
-      <c r="I6" s="163"/>
-      <c r="J6" s="163"/>
-      <c r="K6" s="163"/>
-      <c r="L6" s="163"/>
-      <c r="M6" s="163"/>
-      <c r="N6" s="163"/>
-      <c r="O6" s="163"/>
-      <c r="P6" s="163"/>
-      <c r="Q6" s="163"/>
-      <c r="R6" s="163"/>
-      <c r="S6" s="163"/>
-      <c r="T6" s="163"/>
-      <c r="U6" s="163"/>
-      <c r="V6" s="163"/>
-      <c r="W6" s="163"/>
-      <c r="X6" s="163"/>
-      <c r="Y6" s="163"/>
-      <c r="Z6" s="163"/>
-      <c r="AA6" s="163"/>
-      <c r="AB6" s="163"/>
-      <c r="AC6" s="163"/>
-      <c r="AD6" s="163"/>
-      <c r="AE6" s="163"/>
-      <c r="AF6" s="163"/>
-      <c r="AG6" s="163"/>
-      <c r="AH6" s="163"/>
-      <c r="AI6" s="163"/>
-      <c r="AJ6" s="163"/>
+      <c r="A6" s="165"/>
+      <c r="B6" s="165"/>
+      <c r="C6" s="165"/>
+      <c r="D6" s="165"/>
+      <c r="E6" s="165"/>
+      <c r="F6" s="165"/>
+      <c r="G6" s="165"/>
+      <c r="H6" s="165"/>
+      <c r="I6" s="165"/>
+      <c r="J6" s="165"/>
+      <c r="K6" s="165"/>
+      <c r="L6" s="165"/>
+      <c r="M6" s="165"/>
+      <c r="N6" s="165"/>
+      <c r="O6" s="165"/>
+      <c r="P6" s="165"/>
+      <c r="Q6" s="165"/>
+      <c r="R6" s="165"/>
+      <c r="S6" s="165"/>
+      <c r="T6" s="165"/>
+      <c r="U6" s="165"/>
+      <c r="V6" s="165"/>
+      <c r="W6" s="165"/>
+      <c r="X6" s="165"/>
+      <c r="Y6" s="165"/>
+      <c r="Z6" s="165"/>
+      <c r="AA6" s="165"/>
+      <c r="AB6" s="165"/>
+      <c r="AC6" s="165"/>
+      <c r="AD6" s="165"/>
+      <c r="AE6" s="165"/>
+      <c r="AF6" s="165"/>
+      <c r="AG6" s="165"/>
+      <c r="AH6" s="165"/>
+      <c r="AI6" s="165"/>
+      <c r="AJ6" s="165"/>
     </row>
     <row r="7" spans="1:37" ht="45" customHeight="1" thickBot="1">
-      <c r="A7" s="163"/>
-      <c r="B7" s="163"/>
-      <c r="C7" s="163"/>
-      <c r="D7" s="163"/>
-      <c r="E7" s="163"/>
-      <c r="F7" s="163"/>
-      <c r="G7" s="163"/>
-      <c r="H7" s="163"/>
-      <c r="I7" s="163"/>
-      <c r="J7" s="163"/>
-      <c r="K7" s="163"/>
-      <c r="L7" s="163"/>
-      <c r="M7" s="163"/>
-      <c r="N7" s="163"/>
-      <c r="O7" s="163"/>
-      <c r="P7" s="163"/>
-      <c r="Q7" s="163"/>
-      <c r="R7" s="163"/>
-      <c r="S7" s="163"/>
-      <c r="T7" s="163"/>
-      <c r="U7" s="163"/>
-      <c r="V7" s="163"/>
-      <c r="W7" s="163"/>
-      <c r="X7" s="163"/>
-      <c r="Y7" s="163"/>
-      <c r="Z7" s="163"/>
-      <c r="AA7" s="163"/>
-      <c r="AB7" s="163"/>
-      <c r="AC7" s="163"/>
-      <c r="AD7" s="163"/>
-      <c r="AE7" s="163"/>
-      <c r="AF7" s="163"/>
-      <c r="AG7" s="163"/>
-      <c r="AH7" s="163"/>
-      <c r="AI7" s="163"/>
-      <c r="AJ7" s="163"/>
+      <c r="A7" s="165"/>
+      <c r="B7" s="165"/>
+      <c r="C7" s="165"/>
+      <c r="D7" s="165"/>
+      <c r="E7" s="165"/>
+      <c r="F7" s="165"/>
+      <c r="G7" s="165"/>
+      <c r="H7" s="165"/>
+      <c r="I7" s="165"/>
+      <c r="J7" s="165"/>
+      <c r="K7" s="165"/>
+      <c r="L7" s="165"/>
+      <c r="M7" s="165"/>
+      <c r="N7" s="165"/>
+      <c r="O7" s="165"/>
+      <c r="P7" s="165"/>
+      <c r="Q7" s="165"/>
+      <c r="R7" s="165"/>
+      <c r="S7" s="165"/>
+      <c r="T7" s="165"/>
+      <c r="U7" s="165"/>
+      <c r="V7" s="165"/>
+      <c r="W7" s="165"/>
+      <c r="X7" s="165"/>
+      <c r="Y7" s="165"/>
+      <c r="Z7" s="165"/>
+      <c r="AA7" s="165"/>
+      <c r="AB7" s="165"/>
+      <c r="AC7" s="165"/>
+      <c r="AD7" s="165"/>
+      <c r="AE7" s="165"/>
+      <c r="AF7" s="165"/>
+      <c r="AG7" s="165"/>
+      <c r="AH7" s="165"/>
+      <c r="AI7" s="165"/>
+      <c r="AJ7" s="165"/>
     </row>
     <row r="8" spans="1:37" ht="49.95" customHeight="1" thickBot="1">
       <c r="A8" s="90"/>
-      <c r="B8" s="219" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="220"/>
+      <c r="B8" s="233" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="234"/>
       <c r="D8" s="14"/>
       <c r="E8" s="15" t="s">
         <v>133</v>
@@ -27124,34 +27121,34 @@
       <c r="G8" s="17"/>
       <c r="H8" s="17"/>
       <c r="I8" s="18"/>
-      <c r="J8" s="168"/>
-      <c r="K8" s="169"/>
-      <c r="L8" s="170"/>
-      <c r="M8" s="164" t="s">
+      <c r="J8" s="184"/>
+      <c r="K8" s="185"/>
+      <c r="L8" s="186"/>
+      <c r="M8" s="180" t="s">
         <v>135</v>
       </c>
-      <c r="N8" s="165"/>
-      <c r="O8" s="165"/>
-      <c r="P8" s="165"/>
-      <c r="Q8" s="165"/>
-      <c r="R8" s="165"/>
-      <c r="S8" s="165"/>
-      <c r="T8" s="165"/>
-      <c r="U8" s="165"/>
-      <c r="V8" s="165"/>
-      <c r="W8" s="165"/>
-      <c r="X8" s="165"/>
-      <c r="Y8" s="165"/>
-      <c r="Z8" s="165"/>
-      <c r="AA8" s="165"/>
-      <c r="AB8" s="165"/>
-      <c r="AC8" s="165"/>
-      <c r="AD8" s="165"/>
-      <c r="AE8" s="165"/>
-      <c r="AF8" s="165"/>
-      <c r="AG8" s="165"/>
-      <c r="AH8" s="165"/>
-      <c r="AI8" s="165"/>
+      <c r="N8" s="181"/>
+      <c r="O8" s="181"/>
+      <c r="P8" s="181"/>
+      <c r="Q8" s="181"/>
+      <c r="R8" s="181"/>
+      <c r="S8" s="181"/>
+      <c r="T8" s="181"/>
+      <c r="U8" s="181"/>
+      <c r="V8" s="181"/>
+      <c r="W8" s="181"/>
+      <c r="X8" s="181"/>
+      <c r="Y8" s="181"/>
+      <c r="Z8" s="181"/>
+      <c r="AA8" s="181"/>
+      <c r="AB8" s="181"/>
+      <c r="AC8" s="181"/>
+      <c r="AD8" s="181"/>
+      <c r="AE8" s="181"/>
+      <c r="AF8" s="181"/>
+      <c r="AG8" s="181"/>
+      <c r="AH8" s="181"/>
+      <c r="AI8" s="181"/>
       <c r="AJ8" s="12"/>
       <c r="AK8" s="15" t="s">
         <v>136</v>
@@ -27159,82 +27156,82 @@
     </row>
     <row r="9" spans="1:37" ht="49.95" customHeight="1" thickBot="1">
       <c r="A9" s="91"/>
-      <c r="B9" s="233" t="s">
+      <c r="B9" s="231" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="229" t="s">
+      <c r="C9" s="227" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="229" t="s">
+      <c r="D9" s="227" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="229" t="s">
+      <c r="E9" s="227" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="229" t="s">
+      <c r="F9" s="227" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="227" t="s">
+      <c r="G9" s="225" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="229" t="s">
+      <c r="H9" s="227" t="s">
         <v>7</v>
       </c>
-      <c r="I9" s="227" t="s">
+      <c r="I9" s="225" t="s">
         <v>8</v>
       </c>
-      <c r="J9" s="227" t="s">
+      <c r="J9" s="225" t="s">
         <v>9</v>
       </c>
-      <c r="K9" s="227" t="s">
+      <c r="K9" s="225" t="s">
         <v>10</v>
       </c>
-      <c r="L9" s="231" t="s">
+      <c r="L9" s="229" t="s">
         <v>11</v>
       </c>
-      <c r="M9" s="221" t="s">
+      <c r="M9" s="219" t="s">
         <v>12</v>
       </c>
-      <c r="N9" s="222"/>
-      <c r="O9" s="222"/>
-      <c r="P9" s="222"/>
-      <c r="Q9" s="222"/>
-      <c r="R9" s="222"/>
-      <c r="S9" s="222"/>
-      <c r="T9" s="222"/>
-      <c r="U9" s="222"/>
-      <c r="V9" s="222"/>
-      <c r="W9" s="223"/>
-      <c r="X9" s="173"/>
-      <c r="Y9" s="173"/>
-      <c r="Z9" s="173"/>
-      <c r="AA9" s="173"/>
-      <c r="AB9" s="173"/>
-      <c r="AC9" s="173"/>
-      <c r="AD9" s="173"/>
-      <c r="AE9" s="173"/>
-      <c r="AF9" s="173"/>
-      <c r="AG9" s="173"/>
-      <c r="AH9" s="173"/>
-      <c r="AI9" s="173"/>
+      <c r="N9" s="220"/>
+      <c r="O9" s="220"/>
+      <c r="P9" s="220"/>
+      <c r="Q9" s="220"/>
+      <c r="R9" s="220"/>
+      <c r="S9" s="220"/>
+      <c r="T9" s="220"/>
+      <c r="U9" s="220"/>
+      <c r="V9" s="220"/>
+      <c r="W9" s="221"/>
+      <c r="X9" s="166"/>
+      <c r="Y9" s="166"/>
+      <c r="Z9" s="166"/>
+      <c r="AA9" s="166"/>
+      <c r="AB9" s="166"/>
+      <c r="AC9" s="166"/>
+      <c r="AD9" s="166"/>
+      <c r="AE9" s="166"/>
+      <c r="AF9" s="166"/>
+      <c r="AG9" s="166"/>
+      <c r="AH9" s="166"/>
+      <c r="AI9" s="166"/>
       <c r="AJ9" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="AK9" s="171"/>
+      <c r="AK9" s="163"/>
     </row>
     <row r="10" spans="1:37" ht="49.95" customHeight="1" thickBot="1">
       <c r="A10" s="92"/>
-      <c r="B10" s="234"/>
-      <c r="C10" s="230"/>
-      <c r="D10" s="230"/>
-      <c r="E10" s="230"/>
-      <c r="F10" s="230"/>
-      <c r="G10" s="228"/>
-      <c r="H10" s="230"/>
-      <c r="I10" s="228"/>
-      <c r="J10" s="228"/>
-      <c r="K10" s="228"/>
-      <c r="L10" s="232"/>
+      <c r="B10" s="232"/>
+      <c r="C10" s="228"/>
+      <c r="D10" s="228"/>
+      <c r="E10" s="228"/>
+      <c r="F10" s="228"/>
+      <c r="G10" s="226"/>
+      <c r="H10" s="228"/>
+      <c r="I10" s="226"/>
+      <c r="J10" s="226"/>
+      <c r="K10" s="226"/>
+      <c r="L10" s="230"/>
       <c r="M10" s="4" t="s">
         <v>14</v>
       </c>
@@ -27307,7 +27304,7 @@
       <c r="AJ10" s="124" t="s">
         <v>20</v>
       </c>
-      <c r="AK10" s="172"/>
+      <c r="AK10" s="164"/>
     </row>
     <row r="11" spans="1:37" ht="64.95" customHeight="1" thickBot="1">
       <c r="A11" s="93" t="s">
@@ -29137,19 +29134,19 @@
     </row>
     <row r="52" spans="1:37" s="99" customFormat="1" ht="45" customHeight="1" thickBot="1">
       <c r="A52" s="95"/>
-      <c r="B52" s="224" t="s">
+      <c r="B52" s="222" t="s">
         <v>29</v>
       </c>
-      <c r="C52" s="225"/>
-      <c r="D52" s="225"/>
-      <c r="E52" s="225"/>
-      <c r="F52" s="225"/>
-      <c r="G52" s="225"/>
-      <c r="H52" s="225"/>
-      <c r="I52" s="225"/>
-      <c r="J52" s="225"/>
-      <c r="K52" s="225"/>
-      <c r="L52" s="226"/>
+      <c r="C52" s="223"/>
+      <c r="D52" s="223"/>
+      <c r="E52" s="223"/>
+      <c r="F52" s="223"/>
+      <c r="G52" s="223"/>
+      <c r="H52" s="223"/>
+      <c r="I52" s="223"/>
+      <c r="J52" s="223"/>
+      <c r="K52" s="223"/>
+      <c r="L52" s="224"/>
       <c r="M52" s="125">
         <f>COUNTA(M12:M51)</f>
         <v>0</v>
@@ -29246,44 +29243,49 @@
       </c>
     </row>
     <row r="53" spans="1:37" ht="14.4">
-      <c r="A53" s="163"/>
-      <c r="B53" s="163"/>
-      <c r="C53" s="163"/>
-      <c r="D53" s="163"/>
-      <c r="E53" s="163"/>
-      <c r="F53" s="163"/>
-      <c r="G53" s="163"/>
-      <c r="H53" s="163"/>
-      <c r="I53" s="163"/>
-      <c r="J53" s="163"/>
-      <c r="K53" s="163"/>
-      <c r="L53" s="163"/>
-      <c r="M53" s="163"/>
-      <c r="N53" s="163"/>
-      <c r="O53" s="163"/>
-      <c r="P53" s="163"/>
-      <c r="Q53" s="163"/>
-      <c r="R53" s="163"/>
-      <c r="S53" s="163"/>
-      <c r="T53" s="163"/>
-      <c r="U53" s="163"/>
-      <c r="V53" s="163"/>
-      <c r="W53" s="163"/>
-      <c r="X53" s="163"/>
-      <c r="Y53" s="163"/>
-      <c r="Z53" s="163"/>
-      <c r="AA53" s="163"/>
-      <c r="AB53" s="163"/>
-      <c r="AC53" s="163"/>
-      <c r="AD53" s="163"/>
-      <c r="AE53" s="163"/>
-      <c r="AF53" s="163"/>
-      <c r="AG53" s="163"/>
-      <c r="AH53" s="163"/>
-      <c r="AI53" s="163"/>
+      <c r="A53" s="165"/>
+      <c r="B53" s="165"/>
+      <c r="C53" s="165"/>
+      <c r="D53" s="165"/>
+      <c r="E53" s="165"/>
+      <c r="F53" s="165"/>
+      <c r="G53" s="165"/>
+      <c r="H53" s="165"/>
+      <c r="I53" s="165"/>
+      <c r="J53" s="165"/>
+      <c r="K53" s="165"/>
+      <c r="L53" s="165"/>
+      <c r="M53" s="165"/>
+      <c r="N53" s="165"/>
+      <c r="O53" s="165"/>
+      <c r="P53" s="165"/>
+      <c r="Q53" s="165"/>
+      <c r="R53" s="165"/>
+      <c r="S53" s="165"/>
+      <c r="T53" s="165"/>
+      <c r="U53" s="165"/>
+      <c r="V53" s="165"/>
+      <c r="W53" s="165"/>
+      <c r="X53" s="165"/>
+      <c r="Y53" s="165"/>
+      <c r="Z53" s="165"/>
+      <c r="AA53" s="165"/>
+      <c r="AB53" s="165"/>
+      <c r="AC53" s="165"/>
+      <c r="AD53" s="165"/>
+      <c r="AE53" s="165"/>
+      <c r="AF53" s="165"/>
+      <c r="AG53" s="165"/>
+      <c r="AH53" s="165"/>
+      <c r="AI53" s="165"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A1:AI7"/>
+    <mergeCell ref="AJ1:AJ7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="M8:AI8"/>
     <mergeCell ref="M9:W9"/>
     <mergeCell ref="X9:AI9"/>
     <mergeCell ref="AK9:AK10"/>
@@ -29300,11 +29302,6 @@
     <mergeCell ref="D9:D10"/>
     <mergeCell ref="E9:E10"/>
     <mergeCell ref="F9:F10"/>
-    <mergeCell ref="A1:AI7"/>
-    <mergeCell ref="AJ1:AJ7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="M8:AI8"/>
   </mergeCells>
   <conditionalFormatting sqref="M11:AI52 E12:K51">
     <cfRule type="containsBlanks" dxfId="6" priority="3">
@@ -29372,74 +29369,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="24.6" customHeight="1">
-      <c r="A1" s="163"/>
-      <c r="B1" s="163"/>
-      <c r="C1" s="163"/>
-      <c r="D1" s="163"/>
-      <c r="E1" s="163"/>
-      <c r="F1" s="163"/>
-      <c r="G1" s="163"/>
-      <c r="H1" s="163"/>
+      <c r="A1" s="165"/>
+      <c r="B1" s="165"/>
+      <c r="C1" s="165"/>
+      <c r="D1" s="165"/>
+      <c r="E1" s="165"/>
+      <c r="F1" s="165"/>
+      <c r="G1" s="165"/>
+      <c r="H1" s="165"/>
     </row>
     <row r="2" spans="1:8" ht="25.2" customHeight="1">
-      <c r="A2" s="163"/>
-      <c r="B2" s="163"/>
-      <c r="C2" s="163"/>
-      <c r="D2" s="163"/>
-      <c r="E2" s="163"/>
-      <c r="F2" s="163"/>
-      <c r="G2" s="163"/>
-      <c r="H2" s="163"/>
+      <c r="A2" s="165"/>
+      <c r="B2" s="165"/>
+      <c r="C2" s="165"/>
+      <c r="D2" s="165"/>
+      <c r="E2" s="165"/>
+      <c r="F2" s="165"/>
+      <c r="G2" s="165"/>
+      <c r="H2" s="165"/>
     </row>
     <row r="3" spans="1:8" ht="25.2" customHeight="1">
-      <c r="A3" s="163"/>
-      <c r="B3" s="163"/>
-      <c r="C3" s="163"/>
-      <c r="D3" s="163"/>
-      <c r="E3" s="163"/>
-      <c r="F3" s="163"/>
-      <c r="G3" s="163"/>
-      <c r="H3" s="163"/>
+      <c r="A3" s="165"/>
+      <c r="B3" s="165"/>
+      <c r="C3" s="165"/>
+      <c r="D3" s="165"/>
+      <c r="E3" s="165"/>
+      <c r="F3" s="165"/>
+      <c r="G3" s="165"/>
+      <c r="H3" s="165"/>
     </row>
     <row r="4" spans="1:8" ht="25.2" customHeight="1">
-      <c r="A4" s="163"/>
-      <c r="B4" s="163"/>
-      <c r="C4" s="163"/>
-      <c r="D4" s="163"/>
-      <c r="E4" s="163"/>
-      <c r="F4" s="163"/>
-      <c r="G4" s="163"/>
-      <c r="H4" s="163"/>
+      <c r="A4" s="165"/>
+      <c r="B4" s="165"/>
+      <c r="C4" s="165"/>
+      <c r="D4" s="165"/>
+      <c r="E4" s="165"/>
+      <c r="F4" s="165"/>
+      <c r="G4" s="165"/>
+      <c r="H4" s="165"/>
     </row>
     <row r="5" spans="1:8" ht="25.2" customHeight="1">
-      <c r="A5" s="163"/>
-      <c r="B5" s="163"/>
-      <c r="C5" s="163"/>
-      <c r="D5" s="163"/>
-      <c r="E5" s="163"/>
-      <c r="F5" s="163"/>
-      <c r="G5" s="163"/>
-      <c r="H5" s="163"/>
+      <c r="A5" s="165"/>
+      <c r="B5" s="165"/>
+      <c r="C5" s="165"/>
+      <c r="D5" s="165"/>
+      <c r="E5" s="165"/>
+      <c r="F5" s="165"/>
+      <c r="G5" s="165"/>
+      <c r="H5" s="165"/>
     </row>
     <row r="6" spans="1:8" ht="24.6" customHeight="1">
-      <c r="A6" s="163"/>
-      <c r="B6" s="163"/>
-      <c r="C6" s="163"/>
-      <c r="D6" s="163"/>
-      <c r="E6" s="163"/>
-      <c r="F6" s="163"/>
-      <c r="G6" s="163"/>
-      <c r="H6" s="163"/>
+      <c r="A6" s="165"/>
+      <c r="B6" s="165"/>
+      <c r="C6" s="165"/>
+      <c r="D6" s="165"/>
+      <c r="E6" s="165"/>
+      <c r="F6" s="165"/>
+      <c r="G6" s="165"/>
+      <c r="H6" s="165"/>
     </row>
     <row r="7" spans="1:8" ht="25.2" customHeight="1" thickBot="1">
-      <c r="A7" s="163"/>
-      <c r="B7" s="163"/>
-      <c r="C7" s="163"/>
-      <c r="D7" s="163"/>
-      <c r="E7" s="163"/>
-      <c r="F7" s="163"/>
-      <c r="G7" s="163"/>
-      <c r="H7" s="163"/>
+      <c r="A7" s="165"/>
+      <c r="B7" s="165"/>
+      <c r="C7" s="165"/>
+      <c r="D7" s="165"/>
+      <c r="E7" s="165"/>
+      <c r="F7" s="165"/>
+      <c r="G7" s="165"/>
+      <c r="H7" s="165"/>
     </row>
     <row r="8" spans="1:8" ht="60" customHeight="1" thickBot="1">
       <c r="A8" s="3"/>
@@ -29792,74 +29789,74 @@
       <c r="H34" s="43"/>
     </row>
     <row r="35" spans="1:8" ht="24.6" customHeight="1">
-      <c r="A35" s="163"/>
-      <c r="B35" s="163"/>
-      <c r="C35" s="163"/>
-      <c r="D35" s="163"/>
-      <c r="E35" s="163"/>
-      <c r="F35" s="163"/>
-      <c r="G35" s="163"/>
-      <c r="H35" s="163"/>
+      <c r="A35" s="165"/>
+      <c r="B35" s="165"/>
+      <c r="C35" s="165"/>
+      <c r="D35" s="165"/>
+      <c r="E35" s="165"/>
+      <c r="F35" s="165"/>
+      <c r="G35" s="165"/>
+      <c r="H35" s="165"/>
     </row>
     <row r="36" spans="1:8" ht="25.2" customHeight="1">
-      <c r="A36" s="163"/>
-      <c r="B36" s="163"/>
-      <c r="C36" s="163"/>
-      <c r="D36" s="163"/>
-      <c r="E36" s="163"/>
-      <c r="F36" s="163"/>
-      <c r="G36" s="163"/>
-      <c r="H36" s="163"/>
+      <c r="A36" s="165"/>
+      <c r="B36" s="165"/>
+      <c r="C36" s="165"/>
+      <c r="D36" s="165"/>
+      <c r="E36" s="165"/>
+      <c r="F36" s="165"/>
+      <c r="G36" s="165"/>
+      <c r="H36" s="165"/>
     </row>
     <row r="37" spans="1:8" ht="25.2" customHeight="1">
-      <c r="A37" s="163"/>
-      <c r="B37" s="163"/>
-      <c r="C37" s="163"/>
-      <c r="D37" s="163"/>
-      <c r="E37" s="163"/>
-      <c r="F37" s="163"/>
-      <c r="G37" s="163"/>
-      <c r="H37" s="163"/>
+      <c r="A37" s="165"/>
+      <c r="B37" s="165"/>
+      <c r="C37" s="165"/>
+      <c r="D37" s="165"/>
+      <c r="E37" s="165"/>
+      <c r="F37" s="165"/>
+      <c r="G37" s="165"/>
+      <c r="H37" s="165"/>
     </row>
     <row r="38" spans="1:8" ht="25.2" customHeight="1">
-      <c r="A38" s="163"/>
-      <c r="B38" s="163"/>
-      <c r="C38" s="163"/>
-      <c r="D38" s="163"/>
-      <c r="E38" s="163"/>
-      <c r="F38" s="163"/>
-      <c r="G38" s="163"/>
-      <c r="H38" s="163"/>
+      <c r="A38" s="165"/>
+      <c r="B38" s="165"/>
+      <c r="C38" s="165"/>
+      <c r="D38" s="165"/>
+      <c r="E38" s="165"/>
+      <c r="F38" s="165"/>
+      <c r="G38" s="165"/>
+      <c r="H38" s="165"/>
     </row>
     <row r="39" spans="1:8" ht="25.2" customHeight="1">
-      <c r="A39" s="163"/>
-      <c r="B39" s="163"/>
-      <c r="C39" s="163"/>
-      <c r="D39" s="163"/>
-      <c r="E39" s="163"/>
-      <c r="F39" s="163"/>
-      <c r="G39" s="163"/>
-      <c r="H39" s="163"/>
+      <c r="A39" s="165"/>
+      <c r="B39" s="165"/>
+      <c r="C39" s="165"/>
+      <c r="D39" s="165"/>
+      <c r="E39" s="165"/>
+      <c r="F39" s="165"/>
+      <c r="G39" s="165"/>
+      <c r="H39" s="165"/>
     </row>
     <row r="40" spans="1:8" ht="24.6" customHeight="1">
-      <c r="A40" s="163"/>
-      <c r="B40" s="163"/>
-      <c r="C40" s="163"/>
-      <c r="D40" s="163"/>
-      <c r="E40" s="163"/>
-      <c r="F40" s="163"/>
-      <c r="G40" s="163"/>
-      <c r="H40" s="163"/>
+      <c r="A40" s="165"/>
+      <c r="B40" s="165"/>
+      <c r="C40" s="165"/>
+      <c r="D40" s="165"/>
+      <c r="E40" s="165"/>
+      <c r="F40" s="165"/>
+      <c r="G40" s="165"/>
+      <c r="H40" s="165"/>
     </row>
     <row r="41" spans="1:8" ht="25.2" customHeight="1" thickBot="1">
-      <c r="A41" s="163"/>
-      <c r="B41" s="163"/>
-      <c r="C41" s="163"/>
-      <c r="D41" s="163"/>
-      <c r="E41" s="163"/>
-      <c r="F41" s="163"/>
-      <c r="G41" s="163"/>
-      <c r="H41" s="163"/>
+      <c r="A41" s="165"/>
+      <c r="B41" s="165"/>
+      <c r="C41" s="165"/>
+      <c r="D41" s="165"/>
+      <c r="E41" s="165"/>
+      <c r="F41" s="165"/>
+      <c r="G41" s="165"/>
+      <c r="H41" s="165"/>
     </row>
     <row r="42" spans="1:8" ht="60" customHeight="1" thickBot="1">
       <c r="A42" s="3"/>
@@ -30213,74 +30210,74 @@
       <c r="H68" s="43"/>
     </row>
     <row r="69" spans="1:8" ht="24.6" customHeight="1">
-      <c r="A69" s="163"/>
-      <c r="B69" s="163"/>
-      <c r="C69" s="163"/>
-      <c r="D69" s="163"/>
-      <c r="E69" s="163"/>
-      <c r="F69" s="163"/>
-      <c r="G69" s="163"/>
-      <c r="H69" s="163"/>
+      <c r="A69" s="165"/>
+      <c r="B69" s="165"/>
+      <c r="C69" s="165"/>
+      <c r="D69" s="165"/>
+      <c r="E69" s="165"/>
+      <c r="F69" s="165"/>
+      <c r="G69" s="165"/>
+      <c r="H69" s="165"/>
     </row>
     <row r="70" spans="1:8" ht="25.2" customHeight="1">
-      <c r="A70" s="163"/>
-      <c r="B70" s="163"/>
-      <c r="C70" s="163"/>
-      <c r="D70" s="163"/>
-      <c r="E70" s="163"/>
-      <c r="F70" s="163"/>
-      <c r="G70" s="163"/>
-      <c r="H70" s="163"/>
+      <c r="A70" s="165"/>
+      <c r="B70" s="165"/>
+      <c r="C70" s="165"/>
+      <c r="D70" s="165"/>
+      <c r="E70" s="165"/>
+      <c r="F70" s="165"/>
+      <c r="G70" s="165"/>
+      <c r="H70" s="165"/>
     </row>
     <row r="71" spans="1:8" ht="25.2" customHeight="1">
-      <c r="A71" s="163"/>
-      <c r="B71" s="163"/>
-      <c r="C71" s="163"/>
-      <c r="D71" s="163"/>
-      <c r="E71" s="163"/>
-      <c r="F71" s="163"/>
-      <c r="G71" s="163"/>
-      <c r="H71" s="163"/>
+      <c r="A71" s="165"/>
+      <c r="B71" s="165"/>
+      <c r="C71" s="165"/>
+      <c r="D71" s="165"/>
+      <c r="E71" s="165"/>
+      <c r="F71" s="165"/>
+      <c r="G71" s="165"/>
+      <c r="H71" s="165"/>
     </row>
     <row r="72" spans="1:8" ht="25.2" customHeight="1">
-      <c r="A72" s="163"/>
-      <c r="B72" s="163"/>
-      <c r="C72" s="163"/>
-      <c r="D72" s="163"/>
-      <c r="E72" s="163"/>
-      <c r="F72" s="163"/>
-      <c r="G72" s="163"/>
-      <c r="H72" s="163"/>
+      <c r="A72" s="165"/>
+      <c r="B72" s="165"/>
+      <c r="C72" s="165"/>
+      <c r="D72" s="165"/>
+      <c r="E72" s="165"/>
+      <c r="F72" s="165"/>
+      <c r="G72" s="165"/>
+      <c r="H72" s="165"/>
     </row>
     <row r="73" spans="1:8" ht="25.2" customHeight="1">
-      <c r="A73" s="163"/>
-      <c r="B73" s="163"/>
-      <c r="C73" s="163"/>
-      <c r="D73" s="163"/>
-      <c r="E73" s="163"/>
-      <c r="F73" s="163"/>
-      <c r="G73" s="163"/>
-      <c r="H73" s="163"/>
+      <c r="A73" s="165"/>
+      <c r="B73" s="165"/>
+      <c r="C73" s="165"/>
+      <c r="D73" s="165"/>
+      <c r="E73" s="165"/>
+      <c r="F73" s="165"/>
+      <c r="G73" s="165"/>
+      <c r="H73" s="165"/>
     </row>
     <row r="74" spans="1:8" ht="24.6" customHeight="1">
-      <c r="A74" s="163"/>
-      <c r="B74" s="163"/>
-      <c r="C74" s="163"/>
-      <c r="D74" s="163"/>
-      <c r="E74" s="163"/>
-      <c r="F74" s="163"/>
-      <c r="G74" s="163"/>
-      <c r="H74" s="163"/>
+      <c r="A74" s="165"/>
+      <c r="B74" s="165"/>
+      <c r="C74" s="165"/>
+      <c r="D74" s="165"/>
+      <c r="E74" s="165"/>
+      <c r="F74" s="165"/>
+      <c r="G74" s="165"/>
+      <c r="H74" s="165"/>
     </row>
     <row r="75" spans="1:8" ht="25.2" customHeight="1" thickBot="1">
-      <c r="A75" s="163"/>
-      <c r="B75" s="163"/>
-      <c r="C75" s="163"/>
-      <c r="D75" s="163"/>
-      <c r="E75" s="163"/>
-      <c r="F75" s="163"/>
-      <c r="G75" s="163"/>
-      <c r="H75" s="163"/>
+      <c r="A75" s="165"/>
+      <c r="B75" s="165"/>
+      <c r="C75" s="165"/>
+      <c r="D75" s="165"/>
+      <c r="E75" s="165"/>
+      <c r="F75" s="165"/>
+      <c r="G75" s="165"/>
+      <c r="H75" s="165"/>
     </row>
     <row r="76" spans="1:8" ht="55.2" customHeight="1" thickBot="1">
       <c r="A76" s="3"/>
@@ -30634,74 +30631,74 @@
       <c r="H102" s="43"/>
     </row>
     <row r="103" spans="1:8" ht="24.6" customHeight="1">
-      <c r="A103" s="163"/>
-      <c r="B103" s="163"/>
-      <c r="C103" s="163"/>
-      <c r="D103" s="163"/>
-      <c r="E103" s="163"/>
-      <c r="F103" s="163"/>
-      <c r="G103" s="163"/>
-      <c r="H103" s="163"/>
+      <c r="A103" s="165"/>
+      <c r="B103" s="165"/>
+      <c r="C103" s="165"/>
+      <c r="D103" s="165"/>
+      <c r="E103" s="165"/>
+      <c r="F103" s="165"/>
+      <c r="G103" s="165"/>
+      <c r="H103" s="165"/>
     </row>
     <row r="104" spans="1:8" ht="25.2" customHeight="1">
-      <c r="A104" s="163"/>
-      <c r="B104" s="163"/>
-      <c r="C104" s="163"/>
-      <c r="D104" s="163"/>
-      <c r="E104" s="163"/>
-      <c r="F104" s="163"/>
-      <c r="G104" s="163"/>
-      <c r="H104" s="163"/>
+      <c r="A104" s="165"/>
+      <c r="B104" s="165"/>
+      <c r="C104" s="165"/>
+      <c r="D104" s="165"/>
+      <c r="E104" s="165"/>
+      <c r="F104" s="165"/>
+      <c r="G104" s="165"/>
+      <c r="H104" s="165"/>
     </row>
     <row r="105" spans="1:8" ht="25.2" customHeight="1">
-      <c r="A105" s="163"/>
-      <c r="B105" s="163"/>
-      <c r="C105" s="163"/>
-      <c r="D105" s="163"/>
-      <c r="E105" s="163"/>
-      <c r="F105" s="163"/>
-      <c r="G105" s="163"/>
-      <c r="H105" s="163"/>
+      <c r="A105" s="165"/>
+      <c r="B105" s="165"/>
+      <c r="C105" s="165"/>
+      <c r="D105" s="165"/>
+      <c r="E105" s="165"/>
+      <c r="F105" s="165"/>
+      <c r="G105" s="165"/>
+      <c r="H105" s="165"/>
     </row>
     <row r="106" spans="1:8" ht="25.2" customHeight="1">
-      <c r="A106" s="163"/>
-      <c r="B106" s="163"/>
-      <c r="C106" s="163"/>
-      <c r="D106" s="163"/>
-      <c r="E106" s="163"/>
-      <c r="F106" s="163"/>
-      <c r="G106" s="163"/>
-      <c r="H106" s="163"/>
+      <c r="A106" s="165"/>
+      <c r="B106" s="165"/>
+      <c r="C106" s="165"/>
+      <c r="D106" s="165"/>
+      <c r="E106" s="165"/>
+      <c r="F106" s="165"/>
+      <c r="G106" s="165"/>
+      <c r="H106" s="165"/>
     </row>
     <row r="107" spans="1:8" ht="25.2" customHeight="1">
-      <c r="A107" s="163"/>
-      <c r="B107" s="163"/>
-      <c r="C107" s="163"/>
-      <c r="D107" s="163"/>
-      <c r="E107" s="163"/>
-      <c r="F107" s="163"/>
-      <c r="G107" s="163"/>
-      <c r="H107" s="163"/>
+      <c r="A107" s="165"/>
+      <c r="B107" s="165"/>
+      <c r="C107" s="165"/>
+      <c r="D107" s="165"/>
+      <c r="E107" s="165"/>
+      <c r="F107" s="165"/>
+      <c r="G107" s="165"/>
+      <c r="H107" s="165"/>
     </row>
     <row r="108" spans="1:8" ht="24.6" customHeight="1">
-      <c r="A108" s="163"/>
-      <c r="B108" s="163"/>
-      <c r="C108" s="163"/>
-      <c r="D108" s="163"/>
-      <c r="E108" s="163"/>
-      <c r="F108" s="163"/>
-      <c r="G108" s="163"/>
-      <c r="H108" s="163"/>
+      <c r="A108" s="165"/>
+      <c r="B108" s="165"/>
+      <c r="C108" s="165"/>
+      <c r="D108" s="165"/>
+      <c r="E108" s="165"/>
+      <c r="F108" s="165"/>
+      <c r="G108" s="165"/>
+      <c r="H108" s="165"/>
     </row>
     <row r="109" spans="1:8" ht="25.2" customHeight="1" thickBot="1">
-      <c r="A109" s="163"/>
-      <c r="B109" s="163"/>
-      <c r="C109" s="163"/>
-      <c r="D109" s="163"/>
-      <c r="E109" s="163"/>
-      <c r="F109" s="163"/>
-      <c r="G109" s="163"/>
-      <c r="H109" s="163"/>
+      <c r="A109" s="165"/>
+      <c r="B109" s="165"/>
+      <c r="C109" s="165"/>
+      <c r="D109" s="165"/>
+      <c r="E109" s="165"/>
+      <c r="F109" s="165"/>
+      <c r="G109" s="165"/>
+      <c r="H109" s="165"/>
     </row>
     <row r="110" spans="1:8" ht="55.2" customHeight="1" thickBot="1">
       <c r="A110" s="3"/>
@@ -31055,74 +31052,74 @@
       <c r="H136" s="43"/>
     </row>
     <row r="137" spans="1:8" ht="24.6" customHeight="1">
-      <c r="A137" s="163"/>
-      <c r="B137" s="163"/>
-      <c r="C137" s="163"/>
-      <c r="D137" s="163"/>
-      <c r="E137" s="163"/>
-      <c r="F137" s="163"/>
-      <c r="G137" s="163"/>
-      <c r="H137" s="163"/>
+      <c r="A137" s="165"/>
+      <c r="B137" s="165"/>
+      <c r="C137" s="165"/>
+      <c r="D137" s="165"/>
+      <c r="E137" s="165"/>
+      <c r="F137" s="165"/>
+      <c r="G137" s="165"/>
+      <c r="H137" s="165"/>
     </row>
     <row r="138" spans="1:8" ht="25.2" customHeight="1">
-      <c r="A138" s="163"/>
-      <c r="B138" s="163"/>
-      <c r="C138" s="163"/>
-      <c r="D138" s="163"/>
-      <c r="E138" s="163"/>
-      <c r="F138" s="163"/>
-      <c r="G138" s="163"/>
-      <c r="H138" s="163"/>
+      <c r="A138" s="165"/>
+      <c r="B138" s="165"/>
+      <c r="C138" s="165"/>
+      <c r="D138" s="165"/>
+      <c r="E138" s="165"/>
+      <c r="F138" s="165"/>
+      <c r="G138" s="165"/>
+      <c r="H138" s="165"/>
     </row>
     <row r="139" spans="1:8" ht="25.2" customHeight="1">
-      <c r="A139" s="163"/>
-      <c r="B139" s="163"/>
-      <c r="C139" s="163"/>
-      <c r="D139" s="163"/>
-      <c r="E139" s="163"/>
-      <c r="F139" s="163"/>
-      <c r="G139" s="163"/>
-      <c r="H139" s="163"/>
+      <c r="A139" s="165"/>
+      <c r="B139" s="165"/>
+      <c r="C139" s="165"/>
+      <c r="D139" s="165"/>
+      <c r="E139" s="165"/>
+      <c r="F139" s="165"/>
+      <c r="G139" s="165"/>
+      <c r="H139" s="165"/>
     </row>
     <row r="140" spans="1:8" ht="25.2" customHeight="1">
-      <c r="A140" s="163"/>
-      <c r="B140" s="163"/>
-      <c r="C140" s="163"/>
-      <c r="D140" s="163"/>
-      <c r="E140" s="163"/>
-      <c r="F140" s="163"/>
-      <c r="G140" s="163"/>
-      <c r="H140" s="163"/>
+      <c r="A140" s="165"/>
+      <c r="B140" s="165"/>
+      <c r="C140" s="165"/>
+      <c r="D140" s="165"/>
+      <c r="E140" s="165"/>
+      <c r="F140" s="165"/>
+      <c r="G140" s="165"/>
+      <c r="H140" s="165"/>
     </row>
     <row r="141" spans="1:8" ht="25.2" customHeight="1">
-      <c r="A141" s="163"/>
-      <c r="B141" s="163"/>
-      <c r="C141" s="163"/>
-      <c r="D141" s="163"/>
-      <c r="E141" s="163"/>
-      <c r="F141" s="163"/>
-      <c r="G141" s="163"/>
-      <c r="H141" s="163"/>
+      <c r="A141" s="165"/>
+      <c r="B141" s="165"/>
+      <c r="C141" s="165"/>
+      <c r="D141" s="165"/>
+      <c r="E141" s="165"/>
+      <c r="F141" s="165"/>
+      <c r="G141" s="165"/>
+      <c r="H141" s="165"/>
     </row>
     <row r="142" spans="1:8" ht="24.6" customHeight="1">
-      <c r="A142" s="163"/>
-      <c r="B142" s="163"/>
-      <c r="C142" s="163"/>
-      <c r="D142" s="163"/>
-      <c r="E142" s="163"/>
-      <c r="F142" s="163"/>
-      <c r="G142" s="163"/>
-      <c r="H142" s="163"/>
+      <c r="A142" s="165"/>
+      <c r="B142" s="165"/>
+      <c r="C142" s="165"/>
+      <c r="D142" s="165"/>
+      <c r="E142" s="165"/>
+      <c r="F142" s="165"/>
+      <c r="G142" s="165"/>
+      <c r="H142" s="165"/>
     </row>
     <row r="143" spans="1:8" ht="25.2" customHeight="1" thickBot="1">
-      <c r="A143" s="163"/>
-      <c r="B143" s="163"/>
-      <c r="C143" s="163"/>
-      <c r="D143" s="163"/>
-      <c r="E143" s="163"/>
-      <c r="F143" s="163"/>
-      <c r="G143" s="163"/>
-      <c r="H143" s="163"/>
+      <c r="A143" s="165"/>
+      <c r="B143" s="165"/>
+      <c r="C143" s="165"/>
+      <c r="D143" s="165"/>
+      <c r="E143" s="165"/>
+      <c r="F143" s="165"/>
+      <c r="G143" s="165"/>
+      <c r="H143" s="165"/>
     </row>
     <row r="144" spans="1:8" ht="55.2" customHeight="1" thickBot="1">
       <c r="A144" s="3"/>
@@ -31703,6 +31700,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B144:C144"/>
+    <mergeCell ref="D144:H144"/>
+    <mergeCell ref="A103:H109"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="D76:H76"/>
+    <mergeCell ref="A137:H143"/>
     <mergeCell ref="A1:H7"/>
     <mergeCell ref="B42:C42"/>
     <mergeCell ref="D42:H42"/>
@@ -31712,12 +31715,6 @@
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="D8:H8"/>
     <mergeCell ref="A69:H75"/>
-    <mergeCell ref="B144:C144"/>
-    <mergeCell ref="D144:H144"/>
-    <mergeCell ref="A103:H109"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="D76:H76"/>
-    <mergeCell ref="A137:H143"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -31757,74 +31754,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="24.6" customHeight="1">
-      <c r="A1" s="163"/>
-      <c r="B1" s="163"/>
-      <c r="C1" s="163"/>
-      <c r="D1" s="163"/>
-      <c r="E1" s="163"/>
-      <c r="F1" s="163"/>
-      <c r="G1" s="163"/>
-      <c r="H1" s="163"/>
+      <c r="A1" s="165"/>
+      <c r="B1" s="165"/>
+      <c r="C1" s="165"/>
+      <c r="D1" s="165"/>
+      <c r="E1" s="165"/>
+      <c r="F1" s="165"/>
+      <c r="G1" s="165"/>
+      <c r="H1" s="165"/>
     </row>
     <row r="2" spans="1:8" ht="25.2" customHeight="1">
-      <c r="A2" s="163"/>
-      <c r="B2" s="163"/>
-      <c r="C2" s="163"/>
-      <c r="D2" s="163"/>
-      <c r="E2" s="163"/>
-      <c r="F2" s="163"/>
-      <c r="G2" s="163"/>
-      <c r="H2" s="163"/>
+      <c r="A2" s="165"/>
+      <c r="B2" s="165"/>
+      <c r="C2" s="165"/>
+      <c r="D2" s="165"/>
+      <c r="E2" s="165"/>
+      <c r="F2" s="165"/>
+      <c r="G2" s="165"/>
+      <c r="H2" s="165"/>
     </row>
     <row r="3" spans="1:8" ht="25.2" customHeight="1">
-      <c r="A3" s="163"/>
-      <c r="B3" s="163"/>
-      <c r="C3" s="163"/>
-      <c r="D3" s="163"/>
-      <c r="E3" s="163"/>
-      <c r="F3" s="163"/>
-      <c r="G3" s="163"/>
-      <c r="H3" s="163"/>
+      <c r="A3" s="165"/>
+      <c r="B3" s="165"/>
+      <c r="C3" s="165"/>
+      <c r="D3" s="165"/>
+      <c r="E3" s="165"/>
+      <c r="F3" s="165"/>
+      <c r="G3" s="165"/>
+      <c r="H3" s="165"/>
     </row>
     <row r="4" spans="1:8" ht="25.2" customHeight="1">
-      <c r="A4" s="163"/>
-      <c r="B4" s="163"/>
-      <c r="C4" s="163"/>
-      <c r="D4" s="163"/>
-      <c r="E4" s="163"/>
-      <c r="F4" s="163"/>
-      <c r="G4" s="163"/>
-      <c r="H4" s="163"/>
+      <c r="A4" s="165"/>
+      <c r="B4" s="165"/>
+      <c r="C4" s="165"/>
+      <c r="D4" s="165"/>
+      <c r="E4" s="165"/>
+      <c r="F4" s="165"/>
+      <c r="G4" s="165"/>
+      <c r="H4" s="165"/>
     </row>
     <row r="5" spans="1:8" ht="25.2" customHeight="1">
-      <c r="A5" s="163"/>
-      <c r="B5" s="163"/>
-      <c r="C5" s="163"/>
-      <c r="D5" s="163"/>
-      <c r="E5" s="163"/>
-      <c r="F5" s="163"/>
-      <c r="G5" s="163"/>
-      <c r="H5" s="163"/>
+      <c r="A5" s="165"/>
+      <c r="B5" s="165"/>
+      <c r="C5" s="165"/>
+      <c r="D5" s="165"/>
+      <c r="E5" s="165"/>
+      <c r="F5" s="165"/>
+      <c r="G5" s="165"/>
+      <c r="H5" s="165"/>
     </row>
     <row r="6" spans="1:8" ht="24.6" customHeight="1">
-      <c r="A6" s="163"/>
-      <c r="B6" s="163"/>
-      <c r="C6" s="163"/>
-      <c r="D6" s="163"/>
-      <c r="E6" s="163"/>
-      <c r="F6" s="163"/>
-      <c r="G6" s="163"/>
-      <c r="H6" s="163"/>
+      <c r="A6" s="165"/>
+      <c r="B6" s="165"/>
+      <c r="C6" s="165"/>
+      <c r="D6" s="165"/>
+      <c r="E6" s="165"/>
+      <c r="F6" s="165"/>
+      <c r="G6" s="165"/>
+      <c r="H6" s="165"/>
     </row>
     <row r="7" spans="1:8" ht="25.2" customHeight="1" thickBot="1">
-      <c r="A7" s="163"/>
-      <c r="B7" s="163"/>
-      <c r="C7" s="163"/>
-      <c r="D7" s="163"/>
-      <c r="E7" s="163"/>
-      <c r="F7" s="163"/>
-      <c r="G7" s="163"/>
-      <c r="H7" s="163"/>
+      <c r="A7" s="165"/>
+      <c r="B7" s="165"/>
+      <c r="C7" s="165"/>
+      <c r="D7" s="165"/>
+      <c r="E7" s="165"/>
+      <c r="F7" s="165"/>
+      <c r="G7" s="165"/>
+      <c r="H7" s="165"/>
     </row>
     <row r="8" spans="1:8" ht="60" customHeight="1" thickBot="1">
       <c r="A8" s="3"/>
@@ -32177,74 +32174,74 @@
       <c r="H34" s="43"/>
     </row>
     <row r="35" spans="1:8" ht="24.6" customHeight="1">
-      <c r="A35" s="163"/>
-      <c r="B35" s="163"/>
-      <c r="C35" s="163"/>
-      <c r="D35" s="163"/>
-      <c r="E35" s="163"/>
-      <c r="F35" s="163"/>
-      <c r="G35" s="163"/>
-      <c r="H35" s="163"/>
+      <c r="A35" s="165"/>
+      <c r="B35" s="165"/>
+      <c r="C35" s="165"/>
+      <c r="D35" s="165"/>
+      <c r="E35" s="165"/>
+      <c r="F35" s="165"/>
+      <c r="G35" s="165"/>
+      <c r="H35" s="165"/>
     </row>
     <row r="36" spans="1:8" ht="25.2" customHeight="1">
-      <c r="A36" s="163"/>
-      <c r="B36" s="163"/>
-      <c r="C36" s="163"/>
-      <c r="D36" s="163"/>
-      <c r="E36" s="163"/>
-      <c r="F36" s="163"/>
-      <c r="G36" s="163"/>
-      <c r="H36" s="163"/>
+      <c r="A36" s="165"/>
+      <c r="B36" s="165"/>
+      <c r="C36" s="165"/>
+      <c r="D36" s="165"/>
+      <c r="E36" s="165"/>
+      <c r="F36" s="165"/>
+      <c r="G36" s="165"/>
+      <c r="H36" s="165"/>
     </row>
     <row r="37" spans="1:8" ht="25.2" customHeight="1">
-      <c r="A37" s="163"/>
-      <c r="B37" s="163"/>
-      <c r="C37" s="163"/>
-      <c r="D37" s="163"/>
-      <c r="E37" s="163"/>
-      <c r="F37" s="163"/>
-      <c r="G37" s="163"/>
-      <c r="H37" s="163"/>
+      <c r="A37" s="165"/>
+      <c r="B37" s="165"/>
+      <c r="C37" s="165"/>
+      <c r="D37" s="165"/>
+      <c r="E37" s="165"/>
+      <c r="F37" s="165"/>
+      <c r="G37" s="165"/>
+      <c r="H37" s="165"/>
     </row>
     <row r="38" spans="1:8" ht="25.2" customHeight="1">
-      <c r="A38" s="163"/>
-      <c r="B38" s="163"/>
-      <c r="C38" s="163"/>
-      <c r="D38" s="163"/>
-      <c r="E38" s="163"/>
-      <c r="F38" s="163"/>
-      <c r="G38" s="163"/>
-      <c r="H38" s="163"/>
+      <c r="A38" s="165"/>
+      <c r="B38" s="165"/>
+      <c r="C38" s="165"/>
+      <c r="D38" s="165"/>
+      <c r="E38" s="165"/>
+      <c r="F38" s="165"/>
+      <c r="G38" s="165"/>
+      <c r="H38" s="165"/>
     </row>
     <row r="39" spans="1:8" ht="25.2" customHeight="1">
-      <c r="A39" s="163"/>
-      <c r="B39" s="163"/>
-      <c r="C39" s="163"/>
-      <c r="D39" s="163"/>
-      <c r="E39" s="163"/>
-      <c r="F39" s="163"/>
-      <c r="G39" s="163"/>
-      <c r="H39" s="163"/>
+      <c r="A39" s="165"/>
+      <c r="B39" s="165"/>
+      <c r="C39" s="165"/>
+      <c r="D39" s="165"/>
+      <c r="E39" s="165"/>
+      <c r="F39" s="165"/>
+      <c r="G39" s="165"/>
+      <c r="H39" s="165"/>
     </row>
     <row r="40" spans="1:8" ht="24.6" customHeight="1">
-      <c r="A40" s="163"/>
-      <c r="B40" s="163"/>
-      <c r="C40" s="163"/>
-      <c r="D40" s="163"/>
-      <c r="E40" s="163"/>
-      <c r="F40" s="163"/>
-      <c r="G40" s="163"/>
-      <c r="H40" s="163"/>
+      <c r="A40" s="165"/>
+      <c r="B40" s="165"/>
+      <c r="C40" s="165"/>
+      <c r="D40" s="165"/>
+      <c r="E40" s="165"/>
+      <c r="F40" s="165"/>
+      <c r="G40" s="165"/>
+      <c r="H40" s="165"/>
     </row>
     <row r="41" spans="1:8" ht="25.2" customHeight="1" thickBot="1">
-      <c r="A41" s="163"/>
-      <c r="B41" s="163"/>
-      <c r="C41" s="163"/>
-      <c r="D41" s="163"/>
-      <c r="E41" s="163"/>
-      <c r="F41" s="163"/>
-      <c r="G41" s="163"/>
-      <c r="H41" s="163"/>
+      <c r="A41" s="165"/>
+      <c r="B41" s="165"/>
+      <c r="C41" s="165"/>
+      <c r="D41" s="165"/>
+      <c r="E41" s="165"/>
+      <c r="F41" s="165"/>
+      <c r="G41" s="165"/>
+      <c r="H41" s="165"/>
     </row>
     <row r="42" spans="1:8" ht="60" customHeight="1" thickBot="1">
       <c r="A42" s="3"/>
@@ -32598,74 +32595,74 @@
       <c r="H68" s="43"/>
     </row>
     <row r="69" spans="1:8" ht="24.6" customHeight="1">
-      <c r="A69" s="163"/>
-      <c r="B69" s="163"/>
-      <c r="C69" s="163"/>
-      <c r="D69" s="163"/>
-      <c r="E69" s="163"/>
-      <c r="F69" s="163"/>
-      <c r="G69" s="163"/>
-      <c r="H69" s="163"/>
+      <c r="A69" s="165"/>
+      <c r="B69" s="165"/>
+      <c r="C69" s="165"/>
+      <c r="D69" s="165"/>
+      <c r="E69" s="165"/>
+      <c r="F69" s="165"/>
+      <c r="G69" s="165"/>
+      <c r="H69" s="165"/>
     </row>
     <row r="70" spans="1:8" ht="25.2" customHeight="1">
-      <c r="A70" s="163"/>
-      <c r="B70" s="163"/>
-      <c r="C70" s="163"/>
-      <c r="D70" s="163"/>
-      <c r="E70" s="163"/>
-      <c r="F70" s="163"/>
-      <c r="G70" s="163"/>
-      <c r="H70" s="163"/>
+      <c r="A70" s="165"/>
+      <c r="B70" s="165"/>
+      <c r="C70" s="165"/>
+      <c r="D70" s="165"/>
+      <c r="E70" s="165"/>
+      <c r="F70" s="165"/>
+      <c r="G70" s="165"/>
+      <c r="H70" s="165"/>
     </row>
     <row r="71" spans="1:8" ht="25.2" customHeight="1">
-      <c r="A71" s="163"/>
-      <c r="B71" s="163"/>
-      <c r="C71" s="163"/>
-      <c r="D71" s="163"/>
-      <c r="E71" s="163"/>
-      <c r="F71" s="163"/>
-      <c r="G71" s="163"/>
-      <c r="H71" s="163"/>
+      <c r="A71" s="165"/>
+      <c r="B71" s="165"/>
+      <c r="C71" s="165"/>
+      <c r="D71" s="165"/>
+      <c r="E71" s="165"/>
+      <c r="F71" s="165"/>
+      <c r="G71" s="165"/>
+      <c r="H71" s="165"/>
     </row>
     <row r="72" spans="1:8" ht="25.2" customHeight="1">
-      <c r="A72" s="163"/>
-      <c r="B72" s="163"/>
-      <c r="C72" s="163"/>
-      <c r="D72" s="163"/>
-      <c r="E72" s="163"/>
-      <c r="F72" s="163"/>
-      <c r="G72" s="163"/>
-      <c r="H72" s="163"/>
+      <c r="A72" s="165"/>
+      <c r="B72" s="165"/>
+      <c r="C72" s="165"/>
+      <c r="D72" s="165"/>
+      <c r="E72" s="165"/>
+      <c r="F72" s="165"/>
+      <c r="G72" s="165"/>
+      <c r="H72" s="165"/>
     </row>
     <row r="73" spans="1:8" ht="25.2" customHeight="1">
-      <c r="A73" s="163"/>
-      <c r="B73" s="163"/>
-      <c r="C73" s="163"/>
-      <c r="D73" s="163"/>
-      <c r="E73" s="163"/>
-      <c r="F73" s="163"/>
-      <c r="G73" s="163"/>
-      <c r="H73" s="163"/>
+      <c r="A73" s="165"/>
+      <c r="B73" s="165"/>
+      <c r="C73" s="165"/>
+      <c r="D73" s="165"/>
+      <c r="E73" s="165"/>
+      <c r="F73" s="165"/>
+      <c r="G73" s="165"/>
+      <c r="H73" s="165"/>
     </row>
     <row r="74" spans="1:8" ht="24.6" customHeight="1">
-      <c r="A74" s="163"/>
-      <c r="B74" s="163"/>
-      <c r="C74" s="163"/>
-      <c r="D74" s="163"/>
-      <c r="E74" s="163"/>
-      <c r="F74" s="163"/>
-      <c r="G74" s="163"/>
-      <c r="H74" s="163"/>
+      <c r="A74" s="165"/>
+      <c r="B74" s="165"/>
+      <c r="C74" s="165"/>
+      <c r="D74" s="165"/>
+      <c r="E74" s="165"/>
+      <c r="F74" s="165"/>
+      <c r="G74" s="165"/>
+      <c r="H74" s="165"/>
     </row>
     <row r="75" spans="1:8" ht="25.2" customHeight="1" thickBot="1">
-      <c r="A75" s="163"/>
-      <c r="B75" s="163"/>
-      <c r="C75" s="163"/>
-      <c r="D75" s="163"/>
-      <c r="E75" s="163"/>
-      <c r="F75" s="163"/>
-      <c r="G75" s="163"/>
-      <c r="H75" s="163"/>
+      <c r="A75" s="165"/>
+      <c r="B75" s="165"/>
+      <c r="C75" s="165"/>
+      <c r="D75" s="165"/>
+      <c r="E75" s="165"/>
+      <c r="F75" s="165"/>
+      <c r="G75" s="165"/>
+      <c r="H75" s="165"/>
     </row>
     <row r="76" spans="1:8" ht="55.2" customHeight="1" thickBot="1">
       <c r="A76" s="3"/>
@@ -33019,74 +33016,74 @@
       <c r="H102" s="43"/>
     </row>
     <row r="103" spans="1:8" ht="24.6" customHeight="1">
-      <c r="A103" s="163"/>
-      <c r="B103" s="163"/>
-      <c r="C103" s="163"/>
-      <c r="D103" s="163"/>
-      <c r="E103" s="163"/>
-      <c r="F103" s="163"/>
-      <c r="G103" s="163"/>
-      <c r="H103" s="163"/>
+      <c r="A103" s="165"/>
+      <c r="B103" s="165"/>
+      <c r="C103" s="165"/>
+      <c r="D103" s="165"/>
+      <c r="E103" s="165"/>
+      <c r="F103" s="165"/>
+      <c r="G103" s="165"/>
+      <c r="H103" s="165"/>
     </row>
     <row r="104" spans="1:8" ht="25.2" customHeight="1">
-      <c r="A104" s="163"/>
-      <c r="B104" s="163"/>
-      <c r="C104" s="163"/>
-      <c r="D104" s="163"/>
-      <c r="E104" s="163"/>
-      <c r="F104" s="163"/>
-      <c r="G104" s="163"/>
-      <c r="H104" s="163"/>
+      <c r="A104" s="165"/>
+      <c r="B104" s="165"/>
+      <c r="C104" s="165"/>
+      <c r="D104" s="165"/>
+      <c r="E104" s="165"/>
+      <c r="F104" s="165"/>
+      <c r="G104" s="165"/>
+      <c r="H104" s="165"/>
     </row>
     <row r="105" spans="1:8" ht="25.2" customHeight="1">
-      <c r="A105" s="163"/>
-      <c r="B105" s="163"/>
-      <c r="C105" s="163"/>
-      <c r="D105" s="163"/>
-      <c r="E105" s="163"/>
-      <c r="F105" s="163"/>
-      <c r="G105" s="163"/>
-      <c r="H105" s="163"/>
+      <c r="A105" s="165"/>
+      <c r="B105" s="165"/>
+      <c r="C105" s="165"/>
+      <c r="D105" s="165"/>
+      <c r="E105" s="165"/>
+      <c r="F105" s="165"/>
+      <c r="G105" s="165"/>
+      <c r="H105" s="165"/>
     </row>
     <row r="106" spans="1:8" ht="25.2" customHeight="1">
-      <c r="A106" s="163"/>
-      <c r="B106" s="163"/>
-      <c r="C106" s="163"/>
-      <c r="D106" s="163"/>
-      <c r="E106" s="163"/>
-      <c r="F106" s="163"/>
-      <c r="G106" s="163"/>
-      <c r="H106" s="163"/>
+      <c r="A106" s="165"/>
+      <c r="B106" s="165"/>
+      <c r="C106" s="165"/>
+      <c r="D106" s="165"/>
+      <c r="E106" s="165"/>
+      <c r="F106" s="165"/>
+      <c r="G106" s="165"/>
+      <c r="H106" s="165"/>
     </row>
     <row r="107" spans="1:8" ht="25.2" customHeight="1">
-      <c r="A107" s="163"/>
-      <c r="B107" s="163"/>
-      <c r="C107" s="163"/>
-      <c r="D107" s="163"/>
-      <c r="E107" s="163"/>
-      <c r="F107" s="163"/>
-      <c r="G107" s="163"/>
-      <c r="H107" s="163"/>
+      <c r="A107" s="165"/>
+      <c r="B107" s="165"/>
+      <c r="C107" s="165"/>
+      <c r="D107" s="165"/>
+      <c r="E107" s="165"/>
+      <c r="F107" s="165"/>
+      <c r="G107" s="165"/>
+      <c r="H107" s="165"/>
     </row>
     <row r="108" spans="1:8" ht="24.6" customHeight="1">
-      <c r="A108" s="163"/>
-      <c r="B108" s="163"/>
-      <c r="C108" s="163"/>
-      <c r="D108" s="163"/>
-      <c r="E108" s="163"/>
-      <c r="F108" s="163"/>
-      <c r="G108" s="163"/>
-      <c r="H108" s="163"/>
+      <c r="A108" s="165"/>
+      <c r="B108" s="165"/>
+      <c r="C108" s="165"/>
+      <c r="D108" s="165"/>
+      <c r="E108" s="165"/>
+      <c r="F108" s="165"/>
+      <c r="G108" s="165"/>
+      <c r="H108" s="165"/>
     </row>
     <row r="109" spans="1:8" ht="25.2" customHeight="1" thickBot="1">
-      <c r="A109" s="163"/>
-      <c r="B109" s="163"/>
-      <c r="C109" s="163"/>
-      <c r="D109" s="163"/>
-      <c r="E109" s="163"/>
-      <c r="F109" s="163"/>
-      <c r="G109" s="163"/>
-      <c r="H109" s="163"/>
+      <c r="A109" s="165"/>
+      <c r="B109" s="165"/>
+      <c r="C109" s="165"/>
+      <c r="D109" s="165"/>
+      <c r="E109" s="165"/>
+      <c r="F109" s="165"/>
+      <c r="G109" s="165"/>
+      <c r="H109" s="165"/>
     </row>
     <row r="110" spans="1:8" ht="55.2" customHeight="1" thickBot="1">
       <c r="A110" s="3"/>
@@ -33440,74 +33437,74 @@
       <c r="H136" s="43"/>
     </row>
     <row r="137" spans="1:8" ht="24.6" customHeight="1">
-      <c r="A137" s="163"/>
-      <c r="B137" s="163"/>
-      <c r="C137" s="163"/>
-      <c r="D137" s="163"/>
-      <c r="E137" s="163"/>
-      <c r="F137" s="163"/>
-      <c r="G137" s="163"/>
-      <c r="H137" s="163"/>
+      <c r="A137" s="165"/>
+      <c r="B137" s="165"/>
+      <c r="C137" s="165"/>
+      <c r="D137" s="165"/>
+      <c r="E137" s="165"/>
+      <c r="F137" s="165"/>
+      <c r="G137" s="165"/>
+      <c r="H137" s="165"/>
     </row>
     <row r="138" spans="1:8" ht="25.2" customHeight="1">
-      <c r="A138" s="163"/>
-      <c r="B138" s="163"/>
-      <c r="C138" s="163"/>
-      <c r="D138" s="163"/>
-      <c r="E138" s="163"/>
-      <c r="F138" s="163"/>
-      <c r="G138" s="163"/>
-      <c r="H138" s="163"/>
+      <c r="A138" s="165"/>
+      <c r="B138" s="165"/>
+      <c r="C138" s="165"/>
+      <c r="D138" s="165"/>
+      <c r="E138" s="165"/>
+      <c r="F138" s="165"/>
+      <c r="G138" s="165"/>
+      <c r="H138" s="165"/>
     </row>
     <row r="139" spans="1:8" ht="25.2" customHeight="1">
-      <c r="A139" s="163"/>
-      <c r="B139" s="163"/>
-      <c r="C139" s="163"/>
-      <c r="D139" s="163"/>
-      <c r="E139" s="163"/>
-      <c r="F139" s="163"/>
-      <c r="G139" s="163"/>
-      <c r="H139" s="163"/>
+      <c r="A139" s="165"/>
+      <c r="B139" s="165"/>
+      <c r="C139" s="165"/>
+      <c r="D139" s="165"/>
+      <c r="E139" s="165"/>
+      <c r="F139" s="165"/>
+      <c r="G139" s="165"/>
+      <c r="H139" s="165"/>
     </row>
     <row r="140" spans="1:8" ht="25.2" customHeight="1">
-      <c r="A140" s="163"/>
-      <c r="B140" s="163"/>
-      <c r="C140" s="163"/>
-      <c r="D140" s="163"/>
-      <c r="E140" s="163"/>
-      <c r="F140" s="163"/>
-      <c r="G140" s="163"/>
-      <c r="H140" s="163"/>
+      <c r="A140" s="165"/>
+      <c r="B140" s="165"/>
+      <c r="C140" s="165"/>
+      <c r="D140" s="165"/>
+      <c r="E140" s="165"/>
+      <c r="F140" s="165"/>
+      <c r="G140" s="165"/>
+      <c r="H140" s="165"/>
     </row>
     <row r="141" spans="1:8" ht="25.2" customHeight="1">
-      <c r="A141" s="163"/>
-      <c r="B141" s="163"/>
-      <c r="C141" s="163"/>
-      <c r="D141" s="163"/>
-      <c r="E141" s="163"/>
-      <c r="F141" s="163"/>
-      <c r="G141" s="163"/>
-      <c r="H141" s="163"/>
+      <c r="A141" s="165"/>
+      <c r="B141" s="165"/>
+      <c r="C141" s="165"/>
+      <c r="D141" s="165"/>
+      <c r="E141" s="165"/>
+      <c r="F141" s="165"/>
+      <c r="G141" s="165"/>
+      <c r="H141" s="165"/>
     </row>
     <row r="142" spans="1:8" ht="24.6" customHeight="1">
-      <c r="A142" s="163"/>
-      <c r="B142" s="163"/>
-      <c r="C142" s="163"/>
-      <c r="D142" s="163"/>
-      <c r="E142" s="163"/>
-      <c r="F142" s="163"/>
-      <c r="G142" s="163"/>
-      <c r="H142" s="163"/>
+      <c r="A142" s="165"/>
+      <c r="B142" s="165"/>
+      <c r="C142" s="165"/>
+      <c r="D142" s="165"/>
+      <c r="E142" s="165"/>
+      <c r="F142" s="165"/>
+      <c r="G142" s="165"/>
+      <c r="H142" s="165"/>
     </row>
     <row r="143" spans="1:8" ht="25.2" customHeight="1" thickBot="1">
-      <c r="A143" s="163"/>
-      <c r="B143" s="163"/>
-      <c r="C143" s="163"/>
-      <c r="D143" s="163"/>
-      <c r="E143" s="163"/>
-      <c r="F143" s="163"/>
-      <c r="G143" s="163"/>
-      <c r="H143" s="163"/>
+      <c r="A143" s="165"/>
+      <c r="B143" s="165"/>
+      <c r="C143" s="165"/>
+      <c r="D143" s="165"/>
+      <c r="E143" s="165"/>
+      <c r="F143" s="165"/>
+      <c r="G143" s="165"/>
+      <c r="H143" s="165"/>
     </row>
     <row r="144" spans="1:8" ht="55.2" customHeight="1" thickBot="1">
       <c r="A144" s="3"/>
@@ -34088,12 +34085,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B144:C144"/>
-    <mergeCell ref="D144:H144"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="D76:H76"/>
-    <mergeCell ref="B110:C110"/>
-    <mergeCell ref="D110:H110"/>
     <mergeCell ref="A1:H7"/>
     <mergeCell ref="A35:H41"/>
     <mergeCell ref="A69:H75"/>
@@ -34103,6 +34094,12 @@
     <mergeCell ref="D8:H8"/>
     <mergeCell ref="B42:C42"/>
     <mergeCell ref="D42:H42"/>
+    <mergeCell ref="B144:C144"/>
+    <mergeCell ref="D144:H144"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="D76:H76"/>
+    <mergeCell ref="B110:C110"/>
+    <mergeCell ref="D110:H110"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -34151,137 +34148,137 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="25.2" customHeight="1">
-      <c r="A1" s="163"/>
-      <c r="B1" s="163"/>
-      <c r="C1" s="163"/>
-      <c r="D1" s="163"/>
-      <c r="E1" s="163"/>
-      <c r="F1" s="163"/>
-      <c r="G1" s="163"/>
-      <c r="H1" s="163"/>
-      <c r="I1" s="163"/>
-      <c r="J1" s="163"/>
-      <c r="K1" s="163"/>
-      <c r="L1" s="163"/>
-      <c r="M1" s="163"/>
-      <c r="N1" s="163"/>
-      <c r="O1" s="163"/>
-      <c r="P1" s="163"/>
-      <c r="Q1" s="163"/>
+      <c r="A1" s="165"/>
+      <c r="B1" s="165"/>
+      <c r="C1" s="165"/>
+      <c r="D1" s="165"/>
+      <c r="E1" s="165"/>
+      <c r="F1" s="165"/>
+      <c r="G1" s="165"/>
+      <c r="H1" s="165"/>
+      <c r="I1" s="165"/>
+      <c r="J1" s="165"/>
+      <c r="K1" s="165"/>
+      <c r="L1" s="165"/>
+      <c r="M1" s="165"/>
+      <c r="N1" s="165"/>
+      <c r="O1" s="165"/>
+      <c r="P1" s="165"/>
+      <c r="Q1" s="165"/>
     </row>
     <row r="2" spans="1:28" ht="25.2" customHeight="1">
-      <c r="A2" s="163"/>
-      <c r="B2" s="163"/>
-      <c r="C2" s="163"/>
-      <c r="D2" s="163"/>
-      <c r="E2" s="163"/>
-      <c r="F2" s="163"/>
-      <c r="G2" s="163"/>
-      <c r="H2" s="163"/>
-      <c r="I2" s="163"/>
-      <c r="J2" s="163"/>
-      <c r="K2" s="163"/>
-      <c r="L2" s="163"/>
-      <c r="M2" s="163"/>
-      <c r="N2" s="163"/>
-      <c r="O2" s="163"/>
-      <c r="P2" s="163"/>
-      <c r="Q2" s="163"/>
+      <c r="A2" s="165"/>
+      <c r="B2" s="165"/>
+      <c r="C2" s="165"/>
+      <c r="D2" s="165"/>
+      <c r="E2" s="165"/>
+      <c r="F2" s="165"/>
+      <c r="G2" s="165"/>
+      <c r="H2" s="165"/>
+      <c r="I2" s="165"/>
+      <c r="J2" s="165"/>
+      <c r="K2" s="165"/>
+      <c r="L2" s="165"/>
+      <c r="M2" s="165"/>
+      <c r="N2" s="165"/>
+      <c r="O2" s="165"/>
+      <c r="P2" s="165"/>
+      <c r="Q2" s="165"/>
     </row>
     <row r="3" spans="1:28" ht="25.2" customHeight="1">
-      <c r="A3" s="163"/>
-      <c r="B3" s="163"/>
-      <c r="C3" s="163"/>
-      <c r="D3" s="163"/>
-      <c r="E3" s="163"/>
-      <c r="F3" s="163"/>
-      <c r="G3" s="163"/>
-      <c r="H3" s="163"/>
-      <c r="I3" s="163"/>
-      <c r="J3" s="163"/>
-      <c r="K3" s="163"/>
-      <c r="L3" s="163"/>
-      <c r="M3" s="163"/>
-      <c r="N3" s="163"/>
-      <c r="O3" s="163"/>
-      <c r="P3" s="163"/>
-      <c r="Q3" s="163"/>
+      <c r="A3" s="165"/>
+      <c r="B3" s="165"/>
+      <c r="C3" s="165"/>
+      <c r="D3" s="165"/>
+      <c r="E3" s="165"/>
+      <c r="F3" s="165"/>
+      <c r="G3" s="165"/>
+      <c r="H3" s="165"/>
+      <c r="I3" s="165"/>
+      <c r="J3" s="165"/>
+      <c r="K3" s="165"/>
+      <c r="L3" s="165"/>
+      <c r="M3" s="165"/>
+      <c r="N3" s="165"/>
+      <c r="O3" s="165"/>
+      <c r="P3" s="165"/>
+      <c r="Q3" s="165"/>
     </row>
     <row r="4" spans="1:28" ht="25.2" customHeight="1">
-      <c r="A4" s="163"/>
-      <c r="B4" s="163"/>
-      <c r="C4" s="163"/>
-      <c r="D4" s="163"/>
-      <c r="E4" s="163"/>
-      <c r="F4" s="163"/>
-      <c r="G4" s="163"/>
-      <c r="H4" s="163"/>
-      <c r="I4" s="163"/>
-      <c r="J4" s="163"/>
-      <c r="K4" s="163"/>
-      <c r="L4" s="163"/>
-      <c r="M4" s="163"/>
-      <c r="N4" s="163"/>
-      <c r="O4" s="163"/>
-      <c r="P4" s="163"/>
-      <c r="Q4" s="163"/>
+      <c r="A4" s="165"/>
+      <c r="B4" s="165"/>
+      <c r="C4" s="165"/>
+      <c r="D4" s="165"/>
+      <c r="E4" s="165"/>
+      <c r="F4" s="165"/>
+      <c r="G4" s="165"/>
+      <c r="H4" s="165"/>
+      <c r="I4" s="165"/>
+      <c r="J4" s="165"/>
+      <c r="K4" s="165"/>
+      <c r="L4" s="165"/>
+      <c r="M4" s="165"/>
+      <c r="N4" s="165"/>
+      <c r="O4" s="165"/>
+      <c r="P4" s="165"/>
+      <c r="Q4" s="165"/>
     </row>
     <row r="5" spans="1:28" ht="25.2" customHeight="1">
-      <c r="A5" s="163"/>
-      <c r="B5" s="163"/>
-      <c r="C5" s="163"/>
-      <c r="D5" s="163"/>
-      <c r="E5" s="163"/>
-      <c r="F5" s="163"/>
-      <c r="G5" s="163"/>
-      <c r="H5" s="163"/>
-      <c r="I5" s="163"/>
-      <c r="J5" s="163"/>
-      <c r="K5" s="163"/>
-      <c r="L5" s="163"/>
-      <c r="M5" s="163"/>
-      <c r="N5" s="163"/>
-      <c r="O5" s="163"/>
-      <c r="P5" s="163"/>
-      <c r="Q5" s="163"/>
+      <c r="A5" s="165"/>
+      <c r="B5" s="165"/>
+      <c r="C5" s="165"/>
+      <c r="D5" s="165"/>
+      <c r="E5" s="165"/>
+      <c r="F5" s="165"/>
+      <c r="G5" s="165"/>
+      <c r="H5" s="165"/>
+      <c r="I5" s="165"/>
+      <c r="J5" s="165"/>
+      <c r="K5" s="165"/>
+      <c r="L5" s="165"/>
+      <c r="M5" s="165"/>
+      <c r="N5" s="165"/>
+      <c r="O5" s="165"/>
+      <c r="P5" s="165"/>
+      <c r="Q5" s="165"/>
     </row>
     <row r="6" spans="1:28" ht="25.2" customHeight="1">
-      <c r="A6" s="163"/>
-      <c r="B6" s="163"/>
-      <c r="C6" s="163"/>
-      <c r="D6" s="163"/>
-      <c r="E6" s="163"/>
-      <c r="F6" s="163"/>
-      <c r="G6" s="163"/>
-      <c r="H6" s="163"/>
-      <c r="I6" s="163"/>
-      <c r="J6" s="163"/>
-      <c r="K6" s="163"/>
-      <c r="L6" s="163"/>
-      <c r="M6" s="163"/>
-      <c r="N6" s="163"/>
-      <c r="O6" s="163"/>
-      <c r="P6" s="163"/>
-      <c r="Q6" s="163"/>
+      <c r="A6" s="165"/>
+      <c r="B6" s="165"/>
+      <c r="C6" s="165"/>
+      <c r="D6" s="165"/>
+      <c r="E6" s="165"/>
+      <c r="F6" s="165"/>
+      <c r="G6" s="165"/>
+      <c r="H6" s="165"/>
+      <c r="I6" s="165"/>
+      <c r="J6" s="165"/>
+      <c r="K6" s="165"/>
+      <c r="L6" s="165"/>
+      <c r="M6" s="165"/>
+      <c r="N6" s="165"/>
+      <c r="O6" s="165"/>
+      <c r="P6" s="165"/>
+      <c r="Q6" s="165"/>
     </row>
     <row r="7" spans="1:28" ht="25.2" customHeight="1" thickBot="1">
-      <c r="A7" s="163"/>
-      <c r="B7" s="163"/>
-      <c r="C7" s="163"/>
-      <c r="D7" s="163"/>
-      <c r="E7" s="163"/>
-      <c r="F7" s="163"/>
-      <c r="G7" s="163"/>
-      <c r="H7" s="163"/>
-      <c r="I7" s="163"/>
-      <c r="J7" s="163"/>
-      <c r="K7" s="163"/>
-      <c r="L7" s="163"/>
-      <c r="M7" s="163"/>
-      <c r="N7" s="163"/>
-      <c r="O7" s="163"/>
-      <c r="P7" s="163"/>
-      <c r="Q7" s="163"/>
+      <c r="A7" s="165"/>
+      <c r="B7" s="165"/>
+      <c r="C7" s="165"/>
+      <c r="D7" s="165"/>
+      <c r="E7" s="165"/>
+      <c r="F7" s="165"/>
+      <c r="G7" s="165"/>
+      <c r="H7" s="165"/>
+      <c r="I7" s="165"/>
+      <c r="J7" s="165"/>
+      <c r="K7" s="165"/>
+      <c r="L7" s="165"/>
+      <c r="M7" s="165"/>
+      <c r="N7" s="165"/>
+      <c r="O7" s="165"/>
+      <c r="P7" s="165"/>
+      <c r="Q7" s="165"/>
     </row>
     <row r="8" spans="1:28" s="77" customFormat="1" ht="45" customHeight="1" thickBot="1">
       <c r="A8" s="75" t="s">
@@ -34312,23 +34309,23 @@
       <c r="X8" s="141"/>
     </row>
     <row r="9" spans="1:28" ht="45" customHeight="1" thickBot="1">
-      <c r="A9" s="163"/>
-      <c r="B9" s="163"/>
-      <c r="C9" s="163"/>
-      <c r="D9" s="163"/>
-      <c r="E9" s="163"/>
-      <c r="F9" s="163"/>
-      <c r="G9" s="163"/>
-      <c r="H9" s="163"/>
-      <c r="I9" s="163"/>
-      <c r="J9" s="163"/>
-      <c r="K9" s="163"/>
-      <c r="L9" s="163"/>
-      <c r="M9" s="163"/>
-      <c r="N9" s="163"/>
-      <c r="O9" s="163"/>
-      <c r="P9" s="163"/>
-      <c r="Q9" s="163"/>
+      <c r="A9" s="165"/>
+      <c r="B9" s="165"/>
+      <c r="C9" s="165"/>
+      <c r="D9" s="165"/>
+      <c r="E9" s="165"/>
+      <c r="F9" s="165"/>
+      <c r="G9" s="165"/>
+      <c r="H9" s="165"/>
+      <c r="I9" s="165"/>
+      <c r="J9" s="165"/>
+      <c r="K9" s="165"/>
+      <c r="L9" s="165"/>
+      <c r="M9" s="165"/>
+      <c r="N9" s="165"/>
+      <c r="O9" s="165"/>
+      <c r="P9" s="165"/>
+      <c r="Q9" s="165"/>
     </row>
     <row r="10" spans="1:28" s="74" customFormat="1" ht="45" customHeight="1">
       <c r="A10" s="251" t="s">
@@ -35457,17 +35454,17 @@
       <c r="C1" s="277"/>
     </row>
     <row r="2" spans="1:3" ht="64.95" customHeight="1" thickBot="1">
-      <c r="A2" s="264" t="s">
+      <c r="A2" s="281" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="265"/>
-      <c r="C2" s="266"/>
+      <c r="B2" s="282"/>
+      <c r="C2" s="283"/>
     </row>
     <row r="3" spans="1:3" ht="49.95" customHeight="1">
       <c r="A3" s="272" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="269" t="s">
+      <c r="B3" s="278" t="s">
         <v>67</v>
       </c>
       <c r="C3" s="58" t="s">
@@ -35476,21 +35473,21 @@
     </row>
     <row r="4" spans="1:3" ht="49.95" customHeight="1">
       <c r="A4" s="273"/>
-      <c r="B4" s="271"/>
+      <c r="B4" s="279"/>
       <c r="C4" s="59" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="49.95" customHeight="1" thickBot="1">
       <c r="A5" s="273"/>
-      <c r="B5" s="270"/>
+      <c r="B5" s="280"/>
       <c r="C5" s="103" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="49.95" customHeight="1">
       <c r="A6" s="273"/>
-      <c r="B6" s="269" t="s">
+      <c r="B6" s="278" t="s">
         <v>71</v>
       </c>
       <c r="C6" s="58" t="s">
@@ -35499,21 +35496,21 @@
     </row>
     <row r="7" spans="1:3" ht="49.95" customHeight="1">
       <c r="A7" s="273"/>
-      <c r="B7" s="271"/>
+      <c r="B7" s="279"/>
       <c r="C7" s="59" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="49.95" customHeight="1" thickBot="1">
       <c r="A8" s="274"/>
-      <c r="B8" s="270"/>
+      <c r="B8" s="280"/>
       <c r="C8" s="61" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="49.95" customHeight="1">
       <c r="A9" s="274"/>
-      <c r="B9" s="271" t="s">
+      <c r="B9" s="279" t="s">
         <v>75</v>
       </c>
       <c r="C9" s="59" t="s">
@@ -35521,8 +35518,8 @@
       </c>
     </row>
     <row r="10" spans="1:3" ht="49.95" customHeight="1" thickBot="1">
-      <c r="A10" s="275"/>
-      <c r="B10" s="270"/>
+      <c r="A10" s="276"/>
+      <c r="B10" s="280"/>
       <c r="C10" s="61" t="s">
         <v>77</v>
       </c>
@@ -35531,7 +35528,7 @@
       <c r="A11" s="273" t="s">
         <v>78</v>
       </c>
-      <c r="B11" s="269" t="s">
+      <c r="B11" s="278" t="s">
         <v>67</v>
       </c>
       <c r="C11" s="58" t="s">
@@ -35540,21 +35537,21 @@
     </row>
     <row r="12" spans="1:3" ht="49.95" customHeight="1">
       <c r="A12" s="273"/>
-      <c r="B12" s="271"/>
+      <c r="B12" s="279"/>
       <c r="C12" s="59" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="49.95" customHeight="1" thickBot="1">
       <c r="A13" s="273"/>
-      <c r="B13" s="270"/>
+      <c r="B13" s="280"/>
       <c r="C13" s="60" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="49.95" customHeight="1">
       <c r="A14" s="273"/>
-      <c r="B14" s="269" t="s">
+      <c r="B14" s="278" t="s">
         <v>80</v>
       </c>
       <c r="C14" s="58" t="s">
@@ -35563,14 +35560,14 @@
     </row>
     <row r="15" spans="1:3" ht="49.95" customHeight="1">
       <c r="A15" s="273"/>
-      <c r="B15" s="271"/>
+      <c r="B15" s="279"/>
       <c r="C15" s="59" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="49.95" customHeight="1" thickBot="1">
       <c r="A16" s="274"/>
-      <c r="B16" s="270" t="s">
+      <c r="B16" s="280" t="s">
         <v>80</v>
       </c>
       <c r="C16" s="61" t="s">
@@ -35587,7 +35584,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" ht="49.95" customHeight="1" thickBot="1">
-      <c r="A18" s="276"/>
+      <c r="A18" s="275"/>
       <c r="B18" s="54" t="s">
         <v>75</v>
       </c>
@@ -35596,10 +35593,10 @@
       </c>
     </row>
     <row r="19" spans="1:3" ht="49.95" customHeight="1">
-      <c r="A19" s="267" t="s">
+      <c r="A19" s="268" t="s">
         <v>84</v>
       </c>
-      <c r="B19" s="269" t="s">
+      <c r="B19" s="278" t="s">
         <v>85</v>
       </c>
       <c r="C19" s="58" t="s">
@@ -35607,8 +35604,8 @@
       </c>
     </row>
     <row r="20" spans="1:3" ht="49.95" customHeight="1" thickBot="1">
-      <c r="A20" s="268"/>
-      <c r="B20" s="270"/>
+      <c r="A20" s="270"/>
+      <c r="B20" s="280"/>
       <c r="C20" s="60" t="s">
         <v>87</v>
       </c>
@@ -35636,7 +35633,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" ht="49.95" customHeight="1" thickBot="1">
-      <c r="A23" s="275"/>
+      <c r="A23" s="276"/>
       <c r="B23" s="57" t="s">
         <v>93</v>
       </c>
@@ -35645,17 +35642,17 @@
       </c>
     </row>
     <row r="24" spans="1:3" s="102" customFormat="1" ht="64.95" customHeight="1" thickBot="1">
-      <c r="A24" s="264" t="s">
+      <c r="A24" s="281" t="s">
         <v>95</v>
       </c>
-      <c r="B24" s="265"/>
-      <c r="C24" s="266"/>
+      <c r="B24" s="282"/>
+      <c r="C24" s="283"/>
     </row>
     <row r="25" spans="1:3" ht="49.95" customHeight="1">
-      <c r="A25" s="278" t="s">
+      <c r="A25" s="264" t="s">
         <v>96</v>
       </c>
-      <c r="B25" s="280" t="s">
+      <c r="B25" s="266" t="s">
         <v>85</v>
       </c>
       <c r="C25" s="58" t="s">
@@ -35663,8 +35660,8 @@
       </c>
     </row>
     <row r="26" spans="1:3" ht="49.95" customHeight="1" thickBot="1">
-      <c r="A26" s="279"/>
-      <c r="B26" s="281"/>
+      <c r="A26" s="265"/>
+      <c r="B26" s="267"/>
       <c r="C26" s="71" t="s">
         <v>89</v>
       </c>
@@ -35682,7 +35679,7 @@
     </row>
     <row r="28" spans="1:3" ht="49.95" customHeight="1">
       <c r="A28" s="273"/>
-      <c r="B28" s="280" t="s">
+      <c r="B28" s="266" t="s">
         <v>100</v>
       </c>
       <c r="C28" s="70" t="s">
@@ -35691,21 +35688,21 @@
     </row>
     <row r="29" spans="1:3" ht="49.95" customHeight="1">
       <c r="A29" s="273"/>
-      <c r="B29" s="283"/>
+      <c r="B29" s="271"/>
       <c r="C29" s="101" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="49.95" customHeight="1" thickBot="1">
       <c r="A30" s="274"/>
-      <c r="B30" s="281"/>
+      <c r="B30" s="267"/>
       <c r="C30" s="71" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="49.95" customHeight="1">
-      <c r="A31" s="276"/>
-      <c r="B31" s="280" t="s">
+      <c r="A31" s="275"/>
+      <c r="B31" s="266" t="s">
         <v>104</v>
       </c>
       <c r="C31" s="70" t="s">
@@ -35713,15 +35710,15 @@
       </c>
     </row>
     <row r="32" spans="1:3" ht="49.95" customHeight="1">
-      <c r="A32" s="276"/>
-      <c r="B32" s="283"/>
+      <c r="A32" s="275"/>
+      <c r="B32" s="271"/>
       <c r="C32" s="101" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="49.95" customHeight="1" thickBot="1">
-      <c r="A33" s="275"/>
-      <c r="B33" s="281"/>
+      <c r="A33" s="276"/>
+      <c r="B33" s="267"/>
       <c r="C33" s="71" t="s">
         <v>107</v>
       </c>
@@ -35738,8 +35735,8 @@
       </c>
     </row>
     <row r="35" spans="1:3" ht="49.95" customHeight="1">
-      <c r="A35" s="282"/>
-      <c r="B35" s="280" t="s">
+      <c r="A35" s="269"/>
+      <c r="B35" s="266" t="s">
         <v>85</v>
       </c>
       <c r="C35" s="70" t="s">
@@ -35747,17 +35744,17 @@
       </c>
     </row>
     <row r="36" spans="1:3" ht="49.95" customHeight="1" thickBot="1">
-      <c r="A36" s="275"/>
-      <c r="B36" s="281"/>
+      <c r="A36" s="276"/>
+      <c r="B36" s="267"/>
       <c r="C36" s="71" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="49.95" customHeight="1">
-      <c r="A37" s="267" t="s">
+      <c r="A37" s="268" t="s">
         <v>110</v>
       </c>
-      <c r="B37" s="280" t="s">
+      <c r="B37" s="266" t="s">
         <v>93</v>
       </c>
       <c r="C37" s="70" t="s">
@@ -35765,15 +35762,15 @@
       </c>
     </row>
     <row r="38" spans="1:3" ht="49.95" customHeight="1" thickBot="1">
-      <c r="A38" s="282"/>
-      <c r="B38" s="281"/>
+      <c r="A38" s="269"/>
+      <c r="B38" s="267"/>
       <c r="C38" s="71" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="49.95" customHeight="1">
-      <c r="A39" s="282"/>
-      <c r="B39" s="280" t="s">
+      <c r="A39" s="269"/>
+      <c r="B39" s="266" t="s">
         <v>85</v>
       </c>
       <c r="C39" s="70" t="s">
@@ -35781,15 +35778,15 @@
       </c>
     </row>
     <row r="40" spans="1:3" ht="49.95" customHeight="1">
-      <c r="A40" s="282"/>
-      <c r="B40" s="283"/>
+      <c r="A40" s="269"/>
+      <c r="B40" s="271"/>
       <c r="C40" s="101" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="49.95" customHeight="1" thickBot="1">
-      <c r="A41" s="268"/>
-      <c r="B41" s="281"/>
+      <c r="A41" s="270"/>
+      <c r="B41" s="267"/>
       <c r="C41" s="71" t="s">
         <v>115</v>
       </c>
@@ -35807,6 +35804,19 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:A10"/>
+    <mergeCell ref="A11:A18"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B11:B13"/>
     <mergeCell ref="A25:A26"/>
     <mergeCell ref="B25:B26"/>
     <mergeCell ref="A37:A41"/>
@@ -35817,19 +35827,6 @@
     <mergeCell ref="B31:B33"/>
     <mergeCell ref="B28:B30"/>
     <mergeCell ref="B35:B36"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:A10"/>
-    <mergeCell ref="A11:A18"/>
-    <mergeCell ref="A22:A23"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="8" scale="51" orientation="portrait" r:id="rId1"/>
@@ -35920,24 +35917,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8e6fe642-caf1-4ef1-ad11-e14ce45e87ce">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="86e4e4b2-4fc5-452c-89e1-8c93931c495c" xsi:nil="true"/>
-    <SharedWithUsers xmlns="86e4e4b2-4fc5-452c-89e1-8c93931c495c">
-      <UserInfo>
-        <DisplayName>Bovy Laura (142)</DisplayName>
-        <AccountId>75</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006673AC431987FE4185CAD404CA5AE74A" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2f556ad2abcb557431d10f2a0a3cf3ce">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8e6fe642-caf1-4ef1-ad11-e14ce45e87ce" xmlns:ns3="86e4e4b2-4fc5-452c-89e1-8c93931c495c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b7f2f51f36cd392740b3e0022adfb54e" ns2:_="" ns3:_="">
     <xsd:import namespace="8e6fe642-caf1-4ef1-ad11-e14ce45e87ce"/>
@@ -36180,6 +36159,24 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8e6fe642-caf1-4ef1-ad11-e14ce45e87ce">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="86e4e4b2-4fc5-452c-89e1-8c93931c495c" xsi:nil="true"/>
+    <SharedWithUsers xmlns="86e4e4b2-4fc5-452c-89e1-8c93931c495c">
+      <UserInfo>
+        <DisplayName>Bovy Laura (142)</DisplayName>
+        <AccountId>75</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -36190,17 +36187,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{42203054-B3A2-465B-862F-9F0934F7E665}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="8e6fe642-caf1-4ef1-ad11-e14ce45e87ce"/>
-    <ds:schemaRef ds:uri="86e4e4b2-4fc5-452c-89e1-8c93931c495c"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C96A4411-A89D-4094-9D9A-321A379B8A7E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -36219,6 +36205,17 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{42203054-B3A2-465B-862F-9F0934F7E665}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="8e6fe642-caf1-4ef1-ad11-e14ce45e87ce"/>
+    <ds:schemaRef ds:uri="86e4e4b2-4fc5-452c-89e1-8c93931c495c"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{88197E8E-D39A-4F6E-A0D0-F4A47BF89B57}">
   <ds:schemaRefs>
